--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547B936F-26A5-4D83-A0E9-4DDA35AD0429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771BF398-B167-40B5-908D-186BE996B939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="156">
   <si>
     <t>ФИО</t>
   </si>
@@ -854,21 +854,6 @@
     <t>Сбербанк</t>
   </si>
   <si>
-    <t>Солнышкина Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>МТС</t>
-  </si>
-  <si>
-    <t>Т-Банк</t>
-  </si>
-  <si>
-    <t>Теле2</t>
-  </si>
-  <si>
-    <t>Токарев Максим Евгеньевич</t>
-  </si>
-  <si>
     <r>
       <t>1. Позвонить на номер - 88002500890 (общий номер МТС)</t>
     </r>
@@ -1460,6 +1445,15 @@
 4. Зафиксировать время ответа</t>
     </r>
   </si>
+  <si>
+    <t>Алатырев Константин Максимович</t>
+  </si>
+  <si>
+    <t>Ахунов Амир Александрович</t>
+  </si>
+  <si>
+    <t>Белякова Маргарита Сергеевна</t>
+  </si>
 </sst>
 </file>
 
@@ -1610,7 +1604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1653,7 +1647,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1877,8 +1870,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1915,71 +1908,73 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="178.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="17"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="A3" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="6"/>
@@ -4094,7 +4089,7 @@
       <c r="G92" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H92" s="13"/>
+      <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
@@ -4118,7 +4113,7 @@
       <c r="G93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H93" s="13"/>
+      <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
@@ -4142,7 +4137,7 @@
       <c r="G94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="13"/>
+      <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
@@ -4166,7 +4161,7 @@
       <c r="G95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H95" s="13"/>
+      <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
@@ -4190,7 +4185,7 @@
       <c r="G96" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H96" s="13"/>
+      <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
@@ -4214,7 +4209,7 @@
       <c r="G97" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H97" s="13"/>
+      <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
@@ -4238,7 +4233,7 @@
       <c r="G98" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H98" s="13"/>
+      <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
@@ -9584,7 +9579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA4894C-0235-49C5-9813-3592288DDEBD}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -9711,34 +9706,34 @@
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771BF398-B167-40B5-908D-186BE996B939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7C402A-0174-472B-AB80-77B4A71383C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="158">
   <si>
     <t>ФИО</t>
   </si>
@@ -1454,6 +1454,12 @@
   <si>
     <t>Белякова Маргарита Сергеевна</t>
   </si>
+  <si>
+    <t>Токарев Максим Евгеньевич</t>
+  </si>
+  <si>
+    <t>МТС</t>
+  </si>
 </sst>
 </file>
 
@@ -1870,8 +1876,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H98"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4236,23 +4242,51 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
+      <c r="A99" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H99" s="13"/>
     </row>
     <row r="100" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
+      <c r="A100" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7C402A-0174-472B-AB80-77B4A71383C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D1CFEF-3B16-4988-A19C-914C55C1A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -855,36 +855,6 @@
   </si>
   <si>
     <r>
-      <t>1. Позвонить на номер - 88002500890 (общий номер МТС)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> строго с номера &lt;Номер Телефона для МТС&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
-3. Обариться голосом по Сценарию (если во время обращения появится запрос на выбор, в какой МТС вы обращаетесь - выберите вариант "Для Бизнеса")
-&lt;golos&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>1. Позвонить на номер -</t>
     </r>
     <r>
@@ -1460,6 +1430,37 @@
   <si>
     <t>МТС</t>
   </si>
+  <si>
+    <r>
+      <t>1. Позвонить на номер - 88002500890 (общий номер МТС) строго с номера &lt;Номер Телефона для МТС&gt;
+Для голосового бота МТС просим вас совершать звонки в период с 09:00 по 21:00 по МСК</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
+3. Обариться голосом по Сценарию (если во время обращения появится запрос на выбор, в какой МТС вы обращаетесь - выберите вариант "Для Бизнеса")
+&lt;golos&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1876,8 +1877,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1915,7 +1916,7 @@
     </row>
     <row r="2" spans="1:8" ht="178.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>142</v>
@@ -1939,7 +1940,7 @@
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>142</v>
@@ -1963,7 +1964,7 @@
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>142</v>
@@ -4243,7 +4244,7 @@
     </row>
     <row r="99" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>142</v>
@@ -4267,10 +4268,10 @@
     </row>
     <row r="100" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>11</v>
@@ -4287,7 +4288,9 @@
       <c r="G100" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="13"/>
+      <c r="H100" s="13">
+        <v>24363463454</v>
+      </c>
     </row>
     <row r="101" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
@@ -9614,7 +9617,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9740,34 +9743,34 @@
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D1CFEF-3B16-4988-A19C-914C55C1A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CA3191-2B71-4F53-8960-E09619AED69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="229">
   <si>
     <t>ФИО</t>
   </si>
@@ -1461,6 +1461,219 @@
 &lt;golos&gt;</t>
     </r>
   </si>
+  <si>
+    <t>Т-Банк</t>
+  </si>
+  <si>
+    <t>Болотникова Анастасия Михайловна</t>
+  </si>
+  <si>
+    <t>Дудко Даниил Игоревич</t>
+  </si>
+  <si>
+    <t>Лазарева Анна Константиновна</t>
+  </si>
+  <si>
+    <t>Панайотиди Алексей Николаевич</t>
+  </si>
+  <si>
+    <t>Яруллин Ильдус Илюсевич</t>
+  </si>
+  <si>
+    <t>Галикеева Алсу Ильгизаровна</t>
+  </si>
+  <si>
+    <t>Гранкина Инна Алексеевна</t>
+  </si>
+  <si>
+    <t>Заградский Денис Александрович</t>
+  </si>
+  <si>
+    <t>Зеленская Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>Карагезьян Артур Каренович</t>
+  </si>
+  <si>
+    <t>Лийбер Кадри Меэлисовна</t>
+  </si>
+  <si>
+    <t>Аликов Руслан Юрьевич</t>
+  </si>
+  <si>
+    <t>Буторин Сергей Владимирович</t>
+  </si>
+  <si>
+    <t>Волосов Юрий Алексеевич</t>
+  </si>
+  <si>
+    <t>Вотяков Владислав Анатольевич</t>
+  </si>
+  <si>
+    <t>Гордеев Вячеслав Валериевич</t>
+  </si>
+  <si>
+    <t>Левина Ольга Николаевна</t>
+  </si>
+  <si>
+    <t>Митраков Дмитрий Владиславович</t>
+  </si>
+  <si>
+    <t>Сафиуллина Альбина Ильдусовна</t>
+  </si>
+  <si>
+    <t>Адамов Баха Шавкатович</t>
+  </si>
+  <si>
+    <t>Колодкина Александра Андреевна</t>
+  </si>
+  <si>
+    <t>Орешин Андрей Михайлович</t>
+  </si>
+  <si>
+    <t>Савченко Илья Михайлович</t>
+  </si>
+  <si>
+    <t>Фомин Дмитрий Кириллович</t>
+  </si>
+  <si>
+    <t>Алехин Александр Александрович</t>
+  </si>
+  <si>
+    <t>Кревских Кирилл Алексеевич</t>
+  </si>
+  <si>
+    <t>Хаманин Александр Владимирович</t>
+  </si>
+  <si>
+    <t>Цокиев Аслан Идрисович</t>
+  </si>
+  <si>
+    <t>Морозов Михаил Сергеевич</t>
+  </si>
+  <si>
+    <t>Ансимова Маргарита Игоревна</t>
+  </si>
+  <si>
+    <t>Мегафон</t>
+  </si>
+  <si>
+    <t>Нестерова Надежда Александровна</t>
+  </si>
+  <si>
+    <t>Новикова Татьяна Валерьевна</t>
+  </si>
+  <si>
+    <t>Оразгелдиева Огулнур</t>
+  </si>
+  <si>
+    <t>Сахарцев Александр Георгиевич</t>
+  </si>
+  <si>
+    <t>Ткачук Олеся Андреевна</t>
+  </si>
+  <si>
+    <t>Трофимова Анастасия Сергеевна</t>
+  </si>
+  <si>
+    <t>Шуть Роман Евгеньевич</t>
+  </si>
+  <si>
+    <t>Жихарева Ирина Викторовна</t>
+  </si>
+  <si>
+    <t>Зелик Мария Сергеевна</t>
+  </si>
+  <si>
+    <t>Малышева Анна Алексеевна</t>
+  </si>
+  <si>
+    <t>Смирнов Александр Николаевич</t>
+  </si>
+  <si>
+    <t>Сорокин Николай Александрович</t>
+  </si>
+  <si>
+    <t>Тепляков Роман Борисович</t>
+  </si>
+  <si>
+    <t>Филатов Александр Михайлович</t>
+  </si>
+  <si>
+    <t>Цаплин Денис Сергеевич</t>
+  </si>
+  <si>
+    <t>Афанасьева Анна Николаевна</t>
+  </si>
+  <si>
+    <t>Быстрова Ирина Николаевна</t>
+  </si>
+  <si>
+    <t>Жердев Артем Евгеньевич</t>
+  </si>
+  <si>
+    <t>Кондауров Владимир Иванович</t>
+  </si>
+  <si>
+    <t>Львов Александр Анатольевич</t>
+  </si>
+  <si>
+    <t>Одинцов Дмитрий Георгиевич</t>
+  </si>
+  <si>
+    <t>Пермяков Сергей Александрович</t>
+  </si>
+  <si>
+    <t>Тетюев Алексей Сергеевич</t>
+  </si>
+  <si>
+    <t>Шиверских Виктор Станиславович</t>
+  </si>
+  <si>
+    <t>Ястржембская Лариса Ивановна</t>
+  </si>
+  <si>
+    <t>Анисимова Ангелина Георгиевна</t>
+  </si>
+  <si>
+    <t>Волкова Вероника Игоревна</t>
+  </si>
+  <si>
+    <t>Кулешова Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>Мельничук Илья Владимирович</t>
+  </si>
+  <si>
+    <t>Фоминых Егор Олегович</t>
+  </si>
+  <si>
+    <t>Бирюкова Анна Андреевна</t>
+  </si>
+  <si>
+    <t>Демьянович Николай Олегович</t>
+  </si>
+  <si>
+    <t>Екимовский Дмитрий Викторович</t>
+  </si>
+  <si>
+    <t>Ларина Дарья Геннадьевна</t>
+  </si>
+  <si>
+    <t>Лигачева Дарья Михайловна</t>
+  </si>
+  <si>
+    <t>Медяков Денис Алексеевич</t>
+  </si>
+  <si>
+    <t>Томашева Кокшурн Юлия</t>
+  </si>
+  <si>
+    <t>Цылева Лариса Анатольевна</t>
+  </si>
+  <si>
+    <t>Шумакова Юлия Юрьевна</t>
+  </si>
 </sst>
 </file>
 
@@ -1877,8 +2090,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4293,1803 +4506,4323 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
+      <c r="A101" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H101" s="13"/>
     </row>
-    <row r="102" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
+    <row r="102" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H102" s="13"/>
     </row>
     <row r="103" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
+      <c r="A103" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H103" s="13"/>
     </row>
     <row r="104" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="A104" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
+      <c r="A105" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H105" s="13"/>
     </row>
     <row r="106" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
+      <c r="A106" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
+      <c r="A107" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
+      <c r="A108" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
+      <c r="A109" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H109" s="13"/>
     </row>
     <row r="110" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
+      <c r="A110" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
+      <c r="A111" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H111" s="13"/>
     </row>
     <row r="112" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
+      <c r="A112" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
+      <c r="A113" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H113" s="13"/>
     </row>
-    <row r="114" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
+    <row r="114" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H114" s="13"/>
     </row>
     <row r="115" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
+      <c r="A115" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
+      <c r="A116" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H116" s="13"/>
     </row>
     <row r="117" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
+      <c r="A117" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H117" s="13"/>
     </row>
     <row r="118" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
+      <c r="A118" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H118" s="13"/>
     </row>
     <row r="119" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
+      <c r="A119" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
+      <c r="A120" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H120" s="13"/>
     </row>
     <row r="121" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
+      <c r="A121" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H121" s="13"/>
     </row>
     <row r="122" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
+      <c r="A122" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H122" s="13"/>
     </row>
     <row r="123" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
+      <c r="A123" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H123" s="13"/>
     </row>
     <row r="124" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
+      <c r="A124" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
+      <c r="A125" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H125" s="13"/>
     </row>
     <row r="126" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
+      <c r="A126" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
+      <c r="A127" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
+      <c r="A128" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
+      <c r="A129" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
+      <c r="A130" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H130" s="13"/>
     </row>
     <row r="131" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
+      <c r="A131" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H131" s="13"/>
     </row>
     <row r="132" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
+      <c r="A132" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
+      <c r="A133" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H133" s="13"/>
     </row>
     <row r="134" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
+      <c r="A134" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H134" s="13"/>
     </row>
     <row r="135" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
+      <c r="A135" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
+      <c r="A136" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
+      <c r="A137" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
+      <c r="A138" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
+      <c r="A139" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H139" s="13"/>
     </row>
     <row r="140" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
+      <c r="A140" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
+      <c r="A141" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
+      <c r="A142" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
+      <c r="A143" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
+      <c r="A144" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
+      <c r="A145" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
+      <c r="A146" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H146" s="13"/>
     </row>
     <row r="147" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
+      <c r="A147" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H147" s="13"/>
     </row>
     <row r="148" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
+      <c r="A148" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H148" s="13"/>
     </row>
-    <row r="149" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
+    <row r="149" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H149" s="13"/>
     </row>
     <row r="150" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
+      <c r="A150" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H150" s="13"/>
     </row>
     <row r="151" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
+      <c r="A151" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H151" s="13"/>
     </row>
     <row r="152" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
+      <c r="A152" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H152" s="13"/>
     </row>
     <row r="153" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
+      <c r="A153" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H153" s="13"/>
     </row>
     <row r="154" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
+      <c r="A154" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H154" s="13"/>
     </row>
     <row r="155" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
+      <c r="A155" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H155" s="13"/>
     </row>
     <row r="156" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
+      <c r="A156" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H156" s="13"/>
     </row>
     <row r="157" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
+      <c r="A157" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H157" s="13"/>
     </row>
     <row r="158" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
+      <c r="A158" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H158" s="13"/>
     </row>
     <row r="159" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
+      <c r="A159" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H159" s="13"/>
     </row>
     <row r="160" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
+      <c r="A160" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H160" s="13"/>
     </row>
     <row r="161" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
+      <c r="A161" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H161" s="13"/>
     </row>
     <row r="162" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
+      <c r="A162" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H162" s="13"/>
     </row>
     <row r="163" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
+      <c r="A163" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H163" s="13"/>
     </row>
     <row r="164" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
+      <c r="A164" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H164" s="13"/>
     </row>
     <row r="165" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
+      <c r="A165" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H165" s="13"/>
     </row>
     <row r="166" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
+      <c r="A166" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H166" s="13"/>
     </row>
     <row r="167" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
+      <c r="A167" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H167" s="13"/>
     </row>
     <row r="168" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
+      <c r="A168" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H168" s="13"/>
     </row>
     <row r="169" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
+      <c r="A169" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H169" s="13"/>
     </row>
     <row r="170" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
+      <c r="A170" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H170" s="13"/>
     </row>
     <row r="171" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
+      <c r="A171" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H171" s="13"/>
     </row>
     <row r="172" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
+      <c r="A172" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H172" s="13"/>
     </row>
     <row r="173" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
+      <c r="A173" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H173" s="13"/>
     </row>
     <row r="174" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
+      <c r="A174" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H174" s="13"/>
     </row>
     <row r="175" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
+      <c r="A175" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H175" s="13"/>
     </row>
     <row r="176" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
+      <c r="A176" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H176" s="13"/>
     </row>
     <row r="177" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
+      <c r="A177" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H177" s="13"/>
     </row>
-    <row r="178" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
+    <row r="178" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H178" s="13"/>
     </row>
     <row r="179" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
+      <c r="A179" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H179" s="13"/>
     </row>
     <row r="180" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
+      <c r="A180" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H180" s="13"/>
     </row>
     <row r="181" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
+      <c r="A181" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H181" s="13"/>
     </row>
     <row r="182" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
+      <c r="A182" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H182" s="13"/>
     </row>
     <row r="183" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
+      <c r="A183" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H183" s="13"/>
     </row>
     <row r="184" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
+      <c r="A184" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H184" s="13"/>
     </row>
     <row r="185" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
+      <c r="A185" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H185" s="13"/>
     </row>
     <row r="186" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
+      <c r="A186" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H186" s="13"/>
     </row>
     <row r="187" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
+      <c r="A187" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H187" s="6"/>
     </row>
     <row r="188" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="6"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
+      <c r="A188" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="6"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
+      <c r="A189" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H189" s="6"/>
     </row>
     <row r="190" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
+      <c r="A190" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H190" s="6"/>
     </row>
     <row r="191" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
+      <c r="A191" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H191" s="6"/>
     </row>
     <row r="192" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
+      <c r="A192" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
+      <c r="A193" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H193" s="6"/>
     </row>
     <row r="194" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="6"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
+      <c r="A194" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H194" s="6"/>
     </row>
     <row r="195" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
+      <c r="A195" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H195" s="6"/>
     </row>
     <row r="196" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
+      <c r="A196" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H196" s="6"/>
     </row>
     <row r="197" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
+      <c r="A197" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H197" s="6"/>
     </row>
     <row r="198" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
+      <c r="A198" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H198" s="6"/>
     </row>
     <row r="199" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
+      <c r="A199" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H199" s="6"/>
     </row>
     <row r="200" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="6"/>
+      <c r="A200" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H200" s="6"/>
     </row>
     <row r="201" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="6"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="6"/>
-      <c r="G201" s="6"/>
+      <c r="A201" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H201" s="6"/>
     </row>
     <row r="202" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
+      <c r="A202" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H202" s="6"/>
     </row>
     <row r="203" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="6"/>
-      <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
-      <c r="F203" s="6"/>
-      <c r="G203" s="6"/>
+      <c r="A203" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H203" s="6"/>
     </row>
     <row r="204" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="6"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
-      <c r="E204" s="6"/>
-      <c r="F204" s="6"/>
-      <c r="G204" s="6"/>
+      <c r="A204" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H204" s="6"/>
     </row>
-    <row r="205" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="6"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="6"/>
+    <row r="205" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H205" s="6"/>
     </row>
     <row r="206" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="6"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6"/>
-      <c r="F206" s="6"/>
-      <c r="G206" s="6"/>
+      <c r="A206" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H206" s="6"/>
     </row>
     <row r="207" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="6"/>
-      <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
-      <c r="F207" s="6"/>
-      <c r="G207" s="6"/>
+      <c r="A207" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H207" s="6"/>
     </row>
     <row r="208" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="6"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
-      <c r="F208" s="6"/>
-      <c r="G208" s="6"/>
+      <c r="A208" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H208" s="6"/>
     </row>
     <row r="209" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="6"/>
-      <c r="B209" s="6"/>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
-      <c r="F209" s="6"/>
-      <c r="G209" s="6"/>
+      <c r="A209" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H209" s="6"/>
     </row>
     <row r="210" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="6"/>
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-      <c r="F210" s="6"/>
-      <c r="G210" s="6"/>
+      <c r="A210" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H210" s="6"/>
     </row>
     <row r="211" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="6"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-      <c r="F211" s="6"/>
-      <c r="G211" s="6"/>
+      <c r="A211" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H211" s="6"/>
     </row>
     <row r="212" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="6"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
-      <c r="F212" s="6"/>
-      <c r="G212" s="6"/>
+      <c r="A212" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H212" s="6"/>
     </row>
     <row r="213" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
-      <c r="F213" s="6"/>
-      <c r="G213" s="6"/>
+      <c r="A213" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H213" s="6"/>
     </row>
     <row r="214" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="6"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
-      <c r="F214" s="6"/>
-      <c r="G214" s="6"/>
+      <c r="A214" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H214" s="6"/>
     </row>
     <row r="215" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
-      <c r="E215" s="6"/>
-      <c r="F215" s="6"/>
-      <c r="G215" s="6"/>
+      <c r="A215" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H215" s="6"/>
     </row>
     <row r="216" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="6"/>
-      <c r="F216" s="6"/>
-      <c r="G216" s="6"/>
+      <c r="A216" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H216" s="6"/>
     </row>
     <row r="217" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="6"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
-      <c r="E217" s="6"/>
-      <c r="F217" s="6"/>
-      <c r="G217" s="6"/>
+      <c r="A217" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H217" s="14"/>
     </row>
     <row r="218" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="6"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
-      <c r="E218" s="6"/>
-      <c r="F218" s="6"/>
-      <c r="G218" s="6"/>
+      <c r="A218" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H218" s="6"/>
     </row>
     <row r="219" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
-      <c r="F219" s="6"/>
-      <c r="G219" s="6"/>
+      <c r="A219" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H219" s="6"/>
     </row>
     <row r="220" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="6"/>
-      <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
-      <c r="F220" s="6"/>
-      <c r="G220" s="6"/>
+      <c r="A220" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H220" s="6"/>
     </row>
     <row r="221" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="6"/>
-      <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6"/>
-      <c r="F221" s="6"/>
-      <c r="G221" s="6"/>
+      <c r="A221" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H221" s="6"/>
     </row>
     <row r="222" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="6"/>
-      <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
-      <c r="F222" s="6"/>
-      <c r="G222" s="6"/>
+      <c r="A222" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H222" s="6"/>
     </row>
     <row r="223" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="6"/>
-      <c r="B223" s="6"/>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
-      <c r="F223" s="6"/>
-      <c r="G223" s="6"/>
+      <c r="A223" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H223" s="6"/>
     </row>
     <row r="224" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="6"/>
-      <c r="B224" s="6"/>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-      <c r="E224" s="6"/>
-      <c r="F224" s="6"/>
-      <c r="G224" s="6"/>
+      <c r="A224" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G224" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H224" s="6"/>
     </row>
     <row r="225" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="6"/>
-      <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
-      <c r="F225" s="6"/>
-      <c r="G225" s="6"/>
+      <c r="A225" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H225" s="6"/>
     </row>
     <row r="226" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="6"/>
-      <c r="B226" s="6"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-      <c r="E226" s="6"/>
-      <c r="F226" s="6"/>
-      <c r="G226" s="6"/>
+      <c r="A226" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H226" s="6"/>
     </row>
     <row r="227" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="6"/>
-      <c r="B227" s="6"/>
-      <c r="C227" s="6"/>
-      <c r="D227" s="6"/>
-      <c r="E227" s="6"/>
-      <c r="F227" s="6"/>
-      <c r="G227" s="6"/>
+      <c r="A227" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H227" s="6"/>
     </row>
     <row r="228" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="6"/>
-      <c r="B228" s="6"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-      <c r="E228" s="6"/>
-      <c r="F228" s="6"/>
-      <c r="G228" s="6"/>
+      <c r="A228" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H228" s="6"/>
     </row>
     <row r="229" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="6"/>
-      <c r="B229" s="6"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-      <c r="E229" s="6"/>
-      <c r="F229" s="6"/>
-      <c r="G229" s="6"/>
+      <c r="A229" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H229" s="6"/>
     </row>
     <row r="230" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="6"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6"/>
-      <c r="F230" s="6"/>
-      <c r="G230" s="6"/>
+      <c r="A230" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H230" s="6"/>
     </row>
     <row r="231" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="6"/>
-      <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
-      <c r="F231" s="6"/>
-      <c r="G231" s="6"/>
+      <c r="A231" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H231" s="6"/>
     </row>
     <row r="232" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="6"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
-      <c r="F232" s="6"/>
-      <c r="G232" s="6"/>
+      <c r="A232" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H232" s="6"/>
     </row>
     <row r="233" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="6"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-      <c r="E233" s="6"/>
-      <c r="F233" s="6"/>
-      <c r="G233" s="6"/>
+      <c r="A233" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H233" s="6"/>
     </row>
     <row r="234" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="6"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
-      <c r="E234" s="6"/>
-      <c r="F234" s="6"/>
-      <c r="G234" s="6"/>
+      <c r="A234" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H234" s="6"/>
     </row>
     <row r="235" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
-      <c r="F235" s="6"/>
-      <c r="G235" s="6"/>
+      <c r="A235" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H235" s="6"/>
     </row>
     <row r="236" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
-      <c r="F236" s="6"/>
-      <c r="G236" s="6"/>
+      <c r="A236" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H236" s="6"/>
     </row>
     <row r="237" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="6"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
-      <c r="F237" s="6"/>
-      <c r="G237" s="6"/>
+      <c r="A237" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H237" s="6"/>
     </row>
     <row r="238" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="6"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="6"/>
-      <c r="G238" s="6"/>
+      <c r="A238" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H238" s="6"/>
     </row>
     <row r="239" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="6"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
-      <c r="F239" s="6"/>
-      <c r="G239" s="6"/>
+      <c r="A239" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H239" s="6"/>
     </row>
     <row r="240" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="6"/>
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
-      <c r="F240" s="6"/>
-      <c r="G240" s="6"/>
+      <c r="A240" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H240" s="6"/>
     </row>
     <row r="241" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="6"/>
-      <c r="B241" s="6"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
-      <c r="F241" s="6"/>
-      <c r="G241" s="6"/>
+      <c r="A241" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H241" s="6"/>
     </row>
     <row r="242" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="6"/>
-      <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
-      <c r="F242" s="6"/>
-      <c r="G242" s="6"/>
+      <c r="A242" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H242" s="6"/>
     </row>
     <row r="243" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="6"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="6"/>
-      <c r="G243" s="6"/>
+      <c r="A243" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H243" s="6"/>
     </row>
     <row r="244" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="6"/>
-      <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="6"/>
-      <c r="G244" s="6"/>
+      <c r="A244" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H244" s="6"/>
     </row>
     <row r="245" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="6"/>
-      <c r="B245" s="6"/>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-      <c r="F245" s="6"/>
-      <c r="G245" s="6"/>
+      <c r="A245" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H245" s="6"/>
     </row>
     <row r="246" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="6"/>
-      <c r="B246" s="6"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="6"/>
-      <c r="G246" s="6"/>
+      <c r="A246" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H246" s="6"/>
     </row>
     <row r="247" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="6"/>
-      <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="6"/>
-      <c r="G247" s="6"/>
+      <c r="A247" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H247" s="6"/>
     </row>
     <row r="248" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="6"/>
-      <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="6"/>
-      <c r="G248" s="6"/>
+      <c r="A248" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G248" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H248" s="6"/>
     </row>
     <row r="249" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="6"/>
-      <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
-      <c r="F249" s="6"/>
-      <c r="G249" s="6"/>
+      <c r="A249" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H249" s="6"/>
     </row>
     <row r="250" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="6"/>
-      <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
-      <c r="F250" s="6"/>
-      <c r="G250" s="6"/>
+      <c r="A250" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H250" s="6"/>
     </row>
     <row r="251" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="6"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
-      <c r="F251" s="6"/>
-      <c r="G251" s="6"/>
+      <c r="A251" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H251" s="6"/>
     </row>
     <row r="252" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="6"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
-      <c r="F252" s="6"/>
-      <c r="G252" s="6"/>
+      <c r="A252" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H252" s="6"/>
     </row>
     <row r="253" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="6"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
-      <c r="F253" s="6"/>
-      <c r="G253" s="6"/>
+      <c r="A253" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H253" s="6"/>
     </row>
     <row r="254" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="6"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6"/>
-      <c r="F254" s="6"/>
-      <c r="G254" s="6"/>
+      <c r="A254" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H254" s="6"/>
     </row>
     <row r="255" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="6"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-      <c r="F255" s="6"/>
-      <c r="G255" s="6"/>
+      <c r="A255" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H255" s="6"/>
     </row>
     <row r="256" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="6"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="6"/>
-      <c r="G256" s="6"/>
+      <c r="A256" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H256" s="6"/>
     </row>
     <row r="257" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="6"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="6"/>
-      <c r="G257" s="6"/>
+      <c r="A257" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H257" s="6"/>
     </row>
     <row r="258" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="6"/>
-      <c r="B258" s="6"/>
-      <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="6"/>
-      <c r="G258" s="6"/>
+      <c r="A258" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H258" s="6"/>
     </row>
     <row r="259" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="6"/>
-      <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
-      <c r="F259" s="6"/>
-      <c r="G259" s="6"/>
+      <c r="A259" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H259" s="6"/>
     </row>
     <row r="260" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="6"/>
-      <c r="B260" s="6"/>
-      <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
-      <c r="F260" s="6"/>
-      <c r="G260" s="6"/>
+      <c r="A260" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H260" s="6"/>
     </row>
     <row r="261" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="6"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="6"/>
-      <c r="G261" s="6"/>
+      <c r="A261" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H261" s="6"/>
     </row>
     <row r="262" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="6"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="6"/>
-      <c r="G262" s="6"/>
+      <c r="A262" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H262" s="6"/>
     </row>
     <row r="263" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="6"/>
-      <c r="B263" s="6"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-      <c r="F263" s="6"/>
-      <c r="G263" s="6"/>
+      <c r="A263" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H263" s="6"/>
     </row>
     <row r="264" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="6"/>
-      <c r="B264" s="6"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6"/>
-      <c r="F264" s="6"/>
-      <c r="G264" s="6"/>
+      <c r="A264" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H264" s="6"/>
     </row>
     <row r="265" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="6"/>
-      <c r="B265" s="6"/>
-      <c r="C265" s="6"/>
-      <c r="D265" s="6"/>
-      <c r="E265" s="6"/>
-      <c r="F265" s="6"/>
-      <c r="G265" s="6"/>
+      <c r="A265" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F265" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H265" s="6"/>
     </row>
     <row r="266" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="6"/>
-      <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6"/>
-      <c r="E266" s="6"/>
-      <c r="F266" s="6"/>
-      <c r="G266" s="6"/>
+      <c r="A266" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H266" s="6"/>
     </row>
     <row r="267" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="6"/>
-      <c r="B267" s="6"/>
-      <c r="C267" s="6"/>
-      <c r="D267" s="6"/>
-      <c r="E267" s="6"/>
-      <c r="F267" s="6"/>
-      <c r="G267" s="6"/>
+      <c r="A267" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F267" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H267" s="6"/>
     </row>
     <row r="268" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="6"/>
-      <c r="B268" s="6"/>
-      <c r="C268" s="6"/>
-      <c r="D268" s="6"/>
-      <c r="E268" s="6"/>
-      <c r="F268" s="6"/>
-      <c r="G268" s="6"/>
+      <c r="A268" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H268" s="6"/>
     </row>
-    <row r="269" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="6"/>
-      <c r="B269" s="6"/>
-      <c r="C269" s="6"/>
-      <c r="D269" s="6"/>
-      <c r="E269" s="6"/>
-      <c r="F269" s="6"/>
-      <c r="G269" s="6"/>
+    <row r="269" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H269" s="6"/>
     </row>
     <row r="270" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="6"/>
-      <c r="B270" s="6"/>
-      <c r="C270" s="6"/>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-      <c r="F270" s="6"/>
-      <c r="G270" s="6"/>
+      <c r="A270" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H270" s="6"/>
     </row>
-    <row r="271" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="6"/>
-      <c r="B271" s="6"/>
-      <c r="C271" s="6"/>
-      <c r="D271" s="6"/>
-      <c r="E271" s="6"/>
-      <c r="F271" s="6"/>
-      <c r="G271" s="6"/>
+    <row r="271" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H271" s="6"/>
     </row>
     <row r="272" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="6"/>
-      <c r="B272" s="6"/>
-      <c r="C272" s="6"/>
-      <c r="D272" s="6"/>
-      <c r="E272" s="6"/>
-      <c r="F272" s="6"/>
-      <c r="G272" s="6"/>
+      <c r="A272" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G272" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H272" s="6"/>
     </row>
     <row r="273" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="6"/>
-      <c r="B273" s="6"/>
-      <c r="C273" s="6"/>
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
-      <c r="F273" s="6"/>
-      <c r="G273" s="6"/>
+      <c r="A273" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H273" s="6"/>
     </row>
     <row r="274" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="6"/>
-      <c r="B274" s="6"/>
-      <c r="C274" s="6"/>
-      <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
-      <c r="F274" s="6"/>
-      <c r="G274" s="6"/>
+      <c r="A274" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H274" s="6"/>
     </row>
     <row r="275" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="6"/>
-      <c r="B275" s="6"/>
-      <c r="C275" s="6"/>
-      <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
-      <c r="F275" s="6"/>
-      <c r="G275" s="6"/>
+      <c r="A275" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H275" s="6"/>
     </row>
     <row r="276" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="6"/>
-      <c r="B276" s="6"/>
-      <c r="C276" s="6"/>
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
-      <c r="F276" s="6"/>
-      <c r="G276" s="6"/>
+      <c r="A276" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G276" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H276" s="6"/>
     </row>
     <row r="277" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="6"/>
-      <c r="B277" s="6"/>
-      <c r="C277" s="6"/>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
-      <c r="F277" s="6"/>
-      <c r="G277" s="6"/>
+      <c r="A277" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F277" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G277" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H277" s="6"/>
     </row>
     <row r="278" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="6"/>
-      <c r="B278" s="6"/>
-      <c r="C278" s="6"/>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-      <c r="F278" s="6"/>
-      <c r="G278" s="6"/>
+      <c r="A278" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G278" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H278" s="6"/>
     </row>
     <row r="279" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="6"/>
-      <c r="B279" s="6"/>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
-      <c r="F279" s="6"/>
-      <c r="G279" s="6"/>
+      <c r="A279" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G279" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H279" s="6"/>
     </row>
     <row r="280" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="6"/>
-      <c r="B280" s="6"/>
-      <c r="C280" s="6"/>
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
-      <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
+      <c r="A280" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G280" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H280" s="6"/>
     </row>
     <row r="281" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD6081-19FF-4C73-86A0-095A2D10464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25624969-A47C-4366-91EB-78FDF5C30EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -849,135 +849,6 @@
   </si>
   <si>
     <r>
-      <t>1. Позвонить на номер -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 900 (общий номер СберБанк)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
-3. Обариться голосом по Сценарию 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;golos&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Позвонить на номер - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0500 (общий номер МегаФон)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
-3. Обариться голосом по Сценарию 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;golos&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Позвонить на номер - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">8 800 333 33 33 (общий номер Т-Банк) Обратите внимание, что голос бота может быть очень реалистичным, но это всё же бот, а не оператор.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
-3. Обариться голосом по Сценарию 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;golos&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1. Открыть приложение </t>
     </r>
     <r>
@@ -1304,37 +1175,6 @@
     <t>МТС</t>
   </si>
   <si>
-    <r>
-      <t>1. Позвонить на номер - 88002500890 (общий номер МТС) строго с номера &lt;Номер Телефона для МТС&gt;
-Для голосового бота МТС просим вас совершать звонки в период с 09:00 по 21:00 по МСК</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
-3. Обариться голосом по Сценарию (если во время обращения появится запрос на выбор, в какой МТС вы обращаетесь - выберите вариант "Для Бизнеса")
-&lt;golos&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>Т-Банк</t>
   </si>
   <si>
@@ -1552,39 +1392,6 @@
   </si>
   <si>
     <t>Билайн Голосового бот</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Позвонить на номер - 8-800-700-0611 (общий номер Билайн)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
-3. Сначала голосовой бот может спросить вас "чтобы сообщить о попытке мошенничества или узнать о том, как обезопасить себя, нажмите 1" - необходимо подождать и ничего не говорить.
-4. Далее бот попросит вас задать вопрос после звукового сигнала - дождитесь сигнала
-5.. Обаритесь голосом к боту по следующему Сценарию 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;golos&gt;</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1979,6 +1786,199 @@
   </si>
   <si>
     <t>Илич Яна Андреевна</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Позвонить на номер - 8-800-700-0611 (общий номер Билайн)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
+3. Сначала голосовой бот может спросить вас "чтобы сообщить о попытке мошенничества или узнать о том, как обезопасить себя, нажмите 1" - необходимо подождать и ничего не говорить.
+4. Далее бот попросит вас задать вопрос после звукового сигнала - дождитесь сигнала
+5. Обратитесь голосом к боту по следующему Сценарию 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;golos&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Позвонить на номер - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8 800 333 33 33 (общий номер Т-Банк) Обратите внимание, что голос бота может быть очень реалистичным, но это всё же бот, а не оператор.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
+3. Обратиться голосом по Сценарию 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;golos&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Позвонить на номер - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0500 (общий номер МегаФон)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
+3. Обратиться голосом по Сценарию 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;golos&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Позвонить на номер -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 900 (общий номер СберБанк)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
+3. Обратиться голосом по Сценарию 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;golos&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Позвонить на номер - 88002500890 (общий номер МТС) строго с номера &lt;Номер Телефона для МТС&gt;
+Для голосового бота МТС просим вас совершать звонки в период с 09:00 по 21:00 по МСК</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
+3. Обратиться голосом по Сценарию (если во время обращения появится запрос на выбор, в какой МТС вы обращаетесь - выберите вариант "Для Бизнеса")
+&lt;golos&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2428,7 +2428,7 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A462" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A345" sqref="A345:G479"/>
     </sheetView>
   </sheetViews>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="2" spans="1:8" ht="178.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>140</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>140</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>140</v>
@@ -4795,10 +4795,10 @@
     </row>
     <row r="99" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>11</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="100" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>11</v>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="101" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>6</v>
@@ -4869,10 +4869,10 @@
     </row>
     <row r="102" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>6</v>
@@ -4896,7 +4896,7 @@
         <v>83</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>6</v>
@@ -4920,7 +4920,7 @@
         <v>46</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>6</v>
@@ -4941,10 +4941,10 @@
     </row>
     <row r="105" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>6</v>
@@ -4968,7 +4968,7 @@
         <v>47</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>6</v>
@@ -4992,7 +4992,7 @@
         <v>48</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>6</v>
@@ -5016,7 +5016,7 @@
         <v>85</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>6</v>
@@ -5037,10 +5037,10 @@
     </row>
     <row r="109" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>6</v>
@@ -5064,7 +5064,7 @@
         <v>86</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>6</v>
@@ -5088,7 +5088,7 @@
         <v>49</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>6</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="112" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>6</v>
@@ -5136,7 +5136,7 @@
         <v>89</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>6</v>
@@ -5160,7 +5160,7 @@
         <v>50</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>6</v>
@@ -5184,7 +5184,7 @@
         <v>90</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>6</v>
@@ -5208,7 +5208,7 @@
         <v>51</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>6</v>
@@ -5229,10 +5229,10 @@
     </row>
     <row r="117" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>6</v>
@@ -5256,7 +5256,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>6</v>
@@ -5277,10 +5277,10 @@
     </row>
     <row r="119" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>6</v>
@@ -5301,10 +5301,10 @@
     </row>
     <row r="120" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>6</v>
@@ -5328,7 +5328,7 @@
         <v>52</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>6</v>
@@ -5349,10 +5349,10 @@
     </row>
     <row r="122" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>6</v>
@@ -5373,10 +5373,10 @@
     </row>
     <row r="123" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>6</v>
@@ -5397,10 +5397,10 @@
     </row>
     <row r="124" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>6</v>
@@ -5424,7 +5424,7 @@
         <v>92</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>6</v>
@@ -5448,7 +5448,7 @@
         <v>54</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>6</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="127" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>6</v>
@@ -5496,7 +5496,7 @@
         <v>120</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>6</v>
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>6</v>
@@ -5544,7 +5544,7 @@
         <v>121</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>6</v>
@@ -5568,7 +5568,7 @@
         <v>56</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>6</v>
@@ -5592,7 +5592,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>6</v>
@@ -5616,7 +5616,7 @@
         <v>57</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>6</v>
@@ -5640,7 +5640,7 @@
         <v>58</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>6</v>
@@ -5664,7 +5664,7 @@
         <v>59</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>6</v>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="136" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>6</v>
@@ -5709,10 +5709,10 @@
     </row>
     <row r="137" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>6</v>
@@ -5733,10 +5733,10 @@
     </row>
     <row r="138" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>6</v>
@@ -5757,10 +5757,10 @@
     </row>
     <row r="139" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>6</v>
@@ -5781,10 +5781,10 @@
     </row>
     <row r="140" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>6</v>
@@ -5808,7 +5808,7 @@
         <v>123</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>6</v>
@@ -5832,7 +5832,7 @@
         <v>126</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>6</v>
@@ -5856,7 +5856,7 @@
         <v>98</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>6</v>
@@ -5877,10 +5877,10 @@
     </row>
     <row r="144" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>6</v>
@@ -5901,10 +5901,10 @@
     </row>
     <row r="145" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>6</v>
@@ -5925,10 +5925,10 @@
     </row>
     <row r="146" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>6</v>
@@ -5952,7 +5952,7 @@
         <v>129</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>6</v>
@@ -5976,7 +5976,7 @@
         <v>99</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>6</v>
@@ -6000,7 +6000,7 @@
         <v>100</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>6</v>
@@ -6024,7 +6024,7 @@
         <v>60</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>6</v>
@@ -6045,10 +6045,10 @@
     </row>
     <row r="151" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>11</v>
@@ -6072,7 +6072,7 @@
         <v>61</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>11</v>
@@ -6096,7 +6096,7 @@
         <v>62</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>11</v>
@@ -6120,7 +6120,7 @@
         <v>63</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>11</v>
@@ -6144,7 +6144,7 @@
         <v>103</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>11</v>
@@ -6165,10 +6165,10 @@
     </row>
     <row r="156" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>11</v>
@@ -6192,7 +6192,7 @@
         <v>64</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>11</v>
@@ -6216,7 +6216,7 @@
         <v>65</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>11</v>
@@ -6237,10 +6237,10 @@
     </row>
     <row r="159" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>11</v>
@@ -6264,7 +6264,7 @@
         <v>66</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>11</v>
@@ -6288,7 +6288,7 @@
         <v>105</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>11</v>
@@ -6309,10 +6309,10 @@
     </row>
     <row r="162" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>11</v>
@@ -6336,7 +6336,7 @@
         <v>67</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>11</v>
@@ -6360,7 +6360,7 @@
         <v>69</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>11</v>
@@ -6384,7 +6384,7 @@
         <v>70</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>11</v>
@@ -6405,10 +6405,10 @@
     </row>
     <row r="166" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>11</v>
@@ -6432,7 +6432,7 @@
         <v>71</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>11</v>
@@ -6453,10 +6453,10 @@
     </row>
     <row r="168" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>11</v>
@@ -6480,7 +6480,7 @@
         <v>133</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>11</v>
@@ -6504,7 +6504,7 @@
         <v>106</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>11</v>
@@ -6528,7 +6528,7 @@
         <v>134</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>11</v>
@@ -6552,7 +6552,7 @@
         <v>108</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>11</v>
@@ -6576,7 +6576,7 @@
         <v>73</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>11</v>
@@ -6600,7 +6600,7 @@
         <v>74</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>11</v>
@@ -6621,10 +6621,10 @@
     </row>
     <row r="175" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>11</v>
@@ -6648,7 +6648,7 @@
         <v>109</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>11</v>
@@ -6672,7 +6672,7 @@
         <v>76</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>11</v>
@@ -6696,7 +6696,7 @@
         <v>77</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>11</v>
@@ -6720,7 +6720,7 @@
         <v>110</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>11</v>
@@ -6744,7 +6744,7 @@
         <v>78</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>11</v>
@@ -6765,10 +6765,10 @@
     </row>
     <row r="181" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>11</v>
@@ -6792,7 +6792,7 @@
         <v>136</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>11</v>
@@ -6813,10 +6813,10 @@
     </row>
     <row r="183" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>11</v>
@@ -6840,7 +6840,7 @@
         <v>111</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>11</v>
@@ -6864,7 +6864,7 @@
         <v>79</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>11</v>
@@ -6888,7 +6888,7 @@
         <v>80</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>11</v>
@@ -6912,7 +6912,7 @@
         <v>81</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>11</v>
@@ -6936,7 +6936,7 @@
         <v>112</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>11</v>
@@ -6960,7 +6960,7 @@
         <v>137</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>11</v>
@@ -6984,7 +6984,7 @@
         <v>82</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>11</v>
@@ -7008,7 +7008,7 @@
         <v>114</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>11</v>
@@ -7029,10 +7029,10 @@
     </row>
     <row r="192" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>11</v>
@@ -7056,7 +7056,7 @@
         <v>115</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>11</v>
@@ -7080,7 +7080,7 @@
         <v>116</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>11</v>
@@ -7101,10 +7101,10 @@
     </row>
     <row r="195" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>6</v>
@@ -7128,7 +7128,7 @@
         <v>46</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>6</v>
@@ -7149,10 +7149,10 @@
     </row>
     <row r="197" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>6</v>
@@ -7176,7 +7176,7 @@
         <v>47</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>6</v>
@@ -7200,7 +7200,7 @@
         <v>48</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>6</v>
@@ -7221,10 +7221,10 @@
     </row>
     <row r="200" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>6</v>
@@ -7245,10 +7245,10 @@
     </row>
     <row r="201" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>6</v>
@@ -7272,7 +7272,7 @@
         <v>49</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>6</v>
@@ -7293,10 +7293,10 @@
     </row>
     <row r="203" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>6</v>
@@ -7317,10 +7317,10 @@
     </row>
     <row r="204" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>6</v>
@@ -7344,7 +7344,7 @@
         <v>50</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>6</v>
@@ -7365,10 +7365,10 @@
     </row>
     <row r="206" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>6</v>
@@ -7389,10 +7389,10 @@
     </row>
     <row r="207" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>6</v>
@@ -7416,7 +7416,7 @@
         <v>51</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>6</v>
@@ -7437,10 +7437,10 @@
     </row>
     <row r="209" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>6</v>
@@ -7461,10 +7461,10 @@
     </row>
     <row r="210" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>6</v>
@@ -7485,10 +7485,10 @@
     </row>
     <row r="211" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>6</v>
@@ -7512,7 +7512,7 @@
         <v>52</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>6</v>
@@ -7536,7 +7536,7 @@
         <v>53</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>6</v>
@@ -7557,10 +7557,10 @@
     </row>
     <row r="214" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>6</v>
@@ -7581,10 +7581,10 @@
     </row>
     <row r="215" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>6</v>
@@ -7605,10 +7605,10 @@
     </row>
     <row r="216" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>6</v>
@@ -7632,7 +7632,7 @@
         <v>54</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>6</v>
@@ -7653,10 +7653,10 @@
     </row>
     <row r="218" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>6</v>
@@ -7680,7 +7680,7 @@
         <v>55</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>6</v>
@@ -7701,10 +7701,10 @@
     </row>
     <row r="220" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>6</v>
@@ -7725,10 +7725,10 @@
     </row>
     <row r="221" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>6</v>
@@ -7749,10 +7749,10 @@
     </row>
     <row r="222" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>6</v>
@@ -7776,7 +7776,7 @@
         <v>56</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>6</v>
@@ -7797,10 +7797,10 @@
     </row>
     <row r="224" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>6</v>
@@ -7821,10 +7821,10 @@
     </row>
     <row r="225" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>6</v>
@@ -7848,7 +7848,7 @@
         <v>58</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>6</v>
@@ -7872,7 +7872,7 @@
         <v>59</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>6</v>
@@ -7893,10 +7893,10 @@
     </row>
     <row r="228" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>6</v>
@@ -7917,10 +7917,10 @@
     </row>
     <row r="229" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>6</v>
@@ -7941,10 +7941,10 @@
     </row>
     <row r="230" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>6</v>
@@ -7965,10 +7965,10 @@
     </row>
     <row r="231" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>6</v>
@@ -7989,10 +7989,10 @@
     </row>
     <row r="232" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>6</v>
@@ -8013,10 +8013,10 @@
     </row>
     <row r="233" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>6</v>
@@ -8037,10 +8037,10 @@
     </row>
     <row r="234" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>6</v>
@@ -8061,10 +8061,10 @@
     </row>
     <row r="235" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>6</v>
@@ -8085,10 +8085,10 @@
     </row>
     <row r="236" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>6</v>
@@ -8109,10 +8109,10 @@
     </row>
     <row r="237" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>6</v>
@@ -8133,10 +8133,10 @@
     </row>
     <row r="238" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>6</v>
@@ -8157,10 +8157,10 @@
     </row>
     <row r="239" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>6</v>
@@ -8184,7 +8184,7 @@
         <v>60</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>6</v>
@@ -8205,10 +8205,10 @@
     </row>
     <row r="241" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>6</v>
@@ -8229,10 +8229,10 @@
     </row>
     <row r="242" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>6</v>
@@ -8253,10 +8253,10 @@
     </row>
     <row r="243" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>11</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="244" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>11</v>
@@ -8304,7 +8304,7 @@
         <v>61</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>11</v>
@@ -8328,7 +8328,7 @@
         <v>62</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>11</v>
@@ -8352,7 +8352,7 @@
         <v>63</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>11</v>
@@ -8373,10 +8373,10 @@
     </row>
     <row r="248" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>11</v>
@@ -8397,10 +8397,10 @@
     </row>
     <row r="249" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>11</v>
@@ -8424,7 +8424,7 @@
         <v>64</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>11</v>
@@ -8448,7 +8448,7 @@
         <v>65</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>11</v>
@@ -8469,10 +8469,10 @@
     </row>
     <row r="252" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>11</v>
@@ -8496,7 +8496,7 @@
         <v>66</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>11</v>
@@ -8520,7 +8520,7 @@
         <v>67</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>11</v>
@@ -8544,7 +8544,7 @@
         <v>68</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>11</v>
@@ -8568,7 +8568,7 @@
         <v>69</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>11</v>
@@ -8592,7 +8592,7 @@
         <v>70</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>11</v>
@@ -8613,10 +8613,10 @@
     </row>
     <row r="258" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>11</v>
@@ -8640,7 +8640,7 @@
         <v>71</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>11</v>
@@ -8664,7 +8664,7 @@
         <v>72</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>11</v>
@@ -8685,10 +8685,10 @@
     </row>
     <row r="261" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>11</v>
@@ -8709,10 +8709,10 @@
     </row>
     <row r="262" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>11</v>
@@ -8733,10 +8733,10 @@
     </row>
     <row r="263" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>11</v>
@@ -8760,7 +8760,7 @@
         <v>73</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>11</v>
@@ -8784,7 +8784,7 @@
         <v>74</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>11</v>
@@ -8805,10 +8805,10 @@
     </row>
     <row r="266" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>11</v>
@@ -8829,10 +8829,10 @@
     </row>
     <row r="267" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>11</v>
@@ -8853,10 +8853,10 @@
     </row>
     <row r="268" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>11</v>
@@ -8880,7 +8880,7 @@
         <v>75</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>11</v>
@@ -8904,7 +8904,7 @@
         <v>76</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>11</v>
@@ -8928,7 +8928,7 @@
         <v>77</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>11</v>
@@ -8952,7 +8952,7 @@
         <v>78</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>11</v>
@@ -8973,10 +8973,10 @@
     </row>
     <row r="273" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>11</v>
@@ -8997,10 +8997,10 @@
     </row>
     <row r="274" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>11</v>
@@ -9021,10 +9021,10 @@
     </row>
     <row r="275" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>11</v>
@@ -9045,10 +9045,10 @@
     </row>
     <row r="276" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>11</v>
@@ -9072,7 +9072,7 @@
         <v>79</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>11</v>
@@ -9096,7 +9096,7 @@
         <v>80</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>11</v>
@@ -9120,7 +9120,7 @@
         <v>81</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>11</v>
@@ -9144,7 +9144,7 @@
         <v>82</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>11</v>
@@ -9165,10 +9165,10 @@
     </row>
     <row r="281" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C281" s="18" t="s">
         <v>6</v>
@@ -9191,10 +9191,10 @@
     </row>
     <row r="282" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B282" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>6</v>
@@ -9220,7 +9220,7 @@
         <v>83</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>6</v>
@@ -9246,7 +9246,7 @@
         <v>85</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>6</v>
@@ -9272,7 +9272,7 @@
         <v>87</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>6</v>
@@ -9295,10 +9295,10 @@
     </row>
     <row r="286" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>6</v>
@@ -9324,7 +9324,7 @@
         <v>88</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>6</v>
@@ -9350,7 +9350,7 @@
         <v>50</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>6</v>
@@ -9376,7 +9376,7 @@
         <v>90</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>6</v>
@@ -9402,7 +9402,7 @@
         <v>91</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>6</v>
@@ -9428,7 +9428,7 @@
         <v>51</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>6</v>
@@ -9451,10 +9451,10 @@
     </row>
     <row r="292" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>6</v>
@@ -9477,10 +9477,10 @@
     </row>
     <row r="293" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>6</v>
@@ -9503,10 +9503,10 @@
     </row>
     <row r="294" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>6</v>
@@ -9529,10 +9529,10 @@
     </row>
     <row r="295" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>6</v>
@@ -9555,10 +9555,10 @@
     </row>
     <row r="296" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>6</v>
@@ -9581,10 +9581,10 @@
     </row>
     <row r="297" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>6</v>
@@ -9610,7 +9610,7 @@
         <v>92</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>6</v>
@@ -9636,7 +9636,7 @@
         <v>54</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>6</v>
@@ -9662,7 +9662,7 @@
         <v>93</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>6</v>
@@ -9688,7 +9688,7 @@
         <v>95</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>6</v>
@@ -9711,10 +9711,10 @@
     </row>
     <row r="302" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>6</v>
@@ -9737,10 +9737,10 @@
     </row>
     <row r="303" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>6</v>
@@ -9766,7 +9766,7 @@
         <v>57</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>6</v>
@@ -9789,10 +9789,10 @@
     </row>
     <row r="305" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>6</v>
@@ -9815,10 +9815,10 @@
     </row>
     <row r="306" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>6</v>
@@ -9841,10 +9841,10 @@
     </row>
     <row r="307" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>6</v>
@@ -9870,7 +9870,7 @@
         <v>97</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>6</v>
@@ -9893,10 +9893,10 @@
     </row>
     <row r="309" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>6</v>
@@ -9919,10 +9919,10 @@
     </row>
     <row r="310" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>6</v>
@@ -9945,10 +9945,10 @@
     </row>
     <row r="311" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>6</v>
@@ -9974,7 +9974,7 @@
         <v>98</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>6</v>
@@ -9997,10 +9997,10 @@
     </row>
     <row r="313" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>6</v>
@@ -10023,10 +10023,10 @@
     </row>
     <row r="314" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>6</v>
@@ -10049,10 +10049,10 @@
     </row>
     <row r="315" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>6</v>
@@ -10078,7 +10078,7 @@
         <v>99</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>6</v>
@@ -10104,7 +10104,7 @@
         <v>100</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>6</v>
@@ -10127,10 +10127,10 @@
     </row>
     <row r="318" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>6</v>
@@ -10156,7 +10156,7 @@
         <v>101</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>11</v>
@@ -10182,7 +10182,7 @@
         <v>102</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>11</v>
@@ -10208,7 +10208,7 @@
         <v>103</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>11</v>
@@ -10231,10 +10231,10 @@
     </row>
     <row r="322" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>11</v>
@@ -10257,10 +10257,10 @@
     </row>
     <row r="323" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>11</v>
@@ -10286,7 +10286,7 @@
         <v>65</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>11</v>
@@ -10312,7 +10312,7 @@
         <v>104</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>11</v>
@@ -10335,10 +10335,10 @@
     </row>
     <row r="326" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>11</v>
@@ -10361,10 +10361,10 @@
     </row>
     <row r="327" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>11</v>
@@ -10387,10 +10387,10 @@
     </row>
     <row r="328" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>11</v>
@@ -10416,7 +10416,7 @@
         <v>105</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>11</v>
@@ -10439,10 +10439,10 @@
     </row>
     <row r="330" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>11</v>
@@ -10465,10 +10465,10 @@
     </row>
     <row r="331" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>11</v>
@@ -10494,7 +10494,7 @@
         <v>67</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>11</v>
@@ -10520,7 +10520,7 @@
         <v>106</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>11</v>
@@ -10543,10 +10543,10 @@
     </row>
     <row r="334" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>11</v>
@@ -10569,10 +10569,10 @@
     </row>
     <row r="335" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>11</v>
@@ -10595,10 +10595,10 @@
     </row>
     <row r="336" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>11</v>
@@ -10621,10 +10621,10 @@
     </row>
     <row r="337" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>11</v>
@@ -10650,7 +10650,7 @@
         <v>111</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>11</v>
@@ -10676,7 +10676,7 @@
         <v>112</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>11</v>
@@ -10699,10 +10699,10 @@
     </row>
     <row r="340" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>11</v>
@@ -10728,7 +10728,7 @@
         <v>113</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>11</v>
@@ -10754,7 +10754,7 @@
         <v>114</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>11</v>
@@ -10777,10 +10777,10 @@
     </row>
     <row r="343" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A343" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>11</v>
@@ -10806,7 +10806,7 @@
         <v>116</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>11</v>
@@ -10829,10 +10829,10 @@
     </row>
     <row r="345" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B345" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>6</v>
@@ -10853,10 +10853,10 @@
     </row>
     <row r="346" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B346" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>6</v>
@@ -10877,10 +10877,10 @@
     </row>
     <row r="347" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B347" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>6</v>
@@ -10901,10 +10901,10 @@
     </row>
     <row r="348" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B348" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>6</v>
@@ -10925,10 +10925,10 @@
     </row>
     <row r="349" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B349" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>6</v>
@@ -10949,10 +10949,10 @@
     </row>
     <row r="350" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B350" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>6</v>
@@ -10973,10 +10973,10 @@
     </row>
     <row r="351" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B351" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>6</v>
@@ -10997,10 +10997,10 @@
     </row>
     <row r="352" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B352" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>6</v>
@@ -11024,7 +11024,7 @@
         <v>48</v>
       </c>
       <c r="B353" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>6</v>
@@ -11045,10 +11045,10 @@
     </row>
     <row r="354" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B354" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>6</v>
@@ -11069,10 +11069,10 @@
     </row>
     <row r="355" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B355" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>6</v>
@@ -11093,10 +11093,10 @@
     </row>
     <row r="356" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B356" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>6</v>
@@ -11117,10 +11117,10 @@
     </row>
     <row r="357" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B357" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>6</v>
@@ -11141,10 +11141,10 @@
     </row>
     <row r="358" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B358" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>6</v>
@@ -11165,10 +11165,10 @@
     </row>
     <row r="359" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B359" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>6</v>
@@ -11189,10 +11189,10 @@
     </row>
     <row r="360" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B360" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>6</v>
@@ -11213,10 +11213,10 @@
     </row>
     <row r="361" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B361" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>6</v>
@@ -11237,10 +11237,10 @@
     </row>
     <row r="362" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B362" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>6</v>
@@ -11261,10 +11261,10 @@
     </row>
     <row r="363" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B363" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>6</v>
@@ -11285,10 +11285,10 @@
     </row>
     <row r="364" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B364" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>6</v>
@@ -11309,10 +11309,10 @@
     </row>
     <row r="365" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B365" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>6</v>
@@ -11333,10 +11333,10 @@
     </row>
     <row r="366" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B366" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>6</v>
@@ -11357,10 +11357,10 @@
     </row>
     <row r="367" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B367" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>6</v>
@@ -11381,10 +11381,10 @@
     </row>
     <row r="368" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B368" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>6</v>
@@ -11405,10 +11405,10 @@
     </row>
     <row r="369" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B369" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>6</v>
@@ -11429,10 +11429,10 @@
     </row>
     <row r="370" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B370" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>6</v>
@@ -11453,10 +11453,10 @@
     </row>
     <row r="371" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B371" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>6</v>
@@ -11477,10 +11477,10 @@
     </row>
     <row r="372" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B372" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>6</v>
@@ -11501,10 +11501,10 @@
     </row>
     <row r="373" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B373" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>6</v>
@@ -11525,10 +11525,10 @@
     </row>
     <row r="374" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B374" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>6</v>
@@ -11549,10 +11549,10 @@
     </row>
     <row r="375" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B375" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>6</v>
@@ -11573,10 +11573,10 @@
     </row>
     <row r="376" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B376" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>6</v>
@@ -11597,10 +11597,10 @@
     </row>
     <row r="377" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B377" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>6</v>
@@ -11621,10 +11621,10 @@
     </row>
     <row r="378" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A378" s="14" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B378" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>6</v>
@@ -11645,10 +11645,10 @@
     </row>
     <row r="379" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B379" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>6</v>
@@ -11669,10 +11669,10 @@
     </row>
     <row r="380" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B380" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>6</v>
@@ -11693,10 +11693,10 @@
     </row>
     <row r="381" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B381" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>6</v>
@@ -11717,10 +11717,10 @@
     </row>
     <row r="382" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B382" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>6</v>
@@ -11741,10 +11741,10 @@
     </row>
     <row r="383" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B383" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>6</v>
@@ -11765,10 +11765,10 @@
     </row>
     <row r="384" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B384" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>6</v>
@@ -11789,10 +11789,10 @@
     </row>
     <row r="385" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B385" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>6</v>
@@ -11813,10 +11813,10 @@
     </row>
     <row r="386" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B386" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>6</v>
@@ -11837,10 +11837,10 @@
     </row>
     <row r="387" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A387" s="14" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B387" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>6</v>
@@ -11861,10 +11861,10 @@
     </row>
     <row r="388" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B388" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>6</v>
@@ -11885,10 +11885,10 @@
     </row>
     <row r="389" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B389" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>6</v>
@@ -11912,7 +11912,7 @@
         <v>118</v>
       </c>
       <c r="B390" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>6</v>
@@ -11933,10 +11933,10 @@
     </row>
     <row r="391" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B391" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>6</v>
@@ -11960,7 +11960,7 @@
         <v>119</v>
       </c>
       <c r="B392" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>6</v>
@@ -11981,10 +11981,10 @@
     </row>
     <row r="393" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B393" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>6</v>
@@ -12005,10 +12005,10 @@
     </row>
     <row r="394" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B394" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>6</v>
@@ -12029,10 +12029,10 @@
     </row>
     <row r="395" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A395" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B395" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>6</v>
@@ -12053,10 +12053,10 @@
     </row>
     <row r="396" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B396" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>6</v>
@@ -12077,10 +12077,10 @@
     </row>
     <row r="397" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B397" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>6</v>
@@ -12101,10 +12101,10 @@
     </row>
     <row r="398" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B398" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>6</v>
@@ -12125,10 +12125,10 @@
     </row>
     <row r="399" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B399" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>6</v>
@@ -12152,7 +12152,7 @@
         <v>121</v>
       </c>
       <c r="B400" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>6</v>
@@ -12173,10 +12173,10 @@
     </row>
     <row r="401" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B401" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>6</v>
@@ -12197,10 +12197,10 @@
     </row>
     <row r="402" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B402" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>6</v>
@@ -12221,10 +12221,10 @@
     </row>
     <row r="403" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B403" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>6</v>
@@ -12245,10 +12245,10 @@
     </row>
     <row r="404" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B404" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>6</v>
@@ -12269,10 +12269,10 @@
     </row>
     <row r="405" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B405" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>6</v>
@@ -12293,10 +12293,10 @@
     </row>
     <row r="406" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A406" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B406" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>6</v>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="407" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B407" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>6</v>
@@ -12341,10 +12341,10 @@
     </row>
     <row r="408" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B408" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>6</v>
@@ -12365,10 +12365,10 @@
     </row>
     <row r="409" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B409" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>6</v>
@@ -12389,10 +12389,10 @@
     </row>
     <row r="410" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B410" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>6</v>
@@ -12413,10 +12413,10 @@
     </row>
     <row r="411" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B411" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>6</v>
@@ -12437,10 +12437,10 @@
     </row>
     <row r="412" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B412" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>6</v>
@@ -12464,7 +12464,7 @@
         <v>59</v>
       </c>
       <c r="B413" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>6</v>
@@ -12485,10 +12485,10 @@
     </row>
     <row r="414" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B414" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>6</v>
@@ -12509,10 +12509,10 @@
     </row>
     <row r="415" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B415" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>6</v>
@@ -12533,10 +12533,10 @@
     </row>
     <row r="416" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B416" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>6</v>
@@ -12557,10 +12557,10 @@
     </row>
     <row r="417" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B417" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>6</v>
@@ -12581,10 +12581,10 @@
     </row>
     <row r="418" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B418" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>6</v>
@@ -12608,7 +12608,7 @@
         <v>122</v>
       </c>
       <c r="B419" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>6</v>
@@ -12632,7 +12632,7 @@
         <v>123</v>
       </c>
       <c r="B420" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>6</v>
@@ -12656,7 +12656,7 @@
         <v>124</v>
       </c>
       <c r="B421" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>6</v>
@@ -12680,7 +12680,7 @@
         <v>97</v>
       </c>
       <c r="B422" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>6</v>
@@ -12701,10 +12701,10 @@
     </row>
     <row r="423" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B423" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>6</v>
@@ -12728,7 +12728,7 @@
         <v>126</v>
       </c>
       <c r="B424" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>6</v>
@@ -12749,10 +12749,10 @@
     </row>
     <row r="425" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B425" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>6</v>
@@ -12773,10 +12773,10 @@
     </row>
     <row r="426" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B426" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>6</v>
@@ -12797,10 +12797,10 @@
     </row>
     <row r="427" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B427" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>6</v>
@@ -12821,10 +12821,10 @@
     </row>
     <row r="428" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B428" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>6</v>
@@ -12845,10 +12845,10 @@
     </row>
     <row r="429" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B429" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>6</v>
@@ -12869,10 +12869,10 @@
     </row>
     <row r="430" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B430" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>6</v>
@@ -12893,10 +12893,10 @@
     </row>
     <row r="431" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B431" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>6</v>
@@ -12917,10 +12917,10 @@
     </row>
     <row r="432" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B432" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>6</v>
@@ -12941,10 +12941,10 @@
     </row>
     <row r="433" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B433" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>6</v>
@@ -12965,10 +12965,10 @@
     </row>
     <row r="434" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A434" s="14" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B434" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>6</v>
@@ -12989,10 +12989,10 @@
     </row>
     <row r="435" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B435" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>6</v>
@@ -13013,10 +13013,10 @@
     </row>
     <row r="436" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B436" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>6</v>
@@ -13037,10 +13037,10 @@
     </row>
     <row r="437" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B437" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>6</v>
@@ -13064,7 +13064,7 @@
         <v>129</v>
       </c>
       <c r="B438" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>6</v>
@@ -13085,10 +13085,10 @@
     </row>
     <row r="439" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B439" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>6</v>
@@ -13109,10 +13109,10 @@
     </row>
     <row r="440" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B440" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>6</v>
@@ -13133,10 +13133,10 @@
     </row>
     <row r="441" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A441" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B441" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>6</v>
@@ -13160,7 +13160,7 @@
         <v>130</v>
       </c>
       <c r="B442" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>6</v>
@@ -13181,10 +13181,10 @@
     </row>
     <row r="443" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B443" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>6</v>
@@ -13205,10 +13205,10 @@
     </row>
     <row r="444" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B444" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>6</v>
@@ -13229,10 +13229,10 @@
     </row>
     <row r="445" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B445" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>11</v>
@@ -13253,10 +13253,10 @@
     </row>
     <row r="446" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B446" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>11</v>
@@ -13277,10 +13277,10 @@
     </row>
     <row r="447" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B447" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>11</v>
@@ -13301,10 +13301,10 @@
     </row>
     <row r="448" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B448" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>11</v>
@@ -13328,7 +13328,7 @@
         <v>62</v>
       </c>
       <c r="B449" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>11</v>
@@ -13352,7 +13352,7 @@
         <v>63</v>
       </c>
       <c r="B450" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>11</v>
@@ -13373,10 +13373,10 @@
     </row>
     <row r="451" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B451" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>11</v>
@@ -13397,10 +13397,10 @@
     </row>
     <row r="452" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B452" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>11</v>
@@ -13421,10 +13421,10 @@
     </row>
     <row r="453" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B453" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>11</v>
@@ -13448,7 +13448,7 @@
         <v>64</v>
       </c>
       <c r="B454" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>11</v>
@@ -13469,10 +13469,10 @@
     </row>
     <row r="455" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B455" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>11</v>
@@ -13493,10 +13493,10 @@
     </row>
     <row r="456" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B456" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>11</v>
@@ -13517,10 +13517,10 @@
     </row>
     <row r="457" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B457" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>11</v>
@@ -13544,7 +13544,7 @@
         <v>66</v>
       </c>
       <c r="B458" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>11</v>
@@ -13565,10 +13565,10 @@
     </row>
     <row r="459" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B459" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>11</v>
@@ -13589,10 +13589,10 @@
     </row>
     <row r="460" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B460" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>11</v>
@@ -13613,10 +13613,10 @@
     </row>
     <row r="461" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B461" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>11</v>
@@ -13637,10 +13637,10 @@
     </row>
     <row r="462" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B462" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>11</v>
@@ -13661,10 +13661,10 @@
     </row>
     <row r="463" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B463" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>11</v>
@@ -13685,10 +13685,10 @@
     </row>
     <row r="464" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B464" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>11</v>
@@ -13709,10 +13709,10 @@
     </row>
     <row r="465" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B465" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>11</v>
@@ -13733,10 +13733,10 @@
     </row>
     <row r="466" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B466" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>11</v>
@@ -13760,7 +13760,7 @@
         <v>133</v>
       </c>
       <c r="B467" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>11</v>
@@ -13781,10 +13781,10 @@
     </row>
     <row r="468" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B468" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>11</v>
@@ -13805,10 +13805,10 @@
     </row>
     <row r="469" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B469" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>11</v>
@@ -13829,10 +13829,10 @@
     </row>
     <row r="470" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A470" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B470" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>11</v>
@@ -13856,7 +13856,7 @@
         <v>134</v>
       </c>
       <c r="B471" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>11</v>
@@ -13877,10 +13877,10 @@
     </row>
     <row r="472" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B472" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>11</v>
@@ -13904,7 +13904,7 @@
         <v>73</v>
       </c>
       <c r="B473" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>11</v>
@@ -13925,10 +13925,10 @@
     </row>
     <row r="474" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B474" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>11</v>
@@ -13949,10 +13949,10 @@
     </row>
     <row r="475" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B475" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>11</v>
@@ -13973,10 +13973,10 @@
     </row>
     <row r="476" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B476" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>11</v>
@@ -13997,10 +13997,10 @@
     </row>
     <row r="477" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A477" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B477" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="B477" s="19" t="s">
-        <v>229</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>11</v>
@@ -14024,7 +14024,7 @@
         <v>138</v>
       </c>
       <c r="B478" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>11</v>
@@ -14048,7 +14048,7 @@
         <v>139</v>
       </c>
       <c r="B479" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>11</v>
@@ -15643,8 +15643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA4894C-0235-49C5-9813-3592288DDEBD}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15714,10 +15714,10 @@
         <v>27</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>28</v>
@@ -15770,34 +15770,34 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="W2" s="5" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25624969-A47C-4366-91EB-78FDF5C30EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A3C5A-9E1D-4975-A4C7-7943A7ABB4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="430">
   <si>
     <t>ФИО</t>
   </si>
@@ -1980,6 +1980,246 @@
 &lt;golos&gt;</t>
     </r>
   </si>
+  <si>
+    <t>Апасев Иван Павлович</t>
+  </si>
+  <si>
+    <t>Ахметгареев Руслан Тахирович</t>
+  </si>
+  <si>
+    <t>Гаврилина Анастасия Викторовна</t>
+  </si>
+  <si>
+    <t>Дресвянкин Иван Денисович</t>
+  </si>
+  <si>
+    <t>Кашинина Оксана Брониславовна</t>
+  </si>
+  <si>
+    <t>Коновалоыа Екатерина Алексеевна</t>
+  </si>
+  <si>
+    <t>Корнеева Влада Геннадьевна</t>
+  </si>
+  <si>
+    <t>Кулаженкова Кристина Николаевна</t>
+  </si>
+  <si>
+    <t>Мечанова Анна Олеговна</t>
+  </si>
+  <si>
+    <t>Назаров Андрей Александрович</t>
+  </si>
+  <si>
+    <t>Перевалова Татьяна Сергеевна</t>
+  </si>
+  <si>
+    <t>Пичуев Владислав Витальевич</t>
+  </si>
+  <si>
+    <t>Родионов Алмаз Андреевич</t>
+  </si>
+  <si>
+    <t>Сосик Татьяна Андреевна</t>
+  </si>
+  <si>
+    <t>Черкасова Екатерина Викторовна</t>
+  </si>
+  <si>
+    <t>Шишкин Илья Юрьевич</t>
+  </si>
+  <si>
+    <t>Янгиров Айгиз Азатович</t>
+  </si>
+  <si>
+    <t>Андрианов Александр Юрьевич</t>
+  </si>
+  <si>
+    <t>Быстрова Марина Александровна</t>
+  </si>
+  <si>
+    <t>Гребенникова Ольга Юрьевна</t>
+  </si>
+  <si>
+    <t>Грицаенко Алексей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Гурьянова Татьяна Федоровна</t>
+  </si>
+  <si>
+    <t>Дмитриева Олеся Владимировна</t>
+  </si>
+  <si>
+    <t>Дустанова Айгуль Гайнулаевна</t>
+  </si>
+  <si>
+    <t>Клинцова Анна Дмитриевна</t>
+  </si>
+  <si>
+    <t>Кузнецова Елена Алексеевна</t>
+  </si>
+  <si>
+    <t>Леонов Максим Андреевич</t>
+  </si>
+  <si>
+    <t>Семенова Дарья Олеговна</t>
+  </si>
+  <si>
+    <t>Сорокин Сергей Александрович</t>
+  </si>
+  <si>
+    <t>Старков Александр Анатольевич</t>
+  </si>
+  <si>
+    <t>Степанова Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t>Утюшева Анна Рашидовна</t>
+  </si>
+  <si>
+    <t>Шарипова Зульфия Хабировна</t>
+  </si>
+  <si>
+    <t>Аминева Наталья Юрьевна</t>
+  </si>
+  <si>
+    <t>Богданова Светлана Анатольевна</t>
+  </si>
+  <si>
+    <t>Вольных Юлия Святославовна</t>
+  </si>
+  <si>
+    <t>Ворман Наталия Юрьевна</t>
+  </si>
+  <si>
+    <t>Гайдовская Радамила Ростиславовна</t>
+  </si>
+  <si>
+    <t>Дыренкова Мария Ивановна</t>
+  </si>
+  <si>
+    <t>Евсеев Андрей Игоревич</t>
+  </si>
+  <si>
+    <t>Зозуля Николай Григорьевич</t>
+  </si>
+  <si>
+    <t>Калугина Ирина Александровна</t>
+  </si>
+  <si>
+    <t>Никишкин Андрей Юрьевич</t>
+  </si>
+  <si>
+    <t>Омельченко Геннадий Владимирович</t>
+  </si>
+  <si>
+    <t>Пименова Ольга Юрьевна</t>
+  </si>
+  <si>
+    <t>Слоущер Наталья Александровна</t>
+  </si>
+  <si>
+    <t>Шумейко Дмитрий Владимирович</t>
+  </si>
+  <si>
+    <t>Дегтярев Артем Константинович</t>
+  </si>
+  <si>
+    <t>Дмитерко Александр Владимирович</t>
+  </si>
+  <si>
+    <t>Емельянова Дарья Николаевна</t>
+  </si>
+  <si>
+    <t>Ермакова Ирина Александровна</t>
+  </si>
+  <si>
+    <t>Ибатова Анжелика Евгеньевна</t>
+  </si>
+  <si>
+    <t>Клочко Анастасия Сергеевна</t>
+  </si>
+  <si>
+    <t>Лобко Кристина Александровна</t>
+  </si>
+  <si>
+    <t>Маннасова Алина Зуфаровна</t>
+  </si>
+  <si>
+    <t>Михеев Святослав Алексеевич</t>
+  </si>
+  <si>
+    <t>Монина Мария Максимовна</t>
+  </si>
+  <si>
+    <t>Наумов Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Овчинникова Виктория Алексеевна</t>
+  </si>
+  <si>
+    <t>Постнов Андрей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Савина Анастасия Владимировна</t>
+  </si>
+  <si>
+    <t>Ямалова Рамзия Рауфатовна</t>
+  </si>
+  <si>
+    <t>Архипенко Василий Александрович</t>
+  </si>
+  <si>
+    <t>Белов Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Буймов Павел Александрович</t>
+  </si>
+  <si>
+    <t>Васильева Ксения Юрьевна</t>
+  </si>
+  <si>
+    <t>Грачева Алена Игоревна</t>
+  </si>
+  <si>
+    <t>Журавлева Татьяна Павловна</t>
+  </si>
+  <si>
+    <t>Зеленин Леонид Александрович</t>
+  </si>
+  <si>
+    <t>Кадырова Юлия Станиславовна</t>
+  </si>
+  <si>
+    <t>Кильмаматова Алина Аликовна</t>
+  </si>
+  <si>
+    <t>Лебедева Эльвира Анатольевна</t>
+  </si>
+  <si>
+    <t>Мокерова Светлана Михайловна</t>
+  </si>
+  <si>
+    <t>Полуда Елена Николаевна</t>
+  </si>
+  <si>
+    <t>Ратегов Евгений Викторович</t>
+  </si>
+  <si>
+    <t>Рубис Любовь Александровна</t>
+  </si>
+  <si>
+    <t>Хачепуридзе Михаил Вячеславович</t>
+  </si>
+  <si>
+    <t>Хомская Мириам Дмитриевна</t>
+  </si>
+  <si>
+    <t>Глазунов Александр Николаевич</t>
+  </si>
+  <si>
+    <t>Шахиджанян Гаянэ Вигеновна</t>
+  </si>
 </sst>
 </file>
 
@@ -2428,8 +2668,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A462" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A345" sqref="A345:G479"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A480" sqref="A480:G582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14067,343 +14307,2506 @@
       </c>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B480" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D480" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E480" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G480" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B481" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E481" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F481" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G481" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B482" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D482" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F482" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G482" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B483" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D483" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E483" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G483" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B484" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D484" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E484" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F484" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G484" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B485" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D485" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E485" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G485" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B486" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D486" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E486" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G486" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B487" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D487" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E487" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F487" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G487" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B488" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D488" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G488" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B489" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E489" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G489" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B490" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D490" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G490" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B491" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D491" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E491" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G491" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B492" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G492" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B493" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D493" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E493" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G493" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B494" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D494" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G494" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B495" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D495" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E495" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F495" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G495" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B496" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D496" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E496" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G496" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B497" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D497" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E497" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G497" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B498" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E498" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F498" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G498" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B499" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E499" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G499" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B500" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D500" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E500" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G500" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B501" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D501" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E501" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G501" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B502" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D502" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E502" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G502" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B503" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D503" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E503" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G503" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B504" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D504" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E504" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F504" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G504" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B505" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D505" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E505" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G505" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B506" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D506" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E506" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G506" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B507" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D507" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E507" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G507" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B508" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D508" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E508" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F508" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G508" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B509" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D509" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E509" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G509" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B510" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D510" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E510" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B511" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D511" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E511" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G511" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B512" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D512" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E512" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G512" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B513" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E513" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G513" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B514" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C514" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E514" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G514" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B515" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C515" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E515" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F515" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G515" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B516" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E516" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G516" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B517" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C517" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E517" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G517" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B518" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E518" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G518" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B519" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C519" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D519" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E519" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G519" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B520" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D520" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E520" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B521" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C521" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D521" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E521" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G521" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B522" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D522" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E522" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G522" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B523" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D523" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E523" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F523" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G523" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B524" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C524" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D524" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E524" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F524" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G524" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B525" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C525" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D525" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E525" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F525" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G525" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B526" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D526" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E526" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F526" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G526" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B527" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C527" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D527" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E527" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F527" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G527" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B528" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D528" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E528" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F528" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G528" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B529" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C529" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D529" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E529" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G529" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B530" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C530" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D530" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E530" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F530" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G530" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B531" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C531" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D531" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E531" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F531" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G531" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B532" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C532" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D532" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E532" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G532" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B533" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C533" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D533" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E533" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F533" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G533" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="B534" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C534" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D534" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E534" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F534" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G534" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B535" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C535" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D535" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E535" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G535" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B536" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C536" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D536" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E536" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F536" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G536" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B537" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C537" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D537" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E537" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F537" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G537" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B538" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C538" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D538" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E538" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F538" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G538" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B539" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C539" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D539" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E539" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F539" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G539" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B540" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D540" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E540" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F540" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G540" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B541" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C541" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D541" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E541" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F541" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G541" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B542" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D542" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E542" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F542" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G542" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B543" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C543" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D543" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E543" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F543" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G543" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B544" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C544" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D544" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E544" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F544" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G544" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B545" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C545" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D545" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E545" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F545" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G545" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B546" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D546" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E546" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F546" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G546" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B547" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C547" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D547" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E547" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F547" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G547" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B548" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C548" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D548" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E548" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F548" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G548" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B549" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C549" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D549" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E549" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G549" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B550" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C550" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D550" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E550" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F550" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G550" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="B551" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C551" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D551" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E551" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F551" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G551" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B552" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C552" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D552" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E552" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F552" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G552" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B553" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C553" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D553" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E553" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F553" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G553" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B554" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C554" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D554" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E554" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F554" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G554" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B555" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C555" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D555" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E555" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F555" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G555" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B556" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C556" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D556" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E556" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G556" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B557" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C557" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D557" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E557" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F557" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B558" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C558" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D558" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E558" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B559" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C559" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D559" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E559" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F559" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B560" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C560" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D560" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E560" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G560" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B561" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C561" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D561" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E561" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F561" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G561" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B562" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D562" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E562" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F562" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B563" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C563" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D563" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E563" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F563" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G563" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B564" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C564" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D564" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E564" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F564" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B565" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C565" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D565" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E565" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F565" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G565" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B566" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D566" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E566" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F566" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G566" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B567" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C567" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D567" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E567" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F567" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G567" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B568" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C568" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D568" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E568" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F568" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G568" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B569" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C569" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D569" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E569" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F569" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G569" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B570" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D570" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E570" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F570" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G570" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B571" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C571" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D571" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E571" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F571" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G571" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B572" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D572" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E572" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F572" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G572" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B573" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C573" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D573" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E573" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F573" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G573" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B574" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C574" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D574" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E574" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F574" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G574" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B575" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C575" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D575" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E575" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F575" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G575" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B576" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C576" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D576" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E576" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F576" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G576" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B577" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C577" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D577" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E577" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F577" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G577" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B578" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D578" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E578" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F578" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G578" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B579" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D579" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E579" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F579" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G579" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B580" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D580" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E580" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F580" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G580" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B581" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C581" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D581" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E581" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F581" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G581" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B582" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C582" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D582" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E582" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F582" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G582" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H592" s="1"/>
     </row>
     <row r="593" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15643,7 +18046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA4894C-0235-49C5-9813-3592288DDEBD}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A3C5A-9E1D-4975-A4C7-7943A7ABB4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F07B3-DD49-41B4-9D24-0374DDF10CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="2355" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -1449,9 +1449,6 @@
     <t>Круглова Ия Валерьевна</t>
   </si>
   <si>
-    <t>Кузьмина Илья Иванович</t>
-  </si>
-  <si>
     <t>Санников Михаил Дмитриевич</t>
   </si>
   <si>
@@ -1996,9 +1993,6 @@
     <t>Кашинина Оксана Брониславовна</t>
   </si>
   <si>
-    <t>Коновалоыа Екатерина Алексеевна</t>
-  </si>
-  <si>
     <t>Корнеева Влада Геннадьевна</t>
   </si>
   <si>
@@ -2219,6 +2213,12 @@
   </si>
   <si>
     <t>Шахиджанян Гаянэ Вигеновна</t>
+  </si>
+  <si>
+    <t>Коновалова Екатерина Алексеевна</t>
+  </si>
+  <si>
+    <t>Кузьмин Илья Иванович</t>
   </si>
 </sst>
 </file>
@@ -2668,8 +2668,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A480" sqref="A480:G582"/>
+    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="311" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>232</v>
+        <v>429</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>149</v>
@@ -10263,7 +10263,7 @@
     </row>
     <row r="314" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B314" s="5" t="s">
         <v>149</v>
@@ -10289,7 +10289,7 @@
     </row>
     <row r="315" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>149</v>
@@ -10497,7 +10497,7 @@
     </row>
     <row r="323" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>149</v>
@@ -10575,7 +10575,7 @@
     </row>
     <row r="326" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>149</v>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="327" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B327" s="5" t="s">
         <v>149</v>
@@ -10627,7 +10627,7 @@
     </row>
     <row r="328" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B328" s="5" t="s">
         <v>149</v>
@@ -10705,7 +10705,7 @@
     </row>
     <row r="331" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B331" s="5" t="s">
         <v>149</v>
@@ -10783,7 +10783,7 @@
     </row>
     <row r="334" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B334" s="5" t="s">
         <v>149</v>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="336" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>149</v>
@@ -10861,7 +10861,7 @@
     </row>
     <row r="337" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>149</v>
@@ -10939,7 +10939,7 @@
     </row>
     <row r="340" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B340" s="5" t="s">
         <v>149</v>
@@ -11069,7 +11069,7 @@
     </row>
     <row r="345" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B345" s="19" t="s">
         <v>224</v>
@@ -11093,7 +11093,7 @@
     </row>
     <row r="346" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B346" s="19" t="s">
         <v>224</v>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="347" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B347" s="19" t="s">
         <v>224</v>
@@ -11141,7 +11141,7 @@
     </row>
     <row r="348" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B348" s="19" t="s">
         <v>224</v>
@@ -11165,7 +11165,7 @@
     </row>
     <row r="349" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B349" s="19" t="s">
         <v>224</v>
@@ -11189,7 +11189,7 @@
     </row>
     <row r="350" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B350" s="19" t="s">
         <v>224</v>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="351" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B351" s="19" t="s">
         <v>224</v>
@@ -11237,7 +11237,7 @@
     </row>
     <row r="352" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B352" s="19" t="s">
         <v>224</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="354" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B354" s="19" t="s">
         <v>224</v>
@@ -11309,7 +11309,7 @@
     </row>
     <row r="355" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B355" s="19" t="s">
         <v>224</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="356" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B356" s="19" t="s">
         <v>224</v>
@@ -11357,7 +11357,7 @@
     </row>
     <row r="357" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B357" s="19" t="s">
         <v>224</v>
@@ -11381,7 +11381,7 @@
     </row>
     <row r="358" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B358" s="19" t="s">
         <v>224</v>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="359" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B359" s="19" t="s">
         <v>224</v>
@@ -11429,7 +11429,7 @@
     </row>
     <row r="360" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B360" s="19" t="s">
         <v>224</v>
@@ -11477,7 +11477,7 @@
     </row>
     <row r="362" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B362" s="19" t="s">
         <v>224</v>
@@ -11501,7 +11501,7 @@
     </row>
     <row r="363" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B363" s="19" t="s">
         <v>224</v>
@@ -11525,7 +11525,7 @@
     </row>
     <row r="364" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B364" s="19" t="s">
         <v>224</v>
@@ -11549,7 +11549,7 @@
     </row>
     <row r="365" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B365" s="19" t="s">
         <v>224</v>
@@ -11573,7 +11573,7 @@
     </row>
     <row r="366" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B366" s="19" t="s">
         <v>224</v>
@@ -11597,7 +11597,7 @@
     </row>
     <row r="367" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B367" s="19" t="s">
         <v>224</v>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="368" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B368" s="19" t="s">
         <v>224</v>
@@ -11645,7 +11645,7 @@
     </row>
     <row r="369" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B369" s="19" t="s">
         <v>224</v>
@@ -11669,7 +11669,7 @@
     </row>
     <row r="370" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B370" s="19" t="s">
         <v>224</v>
@@ -11693,7 +11693,7 @@
     </row>
     <row r="371" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B371" s="19" t="s">
         <v>224</v>
@@ -11717,7 +11717,7 @@
     </row>
     <row r="372" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B372" s="19" t="s">
         <v>224</v>
@@ -11741,7 +11741,7 @@
     </row>
     <row r="373" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B373" s="19" t="s">
         <v>224</v>
@@ -11765,7 +11765,7 @@
     </row>
     <row r="374" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B374" s="19" t="s">
         <v>224</v>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="375" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B375" s="19" t="s">
         <v>224</v>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="377" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B377" s="19" t="s">
         <v>224</v>
@@ -11861,7 +11861,7 @@
     </row>
     <row r="378" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A378" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B378" s="19" t="s">
         <v>224</v>
@@ -11885,7 +11885,7 @@
     </row>
     <row r="379" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B379" s="19" t="s">
         <v>224</v>
@@ -11909,7 +11909,7 @@
     </row>
     <row r="380" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B380" s="19" t="s">
         <v>224</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="381" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B381" s="19" t="s">
         <v>224</v>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="382" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B382" s="19" t="s">
         <v>224</v>
@@ -11981,7 +11981,7 @@
     </row>
     <row r="383" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B383" s="19" t="s">
         <v>224</v>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="384" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B384" s="19" t="s">
         <v>224</v>
@@ -12029,7 +12029,7 @@
     </row>
     <row r="385" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B385" s="19" t="s">
         <v>224</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="386" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B386" s="19" t="s">
         <v>224</v>
@@ -12077,7 +12077,7 @@
     </row>
     <row r="387" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A387" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B387" s="19" t="s">
         <v>224</v>
@@ -12101,7 +12101,7 @@
     </row>
     <row r="388" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B388" s="19" t="s">
         <v>224</v>
@@ -12125,7 +12125,7 @@
     </row>
     <row r="389" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B389" s="19" t="s">
         <v>224</v>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="391" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B391" s="19" t="s">
         <v>224</v>
@@ -12221,7 +12221,7 @@
     </row>
     <row r="393" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B393" s="19" t="s">
         <v>224</v>
@@ -12245,7 +12245,7 @@
     </row>
     <row r="394" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B394" s="19" t="s">
         <v>224</v>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="396" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B396" s="19" t="s">
         <v>224</v>
@@ -12341,7 +12341,7 @@
     </row>
     <row r="398" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B398" s="19" t="s">
         <v>224</v>
@@ -12365,7 +12365,7 @@
     </row>
     <row r="399" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B399" s="19" t="s">
         <v>224</v>
@@ -12413,7 +12413,7 @@
     </row>
     <row r="401" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B401" s="19" t="s">
         <v>224</v>
@@ -12437,7 +12437,7 @@
     </row>
     <row r="402" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B402" s="19" t="s">
         <v>224</v>
@@ -12461,7 +12461,7 @@
     </row>
     <row r="403" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B403" s="19" t="s">
         <v>224</v>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="404" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B404" s="19" t="s">
         <v>224</v>
@@ -12509,7 +12509,7 @@
     </row>
     <row r="405" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B405" s="19" t="s">
         <v>224</v>
@@ -12557,7 +12557,7 @@
     </row>
     <row r="407" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B407" s="19" t="s">
         <v>224</v>
@@ -12581,7 +12581,7 @@
     </row>
     <row r="408" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B408" s="19" t="s">
         <v>224</v>
@@ -12605,7 +12605,7 @@
     </row>
     <row r="409" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B409" s="19" t="s">
         <v>224</v>
@@ -12629,7 +12629,7 @@
     </row>
     <row r="410" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B410" s="19" t="s">
         <v>224</v>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="411" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B411" s="19" t="s">
         <v>224</v>
@@ -12677,7 +12677,7 @@
     </row>
     <row r="412" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B412" s="19" t="s">
         <v>224</v>
@@ -12749,7 +12749,7 @@
     </row>
     <row r="415" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B415" s="19" t="s">
         <v>224</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="416" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B416" s="19" t="s">
         <v>224</v>
@@ -12797,7 +12797,7 @@
     </row>
     <row r="417" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B417" s="19" t="s">
         <v>224</v>
@@ -12821,7 +12821,7 @@
     </row>
     <row r="418" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B418" s="19" t="s">
         <v>224</v>
@@ -12941,7 +12941,7 @@
     </row>
     <row r="423" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B423" s="19" t="s">
         <v>224</v>
@@ -12989,7 +12989,7 @@
     </row>
     <row r="425" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B425" s="19" t="s">
         <v>224</v>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="426" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B426" s="19" t="s">
         <v>224</v>
@@ -13037,7 +13037,7 @@
     </row>
     <row r="427" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B427" s="19" t="s">
         <v>224</v>
@@ -13061,7 +13061,7 @@
     </row>
     <row r="428" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B428" s="19" t="s">
         <v>224</v>
@@ -13085,7 +13085,7 @@
     </row>
     <row r="429" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B429" s="19" t="s">
         <v>224</v>
@@ -13109,7 +13109,7 @@
     </row>
     <row r="430" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B430" s="19" t="s">
         <v>224</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="431" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B431" s="19" t="s">
         <v>224</v>
@@ -13181,7 +13181,7 @@
     </row>
     <row r="433" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B433" s="19" t="s">
         <v>224</v>
@@ -13229,7 +13229,7 @@
     </row>
     <row r="435" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B435" s="19" t="s">
         <v>224</v>
@@ -13253,7 +13253,7 @@
     </row>
     <row r="436" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B436" s="19" t="s">
         <v>224</v>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="437" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B437" s="19" t="s">
         <v>224</v>
@@ -13325,7 +13325,7 @@
     </row>
     <row r="439" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B439" s="19" t="s">
         <v>224</v>
@@ -13349,7 +13349,7 @@
     </row>
     <row r="440" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B440" s="19" t="s">
         <v>224</v>
@@ -13421,7 +13421,7 @@
     </row>
     <row r="443" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B443" s="19" t="s">
         <v>224</v>
@@ -13445,7 +13445,7 @@
     </row>
     <row r="444" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B444" s="19" t="s">
         <v>224</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="445" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B445" s="19" t="s">
         <v>224</v>
@@ -13493,7 +13493,7 @@
     </row>
     <row r="446" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B446" s="19" t="s">
         <v>224</v>
@@ -13517,7 +13517,7 @@
     </row>
     <row r="447" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B447" s="19" t="s">
         <v>224</v>
@@ -13541,7 +13541,7 @@
     </row>
     <row r="448" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B448" s="19" t="s">
         <v>224</v>
@@ -13613,7 +13613,7 @@
     </row>
     <row r="451" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B451" s="19" t="s">
         <v>224</v>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="452" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B452" s="19" t="s">
         <v>224</v>
@@ -13661,7 +13661,7 @@
     </row>
     <row r="453" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B453" s="19" t="s">
         <v>224</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="455" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B455" s="19" t="s">
         <v>224</v>
@@ -13733,7 +13733,7 @@
     </row>
     <row r="456" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B456" s="19" t="s">
         <v>224</v>
@@ -13757,7 +13757,7 @@
     </row>
     <row r="457" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B457" s="19" t="s">
         <v>224</v>
@@ -13805,7 +13805,7 @@
     </row>
     <row r="459" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B459" s="19" t="s">
         <v>224</v>
@@ -13829,7 +13829,7 @@
     </row>
     <row r="460" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B460" s="19" t="s">
         <v>224</v>
@@ -13853,7 +13853,7 @@
     </row>
     <row r="461" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B461" s="19" t="s">
         <v>224</v>
@@ -13877,7 +13877,7 @@
     </row>
     <row r="462" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B462" s="19" t="s">
         <v>224</v>
@@ -13901,7 +13901,7 @@
     </row>
     <row r="463" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B463" s="19" t="s">
         <v>224</v>
@@ -13925,7 +13925,7 @@
     </row>
     <row r="464" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B464" s="19" t="s">
         <v>224</v>
@@ -13949,7 +13949,7 @@
     </row>
     <row r="465" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B465" s="19" t="s">
         <v>224</v>
@@ -13973,7 +13973,7 @@
     </row>
     <row r="466" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B466" s="19" t="s">
         <v>224</v>
@@ -14021,7 +14021,7 @@
     </row>
     <row r="468" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B468" s="19" t="s">
         <v>224</v>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="469" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B469" s="19" t="s">
         <v>224</v>
@@ -14069,7 +14069,7 @@
     </row>
     <row r="470" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A470" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B470" s="19" t="s">
         <v>224</v>
@@ -14117,7 +14117,7 @@
     </row>
     <row r="472" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B472" s="19" t="s">
         <v>224</v>
@@ -14309,7 +14309,7 @@
     </row>
     <row r="480" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A480" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B480" s="15" t="s">
         <v>140</v>
@@ -14333,7 +14333,7 @@
     </row>
     <row r="481" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B481" s="15" t="s">
         <v>140</v>
@@ -14357,7 +14357,7 @@
     </row>
     <row r="482" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A482" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B482" s="15" t="s">
         <v>140</v>
@@ -14381,7 +14381,7 @@
     </row>
     <row r="483" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A483" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B483" s="15" t="s">
         <v>140</v>
@@ -14405,7 +14405,7 @@
     </row>
     <row r="484" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A484" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B484" s="15" t="s">
         <v>140</v>
@@ -14429,7 +14429,7 @@
     </row>
     <row r="485" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>355</v>
+        <v>428</v>
       </c>
       <c r="B485" s="15" t="s">
         <v>140</v>
@@ -14453,7 +14453,7 @@
     </row>
     <row r="486" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B486" s="15" t="s">
         <v>140</v>
@@ -14477,7 +14477,7 @@
     </row>
     <row r="487" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B487" s="15" t="s">
         <v>140</v>
@@ -14501,7 +14501,7 @@
     </row>
     <row r="488" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B488" s="15" t="s">
         <v>140</v>
@@ -14525,7 +14525,7 @@
     </row>
     <row r="489" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B489" s="15" t="s">
         <v>140</v>
@@ -14549,7 +14549,7 @@
     </row>
     <row r="490" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B490" s="15" t="s">
         <v>140</v>
@@ -14573,7 +14573,7 @@
     </row>
     <row r="491" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B491" s="15" t="s">
         <v>140</v>
@@ -14597,7 +14597,7 @@
     </row>
     <row r="492" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A492" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B492" s="15" t="s">
         <v>140</v>
@@ -14621,7 +14621,7 @@
     </row>
     <row r="493" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A493" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B493" s="15" t="s">
         <v>140</v>
@@ -14645,7 +14645,7 @@
     </row>
     <row r="494" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B494" s="15" t="s">
         <v>140</v>
@@ -14669,7 +14669,7 @@
     </row>
     <row r="495" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B495" s="15" t="s">
         <v>140</v>
@@ -14693,7 +14693,7 @@
     </row>
     <row r="496" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B496" s="15" t="s">
         <v>140</v>
@@ -14717,7 +14717,7 @@
     </row>
     <row r="497" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A497" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B497" s="15" t="s">
         <v>140</v>
@@ -14741,7 +14741,7 @@
     </row>
     <row r="498" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A498" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B498" s="15" t="s">
         <v>140</v>
@@ -14765,7 +14765,7 @@
     </row>
     <row r="499" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B499" s="15" t="s">
         <v>140</v>
@@ -14789,7 +14789,7 @@
     </row>
     <row r="500" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B500" s="15" t="s">
         <v>140</v>
@@ -14813,7 +14813,7 @@
     </row>
     <row r="501" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B501" s="15" t="s">
         <v>140</v>
@@ -14837,7 +14837,7 @@
     </row>
     <row r="502" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B502" s="15" t="s">
         <v>140</v>
@@ -14861,7 +14861,7 @@
     </row>
     <row r="503" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B503" s="15" t="s">
         <v>140</v>
@@ -14885,7 +14885,7 @@
     </row>
     <row r="504" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A504" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B504" s="15" t="s">
         <v>140</v>
@@ -14957,7 +14957,7 @@
     </row>
     <row r="507" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B507" s="15" t="s">
         <v>140</v>
@@ -14981,7 +14981,7 @@
     </row>
     <row r="508" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B508" s="15" t="s">
         <v>140</v>
@@ -15005,7 +15005,7 @@
     </row>
     <row r="509" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B509" s="15" t="s">
         <v>140</v>
@@ -15029,7 +15029,7 @@
     </row>
     <row r="510" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B510" s="15" t="s">
         <v>140</v>
@@ -15053,7 +15053,7 @@
     </row>
     <row r="511" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A511" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B511" s="15" t="s">
         <v>140</v>
@@ -15077,7 +15077,7 @@
     </row>
     <row r="512" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B512" s="15" t="s">
         <v>140</v>
@@ -15101,7 +15101,7 @@
     </row>
     <row r="513" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A513" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B513" s="15" t="s">
         <v>140</v>
@@ -15125,7 +15125,7 @@
     </row>
     <row r="514" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B514" s="15" t="s">
         <v>140</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="515" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A515" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B515" s="15" t="s">
         <v>140</v>
@@ -15173,7 +15173,7 @@
     </row>
     <row r="516" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B516" s="15" t="s">
         <v>140</v>
@@ -15197,7 +15197,7 @@
     </row>
     <row r="517" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B517" s="15" t="s">
         <v>140</v>
@@ -15221,7 +15221,7 @@
     </row>
     <row r="518" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B518" s="15" t="s">
         <v>140</v>
@@ -15245,7 +15245,7 @@
     </row>
     <row r="519" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A519" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B519" s="15" t="s">
         <v>140</v>
@@ -15317,7 +15317,7 @@
     </row>
     <row r="522" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A522" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B522" s="15" t="s">
         <v>140</v>
@@ -15341,7 +15341,7 @@
     </row>
     <row r="523" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B523" s="15" t="s">
         <v>140</v>
@@ -15365,7 +15365,7 @@
     </row>
     <row r="524" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B524" s="15" t="s">
         <v>140</v>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="525" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A525" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B525" s="15" t="s">
         <v>140</v>
@@ -15437,7 +15437,7 @@
     </row>
     <row r="527" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A527" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B527" s="15" t="s">
         <v>140</v>
@@ -15461,7 +15461,7 @@
     </row>
     <row r="528" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B528" s="15" t="s">
         <v>140</v>
@@ -15509,7 +15509,7 @@
     </row>
     <row r="530" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A530" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B530" s="15" t="s">
         <v>140</v>
@@ -15533,7 +15533,7 @@
     </row>
     <row r="531" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A531" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B531" s="15" t="s">
         <v>140</v>
@@ -15557,7 +15557,7 @@
     </row>
     <row r="532" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A532" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B532" s="15" t="s">
         <v>140</v>
@@ -15581,7 +15581,7 @@
     </row>
     <row r="533" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B533" s="15" t="s">
         <v>140</v>
@@ -15605,7 +15605,7 @@
     </row>
     <row r="534" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A534" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B534" s="15" t="s">
         <v>140</v>
@@ -15653,7 +15653,7 @@
     </row>
     <row r="536" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A536" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B536" s="15" t="s">
         <v>140</v>
@@ -15677,7 +15677,7 @@
     </row>
     <row r="537" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A537" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B537" s="15" t="s">
         <v>140</v>
@@ -15701,7 +15701,7 @@
     </row>
     <row r="538" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A538" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B538" s="15" t="s">
         <v>140</v>
@@ -15725,7 +15725,7 @@
     </row>
     <row r="539" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A539" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B539" s="15" t="s">
         <v>140</v>
@@ -15773,7 +15773,7 @@
     </row>
     <row r="541" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A541" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B541" s="15" t="s">
         <v>140</v>
@@ -15797,7 +15797,7 @@
     </row>
     <row r="542" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A542" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B542" s="15" t="s">
         <v>140</v>
@@ -15821,7 +15821,7 @@
     </row>
     <row r="543" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A543" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B543" s="15" t="s">
         <v>140</v>
@@ -15845,7 +15845,7 @@
     </row>
     <row r="544" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A544" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B544" s="15" t="s">
         <v>140</v>
@@ -15893,7 +15893,7 @@
     </row>
     <row r="546" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A546" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B546" s="15" t="s">
         <v>140</v>
@@ -15917,7 +15917,7 @@
     </row>
     <row r="547" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A547" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B547" s="15" t="s">
         <v>140</v>
@@ -15965,7 +15965,7 @@
     </row>
     <row r="549" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A549" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B549" s="15" t="s">
         <v>140</v>
@@ -15989,7 +15989,7 @@
     </row>
     <row r="550" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A550" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B550" s="15" t="s">
         <v>140</v>
@@ -16013,7 +16013,7 @@
     </row>
     <row r="551" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A551" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B551" s="15" t="s">
         <v>140</v>
@@ -16037,7 +16037,7 @@
     </row>
     <row r="552" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A552" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B552" s="15" t="s">
         <v>140</v>
@@ -16061,7 +16061,7 @@
     </row>
     <row r="553" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A553" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B553" s="15" t="s">
         <v>140</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="554" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B554" s="15" t="s">
         <v>140</v>
@@ -16133,7 +16133,7 @@
     </row>
     <row r="556" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A556" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B556" s="15" t="s">
         <v>140</v>
@@ -16157,7 +16157,7 @@
     </row>
     <row r="557" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A557" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B557" s="15" t="s">
         <v>140</v>
@@ -16181,7 +16181,7 @@
     </row>
     <row r="558" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A558" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B558" s="15" t="s">
         <v>140</v>
@@ -16205,7 +16205,7 @@
     </row>
     <row r="559" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A559" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B559" s="15" t="s">
         <v>140</v>
@@ -16253,7 +16253,7 @@
     </row>
     <row r="561" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A561" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B561" s="15" t="s">
         <v>140</v>
@@ -16277,7 +16277,7 @@
     </row>
     <row r="562" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A562" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B562" s="15" t="s">
         <v>140</v>
@@ -16301,7 +16301,7 @@
     </row>
     <row r="563" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A563" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B563" s="15" t="s">
         <v>140</v>
@@ -16325,7 +16325,7 @@
     </row>
     <row r="564" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A564" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B564" s="15" t="s">
         <v>140</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="565" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A565" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B565" s="15" t="s">
         <v>140</v>
@@ -16373,7 +16373,7 @@
     </row>
     <row r="566" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A566" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B566" s="15" t="s">
         <v>140</v>
@@ -16397,7 +16397,7 @@
     </row>
     <row r="567" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A567" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B567" s="15" t="s">
         <v>140</v>
@@ -16421,7 +16421,7 @@
     </row>
     <row r="568" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A568" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B568" s="15" t="s">
         <v>140</v>
@@ -16469,7 +16469,7 @@
     </row>
     <row r="570" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B570" s="15" t="s">
         <v>140</v>
@@ -16493,7 +16493,7 @@
     </row>
     <row r="571" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A571" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B571" s="15" t="s">
         <v>140</v>
@@ -16517,7 +16517,7 @@
     </row>
     <row r="572" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A572" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B572" s="15" t="s">
         <v>140</v>
@@ -16541,7 +16541,7 @@
     </row>
     <row r="573" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B573" s="15" t="s">
         <v>140</v>
@@ -16565,7 +16565,7 @@
     </row>
     <row r="574" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A574" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B574" s="15" t="s">
         <v>140</v>
@@ -16589,7 +16589,7 @@
     </row>
     <row r="575" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A575" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B575" s="15" t="s">
         <v>140</v>
@@ -16613,7 +16613,7 @@
     </row>
     <row r="576" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B576" s="15" t="s">
         <v>140</v>
@@ -16661,7 +16661,7 @@
     </row>
     <row r="578" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B578" s="15" t="s">
         <v>140</v>
@@ -16685,7 +16685,7 @@
     </row>
     <row r="579" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A579" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B579" s="15" t="s">
         <v>140</v>
@@ -16733,7 +16733,7 @@
     </row>
     <row r="581" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A581" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B581" s="15" t="s">
         <v>140</v>
@@ -16757,7 +16757,7 @@
     </row>
     <row r="582" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B582" s="15" t="s">
         <v>140</v>
@@ -18176,31 +18176,31 @@
         <v>141</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>142</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>143</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>223</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>144</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F07B3-DD49-41B4-9D24-0374DDF10CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C06196-BC4E-423C-9F7C-1D7E2969149C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="2355" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="476">
   <si>
     <t>ФИО</t>
   </si>
@@ -2220,6 +2220,144 @@
   <si>
     <t>Кузьмин Илья Иванович</t>
   </si>
+  <si>
+    <t>Горшкова Юлия Владимировна</t>
+  </si>
+  <si>
+    <t>Дементьев Степан Олегович</t>
+  </si>
+  <si>
+    <t>Ломова Анастасия Алексеевна</t>
+  </si>
+  <si>
+    <t>Позднякова Владислава Максимовна</t>
+  </si>
+  <si>
+    <t>Сидоровская Людмила Владиславовна</t>
+  </si>
+  <si>
+    <t>Соколова Мария Александровна</t>
+  </si>
+  <si>
+    <t>Торопов Александр Александрович</t>
+  </si>
+  <si>
+    <t>Антоненкова Елена Дмитриевна</t>
+  </si>
+  <si>
+    <t>Болтунов Иван Михайлович</t>
+  </si>
+  <si>
+    <t>Кравченко Лариса Олеговна</t>
+  </si>
+  <si>
+    <t>Малинина Татьяна Евгеньевна</t>
+  </si>
+  <si>
+    <t>Машкова Анастасия Андреевна</t>
+  </si>
+  <si>
+    <t>Мельникова Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Фёдоров Константин Юрьевич</t>
+  </si>
+  <si>
+    <t>Черемисин Максим Михайлович</t>
+  </si>
+  <si>
+    <t>Широков Константин Анатольевич</t>
+  </si>
+  <si>
+    <t>Барбашева Виктория Викторовна</t>
+  </si>
+  <si>
+    <t>Блохин Вадим Евгеньевич</t>
+  </si>
+  <si>
+    <t>Земскова Инна Юрьевна</t>
+  </si>
+  <si>
+    <t>Кудинов Роман Евгеньевич</t>
+  </si>
+  <si>
+    <t>Кунина Ольга Семёновна</t>
+  </si>
+  <si>
+    <t>Лахман Наталия Аркадьевна</t>
+  </si>
+  <si>
+    <t>Смирнов Станислав Юрьевич</t>
+  </si>
+  <si>
+    <t>Солдатов Эдуард Валерьевич</t>
+  </si>
+  <si>
+    <t>Титаренко Зоя Юрьевна</t>
+  </si>
+  <si>
+    <t>Трофимов Сергей Иванович</t>
+  </si>
+  <si>
+    <t>Чернышов Андрей Владимирович</t>
+  </si>
+  <si>
+    <t>Андрюшин Тимофей Алексеевич</t>
+  </si>
+  <si>
+    <t>Гадиев Михаил Владиславович</t>
+  </si>
+  <si>
+    <t>Павлова Виктория Валерьевна</t>
+  </si>
+  <si>
+    <t>Петрова Лариса Владимировна</t>
+  </si>
+  <si>
+    <t>Попова Анна Николаевна</t>
+  </si>
+  <si>
+    <t>Спичакова Анна Андреевна</t>
+  </si>
+  <si>
+    <t>Ткачук Анна Антоновна</t>
+  </si>
+  <si>
+    <t>Шакирова Эльвира Ильдаровна</t>
+  </si>
+  <si>
+    <t>Шарафиева Александра Вячеславовна</t>
+  </si>
+  <si>
+    <t>Шулика Виолетта Валерьевна</t>
+  </si>
+  <si>
+    <t>Ахтышева Екатерина Александровна</t>
+  </si>
+  <si>
+    <t>Бельских Юлия Владимировна</t>
+  </si>
+  <si>
+    <t>Власенко Светлана Валерьевна</t>
+  </si>
+  <si>
+    <t>Гончаров Роман Андреевич</t>
+  </si>
+  <si>
+    <t>Медведев Станислав Анатольевич</t>
+  </si>
+  <si>
+    <t>Прозорович Анна Вячеславовна</t>
+  </si>
+  <si>
+    <t>Теванян Кристина Гагиковна</t>
+  </si>
+  <si>
+    <t>Алехина Алла Леонидовна</t>
+  </si>
+  <si>
+    <t>Молотков Александр Петрович</t>
+  </si>
 </sst>
 </file>
 
@@ -2299,7 +2437,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2348,6 +2486,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2391,7 +2535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2446,6 +2590,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2668,8 +2815,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A311" sqref="A311"/>
+    <sheetView tabSelected="1" topLeftCell="A569" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A584" sqref="A584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16779,322 +16926,2506 @@
       </c>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H583" s="1"/>
-    </row>
-    <row r="584" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H584" s="1"/>
-    </row>
-    <row r="585" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H585" s="1"/>
-    </row>
-    <row r="586" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H586" s="1"/>
-    </row>
-    <row r="587" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H587" s="1"/>
-    </row>
-    <row r="588" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H588" s="1"/>
-    </row>
-    <row r="589" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H589" s="1"/>
-    </row>
-    <row r="590" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H590" s="1"/>
-    </row>
-    <row r="591" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H591" s="1"/>
-    </row>
-    <row r="592" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H592" s="1"/>
-    </row>
-    <row r="593" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H593" s="1"/>
-    </row>
-    <row r="594" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H594" s="1"/>
-    </row>
-    <row r="595" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H595" s="1"/>
-    </row>
-    <row r="596" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H596" s="1"/>
-    </row>
-    <row r="597" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H597" s="1"/>
-    </row>
-    <row r="598" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H598" s="1"/>
-    </row>
-    <row r="599" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H599" s="1"/>
-    </row>
-    <row r="600" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H600" s="1"/>
-    </row>
-    <row r="601" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H601" s="1"/>
-    </row>
-    <row r="602" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H602" s="1"/>
-    </row>
-    <row r="603" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H603" s="1"/>
-    </row>
-    <row r="604" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H604" s="1"/>
-    </row>
-    <row r="605" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H605" s="1"/>
-    </row>
-    <row r="606" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H606" s="1"/>
-    </row>
-    <row r="607" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H607" s="1"/>
-    </row>
-    <row r="608" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H608" s="1"/>
-    </row>
-    <row r="609" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H609" s="1"/>
-    </row>
-    <row r="610" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H610" s="1"/>
-    </row>
-    <row r="611" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H611" s="1"/>
-    </row>
-    <row r="612" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H612" s="1"/>
-    </row>
-    <row r="613" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H613" s="1"/>
-    </row>
-    <row r="614" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H614" s="1"/>
-    </row>
-    <row r="615" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H615" s="1"/>
-    </row>
-    <row r="616" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H616" s="1"/>
-    </row>
-    <row r="617" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H617" s="1"/>
-    </row>
-    <row r="618" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H618" s="1"/>
-    </row>
-    <row r="619" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H619" s="1"/>
-    </row>
-    <row r="620" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H620" s="1"/>
-    </row>
-    <row r="621" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H621" s="1"/>
-    </row>
-    <row r="622" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H622" s="1"/>
-    </row>
-    <row r="623" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H623" s="1"/>
-    </row>
-    <row r="624" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H624" s="1"/>
-    </row>
-    <row r="625" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H625" s="1"/>
-    </row>
-    <row r="626" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H626" s="1"/>
-    </row>
-    <row r="627" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H627" s="1"/>
-    </row>
-    <row r="628" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H628" s="1"/>
-    </row>
-    <row r="629" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H629" s="1"/>
-    </row>
-    <row r="630" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H630" s="1"/>
-    </row>
-    <row r="631" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H631" s="1"/>
-    </row>
-    <row r="632" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H632" s="1"/>
-    </row>
-    <row r="633" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H633" s="1"/>
-    </row>
-    <row r="634" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H634" s="1"/>
-    </row>
-    <row r="635" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H635" s="1"/>
-    </row>
-    <row r="636" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H636" s="1"/>
-    </row>
-    <row r="637" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H637" s="1"/>
-    </row>
-    <row r="638" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H638" s="1"/>
-    </row>
-    <row r="639" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H639" s="1"/>
-    </row>
-    <row r="640" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H640" s="1"/>
-    </row>
-    <row r="641" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H641" s="1"/>
-    </row>
-    <row r="642" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H642" s="1"/>
-    </row>
-    <row r="643" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H643" s="1"/>
-    </row>
-    <row r="644" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H644" s="1"/>
-    </row>
-    <row r="645" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H645" s="1"/>
-    </row>
-    <row r="646" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H646" s="1"/>
-    </row>
-    <row r="647" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H647" s="1"/>
-    </row>
-    <row r="648" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H648" s="1"/>
-    </row>
-    <row r="649" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H649" s="1"/>
-    </row>
-    <row r="650" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H650" s="1"/>
-    </row>
-    <row r="651" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H651" s="1"/>
-    </row>
-    <row r="652" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H652" s="1"/>
-    </row>
-    <row r="653" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H653" s="1"/>
-    </row>
-    <row r="654" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H654" s="1"/>
-    </row>
-    <row r="655" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H655" s="1"/>
-    </row>
-    <row r="656" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H656" s="1"/>
-    </row>
-    <row r="657" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H657" s="1"/>
-    </row>
-    <row r="658" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H658" s="1"/>
-    </row>
-    <row r="659" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H659" s="1"/>
-    </row>
-    <row r="660" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H660" s="1"/>
-    </row>
-    <row r="661" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H661" s="1"/>
-    </row>
-    <row r="662" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H662" s="1"/>
-    </row>
-    <row r="663" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H663" s="1"/>
-    </row>
-    <row r="664" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H664" s="1"/>
-    </row>
-    <row r="665" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H665" s="1"/>
-    </row>
-    <row r="666" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H666" s="1"/>
-    </row>
-    <row r="667" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H667" s="1"/>
-    </row>
-    <row r="668" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H668" s="1"/>
-    </row>
-    <row r="669" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H669" s="1"/>
-    </row>
-    <row r="670" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H670" s="1"/>
-    </row>
-    <row r="671" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H671" s="1"/>
-    </row>
-    <row r="672" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H672" s="1"/>
-    </row>
-    <row r="673" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H673" s="1"/>
-    </row>
-    <row r="674" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H674" s="1"/>
-    </row>
-    <row r="675" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H675" s="1"/>
-    </row>
-    <row r="676" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H676" s="1"/>
-    </row>
-    <row r="677" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H677" s="1"/>
-    </row>
-    <row r="678" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H678" s="1"/>
-    </row>
-    <row r="679" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H679" s="1"/>
-    </row>
-    <row r="680" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H680" s="1"/>
-    </row>
-    <row r="681" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H681" s="1"/>
-    </row>
-    <row r="682" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H682" s="1"/>
-    </row>
-    <row r="683" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H683" s="1"/>
-    </row>
-    <row r="684" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H684" s="1"/>
-    </row>
-    <row r="685" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H685" s="1"/>
-    </row>
-    <row r="686" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H686" s="1"/>
-    </row>
-    <row r="687" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B583" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C583" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D583" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E583" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F583" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G583" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H583" s="5"/>
+    </row>
+    <row r="584" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B584" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C584" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D584" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E584" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F584" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G584" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H584" s="5"/>
+    </row>
+    <row r="585" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B585" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C585" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D585" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E585" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F585" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G585" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H585" s="5"/>
+    </row>
+    <row r="586" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B586" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C586" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D586" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E586" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F586" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G586" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H586" s="5"/>
+    </row>
+    <row r="587" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B587" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C587" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D587" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E587" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F587" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G587" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H587" s="5"/>
+    </row>
+    <row r="588" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B588" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C588" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D588" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E588" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F588" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G588" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H588" s="5"/>
+    </row>
+    <row r="589" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B589" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C589" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D589" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E589" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F589" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G589" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H589" s="5"/>
+    </row>
+    <row r="590" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B590" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C590" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D590" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E590" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F590" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G590" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H590" s="5"/>
+    </row>
+    <row r="591" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B591" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C591" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D591" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E591" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F591" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G591" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H591" s="5"/>
+    </row>
+    <row r="592" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B592" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C592" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D592" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E592" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F592" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G592" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H592" s="5"/>
+    </row>
+    <row r="593" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B593" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C593" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D593" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E593" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F593" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G593" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H593" s="5"/>
+    </row>
+    <row r="594" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B594" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D594" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E594" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F594" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G594" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H594" s="5"/>
+    </row>
+    <row r="595" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B595" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C595" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D595" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E595" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F595" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G595" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H595" s="5"/>
+    </row>
+    <row r="596" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B596" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C596" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D596" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E596" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F596" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G596" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H596" s="5"/>
+    </row>
+    <row r="597" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B597" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C597" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D597" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E597" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F597" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G597" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H597" s="5"/>
+    </row>
+    <row r="598" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B598" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C598" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D598" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E598" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F598" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G598" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H598" s="5"/>
+    </row>
+    <row r="599" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B599" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C599" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D599" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E599" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F599" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G599" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H599" s="5"/>
+    </row>
+    <row r="600" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B600" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C600" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D600" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E600" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F600" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G600" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H600" s="5"/>
+    </row>
+    <row r="601" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B601" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C601" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D601" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E601" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F601" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G601" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H601" s="5"/>
+    </row>
+    <row r="602" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B602" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C602" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D602" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E602" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F602" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G602" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H602" s="5"/>
+    </row>
+    <row r="603" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B603" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C603" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D603" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E603" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F603" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G603" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H603" s="5"/>
+    </row>
+    <row r="604" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B604" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C604" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D604" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E604" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F604" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G604" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H604" s="5"/>
+    </row>
+    <row r="605" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B605" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C605" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D605" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E605" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F605" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G605" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H605" s="5"/>
+    </row>
+    <row r="606" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A606" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B606" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C606" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D606" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E606" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F606" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G606" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H606" s="5"/>
+    </row>
+    <row r="607" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B607" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C607" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D607" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E607" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F607" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G607" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H607" s="5"/>
+    </row>
+    <row r="608" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B608" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C608" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D608" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E608" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F608" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G608" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H608" s="5"/>
+    </row>
+    <row r="609" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B609" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C609" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D609" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E609" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F609" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G609" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H609" s="5"/>
+    </row>
+    <row r="610" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B610" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C610" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D610" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E610" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F610" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G610" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H610" s="5"/>
+    </row>
+    <row r="611" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B611" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C611" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D611" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E611" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F611" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G611" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H611" s="5"/>
+    </row>
+    <row r="612" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B612" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C612" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D612" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E612" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F612" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G612" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H612" s="5"/>
+    </row>
+    <row r="613" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B613" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C613" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D613" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E613" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F613" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G613" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H613" s="5"/>
+    </row>
+    <row r="614" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B614" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C614" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D614" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E614" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F614" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G614" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H614" s="5"/>
+    </row>
+    <row r="615" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B615" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C615" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D615" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E615" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F615" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G615" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H615" s="5"/>
+    </row>
+    <row r="616" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B616" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C616" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D616" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E616" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F616" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G616" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H616" s="5"/>
+    </row>
+    <row r="617" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B617" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C617" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D617" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E617" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F617" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G617" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H617" s="5"/>
+    </row>
+    <row r="618" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B618" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C618" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D618" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E618" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F618" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G618" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H618" s="5"/>
+    </row>
+    <row r="619" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B619" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C619" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D619" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E619" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F619" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G619" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H619" s="5"/>
+    </row>
+    <row r="620" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B620" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C620" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D620" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E620" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F620" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G620" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H620" s="5"/>
+    </row>
+    <row r="621" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B621" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C621" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D621" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E621" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F621" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G621" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H621" s="5"/>
+    </row>
+    <row r="622" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B622" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C622" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D622" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E622" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F622" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G622" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H622" s="5"/>
+    </row>
+    <row r="623" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B623" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C623" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D623" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E623" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F623" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G623" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H623" s="5"/>
+    </row>
+    <row r="624" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B624" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C624" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D624" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E624" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F624" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G624" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H624" s="5"/>
+    </row>
+    <row r="625" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B625" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C625" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D625" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E625" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F625" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G625" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H625" s="5"/>
+    </row>
+    <row r="626" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B626" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C626" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D626" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E626" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F626" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G626" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H626" s="5"/>
+    </row>
+    <row r="627" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B627" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C627" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D627" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E627" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F627" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G627" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H627" s="5"/>
+    </row>
+    <row r="628" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B628" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C628" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D628" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E628" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F628" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G628" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H628" s="5"/>
+    </row>
+    <row r="629" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B629" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C629" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D629" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E629" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F629" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G629" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H629" s="5"/>
+    </row>
+    <row r="630" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B630" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D630" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E630" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F630" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G630" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H630" s="5"/>
+    </row>
+    <row r="631" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B631" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C631" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D631" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E631" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F631" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G631" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H631" s="5"/>
+    </row>
+    <row r="632" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B632" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C632" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D632" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E632" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F632" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G632" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H632" s="5"/>
+    </row>
+    <row r="633" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B633" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C633" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D633" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E633" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F633" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G633" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H633" s="5"/>
+    </row>
+    <row r="634" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B634" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C634" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D634" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E634" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F634" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G634" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H634" s="5"/>
+    </row>
+    <row r="635" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B635" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C635" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D635" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E635" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F635" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G635" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H635" s="5"/>
+    </row>
+    <row r="636" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B636" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C636" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D636" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E636" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F636" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G636" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H636" s="5"/>
+    </row>
+    <row r="637" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B637" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C637" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D637" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E637" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F637" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G637" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H637" s="5"/>
+    </row>
+    <row r="638" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B638" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C638" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D638" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E638" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F638" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G638" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H638" s="5"/>
+    </row>
+    <row r="639" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B639" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C639" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D639" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E639" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F639" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G639" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H639" s="5"/>
+    </row>
+    <row r="640" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B640" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C640" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D640" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E640" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F640" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G640" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H640" s="5"/>
+    </row>
+    <row r="641" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B641" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C641" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D641" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E641" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F641" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G641" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H641" s="5"/>
+    </row>
+    <row r="642" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B642" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C642" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D642" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E642" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F642" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G642" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H642" s="5"/>
+    </row>
+    <row r="643" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="B643" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C643" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D643" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E643" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F643" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G643" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H643" s="5"/>
+    </row>
+    <row r="644" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B644" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C644" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D644" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E644" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F644" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G644" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H644" s="5"/>
+    </row>
+    <row r="645" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B645" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C645" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D645" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E645" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F645" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G645" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H645" s="5"/>
+    </row>
+    <row r="646" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B646" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C646" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D646" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E646" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F646" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G646" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H646" s="5"/>
+    </row>
+    <row r="647" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B647" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C647" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D647" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E647" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F647" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G647" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H647" s="5"/>
+    </row>
+    <row r="648" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A648" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B648" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C648" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D648" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E648" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F648" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G648" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H648" s="5"/>
+    </row>
+    <row r="649" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A649" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B649" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C649" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D649" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E649" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F649" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G649" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H649" s="5"/>
+    </row>
+    <row r="650" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A650" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B650" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C650" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D650" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E650" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F650" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G650" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H650" s="5"/>
+    </row>
+    <row r="651" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A651" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B651" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C651" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D651" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E651" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F651" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G651" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H651" s="5"/>
+    </row>
+    <row r="652" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B652" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C652" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D652" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E652" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F652" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G652" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H652" s="5"/>
+    </row>
+    <row r="653" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B653" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C653" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D653" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E653" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F653" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G653" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H653" s="5"/>
+    </row>
+    <row r="654" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B654" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C654" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D654" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E654" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F654" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G654" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H654" s="5"/>
+    </row>
+    <row r="655" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B655" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C655" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D655" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E655" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F655" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G655" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H655" s="5"/>
+    </row>
+    <row r="656" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B656" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C656" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D656" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E656" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F656" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G656" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H656" s="5"/>
+    </row>
+    <row r="657" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B657" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C657" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D657" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E657" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F657" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G657" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H657" s="5"/>
+    </row>
+    <row r="658" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B658" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C658" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D658" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E658" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F658" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G658" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H658" s="5"/>
+    </row>
+    <row r="659" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B659" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C659" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D659" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E659" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F659" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G659" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H659" s="5"/>
+    </row>
+    <row r="660" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B660" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C660" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D660" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E660" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F660" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G660" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H660" s="5"/>
+    </row>
+    <row r="661" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B661" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C661" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D661" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E661" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F661" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G661" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H661" s="5"/>
+    </row>
+    <row r="662" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A662" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B662" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C662" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D662" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E662" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F662" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G662" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H662" s="5"/>
+    </row>
+    <row r="663" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B663" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C663" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D663" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E663" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F663" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G663" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H663" s="5"/>
+    </row>
+    <row r="664" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B664" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C664" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D664" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E664" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F664" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G664" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H664" s="5"/>
+    </row>
+    <row r="665" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A665" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B665" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C665" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D665" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E665" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F665" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G665" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H665" s="5"/>
+    </row>
+    <row r="666" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B666" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C666" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D666" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E666" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F666" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G666" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H666" s="5"/>
+    </row>
+    <row r="667" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A667" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B667" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C667" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D667" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E667" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F667" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G667" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H667" s="5"/>
+    </row>
+    <row r="668" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A668" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B668" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C668" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D668" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E668" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F668" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G668" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H668" s="5"/>
+    </row>
+    <row r="669" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A669" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B669" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C669" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D669" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E669" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F669" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G669" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H669" s="5"/>
+    </row>
+    <row r="670" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B670" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C670" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D670" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E670" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F670" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G670" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H670" s="5"/>
+    </row>
+    <row r="671" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A671" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B671" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C671" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D671" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E671" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F671" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G671" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H671" s="5"/>
+    </row>
+    <row r="672" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B672" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C672" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D672" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E672" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F672" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G672" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H672" s="5"/>
+    </row>
+    <row r="673" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B673" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C673" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D673" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E673" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F673" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G673" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H673" s="5"/>
+    </row>
+    <row r="674" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B674" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C674" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D674" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E674" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F674" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G674" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H674" s="5"/>
+    </row>
+    <row r="675" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A675" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B675" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C675" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D675" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E675" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F675" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G675" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H675" s="5"/>
+    </row>
+    <row r="676" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A676" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B676" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C676" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D676" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E676" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F676" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G676" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H676" s="5"/>
+    </row>
+    <row r="677" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A677" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B677" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C677" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D677" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E677" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F677" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G677" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H677" s="5"/>
+    </row>
+    <row r="678" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A678" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B678" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C678" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D678" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E678" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F678" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G678" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H678" s="5"/>
+    </row>
+    <row r="679" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B679" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C679" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D679" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E679" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F679" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G679" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H679" s="5"/>
+    </row>
+    <row r="680" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A680" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B680" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C680" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D680" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E680" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F680" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G680" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H680" s="5"/>
+    </row>
+    <row r="681" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B681" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C681" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D681" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E681" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F681" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G681" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H681" s="5"/>
+    </row>
+    <row r="682" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B682" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C682" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D682" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E682" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F682" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G682" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H682" s="5"/>
+    </row>
+    <row r="683" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A683" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B683" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C683" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D683" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E683" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F683" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G683" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H683" s="5"/>
+    </row>
+    <row r="684" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A684" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="B684" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C684" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D684" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E684" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F684" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G684" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H684" s="5"/>
+    </row>
+    <row r="685" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B685" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C685" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D685" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E685" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F685" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G685" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H685" s="5"/>
+    </row>
+    <row r="686" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A686" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B686" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C686" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D686" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E686" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F686" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G686" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H686" s="5"/>
+    </row>
+    <row r="687" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H688" s="1"/>
     </row>
     <row r="689" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C06196-BC4E-423C-9F7C-1D7E2969149C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FDD167-4031-41ED-96CF-418673733081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5570" uniqueCount="514">
   <si>
     <t>ФИО</t>
   </si>
@@ -2357,6 +2357,120 @@
   </si>
   <si>
     <t>Молотков Александр Петрович</t>
+  </si>
+  <si>
+    <t>Алдошин Сергей Антонович</t>
+  </si>
+  <si>
+    <t>Куботова Наталья Викторовна</t>
+  </si>
+  <si>
+    <t>Лазарева Анна Алексеевна</t>
+  </si>
+  <si>
+    <t>Лукьянович Дарина Александровна</t>
+  </si>
+  <si>
+    <t>Москаленко Иван Сергеевич</t>
+  </si>
+  <si>
+    <t>Яценко Дарья Михайловна</t>
+  </si>
+  <si>
+    <t>Быкова Айжана Бекалиевна</t>
+  </si>
+  <si>
+    <t>Даценко Елена Николаевна</t>
+  </si>
+  <si>
+    <t>Еремеева Мария Александровна</t>
+  </si>
+  <si>
+    <t>Лобырев Сергей Сергеевич</t>
+  </si>
+  <si>
+    <t>Санкеева Ольга Олеговна</t>
+  </si>
+  <si>
+    <t>Цветкова Ксения Юрьевна</t>
+  </si>
+  <si>
+    <t>Суходольская ирина владимировна</t>
+  </si>
+  <si>
+    <t>Чиквиладзе Лали Левановна</t>
+  </si>
+  <si>
+    <t>Байсалямова Азалия Салаватовна</t>
+  </si>
+  <si>
+    <t>Волохин Станислав Сергеевич</t>
+  </si>
+  <si>
+    <t>Кондратьев Александр Валерьевич</t>
+  </si>
+  <si>
+    <t>Королев Сергей Михайлович</t>
+  </si>
+  <si>
+    <t>Муллабаева Алина Азаматовна</t>
+  </si>
+  <si>
+    <t>Пепелкова Виктория Ивановна</t>
+  </si>
+  <si>
+    <t>Шкутова Диана Дмитриевна</t>
+  </si>
+  <si>
+    <t>Азенбаева Гузель Масхудовна</t>
+  </si>
+  <si>
+    <t>Бачук Екатерина Евгеньевна</t>
+  </si>
+  <si>
+    <t>Грошев Вадим Дмитриевич</t>
+  </si>
+  <si>
+    <t>Данилова Екатерина Александровна</t>
+  </si>
+  <si>
+    <t>Дашипылов Баир Баторович</t>
+  </si>
+  <si>
+    <t>Жилкина Ирина Викторовна</t>
+  </si>
+  <si>
+    <t>Зотов Илья Михайлович</t>
+  </si>
+  <si>
+    <t>Кайнакова Анастасия Анваровна</t>
+  </si>
+  <si>
+    <t>Коноплева Мария Владимировна</t>
+  </si>
+  <si>
+    <t>Масленникова Елена Владимировна</t>
+  </si>
+  <si>
+    <t>Миляева Надежда Николаевна</t>
+  </si>
+  <si>
+    <t>Могильда Антонина Георгиевна</t>
+  </si>
+  <si>
+    <t>Панина Галина Андреевна</t>
+  </si>
+  <si>
+    <t>Разуваева Алиса Александровна</t>
+  </si>
+  <si>
+    <t>Рожнова Татьяна Влпдимировна</t>
+  </si>
+  <si>
+    <t>Терехова Юлия Владимировна</t>
+  </si>
+  <si>
+    <t>Фитющенко Наталья Евгеньевна</t>
   </si>
 </sst>
 </file>
@@ -2535,7 +2649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2593,6 +2707,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2815,8 +2932,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A569" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A584" sqref="A584"/>
+    <sheetView tabSelected="1" topLeftCell="A677" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A687" sqref="A687:H789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19422,346 +19539,2509 @@
       </c>
       <c r="H686" s="5"/>
     </row>
-    <row r="687" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H687" s="1"/>
-    </row>
-    <row r="688" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H688" s="1"/>
-    </row>
-    <row r="689" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H689" s="1"/>
-    </row>
-    <row r="690" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H690" s="1"/>
-    </row>
-    <row r="691" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H691" s="1"/>
-    </row>
-    <row r="692" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H692" s="1"/>
-    </row>
-    <row r="693" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H693" s="1"/>
-    </row>
-    <row r="694" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H694" s="1"/>
-    </row>
-    <row r="695" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H695" s="1"/>
-    </row>
-    <row r="696" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H696" s="1"/>
-    </row>
-    <row r="697" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H697" s="1"/>
-    </row>
-    <row r="698" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H698" s="1"/>
-    </row>
-    <row r="699" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H699" s="1"/>
-    </row>
-    <row r="700" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H700" s="1"/>
-    </row>
-    <row r="701" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H701" s="1"/>
-    </row>
-    <row r="702" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H702" s="1"/>
-    </row>
-    <row r="703" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H703" s="1"/>
-    </row>
-    <row r="704" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H704" s="1"/>
-    </row>
-    <row r="705" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H705" s="1"/>
-    </row>
-    <row r="706" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H706" s="1"/>
-    </row>
-    <row r="707" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H707" s="1"/>
-    </row>
-    <row r="708" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H708" s="1"/>
-    </row>
-    <row r="709" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H709" s="1"/>
-    </row>
-    <row r="710" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H710" s="1"/>
-    </row>
-    <row r="711" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H711" s="1"/>
-    </row>
-    <row r="712" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H712" s="1"/>
-    </row>
-    <row r="713" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H713" s="1"/>
-    </row>
-    <row r="714" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H714" s="1"/>
-    </row>
-    <row r="715" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H715" s="1"/>
-    </row>
-    <row r="716" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H716" s="1"/>
-    </row>
-    <row r="717" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H717" s="1"/>
-    </row>
-    <row r="718" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H718" s="1"/>
-    </row>
-    <row r="719" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H719" s="1"/>
-    </row>
-    <row r="720" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H720" s="1"/>
-    </row>
-    <row r="721" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H721" s="1"/>
-    </row>
-    <row r="722" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H722" s="1"/>
-    </row>
-    <row r="723" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H723" s="1"/>
-    </row>
-    <row r="724" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H724" s="1"/>
-    </row>
-    <row r="725" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H725" s="1"/>
-    </row>
-    <row r="726" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H726" s="1"/>
-    </row>
-    <row r="727" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H727" s="1"/>
-    </row>
-    <row r="728" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H728" s="1"/>
-    </row>
-    <row r="729" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H729" s="1"/>
-    </row>
-    <row r="730" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H730" s="1"/>
-    </row>
-    <row r="731" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H731" s="1"/>
-    </row>
-    <row r="732" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H732" s="1"/>
-    </row>
-    <row r="733" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H733" s="1"/>
-    </row>
-    <row r="734" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H734" s="1"/>
-    </row>
-    <row r="735" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H735" s="1"/>
-    </row>
-    <row r="736" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H736" s="1"/>
-    </row>
-    <row r="737" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H737" s="1"/>
-    </row>
-    <row r="738" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H738" s="1"/>
-    </row>
-    <row r="739" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H739" s="1"/>
-    </row>
-    <row r="740" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H740" s="1"/>
-    </row>
-    <row r="741" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H741" s="1"/>
-    </row>
-    <row r="742" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H742" s="1"/>
-    </row>
-    <row r="743" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H743" s="1"/>
-    </row>
-    <row r="744" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H744" s="1"/>
-    </row>
-    <row r="745" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H745" s="1"/>
-    </row>
-    <row r="746" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H746" s="1"/>
-    </row>
-    <row r="747" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H747" s="1"/>
-    </row>
-    <row r="748" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H748" s="1"/>
-    </row>
-    <row r="749" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H749" s="1"/>
-    </row>
-    <row r="750" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H750" s="1"/>
-    </row>
-    <row r="751" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H751" s="1"/>
-    </row>
-    <row r="752" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H752" s="1"/>
-    </row>
-    <row r="753" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H753" s="1"/>
-    </row>
-    <row r="754" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H754" s="1"/>
-    </row>
-    <row r="755" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H755" s="1"/>
-    </row>
-    <row r="756" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H756" s="1"/>
-    </row>
-    <row r="757" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H757" s="1"/>
-    </row>
-    <row r="758" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H758" s="1"/>
-    </row>
-    <row r="759" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H759" s="1"/>
-    </row>
-    <row r="760" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H760" s="1"/>
-    </row>
-    <row r="761" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H761" s="1"/>
-    </row>
-    <row r="762" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H762" s="1"/>
-    </row>
-    <row r="763" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H763" s="1"/>
-    </row>
-    <row r="764" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H764" s="1"/>
-    </row>
-    <row r="765" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H765" s="1"/>
-    </row>
-    <row r="766" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H766" s="1"/>
-    </row>
-    <row r="767" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H767" s="1"/>
-    </row>
-    <row r="768" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H768" s="1"/>
-    </row>
-    <row r="769" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H769" s="1"/>
-    </row>
-    <row r="770" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H770" s="1"/>
-    </row>
-    <row r="771" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H771" s="1"/>
-    </row>
-    <row r="772" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H772" s="1"/>
-    </row>
-    <row r="773" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H773" s="1"/>
-    </row>
-    <row r="774" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H774" s="1"/>
-    </row>
-    <row r="775" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H775" s="1"/>
-    </row>
-    <row r="776" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H776" s="1"/>
-    </row>
-    <row r="777" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H777" s="1"/>
-    </row>
-    <row r="778" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H778" s="1"/>
-    </row>
-    <row r="779" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H779" s="1"/>
-    </row>
-    <row r="780" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H780" s="1"/>
-    </row>
-    <row r="781" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H781" s="1"/>
-    </row>
-    <row r="782" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H782" s="1"/>
-    </row>
-    <row r="783" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H783" s="1"/>
-    </row>
-    <row r="784" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H784" s="1"/>
-    </row>
-    <row r="785" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H785" s="1"/>
-    </row>
-    <row r="786" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H786" s="1"/>
-    </row>
-    <row r="787" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H787" s="1"/>
-    </row>
-    <row r="788" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H788" s="1"/>
-    </row>
-    <row r="789" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H789" s="1"/>
-    </row>
-    <row r="790" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A687" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B687" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C687" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D687" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E687" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F687" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G687" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H687" s="5"/>
+    </row>
+    <row r="688" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A688" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B688" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C688" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D688" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E688" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F688" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G688" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H688" s="5"/>
+    </row>
+    <row r="689" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A689" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B689" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C689" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D689" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E689" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F689" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G689" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H689" s="5"/>
+    </row>
+    <row r="690" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B690" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C690" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D690" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E690" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F690" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G690" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H690" s="5"/>
+    </row>
+    <row r="691" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B691" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C691" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D691" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E691" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F691" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G691" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H691" s="5"/>
+    </row>
+    <row r="692" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A692" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B692" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C692" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D692" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E692" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F692" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G692" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H692" s="5"/>
+    </row>
+    <row r="693" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A693" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B693" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C693" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D693" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E693" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F693" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G693" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H693" s="5"/>
+    </row>
+    <row r="694" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A694" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B694" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C694" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D694" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E694" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F694" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G694" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H694" s="5"/>
+    </row>
+    <row r="695" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A695" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B695" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C695" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D695" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E695" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F695" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G695" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H695" s="5"/>
+    </row>
+    <row r="696" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A696" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B696" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C696" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D696" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E696" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F696" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G696" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H696" s="5"/>
+    </row>
+    <row r="697" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A697" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B697" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C697" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D697" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E697" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F697" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G697" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H697" s="5"/>
+    </row>
+    <row r="698" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A698" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B698" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C698" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D698" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E698" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F698" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G698" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H698" s="5"/>
+    </row>
+    <row r="699" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A699" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B699" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C699" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D699" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E699" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F699" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G699" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H699" s="5"/>
+    </row>
+    <row r="700" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A700" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B700" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C700" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D700" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E700" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F700" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G700" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H700" s="5"/>
+    </row>
+    <row r="701" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A701" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B701" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C701" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D701" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E701" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F701" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G701" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H701" s="5"/>
+    </row>
+    <row r="702" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A702" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B702" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C702" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D702" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E702" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F702" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G702" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H702" s="5"/>
+    </row>
+    <row r="703" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B703" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C703" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D703" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E703" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F703" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G703" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H703" s="5"/>
+    </row>
+    <row r="704" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A704" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B704" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C704" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D704" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E704" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F704" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G704" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H704" s="5"/>
+    </row>
+    <row r="705" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A705" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B705" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C705" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D705" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E705" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F705" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G705" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H705" s="5"/>
+    </row>
+    <row r="706" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A706" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B706" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C706" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D706" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E706" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F706" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G706" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H706" s="5"/>
+    </row>
+    <row r="707" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A707" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B707" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C707" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D707" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E707" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F707" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G707" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H707" s="5"/>
+    </row>
+    <row r="708" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A708" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B708" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C708" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D708" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E708" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F708" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G708" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H708" s="5"/>
+    </row>
+    <row r="709" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A709" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B709" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C709" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D709" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E709" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F709" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G709" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H709" s="5"/>
+    </row>
+    <row r="710" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A710" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B710" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C710" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D710" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E710" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F710" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G710" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H710" s="5"/>
+    </row>
+    <row r="711" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A711" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B711" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C711" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D711" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E711" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F711" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G711" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H711" s="5"/>
+    </row>
+    <row r="712" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A712" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B712" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C712" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D712" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E712" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F712" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G712" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H712" s="5"/>
+    </row>
+    <row r="713" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A713" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B713" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C713" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D713" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E713" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F713" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G713" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H713" s="5"/>
+    </row>
+    <row r="714" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A714" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B714" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C714" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D714" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E714" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F714" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G714" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H714" s="5"/>
+    </row>
+    <row r="715" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B715" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C715" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D715" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E715" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F715" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G715" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H715" s="5"/>
+    </row>
+    <row r="716" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A716" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B716" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C716" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D716" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E716" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F716" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G716" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H716" s="5"/>
+    </row>
+    <row r="717" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A717" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B717" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C717" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D717" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E717" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F717" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G717" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H717" s="5"/>
+    </row>
+    <row r="718" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A718" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B718" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C718" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D718" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E718" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F718" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G718" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H718" s="5"/>
+    </row>
+    <row r="719" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A719" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B719" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C719" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D719" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E719" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F719" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G719" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H719" s="5"/>
+    </row>
+    <row r="720" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A720" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B720" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C720" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D720" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E720" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F720" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G720" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H720" s="5"/>
+    </row>
+    <row r="721" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A721" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B721" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C721" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D721" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E721" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F721" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G721" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H721" s="5"/>
+    </row>
+    <row r="722" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A722" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B722" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C722" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D722" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E722" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F722" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G722" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H722" s="5"/>
+    </row>
+    <row r="723" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A723" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B723" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C723" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D723" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E723" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F723" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G723" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H723" s="5"/>
+    </row>
+    <row r="724" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A724" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B724" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C724" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D724" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E724" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F724" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G724" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H724" s="5"/>
+    </row>
+    <row r="725" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A725" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B725" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C725" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D725" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E725" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F725" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G725" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H725" s="5"/>
+    </row>
+    <row r="726" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A726" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B726" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C726" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D726" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E726" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F726" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G726" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H726" s="5"/>
+    </row>
+    <row r="727" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A727" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B727" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C727" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D727" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E727" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F727" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G727" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H727" s="5"/>
+    </row>
+    <row r="728" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A728" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B728" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C728" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D728" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E728" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F728" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G728" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H728" s="5"/>
+    </row>
+    <row r="729" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A729" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B729" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C729" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D729" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E729" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F729" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G729" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H729" s="5"/>
+    </row>
+    <row r="730" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A730" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B730" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C730" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D730" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E730" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F730" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G730" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H730" s="5"/>
+    </row>
+    <row r="731" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A731" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B731" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C731" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D731" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E731" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F731" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G731" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H731" s="5"/>
+    </row>
+    <row r="732" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A732" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B732" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C732" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D732" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E732" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F732" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G732" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H732" s="5"/>
+    </row>
+    <row r="733" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A733" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B733" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C733" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D733" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E733" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F733" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G733" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H733" s="5"/>
+    </row>
+    <row r="734" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A734" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B734" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C734" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D734" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E734" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F734" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G734" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H734" s="5"/>
+    </row>
+    <row r="735" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A735" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B735" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C735" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D735" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E735" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F735" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G735" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H735" s="5"/>
+    </row>
+    <row r="736" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A736" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B736" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C736" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D736" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E736" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F736" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G736" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H736" s="5"/>
+    </row>
+    <row r="737" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A737" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B737" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C737" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D737" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E737" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F737" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G737" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H737" s="5"/>
+    </row>
+    <row r="738" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A738" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B738" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C738" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D738" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E738" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F738" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G738" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H738" s="5"/>
+    </row>
+    <row r="739" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A739" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B739" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C739" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D739" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E739" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F739" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G739" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H739" s="5"/>
+    </row>
+    <row r="740" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A740" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B740" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C740" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D740" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E740" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F740" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G740" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H740" s="5"/>
+    </row>
+    <row r="741" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A741" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B741" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C741" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D741" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E741" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F741" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G741" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H741" s="5"/>
+    </row>
+    <row r="742" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A742" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B742" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C742" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D742" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E742" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F742" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G742" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H742" s="5"/>
+    </row>
+    <row r="743" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A743" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B743" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C743" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D743" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E743" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F743" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G743" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H743" s="5"/>
+    </row>
+    <row r="744" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A744" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B744" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C744" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D744" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E744" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F744" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G744" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H744" s="5"/>
+    </row>
+    <row r="745" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A745" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B745" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C745" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D745" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E745" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F745" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G745" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H745" s="5"/>
+    </row>
+    <row r="746" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A746" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B746" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C746" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D746" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E746" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F746" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G746" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H746" s="5"/>
+    </row>
+    <row r="747" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A747" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B747" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C747" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D747" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E747" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F747" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G747" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H747" s="5"/>
+    </row>
+    <row r="748" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A748" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="B748" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C748" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D748" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E748" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F748" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G748" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H748" s="5"/>
+    </row>
+    <row r="749" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A749" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B749" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C749" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D749" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E749" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F749" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G749" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H749" s="5"/>
+    </row>
+    <row r="750" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A750" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B750" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C750" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D750" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E750" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F750" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G750" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H750" s="5"/>
+    </row>
+    <row r="751" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A751" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B751" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C751" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D751" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E751" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F751" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G751" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H751" s="5"/>
+    </row>
+    <row r="752" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A752" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B752" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C752" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D752" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E752" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F752" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G752" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H752" s="5"/>
+    </row>
+    <row r="753" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A753" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B753" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C753" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D753" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E753" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F753" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G753" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H753" s="5"/>
+    </row>
+    <row r="754" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A754" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B754" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C754" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D754" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E754" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F754" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G754" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H754" s="5"/>
+    </row>
+    <row r="755" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A755" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B755" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C755" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D755" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E755" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F755" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G755" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H755" s="5"/>
+    </row>
+    <row r="756" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A756" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B756" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C756" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D756" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E756" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F756" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G756" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H756" s="5"/>
+    </row>
+    <row r="757" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A757" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B757" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C757" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D757" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E757" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F757" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G757" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H757" s="5"/>
+    </row>
+    <row r="758" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A758" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B758" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C758" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D758" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E758" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F758" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G758" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H758" s="5"/>
+    </row>
+    <row r="759" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A759" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B759" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C759" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D759" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E759" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F759" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G759" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H759" s="5"/>
+    </row>
+    <row r="760" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A760" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B760" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C760" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D760" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E760" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F760" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G760" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H760" s="5"/>
+    </row>
+    <row r="761" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A761" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B761" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C761" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D761" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E761" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F761" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G761" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H761" s="5"/>
+    </row>
+    <row r="762" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A762" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B762" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C762" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D762" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E762" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F762" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G762" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H762" s="5"/>
+    </row>
+    <row r="763" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A763" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B763" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C763" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D763" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E763" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F763" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G763" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H763" s="5"/>
+    </row>
+    <row r="764" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A764" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B764" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C764" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D764" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E764" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F764" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G764" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H764" s="5"/>
+    </row>
+    <row r="765" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A765" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B765" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C765" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D765" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E765" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F765" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G765" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H765" s="5"/>
+    </row>
+    <row r="766" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A766" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B766" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C766" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D766" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E766" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F766" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G766" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H766" s="5"/>
+    </row>
+    <row r="767" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A767" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B767" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C767" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D767" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E767" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F767" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G767" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H767" s="5"/>
+    </row>
+    <row r="768" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A768" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B768" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C768" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D768" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E768" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F768" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G768" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H768" s="5"/>
+    </row>
+    <row r="769" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A769" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B769" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C769" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D769" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E769" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F769" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G769" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H769" s="5"/>
+    </row>
+    <row r="770" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A770" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B770" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C770" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D770" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E770" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F770" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G770" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H770" s="5"/>
+    </row>
+    <row r="771" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B771" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C771" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D771" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E771" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F771" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G771" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H771" s="5"/>
+    </row>
+    <row r="772" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A772" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B772" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C772" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D772" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E772" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F772" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G772" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H772" s="5"/>
+    </row>
+    <row r="773" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A773" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B773" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C773" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D773" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E773" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F773" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G773" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H773" s="5"/>
+    </row>
+    <row r="774" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A774" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B774" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C774" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D774" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E774" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F774" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G774" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H774" s="5"/>
+    </row>
+    <row r="775" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A775" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B775" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C775" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D775" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E775" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F775" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G775" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H775" s="5"/>
+    </row>
+    <row r="776" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A776" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B776" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C776" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D776" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E776" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F776" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G776" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H776" s="5"/>
+    </row>
+    <row r="777" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A777" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B777" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C777" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D777" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E777" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F777" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G777" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H777" s="5"/>
+    </row>
+    <row r="778" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A778" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B778" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C778" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D778" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E778" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F778" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G778" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H778" s="5"/>
+    </row>
+    <row r="779" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A779" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B779" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C779" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D779" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E779" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F779" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G779" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H779" s="5"/>
+    </row>
+    <row r="780" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A780" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B780" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C780" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D780" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E780" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F780" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G780" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H780" s="5"/>
+    </row>
+    <row r="781" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A781" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B781" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C781" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D781" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E781" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F781" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G781" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H781" s="5"/>
+    </row>
+    <row r="782" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A782" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B782" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C782" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D782" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E782" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F782" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G782" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H782" s="5"/>
+    </row>
+    <row r="783" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A783" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B783" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C783" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D783" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E783" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F783" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G783" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H783" s="5"/>
+    </row>
+    <row r="784" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A784" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B784" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C784" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D784" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E784" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F784" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G784" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H784" s="5"/>
+    </row>
+    <row r="785" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A785" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B785" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C785" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D785" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E785" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F785" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G785" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H785" s="5"/>
+    </row>
+    <row r="786" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A786" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B786" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C786" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D786" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E786" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F786" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G786" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H786" s="5"/>
+    </row>
+    <row r="787" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A787" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B787" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C787" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D787" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E787" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F787" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G787" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H787" s="5"/>
+    </row>
+    <row r="788" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A788" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B788" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C788" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D788" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E788" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F788" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G788" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H788" s="5"/>
+    </row>
+    <row r="789" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A789" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B789" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C789" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D789" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E789" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F789" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G789" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H789" s="5"/>
+    </row>
+    <row r="790" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H800" s="1"/>
     </row>
     <row r="801" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FDD167-4031-41ED-96CF-418673733081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3A23D1-86B4-4188-8820-2196AD785F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="2610" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5570" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5577" uniqueCount="515">
   <si>
     <t>ФИО</t>
   </si>
@@ -2471,6 +2471,9 @@
   </si>
   <si>
     <t>Фитющенко Наталья Евгеньевна</t>
+  </si>
+  <si>
+    <t>Мурашкин Александр Николаевич</t>
   </si>
 </sst>
 </file>
@@ -2932,8 +2935,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A687" sqref="A687:H789"/>
+    <sheetView tabSelected="1" topLeftCell="A782" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A687" sqref="A687:H790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22011,8 +22014,29 @@
       </c>
       <c r="H789" s="5"/>
     </row>
-    <row r="790" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H790" s="1"/>
+    <row r="790" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A790" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B790" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C790" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D790" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E790" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F790" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G790" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H790" s="5"/>
     </row>
     <row r="791" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H791" s="1"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3A23D1-86B4-4188-8820-2196AD785F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2C6162-288F-4E3C-B467-078E62D56F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="2610" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5577" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5892" uniqueCount="552">
   <si>
     <t>ФИО</t>
   </si>
@@ -2474,6 +2474,117 @@
   </si>
   <si>
     <t>Мурашкин Александр Николаевич</t>
+  </si>
+  <si>
+    <t>Адамович Наталья Павловна</t>
+  </si>
+  <si>
+    <t>Денисенко Анастасия Павловна</t>
+  </si>
+  <si>
+    <t>Крупенкова Лидия Юрьевна</t>
+  </si>
+  <si>
+    <t>Лепетуха Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Медведева Елена Игоревна</t>
+  </si>
+  <si>
+    <t>Пшеничка Иван Владимирович</t>
+  </si>
+  <si>
+    <t>Рубайло Кристина Сергеевна</t>
+  </si>
+  <si>
+    <t>Ефимова Полина Сергеевна</t>
+  </si>
+  <si>
+    <t>Леонова Екатерина Евгеньевна</t>
+  </si>
+  <si>
+    <t>Николаева Надежда Александровна</t>
+  </si>
+  <si>
+    <t>Першин Александр Викторович</t>
+  </si>
+  <si>
+    <t>Пилипчук Даниил Александрович</t>
+  </si>
+  <si>
+    <t>Скрипникова Екатерина Павловна</t>
+  </si>
+  <si>
+    <t>Фахертдинова Юлия Фанузовнв</t>
+  </si>
+  <si>
+    <t>Акопян Аркадий Сергеевич</t>
+  </si>
+  <si>
+    <t>Алиуллова Альбина Гаязовна</t>
+  </si>
+  <si>
+    <t>Астафьева жанна Сергеевна</t>
+  </si>
+  <si>
+    <t>Ахметова Лилия Валерьяновна</t>
+  </si>
+  <si>
+    <t>Богданова Светлана Васильевна</t>
+  </si>
+  <si>
+    <t>Воронкина Софья Юрьевна</t>
+  </si>
+  <si>
+    <t>Жердева Ольга Сергеевна</t>
+  </si>
+  <si>
+    <t>Заболуева Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Иванов Алексей Викторович</t>
+  </si>
+  <si>
+    <t>Коткова Светлана Олеговна</t>
+  </si>
+  <si>
+    <t>Мадашенкова Вероника Владимировна</t>
+  </si>
+  <si>
+    <t>Петченко Татьяна Сергеевна</t>
+  </si>
+  <si>
+    <t>Сапранков Дмитрий Андреевич</t>
+  </si>
+  <si>
+    <t>Сахно Светлана Викторовна</t>
+  </si>
+  <si>
+    <t>Сидоров Александр Геннадьевич</t>
+  </si>
+  <si>
+    <t>Сотникова Оксана Геннадиевна</t>
+  </si>
+  <si>
+    <t>Стасенко Любовь Николаевна</t>
+  </si>
+  <si>
+    <t>Татиевская Виктория Сергеевна</t>
+  </si>
+  <si>
+    <t>Усманова Елена Петровна</t>
+  </si>
+  <si>
+    <t>Муравицкая Елена Николаевна</t>
+  </si>
+  <si>
+    <t>Сотников Кирилл Денисович</t>
+  </si>
+  <si>
+    <t>Шабина Диана Фёдоровна</t>
+  </si>
+  <si>
+    <t>Коровенков Игорь Валериевич</t>
   </si>
 </sst>
 </file>
@@ -2935,8 +3046,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A782" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A687" sqref="A687:H790"/>
+    <sheetView tabSelected="1" topLeftCell="A827" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A791" sqref="A791:H835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22038,178 +22149,1123 @@
       </c>
       <c r="H790" s="5"/>
     </row>
-    <row r="791" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H791" s="1"/>
-    </row>
-    <row r="792" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H792" s="1"/>
-    </row>
-    <row r="793" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H793" s="1"/>
-    </row>
-    <row r="794" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H794" s="1"/>
-    </row>
-    <row r="795" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H795" s="1"/>
-    </row>
-    <row r="796" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H796" s="1"/>
-    </row>
-    <row r="797" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H797" s="1"/>
-    </row>
-    <row r="798" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H798" s="1"/>
-    </row>
-    <row r="799" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H799" s="1"/>
-    </row>
-    <row r="800" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H800" s="1"/>
-    </row>
-    <row r="801" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H801" s="1"/>
-    </row>
-    <row r="802" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H802" s="1"/>
-    </row>
-    <row r="803" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H803" s="1"/>
-    </row>
-    <row r="804" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H804" s="1"/>
-    </row>
-    <row r="805" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H805" s="1"/>
-    </row>
-    <row r="806" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H806" s="1"/>
-    </row>
-    <row r="807" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H807" s="1"/>
-    </row>
-    <row r="808" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H808" s="1"/>
-    </row>
-    <row r="809" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H809" s="1"/>
-    </row>
-    <row r="810" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H810" s="1"/>
-    </row>
-    <row r="811" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H811" s="1"/>
-    </row>
-    <row r="812" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H812" s="1"/>
-    </row>
-    <row r="813" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H813" s="1"/>
-    </row>
-    <row r="814" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H814" s="1"/>
-    </row>
-    <row r="815" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H815" s="1"/>
-    </row>
-    <row r="816" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H816" s="1"/>
-    </row>
-    <row r="817" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H817" s="1"/>
-    </row>
-    <row r="818" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H818" s="1"/>
-    </row>
-    <row r="819" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H819" s="1"/>
-    </row>
-    <row r="820" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H820" s="1"/>
-    </row>
-    <row r="821" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H821" s="1"/>
-    </row>
-    <row r="822" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H822" s="1"/>
-    </row>
-    <row r="823" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H823" s="1"/>
-    </row>
-    <row r="824" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H824" s="1"/>
-    </row>
-    <row r="825" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H825" s="1"/>
-    </row>
-    <row r="826" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H826" s="1"/>
-    </row>
-    <row r="827" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H827" s="1"/>
-    </row>
-    <row r="828" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H828" s="1"/>
-    </row>
-    <row r="829" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H829" s="1"/>
-    </row>
-    <row r="830" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H830" s="1"/>
-    </row>
-    <row r="831" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H831" s="1"/>
-    </row>
-    <row r="832" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H832" s="1"/>
-    </row>
-    <row r="833" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H833" s="1"/>
-    </row>
-    <row r="834" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H834" s="1"/>
-    </row>
-    <row r="835" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H835" s="1"/>
-    </row>
-    <row r="836" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A791" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B791" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C791" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D791" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E791" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F791" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G791" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H791" s="5"/>
+    </row>
+    <row r="792" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A792" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B792" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C792" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D792" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E792" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F792" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G792" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H792" s="5"/>
+    </row>
+    <row r="793" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A793" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B793" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C793" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D793" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E793" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F793" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G793" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H793" s="5"/>
+    </row>
+    <row r="794" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A794" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B794" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C794" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D794" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E794" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F794" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G794" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H794" s="5"/>
+    </row>
+    <row r="795" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A795" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B795" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C795" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D795" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E795" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F795" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G795" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H795" s="5"/>
+    </row>
+    <row r="796" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A796" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B796" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C796" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D796" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E796" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F796" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G796" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H796" s="5"/>
+    </row>
+    <row r="797" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A797" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B797" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C797" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D797" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E797" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F797" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G797" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H797" s="5"/>
+    </row>
+    <row r="798" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A798" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B798" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C798" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D798" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E798" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F798" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G798" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H798" s="5"/>
+    </row>
+    <row r="799" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A799" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B799" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C799" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D799" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E799" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F799" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G799" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H799" s="5"/>
+    </row>
+    <row r="800" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A800" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B800" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C800" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D800" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E800" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F800" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G800" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H800" s="5"/>
+    </row>
+    <row r="801" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A801" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B801" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C801" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D801" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E801" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F801" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G801" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H801" s="5"/>
+    </row>
+    <row r="802" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A802" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B802" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C802" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D802" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E802" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F802" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G802" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H802" s="5"/>
+    </row>
+    <row r="803" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A803" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B803" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C803" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D803" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E803" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F803" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G803" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H803" s="5"/>
+    </row>
+    <row r="804" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A804" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B804" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C804" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D804" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E804" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F804" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G804" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H804" s="5"/>
+    </row>
+    <row r="805" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A805" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B805" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C805" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D805" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E805" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F805" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G805" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H805" s="5"/>
+    </row>
+    <row r="806" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A806" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B806" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C806" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D806" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E806" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F806" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G806" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H806" s="5"/>
+    </row>
+    <row r="807" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A807" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B807" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C807" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D807" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E807" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F807" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G807" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H807" s="5"/>
+    </row>
+    <row r="808" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A808" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B808" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C808" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D808" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E808" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F808" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G808" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H808" s="5"/>
+    </row>
+    <row r="809" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A809" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B809" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C809" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D809" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E809" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F809" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G809" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H809" s="5"/>
+    </row>
+    <row r="810" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A810" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B810" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C810" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D810" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E810" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F810" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G810" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H810" s="5"/>
+    </row>
+    <row r="811" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A811" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B811" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C811" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D811" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E811" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F811" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G811" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H811" s="5"/>
+    </row>
+    <row r="812" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A812" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B812" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C812" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D812" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E812" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F812" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G812" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H812" s="5"/>
+    </row>
+    <row r="813" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A813" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="B813" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C813" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D813" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E813" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F813" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G813" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H813" s="5"/>
+    </row>
+    <row r="814" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A814" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B814" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C814" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D814" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E814" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F814" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G814" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H814" s="5"/>
+    </row>
+    <row r="815" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A815" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B815" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C815" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D815" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E815" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F815" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G815" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H815" s="5"/>
+    </row>
+    <row r="816" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A816" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B816" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C816" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D816" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E816" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F816" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G816" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H816" s="5"/>
+    </row>
+    <row r="817" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A817" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B817" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C817" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D817" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E817" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F817" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G817" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H817" s="5"/>
+    </row>
+    <row r="818" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A818" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B818" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C818" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D818" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E818" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F818" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G818" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H818" s="5"/>
+    </row>
+    <row r="819" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A819" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B819" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C819" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D819" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E819" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F819" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G819" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H819" s="5"/>
+    </row>
+    <row r="820" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A820" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="B820" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C820" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D820" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E820" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F820" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G820" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H820" s="5"/>
+    </row>
+    <row r="821" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A821" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B821" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C821" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D821" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E821" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F821" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G821" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H821" s="5"/>
+    </row>
+    <row r="822" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A822" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B822" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C822" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D822" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E822" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F822" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G822" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H822" s="5"/>
+    </row>
+    <row r="823" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A823" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B823" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C823" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D823" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E823" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F823" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G823" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H823" s="5"/>
+    </row>
+    <row r="824" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A824" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B824" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C824" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D824" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E824" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F824" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G824" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H824" s="5"/>
+    </row>
+    <row r="825" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A825" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B825" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C825" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D825" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E825" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F825" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G825" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H825" s="5"/>
+    </row>
+    <row r="826" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A826" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B826" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C826" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D826" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E826" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F826" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G826" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H826" s="5"/>
+    </row>
+    <row r="827" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A827" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B827" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C827" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D827" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E827" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F827" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G827" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H827" s="5"/>
+    </row>
+    <row r="828" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A828" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B828" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C828" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D828" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E828" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F828" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G828" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H828" s="5"/>
+    </row>
+    <row r="829" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A829" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B829" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C829" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D829" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E829" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F829" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G829" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H829" s="5"/>
+    </row>
+    <row r="830" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A830" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="B830" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C830" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D830" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E830" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F830" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G830" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H830" s="5"/>
+    </row>
+    <row r="831" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A831" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B831" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C831" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D831" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E831" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F831" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G831" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H831" s="5"/>
+    </row>
+    <row r="832" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A832" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B832" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C832" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D832" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E832" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F832" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G832" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H832" s="5"/>
+    </row>
+    <row r="833" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A833" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B833" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C833" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D833" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E833" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F833" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G833" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H833" s="5"/>
+    </row>
+    <row r="834" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A834" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B834" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C834" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D834" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E834" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F834" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G834" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H834" s="5"/>
+    </row>
+    <row r="835" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A835" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B835" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C835" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D835" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E835" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F835" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G835" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H835" s="5"/>
+    </row>
+    <row r="836" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H848" s="1"/>
     </row>
     <row r="849" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2C6162-288F-4E3C-B467-078E62D56F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317C14A8-43A5-46E8-931F-A5E3E8E73726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="2610" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5892" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6795" uniqueCount="619">
   <si>
     <t>ФИО</t>
   </si>
@@ -2585,6 +2585,207 @@
   </si>
   <si>
     <t>Коровенков Игорь Валериевич</t>
+  </si>
+  <si>
+    <t>Бабичев Роман Германович</t>
+  </si>
+  <si>
+    <t>Филатова Юлия Алексеевна</t>
+  </si>
+  <si>
+    <t>Смирнова Мария Витальевна</t>
+  </si>
+  <si>
+    <t>Мавлянова Валерия Анатольевна</t>
+  </si>
+  <si>
+    <t>Астапович Дарья Викторовна</t>
+  </si>
+  <si>
+    <t>Бобков Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>Будылина Елизавета Андреевна</t>
+  </si>
+  <si>
+    <t>Глашев Тамирлан Мурадинович</t>
+  </si>
+  <si>
+    <t>Грачев Никита Сергеевич</t>
+  </si>
+  <si>
+    <t>Куканбаева Камилла Асатилловна</t>
+  </si>
+  <si>
+    <t>Лапшов Александр Евгеньевич</t>
+  </si>
+  <si>
+    <t>Муфаздалова Кристина Сергеевна</t>
+  </si>
+  <si>
+    <t>Некрасов Андрей Валерьевич</t>
+  </si>
+  <si>
+    <t>Плыгунов Егор Сергеевич</t>
+  </si>
+  <si>
+    <t>Уварова Екатерина Юрьевна</t>
+  </si>
+  <si>
+    <t>Фенеш Ваник Робертович</t>
+  </si>
+  <si>
+    <t>Фенюк Александр Игоревич</t>
+  </si>
+  <si>
+    <t>Чупятова Евгения Михайловна</t>
+  </si>
+  <si>
+    <t>Шагинян Юлия Луспароновна</t>
+  </si>
+  <si>
+    <t>Шляхтенко Екатерина Львовна</t>
+  </si>
+  <si>
+    <t>Янкин Артем Александрович</t>
+  </si>
+  <si>
+    <t>Билалов Данис Фанисович</t>
+  </si>
+  <si>
+    <t>Демьянова Елена Валерьевна</t>
+  </si>
+  <si>
+    <t>Жохова Светлана Олеговна</t>
+  </si>
+  <si>
+    <t>Каштанова Елена Викторовна</t>
+  </si>
+  <si>
+    <t>Клешнина Лилия Салаватовна</t>
+  </si>
+  <si>
+    <t>Климов Александр Александрович</t>
+  </si>
+  <si>
+    <t>Кофанов Станислав Васильевич</t>
+  </si>
+  <si>
+    <t>Куликова Мария Александровна</t>
+  </si>
+  <si>
+    <t>Латыпова Рамиля Зайтуновна</t>
+  </si>
+  <si>
+    <t>Овчинникова Марина Дмитриевна</t>
+  </si>
+  <si>
+    <t>Орлова Елена Андреевна</t>
+  </si>
+  <si>
+    <t>Потапов Сергей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Ротинов Михаил Иванович</t>
+  </si>
+  <si>
+    <t>Румянцев Никита Вячеславович</t>
+  </si>
+  <si>
+    <t>Сафронова Оксана Павловна</t>
+  </si>
+  <si>
+    <t>Силкин Сергей Анатольевич</t>
+  </si>
+  <si>
+    <t>Тепляков Аркадий Олегович</t>
+  </si>
+  <si>
+    <t>Толмачева Марина Геннадьевна</t>
+  </si>
+  <si>
+    <t>Ульянова Анастасия Евгеньевна</t>
+  </si>
+  <si>
+    <t>Хасфатов Руслан Валерьевич</t>
+  </si>
+  <si>
+    <t>Церфас Наталия Львовна</t>
+  </si>
+  <si>
+    <t>Аракелян Гаянэ Ваняевна</t>
+  </si>
+  <si>
+    <t>Белозерцева Ирина Алексеевна</t>
+  </si>
+  <si>
+    <t>Кузнецова Елена Владимировна</t>
+  </si>
+  <si>
+    <t>Ольшевская Мария Владиславовна</t>
+  </si>
+  <si>
+    <t>Рыкунова Ирина Владимировна</t>
+  </si>
+  <si>
+    <t>Тимофеева Олеся Владимировна</t>
+  </si>
+  <si>
+    <t>Чуйко Жанна Искандаровна</t>
+  </si>
+  <si>
+    <t>Шевко Маргарита Юрьевна</t>
+  </si>
+  <si>
+    <t>Аликова София Руслановна</t>
+  </si>
+  <si>
+    <t>Гареева Ильзида Ринатовна</t>
+  </si>
+  <si>
+    <t>Карасева Виктория Сергеевна</t>
+  </si>
+  <si>
+    <t>Леонов Сергей Сергеевич</t>
+  </si>
+  <si>
+    <t>линькова анна вадимовна</t>
+  </si>
+  <si>
+    <t>Обердерфер Герман Викторович</t>
+  </si>
+  <si>
+    <t>Парамонова Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>Письмерова Анна Олеговна</t>
+  </si>
+  <si>
+    <t>Сухарева Виктория Юрьевна</t>
+  </si>
+  <si>
+    <t>Якубова Екатерина Алексеевна</t>
+  </si>
+  <si>
+    <t>Булатецкий Дмитрий Михайлович</t>
+  </si>
+  <si>
+    <t>Залякаева Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>Зенина Юлия Сергеевна</t>
+  </si>
+  <si>
+    <t>Лыкова Виктория Олеговна</t>
+  </si>
+  <si>
+    <t>Филатова Мария Игоревна</t>
+  </si>
+  <si>
+    <t>Хованова Екатерина Игоревна</t>
+  </si>
+  <si>
+    <t>Ярушкина Елена Владимировна</t>
   </si>
 </sst>
 </file>
@@ -3046,8 +3247,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A827" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A791" sqref="A791:H835"/>
+    <sheetView tabSelected="1" topLeftCell="A962" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C968" sqref="C968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23229,427 +23430,3374 @@
       </c>
       <c r="H835" s="5"/>
     </row>
-    <row r="836" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H836" s="1"/>
-    </row>
-    <row r="837" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H837" s="1"/>
-    </row>
-    <row r="838" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H838" s="1"/>
-    </row>
-    <row r="839" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H839" s="1"/>
-    </row>
-    <row r="840" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H840" s="1"/>
-    </row>
-    <row r="841" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H841" s="1"/>
-    </row>
-    <row r="842" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H842" s="1"/>
-    </row>
-    <row r="843" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H843" s="1"/>
-    </row>
-    <row r="844" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H844" s="1"/>
-    </row>
-    <row r="845" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H845" s="1"/>
-    </row>
-    <row r="846" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H846" s="1"/>
-    </row>
-    <row r="847" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H847" s="1"/>
-    </row>
-    <row r="848" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H848" s="1"/>
-    </row>
-    <row r="849" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H849" s="1"/>
-    </row>
-    <row r="850" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H850" s="1"/>
-    </row>
-    <row r="851" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H851" s="1"/>
-    </row>
-    <row r="852" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H852" s="1"/>
-    </row>
-    <row r="853" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H853" s="1"/>
-    </row>
-    <row r="854" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H854" s="1"/>
-    </row>
-    <row r="855" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H855" s="1"/>
-    </row>
-    <row r="856" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H856" s="1"/>
-    </row>
-    <row r="857" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H857" s="1"/>
-    </row>
-    <row r="858" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H858" s="1"/>
-    </row>
-    <row r="859" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H859" s="1"/>
-    </row>
-    <row r="860" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H860" s="1"/>
-    </row>
-    <row r="861" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H861" s="1"/>
-    </row>
-    <row r="862" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H862" s="1"/>
-    </row>
-    <row r="863" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H863" s="1"/>
-    </row>
-    <row r="864" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H864" s="1"/>
-    </row>
-    <row r="865" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H865" s="1"/>
-    </row>
-    <row r="866" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H866" s="1"/>
-    </row>
-    <row r="867" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H867" s="1"/>
-    </row>
-    <row r="868" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H868" s="1"/>
-    </row>
-    <row r="869" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H869" s="1"/>
-    </row>
-    <row r="870" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H870" s="1"/>
-    </row>
-    <row r="871" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H871" s="1"/>
-    </row>
-    <row r="872" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H872" s="1"/>
-    </row>
-    <row r="873" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H873" s="1"/>
-    </row>
-    <row r="874" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H874" s="1"/>
-    </row>
-    <row r="875" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H875" s="1"/>
-    </row>
-    <row r="876" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H876" s="1"/>
-    </row>
-    <row r="877" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H877" s="1"/>
-    </row>
-    <row r="878" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H878" s="1"/>
-    </row>
-    <row r="879" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H879" s="1"/>
-    </row>
-    <row r="880" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H880" s="1"/>
-    </row>
-    <row r="881" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H881" s="1"/>
-    </row>
-    <row r="882" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H882" s="1"/>
-    </row>
-    <row r="883" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H883" s="1"/>
-    </row>
-    <row r="884" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H884" s="1"/>
-    </row>
-    <row r="885" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H885" s="1"/>
-    </row>
-    <row r="886" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H886" s="1"/>
-    </row>
-    <row r="887" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H887" s="1"/>
-    </row>
-    <row r="888" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H888" s="1"/>
-    </row>
-    <row r="889" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H889" s="1"/>
-    </row>
-    <row r="890" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H890" s="1"/>
-    </row>
-    <row r="891" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H891" s="1"/>
-    </row>
-    <row r="892" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H892" s="1"/>
-    </row>
-    <row r="893" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H893" s="1"/>
-    </row>
-    <row r="894" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H894" s="1"/>
-    </row>
-    <row r="895" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H895" s="1"/>
-    </row>
-    <row r="896" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H896" s="1"/>
-    </row>
-    <row r="897" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H897" s="1"/>
-    </row>
-    <row r="898" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H898" s="1"/>
-    </row>
-    <row r="899" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H899" s="1"/>
-    </row>
-    <row r="900" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H900" s="1"/>
-    </row>
-    <row r="901" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H901" s="1"/>
-    </row>
-    <row r="902" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H902" s="1"/>
-    </row>
-    <row r="903" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H903" s="1"/>
-    </row>
-    <row r="904" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H904" s="1"/>
-    </row>
-    <row r="905" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H905" s="1"/>
-    </row>
-    <row r="906" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H906" s="1"/>
-    </row>
-    <row r="907" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H907" s="1"/>
-    </row>
-    <row r="908" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H908" s="1"/>
-    </row>
-    <row r="909" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H909" s="1"/>
-    </row>
-    <row r="910" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H910" s="1"/>
-    </row>
-    <row r="911" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H911" s="1"/>
-    </row>
-    <row r="912" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H912" s="1"/>
-    </row>
-    <row r="913" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H913" s="1"/>
-    </row>
-    <row r="914" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H914" s="1"/>
-    </row>
-    <row r="915" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H915" s="1"/>
-    </row>
-    <row r="916" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H916" s="1"/>
-    </row>
-    <row r="917" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H917" s="1"/>
-    </row>
-    <row r="918" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H918" s="1"/>
-    </row>
-    <row r="919" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H919" s="1"/>
-    </row>
-    <row r="920" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H920" s="1"/>
-    </row>
-    <row r="921" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H921" s="1"/>
-    </row>
-    <row r="922" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H922" s="1"/>
-    </row>
-    <row r="923" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H923" s="1"/>
-    </row>
-    <row r="924" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H924" s="1"/>
-    </row>
-    <row r="925" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H925" s="1"/>
-    </row>
-    <row r="926" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H926" s="1"/>
-    </row>
-    <row r="927" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H927" s="1"/>
-    </row>
-    <row r="928" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H928" s="1"/>
-    </row>
-    <row r="929" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H929" s="1"/>
-    </row>
-    <row r="930" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H930" s="1"/>
-    </row>
-    <row r="931" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H931" s="1"/>
-    </row>
-    <row r="932" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H932" s="1"/>
-    </row>
-    <row r="933" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H933" s="1"/>
-    </row>
-    <row r="934" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H934" s="1"/>
-    </row>
-    <row r="935" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H935" s="1"/>
-    </row>
-    <row r="936" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H936" s="1"/>
-    </row>
-    <row r="937" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H937" s="1"/>
-    </row>
-    <row r="938" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H938" s="1"/>
-    </row>
-    <row r="939" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H939" s="1"/>
-    </row>
-    <row r="940" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H940" s="1"/>
-    </row>
-    <row r="941" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H941" s="1"/>
-    </row>
-    <row r="942" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H942" s="1"/>
-    </row>
-    <row r="943" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H943" s="1"/>
-    </row>
-    <row r="944" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H944" s="1"/>
-    </row>
-    <row r="945" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H945" s="1"/>
-    </row>
-    <row r="946" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H946" s="1"/>
-    </row>
-    <row r="947" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H947" s="1"/>
-    </row>
-    <row r="948" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H948" s="1"/>
-    </row>
-    <row r="949" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H949" s="1"/>
-    </row>
-    <row r="950" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H950" s="1"/>
-    </row>
-    <row r="951" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H951" s="1"/>
-    </row>
-    <row r="952" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H952" s="1"/>
-    </row>
-    <row r="953" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H953" s="1"/>
-    </row>
-    <row r="954" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H954" s="1"/>
-    </row>
-    <row r="955" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H955" s="1"/>
-    </row>
-    <row r="956" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H956" s="1"/>
-    </row>
-    <row r="957" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H957" s="1"/>
-    </row>
-    <row r="958" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H958" s="1"/>
-    </row>
-    <row r="959" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H959" s="1"/>
-    </row>
-    <row r="960" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H960" s="1"/>
-    </row>
-    <row r="961" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H961" s="1"/>
-    </row>
-    <row r="962" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H962" s="1"/>
-    </row>
-    <row r="963" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H963" s="1"/>
-    </row>
-    <row r="964" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H964" s="1"/>
-    </row>
-    <row r="965" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A836" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B836" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C836" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D836" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E836" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F836" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G836" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H836" s="5"/>
+    </row>
+    <row r="837" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A837" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B837" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C837" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D837" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E837" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F837" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G837" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H837" s="5"/>
+    </row>
+    <row r="838" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A838" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B838" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C838" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D838" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E838" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F838" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G838" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H838" s="5"/>
+    </row>
+    <row r="839" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A839" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B839" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C839" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D839" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E839" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F839" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G839" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H839" s="5"/>
+    </row>
+    <row r="840" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A840" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B840" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C840" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D840" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E840" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F840" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G840" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H840" s="5"/>
+    </row>
+    <row r="841" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A841" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B841" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C841" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D841" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E841" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F841" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G841" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H841" s="5"/>
+    </row>
+    <row r="842" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A842" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B842" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C842" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D842" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E842" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F842" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G842" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H842" s="5"/>
+    </row>
+    <row r="843" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A843" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B843" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C843" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D843" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E843" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F843" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G843" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H843" s="5"/>
+    </row>
+    <row r="844" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A844" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B844" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C844" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D844" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E844" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F844" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G844" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H844" s="5"/>
+    </row>
+    <row r="845" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A845" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B845" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C845" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D845" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E845" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F845" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G845" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H845" s="5"/>
+    </row>
+    <row r="846" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A846" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B846" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C846" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D846" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E846" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F846" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G846" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H846" s="12">
+        <v>89152488681</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A847" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B847" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C847" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D847" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E847" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F847" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G847" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H847" s="12">
+        <v>89171567226</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A848" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B848" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C848" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D848" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E848" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F848" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G848" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H848" s="12">
+        <v>89811103243</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A849" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B849" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C849" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D849" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E849" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F849" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G849" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H849" s="12">
+        <v>89118575740</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A850" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B850" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C850" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D850" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E850" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F850" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G850" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H850" s="12">
+        <v>89101014002</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A851" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B851" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C851" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D851" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E851" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F851" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G851" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H851" s="12">
+        <v>89853071717</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A852" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B852" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C852" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D852" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E852" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F852" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G852" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H852" s="12">
+        <v>89852888852</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A853" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B853" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C853" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D853" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E853" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F853" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G853" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H853" s="12">
+        <v>89105235056</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A854" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B854" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C854" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D854" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E854" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F854" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G854" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H854" s="12">
+        <v>89879255765</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A855" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B855" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C855" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D855" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E855" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F855" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G855" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H855" s="12">
+        <v>89834606397</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A856" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B856" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C856" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D856" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E856" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F856" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G856" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H856" s="12">
+        <v>89828752542</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A857" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B857" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C857" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D857" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E857" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F857" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G857" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H857" s="12">
+        <v>89158526203</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A858" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B858" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C858" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D858" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E858" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F858" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G858" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H858" s="12">
+        <v>89118832940</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A859" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B859" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C859" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D859" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E859" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F859" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G859" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H859" s="12">
+        <v>89173472617</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A860" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B860" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C860" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D860" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E860" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F860" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G860" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H860" s="12">
+        <v>89645151193</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A861" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B861" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C861" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D861" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E861" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F861" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G861" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H861" s="12">
+        <v>89870559586</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A862" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B862" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C862" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D862" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E862" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F862" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G862" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H862" s="12">
+        <v>89185632396</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A863" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B863" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C863" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D863" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E863" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F863" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G863" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H863" s="12">
+        <v>89520985944</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A864" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B864" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C864" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D864" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E864" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F864" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G864" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H864" s="12">
+        <v>89164347673</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A865" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B865" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C865" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D865" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E865" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F865" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G865" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H865" s="12">
+        <v>89886677696</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A866" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B866" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C866" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D866" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E866" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F866" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G866" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H866" s="12">
+        <v>89170154915</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A867" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B867" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C867" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D867" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E867" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F867" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G867" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H867" s="12">
+        <v>89179527646</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A868" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B868" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C868" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D868" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E868" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F868" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G868" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H868" s="12">
+        <v>89188955520</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A869" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B869" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C869" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D869" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E869" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F869" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G869" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H869" s="12">
+        <v>89169532491</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A870" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B870" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C870" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D870" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E870" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F870" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G870" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H870" s="12">
+        <v>89177967709</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A871" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B871" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C871" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D871" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E871" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F871" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G871" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H871" s="12">
+        <v>89272617778</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A872" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B872" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C872" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D872" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E872" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F872" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G872" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H872" s="12">
+        <v>89179129417</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A873" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B873" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C873" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D873" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E873" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F873" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G873" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H873" s="12">
+        <v>89885537545</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A874" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B874" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C874" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D874" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E874" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F874" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G874" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H874" s="12">
+        <v>89178435005</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A875" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B875" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C875" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D875" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E875" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F875" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G875" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H875" s="12">
+        <v>89293836087</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A876" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B876" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C876" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D876" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E876" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F876" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G876" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H876" s="12">
+        <v>89871331097</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A877" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B877" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C877" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D877" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E877" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F877" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G877" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H877" s="12">
+        <v>89872907372</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A878" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B878" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C878" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D878" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E878" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F878" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G878" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H878" s="12">
+        <v>89851954931</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A879" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B879" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C879" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D879" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E879" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F879" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G879" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H879" s="12">
+        <v>89876268760</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A880" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B880" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C880" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D880" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E880" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F880" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G880" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H880" s="12">
+        <v>89167101222</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A881" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B881" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C881" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D881" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E881" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F881" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G881" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H881" s="12">
+        <v>89172975012</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A882" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B882" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C882" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D882" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E882" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F882" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G882" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H882" s="12">
+        <v>89506531057</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A883" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B883" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C883" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D883" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E883" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F883" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G883" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H883" s="12">
+        <v>89156212815</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A884" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B884" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C884" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D884" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E884" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F884" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G884" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H884" s="12">
+        <v>89166669364</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A885" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B885" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C885" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D885" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E885" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F885" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G885" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H885" s="12">
+        <v>89165884277</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A886" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B886" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C886" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D886" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E886" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F886" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G886" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H886" s="12">
+        <v>89875564142</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A887" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B887" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C887" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D887" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E887" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F887" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G887" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H887" s="12">
+        <v>89879348744</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A888" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B888" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C888" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D888" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E888" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F888" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G888" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H888" s="12">
+        <v>89879020304</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A889" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B889" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C889" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D889" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E889" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F889" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G889" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H889" s="12">
+        <v>89812495921</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A890" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B890" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C890" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D890" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E890" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F890" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G890" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H890" s="12">
+        <v>89148921589</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A891" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B891" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C891" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D891" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E891" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F891" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G891" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H891" s="12">
+        <v>89043922977</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A892" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B892" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C892" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D892" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E892" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F892" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G892" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H892" s="12">
+        <v>89876012030</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A893" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B893" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C893" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D893" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E893" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F893" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G893" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H893" s="12">
+        <v>89173577200</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A894" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B894" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C894" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D894" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E894" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F894" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G894" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H894" s="12">
+        <v>89163292305</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A895" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B895" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C895" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D895" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E895" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F895" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G895" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H895" s="12">
+        <v>89108536840</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A896" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B896" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C896" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D896" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E896" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F896" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G896" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H896" s="12">
+        <v>89174125893</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A897" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B897" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C897" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D897" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E897" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F897" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G897" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H897" s="12">
+        <v>89165397534</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A898" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B898" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C898" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D898" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E898" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F898" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G898" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H898" s="12">
+        <v>89171198319</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A899" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B899" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C899" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D899" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E899" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F899" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G899" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H899" s="12">
+        <v>89139155065</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A900" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B900" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C900" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D900" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E900" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F900" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G900" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H900" s="12">
+        <v>89101407373</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A901" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B901" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C901" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D901" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E901" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F901" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G901" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H901" s="12">
+        <v>89192530120</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A902" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B902" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C902" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D902" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E902" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F902" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G902" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H902" s="12">
+        <v>89169222595</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A903" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B903" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C903" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D903" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E903" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F903" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G903" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H903" s="12">
+        <v>89185249644</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A904" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B904" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C904" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D904" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E904" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F904" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G904" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H904" s="12">
+        <v>89167277994</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A905" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B905" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C905" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D905" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E905" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F905" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G905" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H905" s="12">
+        <v>89879583562</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A906" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B906" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C906" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D906" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E906" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F906" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G906" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H906" s="12">
+        <v>89119797711</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A907" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B907" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C907" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D907" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E907" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F907" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G907" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H907" s="12">
+        <v>89163419757</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A908" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B908" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C908" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D908" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E908" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F908" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G908" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H908" s="12">
+        <v>89119306386</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A909" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B909" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C909" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D909" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E909" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F909" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G909" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H909" s="12">
+        <v>89254688138</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A910" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B910" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C910" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D910" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E910" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F910" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G910" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H910" s="12">
+        <v>89118811513</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A911" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B911" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C911" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D911" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E911" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F911" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G911" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H911" s="12">
+        <v>89645320283</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A912" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B912" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C912" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D912" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E912" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F912" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G912" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H912" s="12">
+        <v>89193846292</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A913" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B913" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C913" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D913" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E913" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F913" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G913" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H913" s="12">
+        <v>89119220210</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A914" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B914" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C914" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D914" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E914" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F914" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G914" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H914" s="12">
+        <v>89875433174</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A915" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B915" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C915" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D915" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E915" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F915" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G915" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H915" s="12">
+        <v>89110076930</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A916" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B916" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C916" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D916" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E916" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F916" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G916" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H916" s="12">
+        <v>89164150841</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A917" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B917" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C917" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D917" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E917" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F917" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G917" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H917" s="12">
+        <v>89160571933</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A918" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B918" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C918" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D918" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E918" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F918" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G918" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H918" s="12">
+        <v>89859188396</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A919" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B919" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C919" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D919" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E919" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F919" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G919" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H919" s="12">
+        <v>89112071653</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A920" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B920" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C920" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D920" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E920" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F920" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G920" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H920" s="12">
+        <v>89064325418</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A921" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B921" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C921" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D921" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E921" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F921" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G921" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H921" s="12">
+        <v>89826771547</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A922" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B922" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C922" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D922" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E922" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F922" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G922" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H922" s="12">
+        <v>89192624544</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A923" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B923" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C923" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D923" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E923" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F923" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G923" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H923" s="12">
+        <v>89869633972</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A924" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B924" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C924" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D924" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E924" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F924" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G924" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H924" s="12">
+        <v>89150168515</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A925" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B925" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C925" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D925" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E925" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F925" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G925" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H925" s="12">
+        <v>89585007012</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A926" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B926" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C926" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D926" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E926" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F926" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G926" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H926" s="12">
+        <v>89818533426</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A927" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B927" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C927" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D927" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E927" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F927" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G927" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H927" s="12">
+        <v>89118389580</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A928" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B928" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C928" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D928" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E928" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F928" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G928" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H928" s="12">
+        <v>89114501659</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A929" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B929" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C929" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D929" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E929" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F929" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G929" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H929" s="12">
+        <v>89117037995</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A930" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B930" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C930" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D930" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E930" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F930" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G930" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H930" s="12">
+        <v>89807831947</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A931" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B931" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C931" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D931" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E931" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F931" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G931" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H931" s="12">
+        <v>89812051802</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A932" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B932" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C932" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D932" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E932" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F932" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G932" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H932" s="12">
+        <v>89169530176</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A933" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B933" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C933" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D933" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E933" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F933" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G933" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H933" s="12">
+        <v>89119681752</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A934" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B934" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C934" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D934" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E934" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F934" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G934" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H934" s="12">
+        <v>89818441643</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A935" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B935" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C935" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D935" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E935" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F935" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G935" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H935" s="12">
+        <v>89880119353</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A936" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B936" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C936" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D936" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E936" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F936" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G936" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H936" s="12">
+        <v>89153899817</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A937" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B937" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C937" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D937" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E937" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F937" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G937" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H937" s="12">
+        <v>89186186731</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A938" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B938" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C938" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D938" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E938" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F938" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G938" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H938" s="12">
+        <v>89871462799</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A939" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B939" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C939" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D939" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E939" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F939" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G939" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H939" s="12">
+        <v>89189062874</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A940" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B940" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C940" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D940" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E940" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F940" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G940" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H940" s="12">
+        <v>89117859010</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A941" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B941" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C941" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D941" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E941" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F941" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G941" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H941" s="12">
+        <v>89101210600</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A942" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B942" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C942" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D942" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E942" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F942" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G942" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H942" s="12">
+        <v>89112880948</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A943" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="B943" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C943" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D943" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E943" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F943" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G943" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H943" s="12">
+        <v>89184177912</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A944" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B944" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C944" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D944" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E944" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F944" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G944" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H944" s="12">
+        <v>89529105105</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A945" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B945" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C945" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D945" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E945" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F945" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G945" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H945" s="12">
+        <v>89857290946</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A946" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B946" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C946" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D946" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E946" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F946" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G946" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H946" s="12">
+        <v>89126000830</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A947" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B947" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C947" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D947" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E947" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F947" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G947" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H947" s="12">
+        <v>89041620182</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A948" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B948" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C948" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D948" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E948" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F948" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G948" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H948" s="12">
+        <v>89137951125</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A949" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B949" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C949" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D949" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E949" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F949" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G949" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H949" s="12">
+        <v>89167772030</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A950" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B950" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C950" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D950" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E950" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F950" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G950" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H950" s="12">
+        <v>89163068727</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A951" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B951" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C951" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D951" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E951" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F951" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G951" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H951" s="12">
+        <v>89102328302</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A952" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B952" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C952" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D952" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E952" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F952" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G952" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H952" s="12">
+        <v>89174513638</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A953" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B953" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C953" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D953" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E953" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F953" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G953" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H953" s="12">
+        <v>89149151945</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A954" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B954" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C954" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D954" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E954" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F954" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G954" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H954" s="12">
+        <v>89139044887</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A955" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B955" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C955" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D955" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E955" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F955" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G955" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H955" s="12">
+        <v>89174440424</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A956" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B956" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C956" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D956" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E956" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F956" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G956" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H956" s="12">
+        <v>89111449688</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A957" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B957" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C957" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D957" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E957" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F957" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G957" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H957" s="12">
+        <v>89167072664</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A958" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B958" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C958" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D958" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E958" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F958" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G958" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H958" s="12">
+        <v>89139567161</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A959" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B959" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C959" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D959" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E959" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F959" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G959" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H959" s="12">
+        <v>89161662647</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A960" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B960" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C960" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D960" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E960" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F960" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G960" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H960" s="12">
+        <v>89038319808</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A961" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B961" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C961" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D961" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E961" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F961" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G961" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H961" s="12">
+        <v>89173330984</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A962" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B962" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C962" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D962" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E962" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F962" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G962" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H962" s="12">
+        <v>89152130070</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A963" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B963" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C963" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D963" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E963" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F963" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G963" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H963" s="12">
+        <v>89172462896</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A964" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B964" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C964" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D964" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E964" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F964" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G964" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H964" s="12">
+        <v>89889500030</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H965" s="1"/>
     </row>
-    <row r="966" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H966" s="1"/>
     </row>
-    <row r="967" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H967" s="1"/>
     </row>
-    <row r="968" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H968" s="1"/>
     </row>
-    <row r="969" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H969" s="1"/>
     </row>
-    <row r="970" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H970" s="1"/>
     </row>
-    <row r="971" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H971" s="1"/>
     </row>
-    <row r="972" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H972" s="1"/>
     </row>
-    <row r="973" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H973" s="1"/>
     </row>
-    <row r="974" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H974" s="1"/>
     </row>
-    <row r="975" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H975" s="1"/>
     </row>
-    <row r="976" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H976" s="1"/>
     </row>
     <row r="977" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317C14A8-43A5-46E8-931F-A5E3E8E73726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7C3E3B-BF40-4F61-AC05-4EA790889203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="2610" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6795" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6963" uniqueCount="637">
   <si>
     <t>ФИО</t>
   </si>
@@ -2786,6 +2786,60 @@
   </si>
   <si>
     <t>Ярушкина Елена Владимировна</t>
+  </si>
+  <si>
+    <t>Малкин Андрей Александрович</t>
+  </si>
+  <si>
+    <t>Макарочкина Татьяна Альбертовна</t>
+  </si>
+  <si>
+    <t>Садовская Надежда Дмитриевна</t>
+  </si>
+  <si>
+    <t>Кудайбергенов Алишер</t>
+  </si>
+  <si>
+    <t>Сарапулов Станислав Олегович</t>
+  </si>
+  <si>
+    <t>Колчук Елена Витальевна</t>
+  </si>
+  <si>
+    <t>Челмакин Максим Эдуардович</t>
+  </si>
+  <si>
+    <t>Малинкина Светлана Владимировна</t>
+  </si>
+  <si>
+    <t>Абрамов Игорь Евгеньевич</t>
+  </si>
+  <si>
+    <t>Мануйлова Анастасия Евгеньевна</t>
+  </si>
+  <si>
+    <t>Савицкий Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>Русов Евгений Сергеевич</t>
+  </si>
+  <si>
+    <t>Казаринова Надежда Анатольевна</t>
+  </si>
+  <si>
+    <t>Азбукина Майя Викторовна</t>
+  </si>
+  <si>
+    <t>Мусагитов Евгений Владимирович</t>
+  </si>
+  <si>
+    <t>Гуголько Виктор Андреевич</t>
+  </si>
+  <si>
+    <t>Новичков Алексей Юрьевич</t>
+  </si>
+  <si>
+    <t>Попов Сергей Владимирович</t>
   </si>
 </sst>
 </file>
@@ -2866,7 +2920,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2921,6 +2975,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2964,7 +3042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3025,6 +3103,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3248,7 +3338,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A962" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C968" sqref="C968"/>
+      <selection activeCell="A965" sqref="A965:H988"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26764,88 +26854,614 @@
         <v>89889500030</v>
       </c>
     </row>
-    <row r="965" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H965" s="1"/>
-    </row>
-    <row r="966" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H966" s="1"/>
-    </row>
-    <row r="967" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H967" s="1"/>
-    </row>
-    <row r="968" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H968" s="1"/>
-    </row>
-    <row r="969" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H969" s="1"/>
-    </row>
-    <row r="970" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H970" s="1"/>
-    </row>
-    <row r="971" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H971" s="1"/>
-    </row>
-    <row r="972" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H972" s="1"/>
-    </row>
-    <row r="973" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H973" s="1"/>
-    </row>
-    <row r="974" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H974" s="1"/>
-    </row>
-    <row r="975" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H975" s="1"/>
-    </row>
-    <row r="976" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H976" s="1"/>
-    </row>
-    <row r="977" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H977" s="1"/>
-    </row>
-    <row r="978" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H978" s="1"/>
-    </row>
-    <row r="979" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H979" s="1"/>
-    </row>
-    <row r="980" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H980" s="1"/>
-    </row>
-    <row r="981" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H981" s="1"/>
-    </row>
-    <row r="982" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H982" s="1"/>
-    </row>
-    <row r="983" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H983" s="1"/>
-    </row>
-    <row r="984" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H984" s="1"/>
-    </row>
-    <row r="985" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H985" s="1"/>
-    </row>
-    <row r="986" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H986" s="1"/>
-    </row>
-    <row r="987" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H987" s="1"/>
-    </row>
-    <row r="988" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H988" s="1"/>
-    </row>
-    <row r="989" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A965" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B965" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C965" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D965" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E965" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F965" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G965" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H965" s="5"/>
+    </row>
+    <row r="966" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A966" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="B966" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C966" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D966" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E966" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F966" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G966" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H966" s="5"/>
+    </row>
+    <row r="967" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A967" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B967" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C967" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D967" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E967" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F967" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G967" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H967" s="5"/>
+    </row>
+    <row r="968" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A968" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="B968" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C968" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D968" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E968" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F968" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G968" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H968" s="5"/>
+    </row>
+    <row r="969" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A969" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B969" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C969" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D969" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E969" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F969" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G969" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H969" s="5"/>
+    </row>
+    <row r="970" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A970" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B970" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C970" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D970" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E970" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F970" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G970" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H970" s="5"/>
+    </row>
+    <row r="971" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A971" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B971" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C971" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D971" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E971" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F971" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G971" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H971" s="5"/>
+    </row>
+    <row r="972" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A972" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B972" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C972" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D972" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E972" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F972" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G972" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H972" s="5"/>
+    </row>
+    <row r="973" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A973" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B973" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C973" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D973" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E973" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F973" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G973" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H973" s="5"/>
+    </row>
+    <row r="974" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A974" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B974" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C974" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D974" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E974" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F974" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G974" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H974" s="5"/>
+    </row>
+    <row r="975" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A975" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B975" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C975" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D975" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E975" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F975" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G975" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H975" s="5"/>
+    </row>
+    <row r="976" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A976" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B976" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C976" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D976" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E976" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F976" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G976" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H976" s="5"/>
+    </row>
+    <row r="977" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A977" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B977" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C977" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D977" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E977" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F977" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G977" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H977" s="5"/>
+    </row>
+    <row r="978" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A978" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B978" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C978" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D978" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E978" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F978" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G978" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H978" s="12">
+        <v>89885082916</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A979" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B979" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C979" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D979" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E979" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F979" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G979" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H979" s="12">
+        <v>89137364796</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A980" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B980" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C980" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D980" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E980" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F980" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G980" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H980" s="12">
+        <v>89162097128</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A981" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B981" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C981" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D981" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E981" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F981" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G981" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H981" s="12">
+        <v>89109551661</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A982" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B982" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C982" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D982" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E982" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F982" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G982" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H982" s="12">
+        <v>89117626933</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A983" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B983" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C983" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D983" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E983" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F983" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G983" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H983" s="12">
+        <v>89653965156</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A984" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B984" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C984" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D984" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E984" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F984" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G984" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H984" s="12">
+        <v>89174163129</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A985" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B985" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C985" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D985" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E985" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F985" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G985" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H985" s="12">
+        <v>89615942102</v>
+      </c>
+    </row>
+    <row r="986" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A986" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B986" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C986" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D986" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E986" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F986" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G986" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H986" s="12">
+        <v>89171099240</v>
+      </c>
+    </row>
+    <row r="987" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A987" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B987" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C987" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D987" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E987" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F987" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G987" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H987" s="12">
+        <v>89057585144</v>
+      </c>
+    </row>
+    <row r="988" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A988" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B988" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C988" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D988" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E988" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F988" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G988" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H988" s="12">
+        <v>89260118200</v>
+      </c>
+    </row>
+    <row r="989" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H989" s="1"/>
     </row>
-    <row r="990" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H990" s="1"/>
     </row>
-    <row r="991" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H991" s="1"/>
     </row>
-    <row r="992" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H992" s="1"/>
     </row>
     <row r="993" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7C3E3B-BF40-4F61-AC05-4EA790889203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2042A1A6-4B86-47DD-B103-B39ACA8A0D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="2610" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6963" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7019" uniqueCount="641">
   <si>
     <t>ФИО</t>
   </si>
@@ -2840,6 +2840,18 @@
   </si>
   <si>
     <t>Попов Сергей Владимирович</t>
+  </si>
+  <si>
+    <t>Ковганов Михаил Олегович</t>
+  </si>
+  <si>
+    <t>Кузнецова Елена Андреевна</t>
+  </si>
+  <si>
+    <t>Игумнов Станислав Олегович</t>
+  </si>
+  <si>
+    <t>Кревских Елена Алексеевна</t>
   </si>
 </sst>
 </file>
@@ -3337,8 +3349,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A962" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A965" sqref="A965:H988"/>
+    <sheetView tabSelected="1" topLeftCell="A980" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A989" sqref="A989:G996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27452,43 +27464,211 @@
         <v>89260118200</v>
       </c>
     </row>
-    <row r="989" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A989" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B989" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C989" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D989" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E989" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F989" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G989" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H989" s="1"/>
     </row>
-    <row r="990" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A990" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B990" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C990" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D990" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E990" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F990" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G990" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H990" s="1"/>
     </row>
-    <row r="991" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A991" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B991" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C991" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D991" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E991" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F991" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G991" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H991" s="1"/>
     </row>
-    <row r="992" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A992" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B992" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C992" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D992" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E992" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F992" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G992" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H992" s="1"/>
     </row>
-    <row r="993" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A993" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B993" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C993" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D993" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E993" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F993" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G993" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H993" s="1"/>
     </row>
-    <row r="994" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A994" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B994" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C994" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D994" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E994" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F994" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G994" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H994" s="1"/>
     </row>
-    <row r="995" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A995" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B995" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C995" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D995" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E995" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F995" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G995" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H995" s="1"/>
     </row>
-    <row r="996" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A996" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B996" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C996" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D996" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E996" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F996" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G996" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H996" s="1"/>
     </row>
-    <row r="997" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H997" s="1"/>
     </row>
-    <row r="998" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H998" s="1"/>
     </row>
-    <row r="999" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H999" s="1"/>
     </row>
-    <row r="1000" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H1000" s="1"/>
     </row>
-    <row r="1001" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H1001" s="1"/>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2042A1A6-4B86-47DD-B103-B39ACA8A0D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF460FC-8CA7-402D-B5CB-93DB32E12408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2610" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7019" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7068" uniqueCount="644">
   <si>
     <t>ФИО</t>
   </si>
@@ -2852,6 +2852,15 @@
   </si>
   <si>
     <t>Кревских Елена Алексеевна</t>
+  </si>
+  <si>
+    <t>Федорова Светлана Валерьевна</t>
+  </si>
+  <si>
+    <t>Абдуллина минзалия Гайфиевна</t>
+  </si>
+  <si>
+    <t>Корсакова Ирина Аркадьевна</t>
   </si>
 </sst>
 </file>
@@ -3347,10 +3356,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1001"/>
+  <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A980" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A989" sqref="A989:G996"/>
+    <sheetView tabSelected="1" topLeftCell="A991" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1004" sqref="B1004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18422,7 +18431,7 @@
     </row>
     <row r="623" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B623" s="20" t="s">
         <v>150</v>
@@ -18431,22 +18440,22 @@
         <v>6</v>
       </c>
       <c r="D623" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E623" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F623" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G623" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H623" s="5"/>
     </row>
     <row r="624" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="5" t="s">
-        <v>447</v>
+      <c r="A624" s="14" t="s">
+        <v>382</v>
       </c>
       <c r="B624" s="20" t="s">
         <v>150</v>
@@ -18455,7 +18464,7 @@
         <v>6</v>
       </c>
       <c r="D624" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E624" s="5" t="s">
         <v>20</v>
@@ -18470,7 +18479,7 @@
     </row>
     <row r="625" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A625" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B625" s="20" t="s">
         <v>150</v>
@@ -18479,10 +18488,10 @@
         <v>6</v>
       </c>
       <c r="D625" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E625" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F625" s="5" t="s">
         <v>8</v>
@@ -18494,7 +18503,7 @@
     </row>
     <row r="626" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A626" s="14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B626" s="20" t="s">
         <v>150</v>
@@ -18503,22 +18512,22 @@
         <v>6</v>
       </c>
       <c r="D626" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E626" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F626" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G626" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H626" s="5"/>
     </row>
     <row r="627" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A627" s="14" t="s">
-        <v>385</v>
+        <v>305</v>
       </c>
       <c r="B627" s="20" t="s">
         <v>150</v>
@@ -18527,7 +18536,7 @@
         <v>6</v>
       </c>
       <c r="D627" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E627" s="5" t="s">
         <v>21</v>
@@ -18541,8 +18550,8 @@
       <c r="H627" s="5"/>
     </row>
     <row r="628" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="14" t="s">
-        <v>305</v>
+      <c r="A628" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="B628" s="20" t="s">
         <v>150</v>
@@ -18551,22 +18560,22 @@
         <v>6</v>
       </c>
       <c r="D628" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E628" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F628" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G628" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H628" s="5"/>
     </row>
     <row r="629" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="5" t="s">
-        <v>448</v>
+      <c r="A629" s="14" t="s">
+        <v>389</v>
       </c>
       <c r="B629" s="20" t="s">
         <v>150</v>
@@ -18575,7 +18584,7 @@
         <v>6</v>
       </c>
       <c r="D629" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E629" s="5" t="s">
         <v>19</v>
@@ -18589,8 +18598,8 @@
       <c r="H629" s="5"/>
     </row>
     <row r="630" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A630" s="14" t="s">
-        <v>389</v>
+      <c r="A630" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="B630" s="20" t="s">
         <v>150</v>
@@ -18599,7 +18608,7 @@
         <v>6</v>
       </c>
       <c r="D630" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E630" s="5" t="s">
         <v>19</v>
@@ -18614,7 +18623,7 @@
     </row>
     <row r="631" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B631" s="20" t="s">
         <v>150</v>
@@ -18623,10 +18632,10 @@
         <v>6</v>
       </c>
       <c r="D631" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E631" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F631" s="5" t="s">
         <v>8</v>
@@ -18638,7 +18647,7 @@
     </row>
     <row r="632" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B632" s="20" t="s">
         <v>150</v>
@@ -18647,22 +18656,22 @@
         <v>6</v>
       </c>
       <c r="D632" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E632" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F632" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G632" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H632" s="5"/>
     </row>
     <row r="633" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A633" s="5" t="s">
-        <v>451</v>
+      <c r="A633" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="B633" s="20" t="s">
         <v>150</v>
@@ -18671,7 +18680,7 @@
         <v>6</v>
       </c>
       <c r="D633" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E633" s="5" t="s">
         <v>20</v>
@@ -18686,7 +18695,7 @@
     </row>
     <row r="634" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A634" s="14" t="s">
-        <v>201</v>
+        <v>390</v>
       </c>
       <c r="B634" s="20" t="s">
         <v>150</v>
@@ -18695,10 +18704,10 @@
         <v>6</v>
       </c>
       <c r="D634" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E634" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F634" s="5" t="s">
         <v>10</v>
@@ -18710,7 +18719,7 @@
     </row>
     <row r="635" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A635" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B635" s="20" t="s">
         <v>150</v>
@@ -18719,22 +18728,22 @@
         <v>6</v>
       </c>
       <c r="D635" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E635" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F635" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G635" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H635" s="5"/>
     </row>
     <row r="636" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A636" s="14" t="s">
-        <v>392</v>
+      <c r="A636" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="B636" s="20" t="s">
         <v>150</v>
@@ -18743,7 +18752,7 @@
         <v>6</v>
       </c>
       <c r="D636" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E636" s="5" t="s">
         <v>21</v>
@@ -18758,7 +18767,7 @@
     </row>
     <row r="637" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B637" s="20" t="s">
         <v>150</v>
@@ -18767,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="D637" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E637" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F637" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G637" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H637" s="5"/>
     </row>
     <row r="638" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="5" t="s">
-        <v>453</v>
+      <c r="A638" s="14" t="s">
+        <v>454</v>
       </c>
       <c r="B638" s="20" t="s">
         <v>150</v>
@@ -18791,7 +18800,7 @@
         <v>6</v>
       </c>
       <c r="D638" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E638" s="5" t="s">
         <v>19</v>
@@ -18805,8 +18814,8 @@
       <c r="H638" s="5"/>
     </row>
     <row r="639" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="14" t="s">
-        <v>454</v>
+      <c r="A639" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="B639" s="20" t="s">
         <v>150</v>
@@ -18815,7 +18824,7 @@
         <v>6</v>
       </c>
       <c r="D639" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E639" s="5" t="s">
         <v>19</v>
@@ -18829,8 +18838,8 @@
       <c r="H639" s="5"/>
     </row>
     <row r="640" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="5" t="s">
-        <v>455</v>
+      <c r="A640" s="14" t="s">
+        <v>318</v>
       </c>
       <c r="B640" s="20" t="s">
         <v>150</v>
@@ -18839,22 +18848,22 @@
         <v>6</v>
       </c>
       <c r="D640" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E640" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F640" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G640" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H640" s="5"/>
     </row>
     <row r="641" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="14" t="s">
-        <v>318</v>
+      <c r="A641" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="B641" s="20" t="s">
         <v>150</v>
@@ -18863,7 +18872,7 @@
         <v>6</v>
       </c>
       <c r="D641" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E641" s="5" t="s">
         <v>20</v>
@@ -18877,8 +18886,8 @@
       <c r="H641" s="5"/>
     </row>
     <row r="642" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A642" s="5" t="s">
-        <v>456</v>
+      <c r="A642" s="14" t="s">
+        <v>394</v>
       </c>
       <c r="B642" s="20" t="s">
         <v>150</v>
@@ -18887,7 +18896,7 @@
         <v>6</v>
       </c>
       <c r="D642" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E642" s="5" t="s">
         <v>20</v>
@@ -18902,13 +18911,13 @@
     </row>
     <row r="643" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A643" s="14" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="B643" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C643" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D643" s="5" t="s">
         <v>17</v>
@@ -18917,16 +18926,16 @@
         <v>20</v>
       </c>
       <c r="F643" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G643" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H643" s="5"/>
     </row>
     <row r="644" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A644" s="14" t="s">
-        <v>322</v>
+      <c r="A644" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="B644" s="20" t="s">
         <v>150</v>
@@ -18935,7 +18944,7 @@
         <v>11</v>
       </c>
       <c r="D644" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E644" s="5" t="s">
         <v>20</v>
@@ -18949,8 +18958,8 @@
       <c r="H644" s="5"/>
     </row>
     <row r="645" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="5" t="s">
-        <v>457</v>
+      <c r="A645" s="14" t="s">
+        <v>458</v>
       </c>
       <c r="B645" s="20" t="s">
         <v>150</v>
@@ -18959,22 +18968,22 @@
         <v>11</v>
       </c>
       <c r="D645" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E645" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F645" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G645" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H645" s="5"/>
     </row>
     <row r="646" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A646" s="14" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="B646" s="20" t="s">
         <v>150</v>
@@ -18983,22 +18992,22 @@
         <v>11</v>
       </c>
       <c r="D646" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E646" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F646" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G646" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H646" s="5"/>
     </row>
     <row r="647" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A647" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B647" s="20" t="s">
         <v>150</v>
@@ -19007,22 +19016,22 @@
         <v>11</v>
       </c>
       <c r="D647" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E647" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F647" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G647" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H647" s="5"/>
     </row>
     <row r="648" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A648" s="14" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B648" s="20" t="s">
         <v>150</v>
@@ -19031,22 +19040,22 @@
         <v>11</v>
       </c>
       <c r="D648" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E648" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F648" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G648" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H648" s="5"/>
     </row>
     <row r="649" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A649" s="14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B649" s="20" t="s">
         <v>150</v>
@@ -19055,7 +19064,7 @@
         <v>11</v>
       </c>
       <c r="D649" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E649" s="5" t="s">
         <v>19</v>
@@ -19070,7 +19079,7 @@
     </row>
     <row r="650" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A650" s="14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B650" s="20" t="s">
         <v>150</v>
@@ -19079,7 +19088,7 @@
         <v>11</v>
       </c>
       <c r="D650" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E650" s="5" t="s">
         <v>19</v>
@@ -19094,7 +19103,7 @@
     </row>
     <row r="651" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A651" s="14" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="B651" s="20" t="s">
         <v>150</v>
@@ -19103,22 +19112,22 @@
         <v>11</v>
       </c>
       <c r="D651" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E651" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F651" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G651" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H651" s="5"/>
     </row>
     <row r="652" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A652" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B652" s="20" t="s">
         <v>150</v>
@@ -19127,7 +19136,7 @@
         <v>11</v>
       </c>
       <c r="D652" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E652" s="5" t="s">
         <v>20</v>
@@ -19142,7 +19151,7 @@
     </row>
     <row r="653" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A653" s="14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B653" s="20" t="s">
         <v>150</v>
@@ -19151,7 +19160,7 @@
         <v>11</v>
       </c>
       <c r="D653" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E653" s="5" t="s">
         <v>20</v>
@@ -19166,7 +19175,7 @@
     </row>
     <row r="654" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A654" s="14" t="s">
-        <v>461</v>
+        <v>407</v>
       </c>
       <c r="B654" s="20" t="s">
         <v>150</v>
@@ -19175,22 +19184,22 @@
         <v>11</v>
       </c>
       <c r="D654" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E654" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F654" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G654" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H654" s="5"/>
     </row>
     <row r="655" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A655" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B655" s="20" t="s">
         <v>150</v>
@@ -19199,22 +19208,22 @@
         <v>11</v>
       </c>
       <c r="D655" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E655" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F655" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G655" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H655" s="5"/>
     </row>
     <row r="656" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="14" t="s">
-        <v>408</v>
+      <c r="A656" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="B656" s="20" t="s">
         <v>150</v>
@@ -19223,10 +19232,10 @@
         <v>11</v>
       </c>
       <c r="D656" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E656" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F656" s="5" t="s">
         <v>8</v>
@@ -19237,8 +19246,8 @@
       <c r="H656" s="5"/>
     </row>
     <row r="657" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="5" t="s">
-        <v>462</v>
+      <c r="A657" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="B657" s="20" t="s">
         <v>150</v>
@@ -19247,22 +19256,22 @@
         <v>11</v>
       </c>
       <c r="D657" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E657" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F657" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G657" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H657" s="5"/>
     </row>
     <row r="658" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A658" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B658" s="20" t="s">
         <v>150</v>
@@ -19271,22 +19280,22 @@
         <v>11</v>
       </c>
       <c r="D658" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E658" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F658" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G658" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H658" s="5"/>
     </row>
     <row r="659" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A659" s="14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B659" s="20" t="s">
         <v>150</v>
@@ -19295,7 +19304,7 @@
         <v>11</v>
       </c>
       <c r="D659" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E659" s="5" t="s">
         <v>19</v>
@@ -19310,7 +19319,7 @@
     </row>
     <row r="660" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A660" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B660" s="20" t="s">
         <v>150</v>
@@ -19319,22 +19328,22 @@
         <v>11</v>
       </c>
       <c r="D660" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E660" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F660" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G660" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H660" s="5"/>
     </row>
     <row r="661" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A661" s="14" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="B661" s="20" t="s">
         <v>150</v>
@@ -19343,22 +19352,22 @@
         <v>11</v>
       </c>
       <c r="D661" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E661" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F661" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G661" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H661" s="5"/>
     </row>
     <row r="662" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A662" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B662" s="20" t="s">
         <v>150</v>
@@ -19367,22 +19376,22 @@
         <v>11</v>
       </c>
       <c r="D662" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E662" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F662" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G662" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H662" s="5"/>
     </row>
     <row r="663" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="14" t="s">
-        <v>410</v>
+      <c r="A663" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="B663" s="20" t="s">
         <v>150</v>
@@ -19391,22 +19400,22 @@
         <v>11</v>
       </c>
       <c r="D663" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E663" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F663" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G663" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H663" s="5"/>
     </row>
     <row r="664" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="5" t="s">
-        <v>467</v>
+      <c r="A664" s="14" t="s">
+        <v>468</v>
       </c>
       <c r="B664" s="20" t="s">
         <v>150</v>
@@ -19415,22 +19424,22 @@
         <v>11</v>
       </c>
       <c r="D664" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E664" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F664" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G664" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H664" s="5"/>
     </row>
     <row r="665" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A665" s="14" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="B665" s="20" t="s">
         <v>150</v>
@@ -19439,7 +19448,7 @@
         <v>11</v>
       </c>
       <c r="D665" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E665" s="5" t="s">
         <v>20</v>
@@ -19454,7 +19463,7 @@
     </row>
     <row r="666" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A666" s="14" t="s">
-        <v>412</v>
+        <v>341</v>
       </c>
       <c r="B666" s="20" t="s">
         <v>150</v>
@@ -19463,10 +19472,10 @@
         <v>11</v>
       </c>
       <c r="D666" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E666" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F666" s="5" t="s">
         <v>10</v>
@@ -19478,7 +19487,7 @@
     </row>
     <row r="667" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A667" s="14" t="s">
-        <v>341</v>
+        <v>413</v>
       </c>
       <c r="B667" s="20" t="s">
         <v>150</v>
@@ -19487,7 +19496,7 @@
         <v>11</v>
       </c>
       <c r="D667" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E667" s="5" t="s">
         <v>21</v>
@@ -19502,7 +19511,7 @@
     </row>
     <row r="668" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A668" s="14" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="B668" s="20" t="s">
         <v>150</v>
@@ -19511,22 +19520,22 @@
         <v>11</v>
       </c>
       <c r="D668" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E668" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F668" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G668" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H668" s="5"/>
     </row>
     <row r="669" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A669" s="14" t="s">
-        <v>469</v>
+        <v>342</v>
       </c>
       <c r="B669" s="20" t="s">
         <v>150</v>
@@ -19535,22 +19544,22 @@
         <v>11</v>
       </c>
       <c r="D669" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E669" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F669" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G669" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H669" s="5"/>
     </row>
     <row r="670" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A670" s="14" t="s">
-        <v>342</v>
+        <v>470</v>
       </c>
       <c r="B670" s="20" t="s">
         <v>150</v>
@@ -19559,7 +19568,7 @@
         <v>11</v>
       </c>
       <c r="D670" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E670" s="5" t="s">
         <v>19</v>
@@ -19574,7 +19583,7 @@
     </row>
     <row r="671" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A671" s="14" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="B671" s="20" t="s">
         <v>150</v>
@@ -19583,7 +19592,7 @@
         <v>11</v>
       </c>
       <c r="D671" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E671" s="5" t="s">
         <v>19</v>
@@ -19598,7 +19607,7 @@
     </row>
     <row r="672" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A672" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B672" s="20" t="s">
         <v>150</v>
@@ -19607,10 +19616,10 @@
         <v>11</v>
       </c>
       <c r="D672" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E672" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F672" s="5" t="s">
         <v>10</v>
@@ -19622,7 +19631,7 @@
     </row>
     <row r="673" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A673" s="14" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B673" s="20" t="s">
         <v>150</v>
@@ -19631,22 +19640,22 @@
         <v>11</v>
       </c>
       <c r="D673" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E673" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F673" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G673" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H673" s="5"/>
     </row>
     <row r="674" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A674" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B674" s="20" t="s">
         <v>150</v>
@@ -19655,7 +19664,7 @@
         <v>11</v>
       </c>
       <c r="D674" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E674" s="5" t="s">
         <v>20</v>
@@ -19670,7 +19679,7 @@
     </row>
     <row r="675" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A675" s="14" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="B675" s="20" t="s">
         <v>150</v>
@@ -19679,10 +19688,10 @@
         <v>11</v>
       </c>
       <c r="D675" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E675" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F675" s="5" t="s">
         <v>8</v>
@@ -19694,7 +19703,7 @@
     </row>
     <row r="676" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A676" s="14" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="B676" s="20" t="s">
         <v>150</v>
@@ -19703,7 +19712,7 @@
         <v>11</v>
       </c>
       <c r="D676" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E676" s="5" t="s">
         <v>21</v>
@@ -19718,7 +19727,7 @@
     </row>
     <row r="677" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A677" s="14" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="B677" s="20" t="s">
         <v>150</v>
@@ -19727,22 +19736,22 @@
         <v>11</v>
       </c>
       <c r="D677" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E677" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F677" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G677" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H677" s="5"/>
     </row>
     <row r="678" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A678" s="14" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="B678" s="20" t="s">
         <v>150</v>
@@ -19751,22 +19760,22 @@
         <v>11</v>
       </c>
       <c r="D678" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E678" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F678" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G678" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H678" s="5"/>
     </row>
     <row r="679" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="14" t="s">
-        <v>422</v>
+      <c r="A679" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="B679" s="20" t="s">
         <v>150</v>
@@ -19775,7 +19784,7 @@
         <v>11</v>
       </c>
       <c r="D679" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E679" s="5" t="s">
         <v>19</v>
@@ -19789,8 +19798,8 @@
       <c r="H679" s="5"/>
     </row>
     <row r="680" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A680" s="5" t="s">
-        <v>473</v>
+      <c r="A680" s="14" t="s">
+        <v>425</v>
       </c>
       <c r="B680" s="20" t="s">
         <v>150</v>
@@ -19799,7 +19808,7 @@
         <v>11</v>
       </c>
       <c r="D680" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E680" s="5" t="s">
         <v>19</v>
@@ -19814,7 +19823,7 @@
     </row>
     <row r="681" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A681" s="14" t="s">
-        <v>425</v>
+        <v>240</v>
       </c>
       <c r="B681" s="20" t="s">
         <v>150</v>
@@ -19823,10 +19832,10 @@
         <v>11</v>
       </c>
       <c r="D681" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E681" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F681" s="5" t="s">
         <v>8</v>
@@ -19838,7 +19847,7 @@
     </row>
     <row r="682" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A682" s="14" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B682" s="20" t="s">
         <v>150</v>
@@ -19847,22 +19856,22 @@
         <v>11</v>
       </c>
       <c r="D682" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E682" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F682" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G682" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H682" s="5"/>
     </row>
     <row r="683" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A683" s="14" t="s">
-        <v>220</v>
+        <v>474</v>
       </c>
       <c r="B683" s="20" t="s">
         <v>150</v>
@@ -19871,22 +19880,22 @@
         <v>11</v>
       </c>
       <c r="D683" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E683" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F683" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G683" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H683" s="5"/>
     </row>
     <row r="684" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="14" t="s">
-        <v>474</v>
+      <c r="A684" s="5" t="s">
+        <v>475</v>
       </c>
       <c r="B684" s="20" t="s">
         <v>150</v>
@@ -19895,22 +19904,22 @@
         <v>11</v>
       </c>
       <c r="D684" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E684" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F684" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G684" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H684" s="5"/>
     </row>
     <row r="685" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A685" s="5" t="s">
-        <v>475</v>
+      <c r="A685" s="14" t="s">
+        <v>427</v>
       </c>
       <c r="B685" s="20" t="s">
         <v>150</v>
@@ -19919,7 +19928,7 @@
         <v>11</v>
       </c>
       <c r="D685" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E685" s="5" t="s">
         <v>21</v>
@@ -19933,20 +19942,20 @@
       <c r="H685" s="5"/>
     </row>
     <row r="686" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A686" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="B686" s="20" t="s">
-        <v>150</v>
+      <c r="A686" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B686" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="C686" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D686" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E686" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F686" s="5" t="s">
         <v>10</v>
@@ -19957,8 +19966,8 @@
       <c r="H686" s="5"/>
     </row>
     <row r="687" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="5" t="s">
-        <v>476</v>
+      <c r="A687" s="14" t="s">
+        <v>349</v>
       </c>
       <c r="B687" s="21" t="s">
         <v>181</v>
@@ -19967,7 +19976,7 @@
         <v>6</v>
       </c>
       <c r="D687" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E687" s="5" t="s">
         <v>15</v>
@@ -19982,7 +19991,7 @@
     </row>
     <row r="688" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A688" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B688" s="21" t="s">
         <v>181</v>
@@ -19991,10 +20000,10 @@
         <v>6</v>
       </c>
       <c r="D688" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E688" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F688" s="5" t="s">
         <v>10</v>
@@ -20006,7 +20015,7 @@
     </row>
     <row r="689" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A689" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B689" s="21" t="s">
         <v>181</v>
@@ -20015,7 +20024,7 @@
         <v>6</v>
       </c>
       <c r="D689" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E689" s="5" t="s">
         <v>13</v>
@@ -20030,7 +20039,7 @@
     </row>
     <row r="690" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A690" s="14" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B690" s="21" t="s">
         <v>181</v>
@@ -20039,7 +20048,7 @@
         <v>6</v>
       </c>
       <c r="D690" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E690" s="5" t="s">
         <v>13</v>
@@ -20054,7 +20063,7 @@
     </row>
     <row r="691" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A691" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B691" s="21" t="s">
         <v>181</v>
@@ -20063,10 +20072,10 @@
         <v>6</v>
       </c>
       <c r="D691" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E691" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F691" s="5" t="s">
         <v>10</v>
@@ -20077,8 +20086,8 @@
       <c r="H691" s="5"/>
     </row>
     <row r="692" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A692" s="14" t="s">
-        <v>354</v>
+      <c r="A692" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="B692" s="21" t="s">
         <v>181</v>
@@ -20087,7 +20096,7 @@
         <v>6</v>
       </c>
       <c r="D692" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E692" s="5" t="s">
         <v>14</v>
@@ -20101,8 +20110,8 @@
       <c r="H692" s="5"/>
     </row>
     <row r="693" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A693" s="5" t="s">
-        <v>477</v>
+      <c r="A693" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="B693" s="21" t="s">
         <v>181</v>
@@ -20111,7 +20120,7 @@
         <v>6</v>
       </c>
       <c r="D693" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E693" s="5" t="s">
         <v>14</v>
@@ -20125,8 +20134,8 @@
       <c r="H693" s="5"/>
     </row>
     <row r="694" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A694" s="14" t="s">
-        <v>355</v>
+      <c r="A694" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="B694" s="21" t="s">
         <v>181</v>
@@ -20135,10 +20144,10 @@
         <v>6</v>
       </c>
       <c r="D694" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E694" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F694" s="5" t="s">
         <v>10</v>
@@ -20149,8 +20158,8 @@
       <c r="H694" s="5"/>
     </row>
     <row r="695" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A695" s="5" t="s">
-        <v>478</v>
+      <c r="A695" s="14" t="s">
+        <v>479</v>
       </c>
       <c r="B695" s="21" t="s">
         <v>181</v>
@@ -20159,22 +20168,22 @@
         <v>6</v>
       </c>
       <c r="D695" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E695" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F695" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G695" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H695" s="5"/>
     </row>
     <row r="696" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A696" s="14" t="s">
-        <v>479</v>
+        <v>356</v>
       </c>
       <c r="B696" s="21" t="s">
         <v>181</v>
@@ -20183,7 +20192,7 @@
         <v>6</v>
       </c>
       <c r="D696" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E696" s="5" t="s">
         <v>15</v>
@@ -20197,8 +20206,8 @@
       <c r="H696" s="5"/>
     </row>
     <row r="697" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A697" s="14" t="s">
-        <v>356</v>
+      <c r="A697" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="B697" s="21" t="s">
         <v>181</v>
@@ -20210,7 +20219,7 @@
         <v>9</v>
       </c>
       <c r="E697" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F697" s="5" t="s">
         <v>8</v>
@@ -20221,8 +20230,8 @@
       <c r="H697" s="5"/>
     </row>
     <row r="698" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A698" s="5" t="s">
-        <v>480</v>
+      <c r="A698" s="14" t="s">
+        <v>357</v>
       </c>
       <c r="B698" s="21" t="s">
         <v>181</v>
@@ -20231,7 +20240,7 @@
         <v>6</v>
       </c>
       <c r="D698" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E698" s="5" t="s">
         <v>13</v>
@@ -20246,7 +20255,7 @@
     </row>
     <row r="699" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A699" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B699" s="21" t="s">
         <v>181</v>
@@ -20255,7 +20264,7 @@
         <v>6</v>
       </c>
       <c r="D699" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E699" s="5" t="s">
         <v>13</v>
@@ -20270,7 +20279,7 @@
     </row>
     <row r="700" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A700" s="14" t="s">
-        <v>358</v>
+        <v>262</v>
       </c>
       <c r="B700" s="21" t="s">
         <v>181</v>
@@ -20279,7 +20288,7 @@
         <v>6</v>
       </c>
       <c r="D700" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E700" s="5" t="s">
         <v>13</v>
@@ -20294,7 +20303,7 @@
     </row>
     <row r="701" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A701" s="14" t="s">
-        <v>262</v>
+        <v>360</v>
       </c>
       <c r="B701" s="21" t="s">
         <v>181</v>
@@ -20303,10 +20312,10 @@
         <v>6</v>
       </c>
       <c r="D701" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E701" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F701" s="5" t="s">
         <v>8</v>
@@ -20318,7 +20327,7 @@
     </row>
     <row r="702" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A702" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B702" s="21" t="s">
         <v>181</v>
@@ -20327,7 +20336,7 @@
         <v>6</v>
       </c>
       <c r="D702" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E702" s="5" t="s">
         <v>14</v>
@@ -20342,7 +20351,7 @@
     </row>
     <row r="703" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A703" s="14" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
       <c r="B703" s="21" t="s">
         <v>181</v>
@@ -20351,7 +20360,7 @@
         <v>6</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E703" s="5" t="s">
         <v>14</v>
@@ -20366,7 +20375,7 @@
     </row>
     <row r="704" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A704" s="14" t="s">
-        <v>436</v>
+        <v>362</v>
       </c>
       <c r="B704" s="21" t="s">
         <v>181</v>
@@ -20375,10 +20384,10 @@
         <v>6</v>
       </c>
       <c r="D704" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E704" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F704" s="5" t="s">
         <v>8</v>
@@ -20390,7 +20399,7 @@
     </row>
     <row r="705" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A705" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B705" s="21" t="s">
         <v>181</v>
@@ -20399,7 +20408,7 @@
         <v>6</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E705" s="5" t="s">
         <v>15</v>
@@ -20414,7 +20423,7 @@
     </row>
     <row r="706" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A706" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B706" s="21" t="s">
         <v>181</v>
@@ -20423,7 +20432,7 @@
         <v>6</v>
       </c>
       <c r="D706" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E706" s="5" t="s">
         <v>15</v>
@@ -20437,8 +20446,8 @@
       <c r="H706" s="5"/>
     </row>
     <row r="707" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="14" t="s">
-        <v>364</v>
+      <c r="A707" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="B707" s="21" t="s">
         <v>181</v>
@@ -20447,22 +20456,22 @@
         <v>6</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E707" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F707" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G707" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H707" s="5"/>
     </row>
     <row r="708" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A708" s="5" t="s">
-        <v>481</v>
+      <c r="A708" s="14" t="s">
+        <v>437</v>
       </c>
       <c r="B708" s="21" t="s">
         <v>181</v>
@@ -20471,22 +20480,22 @@
         <v>6</v>
       </c>
       <c r="D708" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E708" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F708" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G708" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H708" s="5"/>
     </row>
     <row r="709" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A709" s="14" t="s">
-        <v>437</v>
+      <c r="A709" s="5" t="s">
+        <v>482</v>
       </c>
       <c r="B709" s="21" t="s">
         <v>181</v>
@@ -20495,22 +20504,22 @@
         <v>6</v>
       </c>
       <c r="D709" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E709" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F709" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G709" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H709" s="5"/>
     </row>
     <row r="710" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A710" s="5" t="s">
-        <v>482</v>
+      <c r="A710" s="14" t="s">
+        <v>366</v>
       </c>
       <c r="B710" s="21" t="s">
         <v>181</v>
@@ -20519,10 +20528,10 @@
         <v>6</v>
       </c>
       <c r="D710" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E710" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F710" s="5" t="s">
         <v>10</v>
@@ -20534,7 +20543,7 @@
     </row>
     <row r="711" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A711" s="14" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="B711" s="21" t="s">
         <v>181</v>
@@ -20543,22 +20552,22 @@
         <v>6</v>
       </c>
       <c r="D711" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E711" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F711" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G711" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H711" s="5"/>
     </row>
     <row r="712" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A712" s="14" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="B712" s="21" t="s">
         <v>181</v>
@@ -20567,22 +20576,22 @@
         <v>6</v>
       </c>
       <c r="D712" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E712" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F712" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G712" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H712" s="5"/>
     </row>
     <row r="713" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A713" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B713" s="21" t="s">
         <v>181</v>
@@ -20591,10 +20600,10 @@
         <v>6</v>
       </c>
       <c r="D713" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E713" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F713" s="5" t="s">
         <v>10</v>
@@ -20605,8 +20614,8 @@
       <c r="H713" s="5"/>
     </row>
     <row r="714" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A714" s="14" t="s">
-        <v>368</v>
+      <c r="A714" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="B714" s="21" t="s">
         <v>181</v>
@@ -20615,10 +20624,10 @@
         <v>6</v>
       </c>
       <c r="D714" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E714" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F714" s="5" t="s">
         <v>10</v>
@@ -20629,8 +20638,8 @@
       <c r="H714" s="5"/>
     </row>
     <row r="715" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A715" s="5" t="s">
-        <v>483</v>
+      <c r="A715" s="14" t="s">
+        <v>371</v>
       </c>
       <c r="B715" s="21" t="s">
         <v>181</v>
@@ -20639,10 +20648,10 @@
         <v>6</v>
       </c>
       <c r="D715" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E715" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F715" s="5" t="s">
         <v>10</v>
@@ -20653,8 +20662,8 @@
       <c r="H715" s="5"/>
     </row>
     <row r="716" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A716" s="14" t="s">
-        <v>371</v>
+      <c r="A716" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="B716" s="21" t="s">
         <v>181</v>
@@ -20663,22 +20672,22 @@
         <v>6</v>
       </c>
       <c r="D716" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E716" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F716" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G716" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H716" s="5"/>
     </row>
     <row r="717" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="5" t="s">
-        <v>484</v>
+      <c r="A717" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="B717" s="21" t="s">
         <v>181</v>
@@ -20687,22 +20696,22 @@
         <v>6</v>
       </c>
       <c r="D717" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E717" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F717" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G717" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H717" s="5"/>
     </row>
     <row r="718" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A718" s="14" t="s">
-        <v>282</v>
+      <c r="A718" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="B718" s="21" t="s">
         <v>181</v>
@@ -20711,22 +20720,22 @@
         <v>6</v>
       </c>
       <c r="D718" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E718" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F718" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G718" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H718" s="5"/>
     </row>
     <row r="719" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A719" s="5" t="s">
-        <v>485</v>
+      <c r="A719" s="14" t="s">
+        <v>441</v>
       </c>
       <c r="B719" s="21" t="s">
         <v>181</v>
@@ -20735,22 +20744,22 @@
         <v>6</v>
       </c>
       <c r="D719" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E719" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F719" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G719" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H719" s="5"/>
     </row>
     <row r="720" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A720" s="14" t="s">
-        <v>441</v>
+      <c r="A720" s="5" t="s">
+        <v>486</v>
       </c>
       <c r="B720" s="21" t="s">
         <v>181</v>
@@ -20759,10 +20768,10 @@
         <v>6</v>
       </c>
       <c r="D720" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E720" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F720" s="5" t="s">
         <v>10</v>
@@ -20773,8 +20782,8 @@
       <c r="H720" s="5"/>
     </row>
     <row r="721" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A721" s="5" t="s">
-        <v>486</v>
+      <c r="A721" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="B721" s="21" t="s">
         <v>181</v>
@@ -20783,22 +20792,22 @@
         <v>6</v>
       </c>
       <c r="D721" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E721" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F721" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G721" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H721" s="5"/>
     </row>
     <row r="722" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A722" s="14" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B722" s="21" t="s">
         <v>181</v>
@@ -20807,10 +20816,10 @@
         <v>6</v>
       </c>
       <c r="D722" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E722" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F722" s="5" t="s">
         <v>8</v>
@@ -20822,7 +20831,7 @@
     </row>
     <row r="723" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A723" s="14" t="s">
-        <v>377</v>
+        <v>297</v>
       </c>
       <c r="B723" s="21" t="s">
         <v>181</v>
@@ -20831,10 +20840,10 @@
         <v>6</v>
       </c>
       <c r="D723" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E723" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F723" s="5" t="s">
         <v>8</v>
@@ -20846,7 +20855,7 @@
     </row>
     <row r="724" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A724" s="14" t="s">
-        <v>297</v>
+        <v>379</v>
       </c>
       <c r="B724" s="21" t="s">
         <v>181</v>
@@ -20855,10 +20864,10 @@
         <v>6</v>
       </c>
       <c r="D724" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E724" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F724" s="5" t="s">
         <v>8</v>
@@ -20870,7 +20879,7 @@
     </row>
     <row r="725" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A725" s="14" t="s">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="B725" s="21" t="s">
         <v>181</v>
@@ -20879,22 +20888,22 @@
         <v>6</v>
       </c>
       <c r="D725" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E725" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F725" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G725" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H725" s="5"/>
     </row>
     <row r="726" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A726" s="14" t="s">
-        <v>443</v>
+      <c r="A726" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="B726" s="21" t="s">
         <v>181</v>
@@ -20903,22 +20912,22 @@
         <v>6</v>
       </c>
       <c r="D726" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E726" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F726" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G726" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H726" s="5"/>
     </row>
     <row r="727" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A727" s="5" t="s">
-        <v>487</v>
+      <c r="A727" s="14" t="s">
+        <v>444</v>
       </c>
       <c r="B727" s="21" t="s">
         <v>181</v>
@@ -20927,10 +20936,10 @@
         <v>6</v>
       </c>
       <c r="D727" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E727" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F727" s="5" t="s">
         <v>8</v>
@@ -20942,7 +20951,7 @@
     </row>
     <row r="728" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A728" s="14" t="s">
-        <v>444</v>
+        <v>380</v>
       </c>
       <c r="B728" s="21" t="s">
         <v>181</v>
@@ -20951,7 +20960,7 @@
         <v>6</v>
       </c>
       <c r="D728" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E728" s="5" t="s">
         <v>15</v>
@@ -20966,7 +20975,7 @@
     </row>
     <row r="729" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A729" s="14" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
       <c r="B729" s="21" t="s">
         <v>181</v>
@@ -20975,10 +20984,10 @@
         <v>6</v>
       </c>
       <c r="D729" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E729" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F729" s="5" t="s">
         <v>8</v>
@@ -20990,7 +20999,7 @@
     </row>
     <row r="730" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A730" s="14" t="s">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="B730" s="21" t="s">
         <v>181</v>
@@ -21002,19 +21011,19 @@
         <v>12</v>
       </c>
       <c r="E730" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F730" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G730" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H730" s="5"/>
     </row>
     <row r="731" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A731" s="14" t="s">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="B731" s="21" t="s">
         <v>181</v>
@@ -21023,22 +21032,22 @@
         <v>6</v>
       </c>
       <c r="D731" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E731" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F731" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G731" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H731" s="5"/>
     </row>
     <row r="732" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A732" s="14" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
       <c r="B732" s="21" t="s">
         <v>181</v>
@@ -21047,22 +21056,22 @@
         <v>6</v>
       </c>
       <c r="D732" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E732" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F732" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G732" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H732" s="5"/>
     </row>
     <row r="733" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A733" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B733" s="21" t="s">
         <v>181</v>
@@ -21071,22 +21080,22 @@
         <v>6</v>
       </c>
       <c r="D733" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E733" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F733" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G733" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H733" s="5"/>
     </row>
     <row r="734" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A734" s="14" t="s">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="B734" s="21" t="s">
         <v>181</v>
@@ -21095,7 +21104,7 @@
         <v>6</v>
       </c>
       <c r="D734" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E734" s="5" t="s">
         <v>15</v>
@@ -21110,7 +21119,7 @@
     </row>
     <row r="735" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A735" s="14" t="s">
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="B735" s="21" t="s">
         <v>181</v>
@@ -21119,7 +21128,7 @@
         <v>6</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E735" s="5" t="s">
         <v>15</v>
@@ -21134,7 +21143,7 @@
     </row>
     <row r="736" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A736" s="14" t="s">
-        <v>385</v>
+        <v>305</v>
       </c>
       <c r="B736" s="21" t="s">
         <v>181</v>
@@ -21143,10 +21152,10 @@
         <v>6</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E736" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F736" s="5" t="s">
         <v>8</v>
@@ -21158,7 +21167,7 @@
     </row>
     <row r="737" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A737" s="14" t="s">
-        <v>305</v>
+        <v>386</v>
       </c>
       <c r="B737" s="21" t="s">
         <v>181</v>
@@ -21167,22 +21176,22 @@
         <v>6</v>
       </c>
       <c r="D737" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E737" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F737" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G737" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H737" s="5"/>
     </row>
     <row r="738" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A738" s="14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B738" s="21" t="s">
         <v>181</v>
@@ -21191,7 +21200,7 @@
         <v>6</v>
       </c>
       <c r="D738" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E738" s="5" t="s">
         <v>13</v>
@@ -21206,7 +21215,7 @@
     </row>
     <row r="739" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A739" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B739" s="21" t="s">
         <v>181</v>
@@ -21215,22 +21224,22 @@
         <v>6</v>
       </c>
       <c r="D739" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E739" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F739" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G739" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H739" s="5"/>
     </row>
     <row r="740" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A740" s="14" t="s">
-        <v>389</v>
+        <v>307</v>
       </c>
       <c r="B740" s="21" t="s">
         <v>181</v>
@@ -21239,22 +21248,22 @@
         <v>6</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E740" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F740" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G740" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H740" s="5"/>
     </row>
     <row r="741" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A741" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B741" s="21" t="s">
         <v>181</v>
@@ -21263,22 +21272,22 @@
         <v>6</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E741" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F741" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G741" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H741" s="5"/>
     </row>
     <row r="742" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A742" s="14" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="B742" s="21" t="s">
         <v>181</v>
@@ -21287,22 +21296,22 @@
         <v>6</v>
       </c>
       <c r="D742" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E742" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F742" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G742" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H742" s="5"/>
     </row>
     <row r="743" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A743" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B743" s="21" t="s">
         <v>181</v>
@@ -21311,7 +21320,7 @@
         <v>6</v>
       </c>
       <c r="D743" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E743" s="5" t="s">
         <v>15</v>
@@ -21325,8 +21334,8 @@
       <c r="H743" s="5"/>
     </row>
     <row r="744" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A744" s="14" t="s">
-        <v>392</v>
+      <c r="A744" s="5" t="s">
+        <v>488</v>
       </c>
       <c r="B744" s="21" t="s">
         <v>181</v>
@@ -21335,7 +21344,7 @@
         <v>6</v>
       </c>
       <c r="D744" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E744" s="5" t="s">
         <v>15</v>
@@ -21349,8 +21358,8 @@
       <c r="H744" s="5"/>
     </row>
     <row r="745" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A745" s="5" t="s">
-        <v>488</v>
+      <c r="A745" s="14" t="s">
+        <v>318</v>
       </c>
       <c r="B745" s="21" t="s">
         <v>181</v>
@@ -21359,10 +21368,10 @@
         <v>6</v>
       </c>
       <c r="D745" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E745" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F745" s="5" t="s">
         <v>10</v>
@@ -21373,8 +21382,8 @@
       <c r="H745" s="5"/>
     </row>
     <row r="746" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A746" s="14" t="s">
-        <v>318</v>
+      <c r="A746" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="B746" s="21" t="s">
         <v>181</v>
@@ -21383,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="D746" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E746" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F746" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G746" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H746" s="5"/>
     </row>
     <row r="747" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A747" s="5" t="s">
-        <v>489</v>
+      <c r="A747" s="14" t="s">
+        <v>394</v>
       </c>
       <c r="B747" s="21" t="s">
         <v>181</v>
@@ -21407,7 +21416,7 @@
         <v>6</v>
       </c>
       <c r="D747" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E747" s="5" t="s">
         <v>13</v>
@@ -21422,31 +21431,31 @@
     </row>
     <row r="748" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A748" s="14" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="B748" s="21" t="s">
         <v>181</v>
       </c>
       <c r="C748" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D748" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E748" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F748" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G748" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H748" s="5"/>
     </row>
     <row r="749" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="14" t="s">
-        <v>322</v>
+      <c r="A749" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="B749" s="21" t="s">
         <v>181</v>
@@ -21455,10 +21464,10 @@
         <v>11</v>
       </c>
       <c r="D749" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E749" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F749" s="5" t="s">
         <v>10</v>
@@ -21470,7 +21479,7 @@
     </row>
     <row r="750" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B750" s="21" t="s">
         <v>181</v>
@@ -21479,7 +21488,7 @@
         <v>11</v>
       </c>
       <c r="D750" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E750" s="5" t="s">
         <v>13</v>
@@ -21493,8 +21502,8 @@
       <c r="H750" s="5"/>
     </row>
     <row r="751" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A751" s="5" t="s">
-        <v>491</v>
+      <c r="A751" s="14" t="s">
+        <v>458</v>
       </c>
       <c r="B751" s="21" t="s">
         <v>181</v>
@@ -21503,22 +21512,22 @@
         <v>11</v>
       </c>
       <c r="D751" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E751" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F751" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G751" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H751" s="5"/>
     </row>
     <row r="752" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A752" s="14" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="B752" s="21" t="s">
         <v>181</v>
@@ -21527,7 +21536,7 @@
         <v>11</v>
       </c>
       <c r="D752" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E752" s="5" t="s">
         <v>14</v>
@@ -21542,7 +21551,7 @@
     </row>
     <row r="753" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A753" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B753" s="21" t="s">
         <v>181</v>
@@ -21551,22 +21560,22 @@
         <v>11</v>
       </c>
       <c r="D753" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E753" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F753" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G753" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H753" s="5"/>
     </row>
     <row r="754" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A754" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B754" s="21" t="s">
         <v>181</v>
@@ -21575,22 +21584,22 @@
         <v>11</v>
       </c>
       <c r="D754" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E754" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F754" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G754" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H754" s="5"/>
     </row>
     <row r="755" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A755" s="14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B755" s="21" t="s">
         <v>181</v>
@@ -21599,7 +21608,7 @@
         <v>11</v>
       </c>
       <c r="D755" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E755" s="5" t="s">
         <v>15</v>
@@ -21613,8 +21622,8 @@
       <c r="H755" s="5"/>
     </row>
     <row r="756" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A756" s="14" t="s">
-        <v>400</v>
+      <c r="A756" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="B756" s="21" t="s">
         <v>181</v>
@@ -21623,7 +21632,7 @@
         <v>11</v>
       </c>
       <c r="D756" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E756" s="5" t="s">
         <v>15</v>
@@ -21638,7 +21647,7 @@
     </row>
     <row r="757" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A757" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B757" s="21" t="s">
         <v>181</v>
@@ -21647,22 +21656,22 @@
         <v>11</v>
       </c>
       <c r="D757" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E757" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F757" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G757" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H757" s="5"/>
     </row>
     <row r="758" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A758" s="5" t="s">
-        <v>493</v>
+      <c r="A758" s="14" t="s">
+        <v>401</v>
       </c>
       <c r="B758" s="21" t="s">
         <v>181</v>
@@ -21671,22 +21680,22 @@
         <v>11</v>
       </c>
       <c r="D758" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E758" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F758" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G758" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H758" s="5"/>
     </row>
     <row r="759" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A759" s="14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B759" s="21" t="s">
         <v>181</v>
@@ -21695,7 +21704,7 @@
         <v>11</v>
       </c>
       <c r="D759" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E759" s="5" t="s">
         <v>13</v>
@@ -21710,7 +21719,7 @@
     </row>
     <row r="760" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A760" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B760" s="21" t="s">
         <v>181</v>
@@ -21719,22 +21728,22 @@
         <v>11</v>
       </c>
       <c r="D760" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E760" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F760" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G760" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H760" s="5"/>
     </row>
     <row r="761" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A761" s="14" t="s">
-        <v>404</v>
+      <c r="A761" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="B761" s="21" t="s">
         <v>181</v>
@@ -21743,7 +21752,7 @@
         <v>11</v>
       </c>
       <c r="D761" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E761" s="5" t="s">
         <v>14</v>
@@ -21758,7 +21767,7 @@
     </row>
     <row r="762" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A762" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B762" s="21" t="s">
         <v>181</v>
@@ -21767,22 +21776,22 @@
         <v>11</v>
       </c>
       <c r="D762" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E762" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F762" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G762" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H762" s="5"/>
     </row>
     <row r="763" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A763" s="5" t="s">
-        <v>495</v>
+      <c r="A763" s="14" t="s">
+        <v>407</v>
       </c>
       <c r="B763" s="21" t="s">
         <v>181</v>
@@ -21791,22 +21800,22 @@
         <v>11</v>
       </c>
       <c r="D763" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E763" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F763" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G763" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H763" s="5"/>
     </row>
     <row r="764" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A764" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B764" s="21" t="s">
         <v>181</v>
@@ -21815,7 +21824,7 @@
         <v>11</v>
       </c>
       <c r="D764" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E764" s="5" t="s">
         <v>15</v>
@@ -21830,7 +21839,7 @@
     </row>
     <row r="765" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A765" s="14" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="B765" s="21" t="s">
         <v>181</v>
@@ -21839,7 +21848,7 @@
         <v>11</v>
       </c>
       <c r="D765" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E765" s="5" t="s">
         <v>15</v>
@@ -21853,8 +21862,8 @@
       <c r="H765" s="5"/>
     </row>
     <row r="766" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A766" s="14" t="s">
-        <v>465</v>
+      <c r="A766" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="B766" s="21" t="s">
         <v>181</v>
@@ -21863,22 +21872,22 @@
         <v>11</v>
       </c>
       <c r="D766" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E766" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F766" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G766" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H766" s="5"/>
     </row>
     <row r="767" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A767" s="5" t="s">
-        <v>496</v>
+      <c r="A767" s="14" t="s">
+        <v>409</v>
       </c>
       <c r="B767" s="21" t="s">
         <v>181</v>
@@ -21887,7 +21896,7 @@
         <v>11</v>
       </c>
       <c r="D767" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E767" s="5" t="s">
         <v>13</v>
@@ -21901,8 +21910,8 @@
       <c r="H767" s="5"/>
     </row>
     <row r="768" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A768" s="14" t="s">
-        <v>409</v>
+      <c r="A768" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="B768" s="21" t="s">
         <v>181</v>
@@ -21911,22 +21920,22 @@
         <v>11</v>
       </c>
       <c r="D768" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E768" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F768" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G768" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H768" s="5"/>
     </row>
     <row r="769" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A769" s="5" t="s">
-        <v>497</v>
+      <c r="A769" s="14" t="s">
+        <v>410</v>
       </c>
       <c r="B769" s="21" t="s">
         <v>181</v>
@@ -21935,22 +21944,22 @@
         <v>11</v>
       </c>
       <c r="D769" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E769" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F769" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G769" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H769" s="5"/>
     </row>
     <row r="770" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A770" s="14" t="s">
-        <v>410</v>
+      <c r="A770" s="5" t="s">
+        <v>498</v>
       </c>
       <c r="B770" s="21" t="s">
         <v>181</v>
@@ -21959,7 +21968,7 @@
         <v>11</v>
       </c>
       <c r="D770" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E770" s="5" t="s">
         <v>13</v>
@@ -21973,8 +21982,8 @@
       <c r="H770" s="5"/>
     </row>
     <row r="771" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A771" s="5" t="s">
-        <v>498</v>
+      <c r="A771" s="14" t="s">
+        <v>412</v>
       </c>
       <c r="B771" s="21" t="s">
         <v>181</v>
@@ -21983,10 +21992,10 @@
         <v>11</v>
       </c>
       <c r="D771" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E771" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F771" s="5" t="s">
         <v>8</v>
@@ -21998,7 +22007,7 @@
     </row>
     <row r="772" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A772" s="14" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="B772" s="21" t="s">
         <v>181</v>
@@ -22007,22 +22016,22 @@
         <v>11</v>
       </c>
       <c r="D772" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E772" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F772" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G772" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H772" s="5"/>
     </row>
     <row r="773" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A773" s="14" t="s">
-        <v>469</v>
+      <c r="A773" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="B773" s="21" t="s">
         <v>181</v>
@@ -22031,10 +22040,10 @@
         <v>11</v>
       </c>
       <c r="D773" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E773" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F773" s="5" t="s">
         <v>10</v>
@@ -22046,7 +22055,7 @@
     </row>
     <row r="774" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A774" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B774" s="21" t="s">
         <v>181</v>
@@ -22055,22 +22064,22 @@
         <v>11</v>
       </c>
       <c r="D774" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E774" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F774" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G774" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H774" s="5"/>
     </row>
     <row r="775" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A775" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B775" s="21" t="s">
         <v>181</v>
@@ -22079,7 +22088,7 @@
         <v>11</v>
       </c>
       <c r="D775" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E775" s="5" t="s">
         <v>15</v>
@@ -22094,7 +22103,7 @@
     </row>
     <row r="776" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A776" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B776" s="21" t="s">
         <v>181</v>
@@ -22103,10 +22112,10 @@
         <v>11</v>
       </c>
       <c r="D776" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E776" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F776" s="5" t="s">
         <v>8</v>
@@ -22118,7 +22127,7 @@
     </row>
     <row r="777" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A777" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B777" s="21" t="s">
         <v>181</v>
@@ -22127,10 +22136,10 @@
         <v>11</v>
       </c>
       <c r="D777" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E777" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F777" s="5" t="s">
         <v>8</v>
@@ -22142,7 +22151,7 @@
     </row>
     <row r="778" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A778" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B778" s="21" t="s">
         <v>181</v>
@@ -22151,22 +22160,22 @@
         <v>11</v>
       </c>
       <c r="D778" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E778" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F778" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G778" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H778" s="5"/>
     </row>
     <row r="779" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A779" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B779" s="21" t="s">
         <v>181</v>
@@ -22175,7 +22184,7 @@
         <v>11</v>
       </c>
       <c r="D779" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E779" s="5" t="s">
         <v>13</v>
@@ -22190,7 +22199,7 @@
     </row>
     <row r="780" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A780" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B780" s="21" t="s">
         <v>181</v>
@@ -22199,10 +22208,10 @@
         <v>11</v>
       </c>
       <c r="D780" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E780" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F780" s="5" t="s">
         <v>10</v>
@@ -22214,7 +22223,7 @@
     </row>
     <row r="781" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A781" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B781" s="21" t="s">
         <v>181</v>
@@ -22223,7 +22232,7 @@
         <v>11</v>
       </c>
       <c r="D781" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E781" s="5" t="s">
         <v>14</v>
@@ -22238,7 +22247,7 @@
     </row>
     <row r="782" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A782" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B782" s="21" t="s">
         <v>181</v>
@@ -22247,22 +22256,22 @@
         <v>11</v>
       </c>
       <c r="D782" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E782" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F782" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G782" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H782" s="5"/>
     </row>
     <row r="783" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A783" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B783" s="21" t="s">
         <v>181</v>
@@ -22271,22 +22280,22 @@
         <v>11</v>
       </c>
       <c r="D783" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E783" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F783" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G783" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H783" s="5"/>
     </row>
     <row r="784" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A784" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B784" s="21" t="s">
         <v>181</v>
@@ -22295,7 +22304,7 @@
         <v>11</v>
       </c>
       <c r="D784" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E784" s="5" t="s">
         <v>15</v>
@@ -22310,7 +22319,7 @@
     </row>
     <row r="785" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A785" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B785" s="21" t="s">
         <v>181</v>
@@ -22319,22 +22328,22 @@
         <v>11</v>
       </c>
       <c r="D785" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E785" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F785" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G785" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H785" s="5"/>
     </row>
     <row r="786" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A786" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B786" s="21" t="s">
         <v>181</v>
@@ -22343,10 +22352,10 @@
         <v>11</v>
       </c>
       <c r="D786" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E786" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F786" s="5" t="s">
         <v>8</v>
@@ -22358,7 +22367,7 @@
     </row>
     <row r="787" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A787" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B787" s="21" t="s">
         <v>181</v>
@@ -22367,22 +22376,22 @@
         <v>11</v>
       </c>
       <c r="D787" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E787" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F787" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G787" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H787" s="5"/>
     </row>
     <row r="788" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A788" s="5" t="s">
-        <v>513</v>
+      <c r="A788" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="B788" s="21" t="s">
         <v>181</v>
@@ -22391,10 +22400,10 @@
         <v>11</v>
       </c>
       <c r="D788" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E788" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F788" s="5" t="s">
         <v>10</v>
@@ -22405,44 +22414,44 @@
       <c r="H788" s="5"/>
     </row>
     <row r="789" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A789" s="14" t="s">
-        <v>426</v>
+      <c r="A789" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="B789" s="21" t="s">
         <v>181</v>
       </c>
       <c r="C789" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D789" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E789" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F789" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G789" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H789" s="5"/>
     </row>
     <row r="790" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A790" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="B790" s="21" t="s">
-        <v>181</v>
+        <v>515</v>
+      </c>
+      <c r="B790" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C790" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D790" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E790" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F790" s="5" t="s">
         <v>8</v>
@@ -22453,8 +22462,8 @@
       <c r="H790" s="5"/>
     </row>
     <row r="791" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A791" s="5" t="s">
-        <v>515</v>
+      <c r="A791" s="14" t="s">
+        <v>351</v>
       </c>
       <c r="B791" s="19" t="s">
         <v>224</v>
@@ -22463,22 +22472,22 @@
         <v>6</v>
       </c>
       <c r="D791" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E791" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F791" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G791" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H791" s="5"/>
     </row>
     <row r="792" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A792" s="14" t="s">
-        <v>351</v>
+      <c r="A792" s="5" t="s">
+        <v>516</v>
       </c>
       <c r="B792" s="19" t="s">
         <v>224</v>
@@ -22487,22 +22496,22 @@
         <v>6</v>
       </c>
       <c r="D792" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E792" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F792" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G792" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H792" s="5"/>
     </row>
     <row r="793" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A793" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B793" s="19" t="s">
         <v>224</v>
@@ -22511,7 +22520,7 @@
         <v>6</v>
       </c>
       <c r="D793" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E793" s="5" t="s">
         <v>14</v>
@@ -22526,7 +22535,7 @@
     </row>
     <row r="794" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A794" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B794" s="19" t="s">
         <v>224</v>
@@ -22535,10 +22544,10 @@
         <v>6</v>
       </c>
       <c r="D794" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E794" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F794" s="5" t="s">
         <v>8</v>
@@ -22550,7 +22559,7 @@
     </row>
     <row r="795" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A795" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B795" s="19" t="s">
         <v>224</v>
@@ -22559,7 +22568,7 @@
         <v>6</v>
       </c>
       <c r="D795" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E795" s="5" t="s">
         <v>15</v>
@@ -22574,7 +22583,7 @@
     </row>
     <row r="796" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A796" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B796" s="19" t="s">
         <v>224</v>
@@ -22583,22 +22592,22 @@
         <v>6</v>
       </c>
       <c r="D796" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E796" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F796" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G796" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H796" s="5"/>
     </row>
     <row r="797" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A797" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B797" s="19" t="s">
         <v>224</v>
@@ -22607,22 +22616,22 @@
         <v>6</v>
       </c>
       <c r="D797" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E797" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F797" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G797" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H797" s="5"/>
     </row>
     <row r="798" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A798" s="5" t="s">
-        <v>521</v>
+      <c r="A798" s="14" t="s">
+        <v>382</v>
       </c>
       <c r="B798" s="19" t="s">
         <v>224</v>
@@ -22634,19 +22643,19 @@
         <v>7</v>
       </c>
       <c r="E798" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F798" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G798" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H798" s="5"/>
     </row>
     <row r="799" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A799" s="14" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B799" s="19" t="s">
         <v>224</v>
@@ -22655,34 +22664,34 @@
         <v>6</v>
       </c>
       <c r="D799" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E799" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F799" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G799" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H799" s="5"/>
     </row>
     <row r="800" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A800" s="14" t="s">
-        <v>386</v>
+      <c r="A800" s="5" t="s">
+        <v>522</v>
       </c>
       <c r="B800" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C800" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D800" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E800" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F800" s="5" t="s">
         <v>8</v>
@@ -22693,8 +22702,8 @@
       <c r="H800" s="5"/>
     </row>
     <row r="801" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A801" s="5" t="s">
-        <v>522</v>
+      <c r="A801" s="14" t="s">
+        <v>492</v>
       </c>
       <c r="B801" s="19" t="s">
         <v>224</v>
@@ -22703,10 +22712,10 @@
         <v>11</v>
       </c>
       <c r="D801" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E801" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F801" s="5" t="s">
         <v>8</v>
@@ -22717,8 +22726,8 @@
       <c r="H801" s="5"/>
     </row>
     <row r="802" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A802" s="14" t="s">
-        <v>492</v>
+      <c r="A802" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="B802" s="19" t="s">
         <v>224</v>
@@ -22727,22 +22736,22 @@
         <v>11</v>
       </c>
       <c r="D802" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E802" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F802" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G802" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H802" s="5"/>
     </row>
     <row r="803" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A803" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B803" s="19" t="s">
         <v>224</v>
@@ -22751,10 +22760,10 @@
         <v>11</v>
       </c>
       <c r="D803" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E803" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F803" s="5" t="s">
         <v>10</v>
@@ -22766,7 +22775,7 @@
     </row>
     <row r="804" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A804" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B804" s="19" t="s">
         <v>224</v>
@@ -22775,10 +22784,10 @@
         <v>11</v>
       </c>
       <c r="D804" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E804" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F804" s="5" t="s">
         <v>10</v>
@@ -22790,7 +22799,7 @@
     </row>
     <row r="805" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A805" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B805" s="19" t="s">
         <v>224</v>
@@ -22799,7 +22808,7 @@
         <v>11</v>
       </c>
       <c r="D805" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E805" s="5" t="s">
         <v>13</v>
@@ -22814,7 +22823,7 @@
     </row>
     <row r="806" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A806" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B806" s="19" t="s">
         <v>224</v>
@@ -22823,10 +22832,10 @@
         <v>11</v>
       </c>
       <c r="D806" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E806" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F806" s="5" t="s">
         <v>10</v>
@@ -22838,7 +22847,7 @@
     </row>
     <row r="807" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B807" s="19" t="s">
         <v>224</v>
@@ -22847,22 +22856,22 @@
         <v>11</v>
       </c>
       <c r="D807" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E807" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F807" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G807" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H807" s="5"/>
     </row>
     <row r="808" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A808" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B808" s="19" t="s">
         <v>224</v>
@@ -22871,22 +22880,22 @@
         <v>11</v>
       </c>
       <c r="D808" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E808" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F808" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G808" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H808" s="5"/>
     </row>
     <row r="809" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B809" s="19" t="s">
         <v>224</v>
@@ -22895,10 +22904,10 @@
         <v>11</v>
       </c>
       <c r="D809" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E809" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F809" s="5" t="s">
         <v>10</v>
@@ -22910,7 +22919,7 @@
     </row>
     <row r="810" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A810" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B810" s="19" t="s">
         <v>224</v>
@@ -22919,10 +22928,10 @@
         <v>11</v>
       </c>
       <c r="D810" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E810" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F810" s="5" t="s">
         <v>10</v>
@@ -22934,7 +22943,7 @@
     </row>
     <row r="811" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A811" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B811" s="19" t="s">
         <v>224</v>
@@ -22943,22 +22952,22 @@
         <v>11</v>
       </c>
       <c r="D811" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E811" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F811" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G811" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H811" s="5"/>
     </row>
     <row r="812" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A812" s="5" t="s">
-        <v>532</v>
+      <c r="A812" s="14" t="s">
+        <v>533</v>
       </c>
       <c r="B812" s="19" t="s">
         <v>224</v>
@@ -22967,7 +22976,7 @@
         <v>11</v>
       </c>
       <c r="D812" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E812" s="5" t="s">
         <v>13</v>
@@ -22981,8 +22990,8 @@
       <c r="H812" s="5"/>
     </row>
     <row r="813" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A813" s="14" t="s">
-        <v>533</v>
+      <c r="A813" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="B813" s="19" t="s">
         <v>224</v>
@@ -22991,10 +23000,10 @@
         <v>11</v>
       </c>
       <c r="D813" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E813" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F813" s="5" t="s">
         <v>8</v>
@@ -23006,7 +23015,7 @@
     </row>
     <row r="814" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A814" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B814" s="19" t="s">
         <v>224</v>
@@ -23021,16 +23030,16 @@
         <v>14</v>
       </c>
       <c r="F814" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G814" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H814" s="5"/>
     </row>
     <row r="815" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A815" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B815" s="19" t="s">
         <v>224</v>
@@ -23039,7 +23048,7 @@
         <v>11</v>
       </c>
       <c r="D815" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E815" s="5" t="s">
         <v>14</v>
@@ -23054,7 +23063,7 @@
     </row>
     <row r="816" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A816" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B816" s="19" t="s">
         <v>224</v>
@@ -23063,7 +23072,7 @@
         <v>11</v>
       </c>
       <c r="D816" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E816" s="5" t="s">
         <v>14</v>
@@ -23078,7 +23087,7 @@
     </row>
     <row r="817" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A817" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B817" s="19" t="s">
         <v>224</v>
@@ -23087,7 +23096,7 @@
         <v>11</v>
       </c>
       <c r="D817" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E817" s="5" t="s">
         <v>14</v>
@@ -23102,7 +23111,7 @@
     </row>
     <row r="818" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A818" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B818" s="19" t="s">
         <v>224</v>
@@ -23111,10 +23120,10 @@
         <v>11</v>
       </c>
       <c r="D818" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E818" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F818" s="5" t="s">
         <v>10</v>
@@ -23125,8 +23134,8 @@
       <c r="H818" s="5"/>
     </row>
     <row r="819" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A819" s="5" t="s">
-        <v>539</v>
+      <c r="A819" s="14" t="s">
+        <v>509</v>
       </c>
       <c r="B819" s="19" t="s">
         <v>224</v>
@@ -23135,10 +23144,10 @@
         <v>11</v>
       </c>
       <c r="D819" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E819" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F819" s="5" t="s">
         <v>10</v>
@@ -23149,8 +23158,8 @@
       <c r="H819" s="5"/>
     </row>
     <row r="820" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A820" s="14" t="s">
-        <v>509</v>
+      <c r="A820" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="B820" s="19" t="s">
         <v>224</v>
@@ -23159,10 +23168,10 @@
         <v>11</v>
       </c>
       <c r="D820" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E820" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F820" s="5" t="s">
         <v>10</v>
@@ -23173,8 +23182,8 @@
       <c r="H820" s="5"/>
     </row>
     <row r="821" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A821" s="5" t="s">
-        <v>540</v>
+      <c r="A821" s="14" t="s">
+        <v>511</v>
       </c>
       <c r="B821" s="19" t="s">
         <v>224</v>
@@ -23183,7 +23192,7 @@
         <v>11</v>
       </c>
       <c r="D821" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E821" s="5" t="s">
         <v>15</v>
@@ -23197,8 +23206,8 @@
       <c r="H821" s="5"/>
     </row>
     <row r="822" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A822" s="14" t="s">
-        <v>511</v>
+      <c r="A822" s="5" t="s">
+        <v>541</v>
       </c>
       <c r="B822" s="19" t="s">
         <v>224</v>
@@ -23207,22 +23216,22 @@
         <v>11</v>
       </c>
       <c r="D822" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E822" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F822" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G822" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H822" s="5"/>
     </row>
     <row r="823" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A823" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B823" s="19" t="s">
         <v>224</v>
@@ -23234,7 +23243,7 @@
         <v>12</v>
       </c>
       <c r="E823" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F823" s="5" t="s">
         <v>8</v>
@@ -23246,7 +23255,7 @@
     </row>
     <row r="824" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A824" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B824" s="19" t="s">
         <v>224</v>
@@ -23255,10 +23264,10 @@
         <v>11</v>
       </c>
       <c r="D824" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E824" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F824" s="5" t="s">
         <v>8</v>
@@ -23270,7 +23279,7 @@
     </row>
     <row r="825" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A825" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B825" s="19" t="s">
         <v>224</v>
@@ -23279,7 +23288,7 @@
         <v>11</v>
       </c>
       <c r="D825" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E825" s="5" t="s">
         <v>13</v>
@@ -23294,7 +23303,7 @@
     </row>
     <row r="826" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A826" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B826" s="19" t="s">
         <v>224</v>
@@ -23303,22 +23312,22 @@
         <v>11</v>
       </c>
       <c r="D826" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E826" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F826" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G826" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H826" s="5"/>
     </row>
     <row r="827" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A827" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B827" s="19" t="s">
         <v>224</v>
@@ -23327,10 +23336,10 @@
         <v>11</v>
       </c>
       <c r="D827" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E827" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F827" s="5" t="s">
         <v>10</v>
@@ -23342,7 +23351,7 @@
     </row>
     <row r="828" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A828" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B828" s="19" t="s">
         <v>224</v>
@@ -23351,22 +23360,22 @@
         <v>11</v>
       </c>
       <c r="D828" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E828" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F828" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G828" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H828" s="5"/>
     </row>
     <row r="829" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A829" s="5" t="s">
-        <v>547</v>
+      <c r="A829" s="14" t="s">
+        <v>474</v>
       </c>
       <c r="B829" s="19" t="s">
         <v>224</v>
@@ -23375,7 +23384,7 @@
         <v>11</v>
       </c>
       <c r="D829" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E829" s="5" t="s">
         <v>13</v>
@@ -23389,8 +23398,8 @@
       <c r="H829" s="5"/>
     </row>
     <row r="830" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A830" s="14" t="s">
-        <v>474</v>
+      <c r="A830" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="B830" s="19" t="s">
         <v>224</v>
@@ -23399,10 +23408,10 @@
         <v>11</v>
       </c>
       <c r="D830" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E830" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F830" s="5" t="s">
         <v>8</v>
@@ -23414,10 +23423,10 @@
     </row>
     <row r="831" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A831" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B831" s="19" t="s">
-        <v>224</v>
+        <v>549</v>
+      </c>
+      <c r="B831" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="C831" s="5" t="s">
         <v>11</v>
@@ -23438,7 +23447,7 @@
     </row>
     <row r="832" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A832" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B832" s="5" t="s">
         <v>181</v>
@@ -23447,10 +23456,10 @@
         <v>11</v>
       </c>
       <c r="D832" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E832" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F832" s="5" t="s">
         <v>8</v>
@@ -23462,7 +23471,7 @@
     </row>
     <row r="833" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A833" s="5" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="B833" s="5" t="s">
         <v>181</v>
@@ -23471,58 +23480,58 @@
         <v>11</v>
       </c>
       <c r="D833" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E833" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F833" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G833" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H833" s="5"/>
     </row>
     <row r="834" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A834" s="5" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="B834" s="5" t="s">
         <v>181</v>
       </c>
       <c r="C834" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D834" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E834" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F834" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G834" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H834" s="5"/>
     </row>
     <row r="835" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A835" s="5" t="s">
-        <v>551</v>
+        <v>462</v>
       </c>
       <c r="B835" s="5" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="C835" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D835" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E835" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F835" s="5" t="s">
         <v>8</v>
@@ -23534,7 +23543,7 @@
     </row>
     <row r="836" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A836" s="5" t="s">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="B836" s="5" t="s">
         <v>140</v>
@@ -23543,7 +23552,7 @@
         <v>11</v>
       </c>
       <c r="D836" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E836" s="5" t="s">
         <v>21</v>
@@ -23558,43 +23567,43 @@
     </row>
     <row r="837" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A837" s="5" t="s">
-        <v>548</v>
+        <v>191</v>
       </c>
       <c r="B837" s="5" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C837" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D837" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E837" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F837" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G837" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H837" s="5"/>
     </row>
     <row r="838" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A838" s="5" t="s">
-        <v>191</v>
+        <v>552</v>
       </c>
       <c r="B838" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C838" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D838" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E838" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F838" s="5" t="s">
         <v>10</v>
@@ -23606,31 +23615,31 @@
     </row>
     <row r="839" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A839" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B839" s="5" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="C839" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D839" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E839" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F839" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G839" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H839" s="5"/>
     </row>
     <row r="840" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A840" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B840" s="5" t="s">
         <v>224</v>
@@ -23639,34 +23648,34 @@
         <v>11</v>
       </c>
       <c r="D840" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E840" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F840" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G840" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H840" s="5"/>
     </row>
     <row r="841" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A841" s="5" t="s">
-        <v>554</v>
+        <v>427</v>
       </c>
       <c r="B841" s="5" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="C841" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D841" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E841" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F841" s="5" t="s">
         <v>10</v>
@@ -23678,31 +23687,31 @@
     </row>
     <row r="842" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A842" s="5" t="s">
-        <v>427</v>
+        <v>555</v>
       </c>
       <c r="B842" s="5" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C842" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D842" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E842" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F842" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G842" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H842" s="5"/>
     </row>
     <row r="843" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A843" s="5" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B843" s="5" t="s">
         <v>150</v>
@@ -23711,22 +23720,22 @@
         <v>11</v>
       </c>
       <c r="D843" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E843" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F843" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G843" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H843" s="5"/>
     </row>
     <row r="844" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A844" s="5" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B844" s="5" t="s">
         <v>150</v>
@@ -23735,10 +23744,10 @@
         <v>11</v>
       </c>
       <c r="D844" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E844" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F844" s="5" t="s">
         <v>10</v>
@@ -23749,20 +23758,20 @@
       <c r="H844" s="5"/>
     </row>
     <row r="845" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A845" s="5" t="s">
-        <v>554</v>
+      <c r="A845" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="B845" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C845" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D845" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E845" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F845" s="5" t="s">
         <v>10</v>
@@ -23770,11 +23779,13 @@
       <c r="G845" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H845" s="5"/>
+      <c r="H845" s="12">
+        <v>89152488681</v>
+      </c>
     </row>
     <row r="846" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A846" s="14" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="B846" s="5" t="s">
         <v>149</v>
@@ -23783,10 +23794,10 @@
         <v>6</v>
       </c>
       <c r="D846" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E846" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F846" s="5" t="s">
         <v>10</v>
@@ -23795,12 +23806,12 @@
         <v>8</v>
       </c>
       <c r="H846" s="12">
-        <v>89152488681</v>
+        <v>89171567226</v>
       </c>
     </row>
     <row r="847" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A847" s="14" t="s">
-        <v>180</v>
+      <c r="A847" s="5" t="s">
+        <v>556</v>
       </c>
       <c r="B847" s="5" t="s">
         <v>149</v>
@@ -23809,10 +23820,10 @@
         <v>6</v>
       </c>
       <c r="D847" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E847" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F847" s="5" t="s">
         <v>10</v>
@@ -23821,12 +23832,12 @@
         <v>8</v>
       </c>
       <c r="H847" s="12">
-        <v>89171567226</v>
+        <v>89811103243</v>
       </c>
     </row>
     <row r="848" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A848" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B848" s="5" t="s">
         <v>149</v>
@@ -23835,7 +23846,7 @@
         <v>6</v>
       </c>
       <c r="D848" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E848" s="5" t="s">
         <v>15</v>
@@ -23847,12 +23858,12 @@
         <v>8</v>
       </c>
       <c r="H848" s="12">
-        <v>89811103243</v>
+        <v>89118575740</v>
       </c>
     </row>
     <row r="849" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A849" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B849" s="5" t="s">
         <v>149</v>
@@ -23861,24 +23872,24 @@
         <v>6</v>
       </c>
       <c r="D849" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E849" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F849" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G849" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H849" s="12">
-        <v>89118575740</v>
+        <v>89101014002</v>
       </c>
     </row>
     <row r="850" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A850" s="5" t="s">
-        <v>558</v>
+      <c r="A850" s="14" t="s">
+        <v>351</v>
       </c>
       <c r="B850" s="5" t="s">
         <v>149</v>
@@ -23887,24 +23898,24 @@
         <v>6</v>
       </c>
       <c r="D850" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E850" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F850" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G850" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H850" s="12">
-        <v>89101014002</v>
+        <v>89853071717</v>
       </c>
     </row>
     <row r="851" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A851" s="14" t="s">
-        <v>351</v>
+      <c r="A851" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="B851" s="5" t="s">
         <v>149</v>
@@ -23913,7 +23924,7 @@
         <v>6</v>
       </c>
       <c r="D851" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E851" s="5" t="s">
         <v>15</v>
@@ -23925,12 +23936,12 @@
         <v>8</v>
       </c>
       <c r="H851" s="12">
-        <v>89853071717</v>
+        <v>89852888852</v>
       </c>
     </row>
     <row r="852" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A852" s="5" t="s">
-        <v>559</v>
+      <c r="A852" s="14" t="s">
+        <v>430</v>
       </c>
       <c r="B852" s="5" t="s">
         <v>149</v>
@@ -23939,10 +23950,10 @@
         <v>6</v>
       </c>
       <c r="D852" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E852" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F852" s="5" t="s">
         <v>10</v>
@@ -23951,12 +23962,12 @@
         <v>8</v>
       </c>
       <c r="H852" s="12">
-        <v>89852888852</v>
+        <v>89105235056</v>
       </c>
     </row>
     <row r="853" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A853" s="14" t="s">
-        <v>430</v>
+      <c r="A853" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="B853" s="5" t="s">
         <v>149</v>
@@ -23965,7 +23976,7 @@
         <v>6</v>
       </c>
       <c r="D853" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E853" s="5" t="s">
         <v>13</v>
@@ -23977,12 +23988,12 @@
         <v>8</v>
       </c>
       <c r="H853" s="12">
-        <v>89105235056</v>
+        <v>89879255765</v>
       </c>
     </row>
     <row r="854" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A854" s="5" t="s">
-        <v>560</v>
+      <c r="A854" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="B854" s="5" t="s">
         <v>149</v>
@@ -23991,7 +24002,7 @@
         <v>6</v>
       </c>
       <c r="D854" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E854" s="5" t="s">
         <v>13</v>
@@ -24003,12 +24014,12 @@
         <v>8</v>
       </c>
       <c r="H854" s="12">
-        <v>89879255765</v>
+        <v>89834606397</v>
       </c>
     </row>
     <row r="855" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A855" s="14" t="s">
-        <v>352</v>
+      <c r="A855" s="5" t="s">
+        <v>561</v>
       </c>
       <c r="B855" s="5" t="s">
         <v>149</v>
@@ -24017,10 +24028,10 @@
         <v>6</v>
       </c>
       <c r="D855" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E855" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F855" s="5" t="s">
         <v>10</v>
@@ -24029,12 +24040,12 @@
         <v>8</v>
       </c>
       <c r="H855" s="12">
-        <v>89834606397</v>
+        <v>89828752542</v>
       </c>
     </row>
     <row r="856" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A856" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B856" s="5" t="s">
         <v>149</v>
@@ -24043,10 +24054,10 @@
         <v>6</v>
       </c>
       <c r="D856" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E856" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F856" s="5" t="s">
         <v>10</v>
@@ -24055,12 +24066,12 @@
         <v>8</v>
       </c>
       <c r="H856" s="12">
-        <v>89828752542</v>
+        <v>89158526203</v>
       </c>
     </row>
     <row r="857" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A857" s="5" t="s">
-        <v>562</v>
+      <c r="A857" s="14" t="s">
+        <v>479</v>
       </c>
       <c r="B857" s="5" t="s">
         <v>149</v>
@@ -24069,7 +24080,7 @@
         <v>6</v>
       </c>
       <c r="D857" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E857" s="5" t="s">
         <v>14</v>
@@ -24081,12 +24092,12 @@
         <v>8</v>
       </c>
       <c r="H857" s="12">
-        <v>89158526203</v>
+        <v>89118832940</v>
       </c>
     </row>
     <row r="858" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A858" s="14" t="s">
-        <v>479</v>
+      <c r="A858" s="5" t="s">
+        <v>563</v>
       </c>
       <c r="B858" s="5" t="s">
         <v>149</v>
@@ -24095,7 +24106,7 @@
         <v>6</v>
       </c>
       <c r="D858" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E858" s="5" t="s">
         <v>14</v>
@@ -24107,12 +24118,12 @@
         <v>8</v>
       </c>
       <c r="H858" s="12">
-        <v>89118832940</v>
+        <v>89173472617</v>
       </c>
     </row>
     <row r="859" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A859" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B859" s="5" t="s">
         <v>149</v>
@@ -24121,24 +24132,24 @@
         <v>6</v>
       </c>
       <c r="D859" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E859" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F859" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G859" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H859" s="12">
-        <v>89173472617</v>
+        <v>89645151193</v>
       </c>
     </row>
     <row r="860" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A860" s="5" t="s">
-        <v>564</v>
+      <c r="A860" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="B860" s="5" t="s">
         <v>149</v>
@@ -24147,7 +24158,7 @@
         <v>6</v>
       </c>
       <c r="D860" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E860" s="5" t="s">
         <v>15</v>
@@ -24159,12 +24170,12 @@
         <v>10</v>
       </c>
       <c r="H860" s="12">
-        <v>89645151193</v>
+        <v>89870559586</v>
       </c>
     </row>
     <row r="861" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A861" s="14" t="s">
-        <v>182</v>
+      <c r="A861" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="B861" s="5" t="s">
         <v>149</v>
@@ -24173,10 +24184,10 @@
         <v>6</v>
       </c>
       <c r="D861" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E861" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F861" s="5" t="s">
         <v>8</v>
@@ -24185,12 +24196,12 @@
         <v>10</v>
       </c>
       <c r="H861" s="12">
-        <v>89870559586</v>
+        <v>89185632396</v>
       </c>
     </row>
     <row r="862" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A862" s="5" t="s">
-        <v>565</v>
+      <c r="A862" s="14" t="s">
+        <v>434</v>
       </c>
       <c r="B862" s="5" t="s">
         <v>149</v>
@@ -24199,7 +24210,7 @@
         <v>6</v>
       </c>
       <c r="D862" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E862" s="5" t="s">
         <v>13</v>
@@ -24211,12 +24222,12 @@
         <v>10</v>
       </c>
       <c r="H862" s="12">
-        <v>89185632396</v>
+        <v>89520985944</v>
       </c>
     </row>
     <row r="863" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A863" s="14" t="s">
-        <v>434</v>
+      <c r="A863" s="5" t="s">
+        <v>566</v>
       </c>
       <c r="B863" s="5" t="s">
         <v>149</v>
@@ -24225,7 +24236,7 @@
         <v>6</v>
       </c>
       <c r="D863" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E863" s="5" t="s">
         <v>13</v>
@@ -24237,12 +24248,12 @@
         <v>10</v>
       </c>
       <c r="H863" s="12">
-        <v>89520985944</v>
+        <v>89164347673</v>
       </c>
     </row>
     <row r="864" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A864" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B864" s="5" t="s">
         <v>149</v>
@@ -24251,10 +24262,10 @@
         <v>6</v>
       </c>
       <c r="D864" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E864" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F864" s="5" t="s">
         <v>8</v>
@@ -24263,12 +24274,12 @@
         <v>10</v>
       </c>
       <c r="H864" s="12">
-        <v>89164347673</v>
+        <v>89886677696</v>
       </c>
     </row>
     <row r="865" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A865" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B865" s="5" t="s">
         <v>149</v>
@@ -24277,10 +24288,10 @@
         <v>6</v>
       </c>
       <c r="D865" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E865" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F865" s="5" t="s">
         <v>8</v>
@@ -24289,12 +24300,12 @@
         <v>10</v>
       </c>
       <c r="H865" s="12">
-        <v>89886677696</v>
+        <v>89170154915</v>
       </c>
     </row>
     <row r="866" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A866" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B866" s="5" t="s">
         <v>149</v>
@@ -24303,7 +24314,7 @@
         <v>6</v>
       </c>
       <c r="D866" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E866" s="5" t="s">
         <v>14</v>
@@ -24315,12 +24326,12 @@
         <v>10</v>
       </c>
       <c r="H866" s="12">
-        <v>89170154915</v>
+        <v>89179527646</v>
       </c>
     </row>
     <row r="867" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A867" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B867" s="5" t="s">
         <v>149</v>
@@ -24329,7 +24340,7 @@
         <v>6</v>
       </c>
       <c r="D867" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E867" s="5" t="s">
         <v>14</v>
@@ -24341,12 +24352,12 @@
         <v>10</v>
       </c>
       <c r="H867" s="12">
-        <v>89179527646</v>
+        <v>89188955520</v>
       </c>
     </row>
     <row r="868" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A868" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B868" s="5" t="s">
         <v>149</v>
@@ -24355,10 +24366,10 @@
         <v>6</v>
       </c>
       <c r="D868" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E868" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F868" s="5" t="s">
         <v>8</v>
@@ -24367,12 +24378,12 @@
         <v>10</v>
       </c>
       <c r="H868" s="12">
-        <v>89188955520</v>
+        <v>89169532491</v>
       </c>
     </row>
     <row r="869" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A869" s="5" t="s">
-        <v>571</v>
+      <c r="A869" s="14" t="s">
+        <v>364</v>
       </c>
       <c r="B869" s="5" t="s">
         <v>149</v>
@@ -24381,7 +24392,7 @@
         <v>6</v>
       </c>
       <c r="D869" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E869" s="5" t="s">
         <v>15</v>
@@ -24393,12 +24404,12 @@
         <v>10</v>
       </c>
       <c r="H869" s="12">
-        <v>89169532491</v>
+        <v>89177967709</v>
       </c>
     </row>
     <row r="870" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A870" s="14" t="s">
-        <v>364</v>
+      <c r="A870" s="5" t="s">
+        <v>572</v>
       </c>
       <c r="B870" s="5" t="s">
         <v>149</v>
@@ -24407,24 +24418,24 @@
         <v>6</v>
       </c>
       <c r="D870" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E870" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F870" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G870" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H870" s="12">
-        <v>89177967709</v>
+        <v>89272617778</v>
       </c>
     </row>
     <row r="871" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A871" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B871" s="5" t="s">
         <v>149</v>
@@ -24433,24 +24444,24 @@
         <v>6</v>
       </c>
       <c r="D871" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E871" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F871" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G871" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H871" s="12">
-        <v>89272617778</v>
+        <v>89179129417</v>
       </c>
     </row>
     <row r="872" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A872" s="5" t="s">
-        <v>573</v>
+      <c r="A872" s="14" t="s">
+        <v>438</v>
       </c>
       <c r="B872" s="5" t="s">
         <v>149</v>
@@ -24459,24 +24470,24 @@
         <v>6</v>
       </c>
       <c r="D872" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E872" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F872" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G872" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H872" s="12">
-        <v>89179129417</v>
+        <v>89885537545</v>
       </c>
     </row>
     <row r="873" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A873" s="14" t="s">
-        <v>438</v>
+      <c r="A873" s="5" t="s">
+        <v>574</v>
       </c>
       <c r="B873" s="5" t="s">
         <v>149</v>
@@ -24485,7 +24496,7 @@
         <v>6</v>
       </c>
       <c r="D873" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E873" s="5" t="s">
         <v>13</v>
@@ -24497,12 +24508,12 @@
         <v>8</v>
       </c>
       <c r="H873" s="12">
-        <v>89885537545</v>
+        <v>89178435005</v>
       </c>
     </row>
     <row r="874" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A874" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B874" s="5" t="s">
         <v>149</v>
@@ -24511,10 +24522,10 @@
         <v>6</v>
       </c>
       <c r="D874" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E874" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F874" s="5" t="s">
         <v>10</v>
@@ -24523,12 +24534,12 @@
         <v>8</v>
       </c>
       <c r="H874" s="12">
-        <v>89178435005</v>
+        <v>89293836087</v>
       </c>
     </row>
     <row r="875" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A875" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B875" s="5" t="s">
         <v>149</v>
@@ -24537,24 +24548,24 @@
         <v>6</v>
       </c>
       <c r="D875" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E875" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F875" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G875" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H875" s="12">
-        <v>89293836087</v>
+        <v>89871331097</v>
       </c>
     </row>
     <row r="876" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A876" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B876" s="5" t="s">
         <v>149</v>
@@ -24566,7 +24577,7 @@
         <v>12</v>
       </c>
       <c r="E876" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F876" s="5" t="s">
         <v>8</v>
@@ -24575,12 +24586,12 @@
         <v>10</v>
       </c>
       <c r="H876" s="12">
-        <v>89871331097</v>
+        <v>89872907372</v>
       </c>
     </row>
     <row r="877" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A877" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B877" s="5" t="s">
         <v>149</v>
@@ -24592,21 +24603,21 @@
         <v>12</v>
       </c>
       <c r="E877" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F877" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G877" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H877" s="12">
-        <v>89872907372</v>
+        <v>89851954931</v>
       </c>
     </row>
     <row r="878" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A878" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B878" s="5" t="s">
         <v>149</v>
@@ -24615,7 +24626,7 @@
         <v>6</v>
       </c>
       <c r="D878" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E878" s="5" t="s">
         <v>13</v>
@@ -24627,12 +24638,12 @@
         <v>8</v>
       </c>
       <c r="H878" s="12">
-        <v>89851954931</v>
+        <v>89876268760</v>
       </c>
     </row>
     <row r="879" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A879" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B879" s="5" t="s">
         <v>149</v>
@@ -24641,7 +24652,7 @@
         <v>6</v>
       </c>
       <c r="D879" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E879" s="5" t="s">
         <v>13</v>
@@ -24653,12 +24664,12 @@
         <v>8</v>
       </c>
       <c r="H879" s="12">
-        <v>89876268760</v>
+        <v>89167101222</v>
       </c>
     </row>
     <row r="880" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A880" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B880" s="5" t="s">
         <v>149</v>
@@ -24667,10 +24678,10 @@
         <v>6</v>
       </c>
       <c r="D880" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E880" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F880" s="5" t="s">
         <v>10</v>
@@ -24679,12 +24690,12 @@
         <v>8</v>
       </c>
       <c r="H880" s="12">
-        <v>89167101222</v>
+        <v>89172975012</v>
       </c>
     </row>
     <row r="881" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A881" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B881" s="5" t="s">
         <v>149</v>
@@ -24693,24 +24704,24 @@
         <v>6</v>
       </c>
       <c r="D881" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E881" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F881" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G881" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H881" s="12">
-        <v>89172975012</v>
+        <v>89506531057</v>
       </c>
     </row>
     <row r="882" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A882" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B882" s="5" t="s">
         <v>149</v>
@@ -24719,24 +24730,24 @@
         <v>6</v>
       </c>
       <c r="D882" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E882" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F882" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G882" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H882" s="12">
-        <v>89506531057</v>
+        <v>89156212815</v>
       </c>
     </row>
     <row r="883" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A883" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B883" s="5" t="s">
         <v>149</v>
@@ -24745,24 +24756,24 @@
         <v>6</v>
       </c>
       <c r="D883" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E883" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F883" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G883" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H883" s="12">
-        <v>89156212815</v>
+        <v>89166669364</v>
       </c>
     </row>
     <row r="884" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A884" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B884" s="5" t="s">
         <v>149</v>
@@ -24771,24 +24782,24 @@
         <v>6</v>
       </c>
       <c r="D884" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E884" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F884" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G884" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H884" s="12">
-        <v>89166669364</v>
+        <v>89165884277</v>
       </c>
     </row>
     <row r="885" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A885" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B885" s="5" t="s">
         <v>149</v>
@@ -24797,24 +24808,24 @@
         <v>6</v>
       </c>
       <c r="D885" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E885" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F885" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G885" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H885" s="12">
-        <v>89165884277</v>
+        <v>89875564142</v>
       </c>
     </row>
     <row r="886" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A886" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B886" s="5" t="s">
         <v>149</v>
@@ -24823,10 +24834,10 @@
         <v>6</v>
       </c>
       <c r="D886" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E886" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F886" s="5" t="s">
         <v>8</v>
@@ -24835,12 +24846,12 @@
         <v>10</v>
       </c>
       <c r="H886" s="12">
-        <v>89875564142</v>
+        <v>89879348744</v>
       </c>
     </row>
     <row r="887" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A887" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B887" s="5" t="s">
         <v>149</v>
@@ -24849,24 +24860,24 @@
         <v>6</v>
       </c>
       <c r="D887" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E887" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F887" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G887" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H887" s="12">
-        <v>89879348744</v>
+        <v>89879020304</v>
       </c>
     </row>
     <row r="888" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="5" t="s">
-        <v>588</v>
+      <c r="A888" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="B888" s="5" t="s">
         <v>149</v>
@@ -24875,24 +24886,24 @@
         <v>6</v>
       </c>
       <c r="D888" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E888" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F888" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G888" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H888" s="12">
-        <v>89879020304</v>
+        <v>89812495921</v>
       </c>
     </row>
     <row r="889" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A889" s="14" t="s">
-        <v>192</v>
+      <c r="A889" s="5" t="s">
+        <v>589</v>
       </c>
       <c r="B889" s="5" t="s">
         <v>149</v>
@@ -24901,10 +24912,10 @@
         <v>6</v>
       </c>
       <c r="D889" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E889" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F889" s="5" t="s">
         <v>8</v>
@@ -24913,12 +24924,12 @@
         <v>10</v>
       </c>
       <c r="H889" s="12">
-        <v>89812495921</v>
+        <v>89148921589</v>
       </c>
     </row>
     <row r="890" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A890" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B890" s="5" t="s">
         <v>149</v>
@@ -24927,7 +24938,7 @@
         <v>6</v>
       </c>
       <c r="D890" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E890" s="5" t="s">
         <v>14</v>
@@ -24939,12 +24950,12 @@
         <v>10</v>
       </c>
       <c r="H890" s="12">
-        <v>89148921589</v>
+        <v>89043922977</v>
       </c>
     </row>
     <row r="891" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A891" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B891" s="5" t="s">
         <v>149</v>
@@ -24953,7 +24964,7 @@
         <v>6</v>
       </c>
       <c r="D891" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E891" s="5" t="s">
         <v>14</v>
@@ -24965,12 +24976,12 @@
         <v>10</v>
       </c>
       <c r="H891" s="12">
-        <v>89043922977</v>
+        <v>89876012030</v>
       </c>
     </row>
     <row r="892" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A892" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B892" s="5" t="s">
         <v>149</v>
@@ -24979,24 +24990,24 @@
         <v>6</v>
       </c>
       <c r="D892" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E892" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F892" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G892" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H892" s="12">
-        <v>89876012030</v>
+        <v>89173577200</v>
       </c>
     </row>
     <row r="893" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A893" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B893" s="5" t="s">
         <v>149</v>
@@ -25005,24 +25016,24 @@
         <v>6</v>
       </c>
       <c r="D893" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E893" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F893" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G893" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H893" s="12">
-        <v>89173577200</v>
+        <v>89163292305</v>
       </c>
     </row>
     <row r="894" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="5" t="s">
-        <v>593</v>
+      <c r="A894" s="14" t="s">
+        <v>444</v>
       </c>
       <c r="B894" s="5" t="s">
         <v>149</v>
@@ -25031,24 +25042,24 @@
         <v>6</v>
       </c>
       <c r="D894" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E894" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F894" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G894" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H894" s="12">
-        <v>89163292305</v>
+        <v>89108536840</v>
       </c>
     </row>
     <row r="895" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A895" s="14" t="s">
-        <v>444</v>
+        <v>381</v>
       </c>
       <c r="B895" s="5" t="s">
         <v>149</v>
@@ -25057,24 +25068,24 @@
         <v>6</v>
       </c>
       <c r="D895" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E895" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F895" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G895" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H895" s="12">
-        <v>89108536840</v>
+        <v>89174125893</v>
       </c>
     </row>
     <row r="896" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A896" s="14" t="s">
-        <v>381</v>
+      <c r="A896" s="5" t="s">
+        <v>594</v>
       </c>
       <c r="B896" s="5" t="s">
         <v>149</v>
@@ -25083,24 +25094,24 @@
         <v>6</v>
       </c>
       <c r="D896" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E896" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F896" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G896" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H896" s="12">
-        <v>89174125893</v>
+        <v>89165397534</v>
       </c>
     </row>
     <row r="897" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A897" s="5" t="s">
-        <v>594</v>
+      <c r="A897" s="14" t="s">
+        <v>303</v>
       </c>
       <c r="B897" s="5" t="s">
         <v>149</v>
@@ -25112,7 +25123,7 @@
         <v>9</v>
       </c>
       <c r="E897" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F897" s="5" t="s">
         <v>10</v>
@@ -25121,12 +25132,12 @@
         <v>8</v>
       </c>
       <c r="H897" s="12">
-        <v>89165397534</v>
+        <v>89171198319</v>
       </c>
     </row>
     <row r="898" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A898" s="14" t="s">
-        <v>303</v>
+      <c r="A898" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="B898" s="5" t="s">
         <v>149</v>
@@ -25135,10 +25146,10 @@
         <v>6</v>
       </c>
       <c r="D898" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E898" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F898" s="5" t="s">
         <v>10</v>
@@ -25147,12 +25158,12 @@
         <v>8</v>
       </c>
       <c r="H898" s="12">
-        <v>89171198319</v>
+        <v>89139155065</v>
       </c>
     </row>
     <row r="899" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A899" s="5" t="s">
-        <v>595</v>
+      <c r="A899" s="14" t="s">
+        <v>447</v>
       </c>
       <c r="B899" s="5" t="s">
         <v>149</v>
@@ -25161,24 +25172,24 @@
         <v>6</v>
       </c>
       <c r="D899" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E899" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F899" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G899" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H899" s="12">
-        <v>89139155065</v>
+        <v>89101407373</v>
       </c>
     </row>
     <row r="900" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A900" s="14" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="B900" s="5" t="s">
         <v>149</v>
@@ -25187,24 +25198,24 @@
         <v>6</v>
       </c>
       <c r="D900" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E900" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F900" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G900" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H900" s="12">
-        <v>89101407373</v>
+        <v>89192530120</v>
       </c>
     </row>
     <row r="901" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A901" s="14" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B901" s="5" t="s">
         <v>149</v>
@@ -25213,7 +25224,7 @@
         <v>6</v>
       </c>
       <c r="D901" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E901" s="5" t="s">
         <v>13</v>
@@ -25225,12 +25236,12 @@
         <v>8</v>
       </c>
       <c r="H901" s="12">
-        <v>89192530120</v>
+        <v>89169222595</v>
       </c>
     </row>
     <row r="902" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A902" s="14" t="s">
-        <v>384</v>
+        <v>304</v>
       </c>
       <c r="B902" s="5" t="s">
         <v>149</v>
@@ -25239,7 +25250,7 @@
         <v>6</v>
       </c>
       <c r="D902" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E902" s="5" t="s">
         <v>13</v>
@@ -25251,12 +25262,12 @@
         <v>8</v>
       </c>
       <c r="H902" s="12">
-        <v>89169222595</v>
+        <v>89185249644</v>
       </c>
     </row>
     <row r="903" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A903" s="14" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B903" s="5" t="s">
         <v>149</v>
@@ -25265,24 +25276,24 @@
         <v>6</v>
       </c>
       <c r="D903" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E903" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F903" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G903" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H903" s="12">
-        <v>89185249644</v>
+        <v>89167277994</v>
       </c>
     </row>
     <row r="904" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A904" s="14" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B904" s="5" t="s">
         <v>149</v>
@@ -25291,24 +25302,24 @@
         <v>6</v>
       </c>
       <c r="D904" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E904" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F904" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G904" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H904" s="12">
-        <v>89167277994</v>
+        <v>89879583562</v>
       </c>
     </row>
     <row r="905" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A905" s="14" t="s">
-        <v>309</v>
+      <c r="A905" s="5" t="s">
+        <v>596</v>
       </c>
       <c r="B905" s="5" t="s">
         <v>149</v>
@@ -25317,7 +25328,7 @@
         <v>6</v>
       </c>
       <c r="D905" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E905" s="5" t="s">
         <v>14</v>
@@ -25329,12 +25340,12 @@
         <v>8</v>
       </c>
       <c r="H905" s="12">
-        <v>89879583562</v>
+        <v>89119797711</v>
       </c>
     </row>
     <row r="906" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A906" s="5" t="s">
-        <v>596</v>
+      <c r="A906" s="14" t="s">
+        <v>450</v>
       </c>
       <c r="B906" s="5" t="s">
         <v>149</v>
@@ -25343,24 +25354,24 @@
         <v>6</v>
       </c>
       <c r="D906" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E906" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F906" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G906" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H906" s="12">
-        <v>89119797711</v>
+        <v>89163419757</v>
       </c>
     </row>
     <row r="907" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A907" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B907" s="5" t="s">
         <v>149</v>
@@ -25369,10 +25380,10 @@
         <v>6</v>
       </c>
       <c r="D907" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E907" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F907" s="5" t="s">
         <v>8</v>
@@ -25381,12 +25392,12 @@
         <v>10</v>
       </c>
       <c r="H907" s="12">
-        <v>89163419757</v>
+        <v>89119306386</v>
       </c>
     </row>
     <row r="908" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A908" s="14" t="s">
-        <v>451</v>
+      <c r="A908" s="5" t="s">
+        <v>597</v>
       </c>
       <c r="B908" s="5" t="s">
         <v>149</v>
@@ -25395,10 +25406,10 @@
         <v>6</v>
       </c>
       <c r="D908" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E908" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F908" s="5" t="s">
         <v>8</v>
@@ -25407,12 +25418,12 @@
         <v>10</v>
       </c>
       <c r="H908" s="12">
-        <v>89119306386</v>
+        <v>89254688138</v>
       </c>
     </row>
     <row r="909" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A909" s="5" t="s">
-        <v>597</v>
+      <c r="A909" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="B909" s="5" t="s">
         <v>149</v>
@@ -25421,24 +25432,24 @@
         <v>6</v>
       </c>
       <c r="D909" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E909" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F909" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G909" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H909" s="12">
-        <v>89254688138</v>
+        <v>89118811513</v>
       </c>
     </row>
     <row r="910" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A910" s="14" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B910" s="5" t="s">
         <v>149</v>
@@ -25447,24 +25458,24 @@
         <v>6</v>
       </c>
       <c r="D910" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E910" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F910" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G910" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H910" s="12">
-        <v>89118811513</v>
+        <v>89645320283</v>
       </c>
     </row>
     <row r="911" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A911" s="14" t="s">
-        <v>316</v>
+      <c r="A911" s="5" t="s">
+        <v>598</v>
       </c>
       <c r="B911" s="5" t="s">
         <v>149</v>
@@ -25473,24 +25484,24 @@
         <v>6</v>
       </c>
       <c r="D911" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E911" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F911" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G911" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H911" s="12">
-        <v>89645320283</v>
+        <v>89193846292</v>
       </c>
     </row>
     <row r="912" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A912" s="5" t="s">
-        <v>598</v>
+      <c r="A912" s="14" t="s">
+        <v>393</v>
       </c>
       <c r="B912" s="5" t="s">
         <v>149</v>
@@ -25499,24 +25510,24 @@
         <v>6</v>
       </c>
       <c r="D912" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E912" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F912" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G912" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H912" s="12">
-        <v>89193846292</v>
+        <v>89119220210</v>
       </c>
     </row>
     <row r="913" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A913" s="14" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="B913" s="5" t="s">
         <v>149</v>
@@ -25525,7 +25536,7 @@
         <v>6</v>
       </c>
       <c r="D913" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E913" s="5" t="s">
         <v>14</v>
@@ -25537,12 +25548,12 @@
         <v>10</v>
       </c>
       <c r="H913" s="12">
-        <v>89119220210</v>
+        <v>89875433174</v>
       </c>
     </row>
     <row r="914" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A914" s="14" t="s">
-        <v>453</v>
+      <c r="A914" s="5" t="s">
+        <v>599</v>
       </c>
       <c r="B914" s="5" t="s">
         <v>149</v>
@@ -25551,10 +25562,10 @@
         <v>6</v>
       </c>
       <c r="D914" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E914" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F914" s="5" t="s">
         <v>8</v>
@@ -25563,12 +25574,12 @@
         <v>10</v>
       </c>
       <c r="H914" s="12">
-        <v>89875433174</v>
+        <v>89110076930</v>
       </c>
     </row>
     <row r="915" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A915" s="5" t="s">
-        <v>599</v>
+      <c r="A915" s="14" t="s">
+        <v>454</v>
       </c>
       <c r="B915" s="5" t="s">
         <v>149</v>
@@ -25577,10 +25588,10 @@
         <v>6</v>
       </c>
       <c r="D915" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E915" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F915" s="5" t="s">
         <v>8</v>
@@ -25589,12 +25600,12 @@
         <v>10</v>
       </c>
       <c r="H915" s="12">
-        <v>89110076930</v>
+        <v>89164150841</v>
       </c>
     </row>
     <row r="916" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A916" s="14" t="s">
-        <v>454</v>
+      <c r="A916" s="5" t="s">
+        <v>600</v>
       </c>
       <c r="B916" s="5" t="s">
         <v>149</v>
@@ -25603,7 +25614,7 @@
         <v>6</v>
       </c>
       <c r="D916" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E916" s="5" t="s">
         <v>15</v>
@@ -25615,12 +25626,12 @@
         <v>10</v>
       </c>
       <c r="H916" s="12">
-        <v>89164150841</v>
+        <v>89160571933</v>
       </c>
     </row>
     <row r="917" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A917" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B917" s="5" t="s">
         <v>149</v>
@@ -25629,50 +25640,50 @@
         <v>6</v>
       </c>
       <c r="D917" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E917" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F917" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G917" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H917" s="12">
-        <v>89160571933</v>
+        <v>89859188396</v>
       </c>
     </row>
     <row r="918" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A918" s="5" t="s">
-        <v>601</v>
+      <c r="A918" s="14" t="s">
+        <v>322</v>
       </c>
       <c r="B918" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C918" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D918" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E918" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F918" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G918" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H918" s="12">
-        <v>89859188396</v>
+        <v>89112071653</v>
       </c>
     </row>
     <row r="919" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A919" s="14" t="s">
-        <v>322</v>
+      <c r="A919" s="5" t="s">
+        <v>602</v>
       </c>
       <c r="B919" s="5" t="s">
         <v>149</v>
@@ -25681,24 +25692,24 @@
         <v>11</v>
       </c>
       <c r="D919" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E919" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F919" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G919" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H919" s="12">
-        <v>89112071653</v>
+        <v>89064325418</v>
       </c>
     </row>
     <row r="920" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A920" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B920" s="5" t="s">
         <v>149</v>
@@ -25707,24 +25718,24 @@
         <v>11</v>
       </c>
       <c r="D920" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E920" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F920" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G920" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H920" s="12">
-        <v>89064325418</v>
+        <v>89826771547</v>
       </c>
     </row>
     <row r="921" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A921" s="5" t="s">
-        <v>603</v>
+      <c r="A921" s="14" t="s">
+        <v>395</v>
       </c>
       <c r="B921" s="5" t="s">
         <v>149</v>
@@ -25733,24 +25744,24 @@
         <v>11</v>
       </c>
       <c r="D921" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E921" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F921" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G921" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H921" s="12">
-        <v>89826771547</v>
+        <v>89192624544</v>
       </c>
     </row>
     <row r="922" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A922" s="14" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B922" s="5" t="s">
         <v>149</v>
@@ -25759,10 +25770,10 @@
         <v>11</v>
       </c>
       <c r="D922" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E922" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F922" s="5" t="s">
         <v>10</v>
@@ -25771,12 +25782,12 @@
         <v>8</v>
       </c>
       <c r="H922" s="12">
-        <v>89192624544</v>
+        <v>89869633972</v>
       </c>
     </row>
     <row r="923" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A923" s="14" t="s">
-        <v>399</v>
+      <c r="A923" s="5" t="s">
+        <v>604</v>
       </c>
       <c r="B923" s="5" t="s">
         <v>149</v>
@@ -25785,24 +25796,24 @@
         <v>11</v>
       </c>
       <c r="D923" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E923" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F923" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G923" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H923" s="12">
-        <v>89869633972</v>
+        <v>89150168515</v>
       </c>
     </row>
     <row r="924" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A924" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B924" s="5" t="s">
         <v>149</v>
@@ -25811,10 +25822,10 @@
         <v>11</v>
       </c>
       <c r="D924" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E924" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F924" s="5" t="s">
         <v>8</v>
@@ -25823,12 +25834,12 @@
         <v>10</v>
       </c>
       <c r="H924" s="12">
-        <v>89150168515</v>
+        <v>89585007012</v>
       </c>
     </row>
     <row r="925" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A925" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B925" s="5" t="s">
         <v>149</v>
@@ -25837,10 +25848,10 @@
         <v>11</v>
       </c>
       <c r="D925" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E925" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F925" s="5" t="s">
         <v>8</v>
@@ -25849,12 +25860,12 @@
         <v>10</v>
       </c>
       <c r="H925" s="12">
-        <v>89585007012</v>
+        <v>89818533426</v>
       </c>
     </row>
     <row r="926" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A926" s="5" t="s">
-        <v>606</v>
+      <c r="A926" s="14" t="s">
+        <v>402</v>
       </c>
       <c r="B926" s="5" t="s">
         <v>149</v>
@@ -25863,10 +25874,10 @@
         <v>11</v>
       </c>
       <c r="D926" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E926" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F926" s="5" t="s">
         <v>8</v>
@@ -25875,12 +25886,12 @@
         <v>10</v>
       </c>
       <c r="H926" s="12">
-        <v>89818533426</v>
+        <v>89118389580</v>
       </c>
     </row>
     <row r="927" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A927" s="14" t="s">
-        <v>402</v>
+      <c r="A927" s="5" t="s">
+        <v>607</v>
       </c>
       <c r="B927" s="5" t="s">
         <v>149</v>
@@ -25889,24 +25900,24 @@
         <v>11</v>
       </c>
       <c r="D927" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E927" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F927" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G927" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H927" s="12">
-        <v>89118389580</v>
+        <v>89114501659</v>
       </c>
     </row>
     <row r="928" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A928" s="5" t="s">
-        <v>607</v>
+      <c r="A928" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="B928" s="5" t="s">
         <v>149</v>
@@ -25915,24 +25926,24 @@
         <v>11</v>
       </c>
       <c r="D928" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E928" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F928" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G928" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H928" s="12">
-        <v>89114501659</v>
+        <v>89117037995</v>
       </c>
     </row>
     <row r="929" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A929" s="14" t="s">
-        <v>459</v>
+      <c r="A929" s="5" t="s">
+        <v>608</v>
       </c>
       <c r="B929" s="5" t="s">
         <v>149</v>
@@ -25941,24 +25952,24 @@
         <v>11</v>
       </c>
       <c r="D929" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E929" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F929" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G929" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H929" s="12">
-        <v>89117037995</v>
+        <v>89807831947</v>
       </c>
     </row>
     <row r="930" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A930" s="5" t="s">
-        <v>608</v>
+      <c r="A930" s="14" t="s">
+        <v>460</v>
       </c>
       <c r="B930" s="5" t="s">
         <v>149</v>
@@ -25967,24 +25978,24 @@
         <v>11</v>
       </c>
       <c r="D930" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E930" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F930" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G930" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H930" s="12">
-        <v>89807831947</v>
+        <v>89812051802</v>
       </c>
     </row>
     <row r="931" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A931" s="14" t="s">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="B931" s="5" t="s">
         <v>149</v>
@@ -25993,10 +26004,10 @@
         <v>11</v>
       </c>
       <c r="D931" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E931" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F931" s="5" t="s">
         <v>8</v>
@@ -26005,12 +26016,12 @@
         <v>10</v>
       </c>
       <c r="H931" s="12">
-        <v>89812051802</v>
+        <v>89169530176</v>
       </c>
     </row>
     <row r="932" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A932" s="14" t="s">
-        <v>330</v>
+      <c r="A932" s="5" t="s">
+        <v>609</v>
       </c>
       <c r="B932" s="5" t="s">
         <v>149</v>
@@ -26019,24 +26030,24 @@
         <v>11</v>
       </c>
       <c r="D932" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E932" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F932" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G932" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H932" s="12">
-        <v>89169530176</v>
+        <v>89119681752</v>
       </c>
     </row>
     <row r="933" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A933" s="5" t="s">
-        <v>609</v>
+      <c r="A933" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="B933" s="5" t="s">
         <v>149</v>
@@ -26045,10 +26056,10 @@
         <v>11</v>
       </c>
       <c r="D933" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E933" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F933" s="5" t="s">
         <v>10</v>
@@ -26057,12 +26068,12 @@
         <v>8</v>
       </c>
       <c r="H933" s="12">
-        <v>89119681752</v>
+        <v>89818441643</v>
       </c>
     </row>
     <row r="934" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A934" s="14" t="s">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="B934" s="5" t="s">
         <v>149</v>
@@ -26071,10 +26082,10 @@
         <v>11</v>
       </c>
       <c r="D934" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E934" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F934" s="5" t="s">
         <v>10</v>
@@ -26083,12 +26094,12 @@
         <v>8</v>
       </c>
       <c r="H934" s="12">
-        <v>89818441643</v>
+        <v>89880119353</v>
       </c>
     </row>
     <row r="935" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A935" s="14" t="s">
-        <v>408</v>
+      <c r="A935" s="5" t="s">
+        <v>610</v>
       </c>
       <c r="B935" s="5" t="s">
         <v>149</v>
@@ -26097,10 +26108,10 @@
         <v>11</v>
       </c>
       <c r="D935" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E935" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F935" s="5" t="s">
         <v>10</v>
@@ -26109,12 +26120,12 @@
         <v>8</v>
       </c>
       <c r="H935" s="12">
-        <v>89880119353</v>
+        <v>89153899817</v>
       </c>
     </row>
     <row r="936" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A936" s="5" t="s">
-        <v>610</v>
+      <c r="A936" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="B936" s="5" t="s">
         <v>149</v>
@@ -26123,24 +26134,24 @@
         <v>11</v>
       </c>
       <c r="D936" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E936" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F936" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G936" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H936" s="12">
-        <v>89153899817</v>
+        <v>89186186731</v>
       </c>
     </row>
     <row r="937" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A937" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B937" s="5" t="s">
         <v>149</v>
@@ -26149,24 +26160,24 @@
         <v>11</v>
       </c>
       <c r="D937" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E937" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F937" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G937" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H937" s="12">
-        <v>89186186731</v>
+        <v>89871462799</v>
       </c>
     </row>
     <row r="938" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A938" s="14" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B938" s="5" t="s">
         <v>149</v>
@@ -26175,24 +26186,24 @@
         <v>11</v>
       </c>
       <c r="D938" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E938" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F938" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G938" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H938" s="12">
-        <v>89871462799</v>
+        <v>89189062874</v>
       </c>
     </row>
     <row r="939" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A939" s="14" t="s">
-        <v>466</v>
+      <c r="A939" s="5" t="s">
+        <v>611</v>
       </c>
       <c r="B939" s="5" t="s">
         <v>149</v>
@@ -26201,10 +26212,10 @@
         <v>11</v>
       </c>
       <c r="D939" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E939" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F939" s="5" t="s">
         <v>8</v>
@@ -26213,12 +26224,12 @@
         <v>10</v>
       </c>
       <c r="H939" s="12">
-        <v>89189062874</v>
+        <v>89117859010</v>
       </c>
     </row>
     <row r="940" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A940" s="5" t="s">
-        <v>611</v>
+      <c r="A940" s="14" t="s">
+        <v>411</v>
       </c>
       <c r="B940" s="5" t="s">
         <v>149</v>
@@ -26227,7 +26238,7 @@
         <v>11</v>
       </c>
       <c r="D940" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E940" s="5" t="s">
         <v>14</v>
@@ -26239,12 +26250,12 @@
         <v>10</v>
       </c>
       <c r="H940" s="12">
-        <v>89117859010</v>
+        <v>89101210600</v>
       </c>
     </row>
     <row r="941" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A941" s="14" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="B941" s="5" t="s">
         <v>149</v>
@@ -26253,10 +26264,10 @@
         <v>11</v>
       </c>
       <c r="D941" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E941" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F941" s="5" t="s">
         <v>8</v>
@@ -26265,12 +26276,12 @@
         <v>10</v>
       </c>
       <c r="H941" s="12">
-        <v>89101210600</v>
+        <v>89112880948</v>
       </c>
     </row>
     <row r="942" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A942" s="14" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="B942" s="5" t="s">
         <v>149</v>
@@ -26279,7 +26290,7 @@
         <v>11</v>
       </c>
       <c r="D942" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E942" s="5" t="s">
         <v>15</v>
@@ -26291,12 +26302,12 @@
         <v>10</v>
       </c>
       <c r="H942" s="12">
-        <v>89112880948</v>
+        <v>89184177912</v>
       </c>
     </row>
     <row r="943" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A943" s="14" t="s">
-        <v>533</v>
+        <v>412</v>
       </c>
       <c r="B943" s="5" t="s">
         <v>149</v>
@@ -26305,7 +26316,7 @@
         <v>11</v>
       </c>
       <c r="D943" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E943" s="5" t="s">
         <v>15</v>
@@ -26317,12 +26328,12 @@
         <v>10</v>
       </c>
       <c r="H943" s="12">
-        <v>89184177912</v>
+        <v>89529105105</v>
       </c>
     </row>
     <row r="944" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A944" s="14" t="s">
-        <v>412</v>
+      <c r="A944" s="5" t="s">
+        <v>612</v>
       </c>
       <c r="B944" s="5" t="s">
         <v>149</v>
@@ -26334,21 +26345,21 @@
         <v>9</v>
       </c>
       <c r="E944" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F944" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G944" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H944" s="12">
-        <v>89529105105</v>
+        <v>89857290946</v>
       </c>
     </row>
     <row r="945" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A945" s="5" t="s">
-        <v>612</v>
+      <c r="A945" s="14" t="s">
+        <v>340</v>
       </c>
       <c r="B945" s="5" t="s">
         <v>149</v>
@@ -26357,10 +26368,10 @@
         <v>11</v>
       </c>
       <c r="D945" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E945" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F945" s="5" t="s">
         <v>10</v>
@@ -26369,12 +26380,12 @@
         <v>8</v>
       </c>
       <c r="H945" s="12">
-        <v>89857290946</v>
+        <v>89126000830</v>
       </c>
     </row>
     <row r="946" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A946" s="14" t="s">
-        <v>340</v>
+        <v>413</v>
       </c>
       <c r="B946" s="5" t="s">
         <v>149</v>
@@ -26383,7 +26394,7 @@
         <v>11</v>
       </c>
       <c r="D946" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E946" s="5" t="s">
         <v>14</v>
@@ -26395,12 +26406,12 @@
         <v>8</v>
       </c>
       <c r="H946" s="12">
-        <v>89126000830</v>
+        <v>89041620182</v>
       </c>
     </row>
     <row r="947" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A947" s="14" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="B947" s="5" t="s">
         <v>149</v>
@@ -26409,24 +26420,24 @@
         <v>11</v>
       </c>
       <c r="D947" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E947" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F947" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G947" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H947" s="12">
-        <v>89041620182</v>
+        <v>89137951125</v>
       </c>
     </row>
     <row r="948" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A948" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B948" s="5" t="s">
         <v>149</v>
@@ -26435,24 +26446,24 @@
         <v>11</v>
       </c>
       <c r="D948" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E948" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F948" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G948" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H948" s="12">
-        <v>89137951125</v>
+        <v>89167772030</v>
       </c>
     </row>
     <row r="949" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A949" s="14" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="B949" s="5" t="s">
         <v>149</v>
@@ -26461,7 +26472,7 @@
         <v>11</v>
       </c>
       <c r="D949" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E949" s="5" t="s">
         <v>15</v>
@@ -26473,12 +26484,12 @@
         <v>8</v>
       </c>
       <c r="H949" s="12">
-        <v>89167772030</v>
+        <v>89163068727</v>
       </c>
     </row>
     <row r="950" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A950" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B950" s="5" t="s">
         <v>149</v>
@@ -26487,24 +26498,24 @@
         <v>11</v>
       </c>
       <c r="D950" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E950" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F950" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G950" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H950" s="12">
-        <v>89163068727</v>
+        <v>89102328302</v>
       </c>
     </row>
     <row r="951" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A951" s="14" t="s">
-        <v>415</v>
+      <c r="A951" s="5" t="s">
+        <v>613</v>
       </c>
       <c r="B951" s="5" t="s">
         <v>149</v>
@@ -26513,10 +26524,10 @@
         <v>11</v>
       </c>
       <c r="D951" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E951" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F951" s="5" t="s">
         <v>8</v>
@@ -26525,12 +26536,12 @@
         <v>10</v>
       </c>
       <c r="H951" s="12">
-        <v>89102328302</v>
+        <v>89174513638</v>
       </c>
     </row>
     <row r="952" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A952" s="5" t="s">
-        <v>613</v>
+      <c r="A952" s="14" t="s">
+        <v>416</v>
       </c>
       <c r="B952" s="5" t="s">
         <v>149</v>
@@ -26539,24 +26550,24 @@
         <v>11</v>
       </c>
       <c r="D952" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E952" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F952" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G952" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H952" s="12">
-        <v>89174513638</v>
+        <v>89149151945</v>
       </c>
     </row>
     <row r="953" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A953" s="14" t="s">
-        <v>416</v>
+      <c r="A953" s="5" t="s">
+        <v>614</v>
       </c>
       <c r="B953" s="5" t="s">
         <v>149</v>
@@ -26565,10 +26576,10 @@
         <v>11</v>
       </c>
       <c r="D953" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E953" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F953" s="5" t="s">
         <v>10</v>
@@ -26577,12 +26588,12 @@
         <v>8</v>
       </c>
       <c r="H953" s="12">
-        <v>89149151945</v>
+        <v>89139044887</v>
       </c>
     </row>
     <row r="954" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A954" s="5" t="s">
-        <v>614</v>
+      <c r="A954" s="14" t="s">
+        <v>418</v>
       </c>
       <c r="B954" s="5" t="s">
         <v>149</v>
@@ -26591,10 +26602,10 @@
         <v>11</v>
       </c>
       <c r="D954" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E954" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F954" s="5" t="s">
         <v>10</v>
@@ -26603,12 +26614,12 @@
         <v>8</v>
       </c>
       <c r="H954" s="12">
-        <v>89139044887</v>
+        <v>89174440424</v>
       </c>
     </row>
     <row r="955" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A955" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B955" s="5" t="s">
         <v>149</v>
@@ -26617,10 +26628,10 @@
         <v>11</v>
       </c>
       <c r="D955" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E955" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F955" s="5" t="s">
         <v>10</v>
@@ -26629,12 +26640,12 @@
         <v>8</v>
       </c>
       <c r="H955" s="12">
-        <v>89174440424</v>
+        <v>89111449688</v>
       </c>
     </row>
     <row r="956" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A956" s="14" t="s">
-        <v>419</v>
+      <c r="A956" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="B956" s="5" t="s">
         <v>149</v>
@@ -26643,10 +26654,10 @@
         <v>11</v>
       </c>
       <c r="D956" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E956" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F956" s="5" t="s">
         <v>10</v>
@@ -26655,12 +26666,12 @@
         <v>8</v>
       </c>
       <c r="H956" s="12">
-        <v>89111449688</v>
+        <v>89167072664</v>
       </c>
     </row>
     <row r="957" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A957" s="5" t="s">
-        <v>615</v>
+      <c r="A957" s="14" t="s">
+        <v>471</v>
       </c>
       <c r="B957" s="5" t="s">
         <v>149</v>
@@ -26669,24 +26680,24 @@
         <v>11</v>
       </c>
       <c r="D957" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E957" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F957" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G957" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H957" s="12">
-        <v>89167072664</v>
+        <v>89139567161</v>
       </c>
     </row>
     <row r="958" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A958" s="14" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="B958" s="5" t="s">
         <v>149</v>
@@ -26695,7 +26706,7 @@
         <v>11</v>
       </c>
       <c r="D958" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E958" s="5" t="s">
         <v>15</v>
@@ -26707,12 +26718,12 @@
         <v>10</v>
       </c>
       <c r="H958" s="12">
-        <v>89139567161</v>
+        <v>89161662647</v>
       </c>
     </row>
     <row r="959" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A959" s="14" t="s">
-        <v>421</v>
+      <c r="A959" s="5" t="s">
+        <v>616</v>
       </c>
       <c r="B959" s="5" t="s">
         <v>149</v>
@@ -26721,24 +26732,24 @@
         <v>11</v>
       </c>
       <c r="D959" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E959" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F959" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G959" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H959" s="12">
-        <v>89161662647</v>
+        <v>89038319808</v>
       </c>
     </row>
     <row r="960" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A960" s="5" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B960" s="5" t="s">
         <v>149</v>
@@ -26747,24 +26758,24 @@
         <v>11</v>
       </c>
       <c r="D960" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E960" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F960" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G960" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H960" s="12">
-        <v>89038319808</v>
+        <v>89173330984</v>
       </c>
     </row>
     <row r="961" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A961" s="5" t="s">
-        <v>617</v>
+      <c r="A961" s="14" t="s">
+        <v>425</v>
       </c>
       <c r="B961" s="5" t="s">
         <v>149</v>
@@ -26773,10 +26784,10 @@
         <v>11</v>
       </c>
       <c r="D961" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E961" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F961" s="5" t="s">
         <v>8</v>
@@ -26785,12 +26796,12 @@
         <v>10</v>
       </c>
       <c r="H961" s="12">
-        <v>89173330984</v>
+        <v>89152130070</v>
       </c>
     </row>
     <row r="962" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A962" s="14" t="s">
-        <v>425</v>
+      <c r="A962" s="5" t="s">
+        <v>618</v>
       </c>
       <c r="B962" s="5" t="s">
         <v>149</v>
@@ -26799,24 +26810,24 @@
         <v>11</v>
       </c>
       <c r="D962" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E962" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F962" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G962" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H962" s="12">
-        <v>89152130070</v>
+        <v>89172462896</v>
       </c>
     </row>
     <row r="963" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A963" s="5" t="s">
-        <v>618</v>
+      <c r="A963" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="B963" s="5" t="s">
         <v>149</v>
@@ -26828,47 +26839,45 @@
         <v>9</v>
       </c>
       <c r="E963" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F963" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G963" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H963" s="12">
-        <v>89172462896</v>
+        <v>89889500030</v>
       </c>
     </row>
     <row r="964" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A964" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B964" s="5" t="s">
-        <v>149</v>
+        <v>619</v>
+      </c>
+      <c r="B964" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C964" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D964" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E964" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F964" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G964" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H964" s="12">
-        <v>89889500030</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H964" s="5"/>
     </row>
     <row r="965" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A965" s="14" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B965" s="22" t="s">
         <v>181</v>
@@ -26877,10 +26886,10 @@
         <v>11</v>
       </c>
       <c r="D965" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E965" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F965" s="5" t="s">
         <v>10</v>
@@ -26892,7 +26901,7 @@
     </row>
     <row r="966" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A966" s="14" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B966" s="22" t="s">
         <v>181</v>
@@ -26901,46 +26910,46 @@
         <v>11</v>
       </c>
       <c r="D966" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E966" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F966" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G966" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H966" s="5"/>
     </row>
     <row r="967" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A967" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="B967" s="22" t="s">
-        <v>181</v>
+        <v>620</v>
+      </c>
+      <c r="B967" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C967" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D967" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E967" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F967" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G967" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H967" s="5"/>
     </row>
     <row r="968" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A968" s="14" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B968" s="23" t="s">
         <v>140</v>
@@ -26949,7 +26958,7 @@
         <v>11</v>
       </c>
       <c r="D968" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E968" s="5" t="s">
         <v>19</v>
@@ -26963,32 +26972,32 @@
       <c r="H968" s="5"/>
     </row>
     <row r="969" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A969" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="B969" s="23" t="s">
-        <v>140</v>
+      <c r="A969" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B969" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C969" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D969" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E969" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F969" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G969" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H969" s="5"/>
     </row>
     <row r="970" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A970" s="5" t="s">
-        <v>216</v>
+      <c r="A970" s="14" t="s">
+        <v>619</v>
       </c>
       <c r="B970" s="24" t="s">
         <v>150</v>
@@ -26997,22 +27006,22 @@
         <v>11</v>
       </c>
       <c r="D970" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E970" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F970" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G970" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H970" s="5"/>
     </row>
     <row r="971" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A971" s="14" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B971" s="24" t="s">
         <v>150</v>
@@ -27021,10 +27030,10 @@
         <v>11</v>
       </c>
       <c r="D971" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E971" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F971" s="5" t="s">
         <v>10</v>
@@ -27035,20 +27044,20 @@
       <c r="H971" s="5"/>
     </row>
     <row r="972" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A972" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="B972" s="24" t="s">
-        <v>150</v>
+      <c r="A972" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B972" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C972" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D972" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E972" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F972" s="5" t="s">
         <v>10</v>
@@ -27060,7 +27069,7 @@
     </row>
     <row r="973" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A973" s="5" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B973" s="19" t="s">
         <v>224</v>
@@ -27069,22 +27078,22 @@
         <v>11</v>
       </c>
       <c r="D973" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E973" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F973" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G973" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H973" s="5"/>
     </row>
     <row r="974" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A974" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B974" s="19" t="s">
         <v>224</v>
@@ -27093,10 +27102,10 @@
         <v>11</v>
       </c>
       <c r="D974" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E974" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F974" s="5" t="s">
         <v>8</v>
@@ -27108,7 +27117,7 @@
     </row>
     <row r="975" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A975" s="5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B975" s="19" t="s">
         <v>224</v>
@@ -27117,10 +27126,10 @@
         <v>11</v>
       </c>
       <c r="D975" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E975" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F975" s="5" t="s">
         <v>8</v>
@@ -27132,7 +27141,7 @@
     </row>
     <row r="976" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A976" s="5" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B976" s="19" t="s">
         <v>224</v>
@@ -27141,46 +27150,48 @@
         <v>11</v>
       </c>
       <c r="D976" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E976" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F976" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G976" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H976" s="5"/>
     </row>
     <row r="977" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A977" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="B977" s="19" t="s">
-        <v>224</v>
+        <v>627</v>
+      </c>
+      <c r="B977" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C977" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D977" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E977" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F977" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G977" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H977" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="H977" s="12">
+        <v>89885082916</v>
+      </c>
     </row>
     <row r="978" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A978" s="5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B978" s="25" t="s">
         <v>149</v>
@@ -27189,7 +27200,7 @@
         <v>11</v>
       </c>
       <c r="D978" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E978" s="5" t="s">
         <v>15</v>
@@ -27201,12 +27212,12 @@
         <v>10</v>
       </c>
       <c r="H978" s="12">
-        <v>89885082916</v>
+        <v>89137364796</v>
       </c>
     </row>
     <row r="979" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A979" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B979" s="25" t="s">
         <v>149</v>
@@ -27215,10 +27226,10 @@
         <v>11</v>
       </c>
       <c r="D979" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E979" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F979" s="5" t="s">
         <v>8</v>
@@ -27227,12 +27238,12 @@
         <v>10</v>
       </c>
       <c r="H979" s="12">
-        <v>89137364796</v>
+        <v>89162097128</v>
       </c>
     </row>
     <row r="980" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A980" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B980" s="25" t="s">
         <v>149</v>
@@ -27241,10 +27252,10 @@
         <v>11</v>
       </c>
       <c r="D980" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E980" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F980" s="5" t="s">
         <v>8</v>
@@ -27253,12 +27264,12 @@
         <v>10</v>
       </c>
       <c r="H980" s="12">
-        <v>89162097128</v>
+        <v>89109551661</v>
       </c>
     </row>
     <row r="981" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B981" s="25" t="s">
         <v>149</v>
@@ -27267,10 +27278,10 @@
         <v>11</v>
       </c>
       <c r="D981" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E981" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F981" s="5" t="s">
         <v>8</v>
@@ -27279,12 +27290,12 @@
         <v>10</v>
       </c>
       <c r="H981" s="12">
-        <v>89109551661</v>
+        <v>89117626933</v>
       </c>
     </row>
     <row r="982" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B982" s="25" t="s">
         <v>149</v>
@@ -27293,24 +27304,24 @@
         <v>11</v>
       </c>
       <c r="D982" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E982" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F982" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G982" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H982" s="12">
-        <v>89117626933</v>
+        <v>89653965156</v>
       </c>
     </row>
     <row r="983" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A983" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B983" s="25" t="s">
         <v>149</v>
@@ -27319,7 +27330,7 @@
         <v>11</v>
       </c>
       <c r="D983" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E983" s="5" t="s">
         <v>15</v>
@@ -27331,12 +27342,12 @@
         <v>8</v>
       </c>
       <c r="H983" s="12">
-        <v>89653965156</v>
+        <v>89174163129</v>
       </c>
     </row>
     <row r="984" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A984" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B984" s="25" t="s">
         <v>149</v>
@@ -27345,24 +27356,24 @@
         <v>11</v>
       </c>
       <c r="D984" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E984" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F984" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G984" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H984" s="12">
-        <v>89174163129</v>
+        <v>89615942102</v>
       </c>
     </row>
     <row r="985" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A985" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B985" s="25" t="s">
         <v>149</v>
@@ -27371,24 +27382,24 @@
         <v>11</v>
       </c>
       <c r="D985" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E985" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F985" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G985" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H985" s="12">
-        <v>89615942102</v>
+        <v>89171099240</v>
       </c>
     </row>
     <row r="986" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A986" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B986" s="25" t="s">
         <v>149</v>
@@ -27397,10 +27408,10 @@
         <v>11</v>
       </c>
       <c r="D986" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E986" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F986" s="5" t="s">
         <v>10</v>
@@ -27409,12 +27420,12 @@
         <v>8</v>
       </c>
       <c r="H986" s="12">
-        <v>89171099240</v>
+        <v>89057585144</v>
       </c>
     </row>
     <row r="987" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A987" s="5" t="s">
-        <v>636</v>
+      <c r="A987" s="14" t="s">
+        <v>619</v>
       </c>
       <c r="B987" s="25" t="s">
         <v>149</v>
@@ -27426,7 +27437,7 @@
         <v>12</v>
       </c>
       <c r="E987" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F987" s="5" t="s">
         <v>10</v>
@@ -27435,68 +27446,66 @@
         <v>8</v>
       </c>
       <c r="H987" s="12">
-        <v>89057585144</v>
+        <v>89260118200</v>
       </c>
     </row>
     <row r="988" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A988" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="B988" s="25" t="s">
-        <v>149</v>
+      <c r="A988" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B988" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C988" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D988" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E988" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F988" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G988" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H988" s="1"/>
+    </row>
+    <row r="989" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A989" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B989" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C989" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D988" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E988" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F988" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G988" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H988" s="12">
-        <v>89260118200</v>
-      </c>
-    </row>
-    <row r="989" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A989" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B989" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C989" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="D989" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E989" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F989" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G989" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H989" s="1"/>
     </row>
     <row r="990" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A990" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B990" s="23" t="s">
-        <v>140</v>
+      <c r="A990" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B990" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C990" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D990" s="5" t="s">
         <v>16</v>
@@ -27505,16 +27514,16 @@
         <v>19</v>
       </c>
       <c r="F990" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G990" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H990" s="1"/>
     </row>
     <row r="991" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A991" s="5" t="s">
-        <v>638</v>
+      <c r="A991" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="B991" s="24" t="s">
         <v>150</v>
@@ -27523,10 +27532,10 @@
         <v>6</v>
       </c>
       <c r="D991" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E991" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F991" s="5" t="s">
         <v>10</v>
@@ -27538,7 +27547,7 @@
     </row>
     <row r="992" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A992" s="14" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B992" s="24" t="s">
         <v>150</v>
@@ -27547,34 +27556,34 @@
         <v>6</v>
       </c>
       <c r="D992" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E992" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F992" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G992" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H992" s="1"/>
     </row>
     <row r="993" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A993" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B993" s="24" t="s">
-        <v>150</v>
+      <c r="A993" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B993" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C993" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D993" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E993" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F993" s="5" t="s">
         <v>8</v>
@@ -27585,26 +27594,26 @@
       <c r="H993" s="1"/>
     </row>
     <row r="994" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A994" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B994" s="19" t="s">
-        <v>224</v>
+      <c r="A994" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B994" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C994" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D994" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E994" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F994" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G994" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H994" s="1"/>
     </row>
@@ -27612,17 +27621,17 @@
       <c r="A995" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="B995" s="23" t="s">
-        <v>140</v>
+      <c r="B995" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C995" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D995" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E995" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F995" s="5" t="s">
         <v>10</v>
@@ -27633,43 +27642,196 @@
       <c r="H995" s="1"/>
     </row>
     <row r="996" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="B996" s="24" t="s">
-        <v>150</v>
+      <c r="A996" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B996" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C996" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D996" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E996" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F996" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G996" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H996" s="5"/>
+    </row>
+    <row r="997" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A997" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B997" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C997" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D997" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E997" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F997" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G997" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H997" s="5"/>
+    </row>
+    <row r="998" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A998" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B998" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C998" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D998" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E998" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F998" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G998" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H998" s="5"/>
+    </row>
+    <row r="999" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A999" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="B999" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C999" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D999" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E996" s="5" t="s">
+      <c r="E999" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F996" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G996" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H996" s="1"/>
-    </row>
-    <row r="997" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H997" s="1"/>
-    </row>
-    <row r="998" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H998" s="1"/>
-    </row>
-    <row r="999" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H999" s="1"/>
-    </row>
-    <row r="1000" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H1001" s="1"/>
+      <c r="F999" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G999" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H999" s="5"/>
+    </row>
+    <row r="1000" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1000" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1000" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1000" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1000" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1000" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1000" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1000" s="5"/>
+    </row>
+    <row r="1001" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1001" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1001" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1001" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1001" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1001" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1001" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1001" s="5"/>
+    </row>
+    <row r="1002" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1002" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1002" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1002" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1002" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1002" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1002" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1002" s="5"/>
+    </row>
+    <row r="1003" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1003" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1003" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1003" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1003" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1003" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1003" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1003" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF460FC-8CA7-402D-B5CB-93DB32E12408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFEB81E-336D-4E28-86E0-5B9F23954D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7068" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7138" uniqueCount="648">
   <si>
     <t>ФИО</t>
   </si>
@@ -2861,6 +2861,18 @@
   </si>
   <si>
     <t>Корсакова Ирина Аркадьевна</t>
+  </si>
+  <si>
+    <t>Селезнева Стелла Евгеньевна</t>
+  </si>
+  <si>
+    <t>Селезнев Михаил Васильевич</t>
+  </si>
+  <si>
+    <t>Трофименко Светлана Михайловна</t>
+  </si>
+  <si>
+    <t>Козырь Светлана Александровна</t>
   </si>
 </sst>
 </file>
@@ -3356,10 +3368,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1003"/>
+  <dimension ref="A1:H1013"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A991" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1004" sqref="B1004"/>
+      <selection activeCell="A1004" sqref="A1004:H1013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27832,6 +27844,246 @@
         <v>10</v>
       </c>
       <c r="H1003" s="5"/>
+    </row>
+    <row r="1004" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1004" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1004" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1004" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1004" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1004" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1004" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1004" s="5"/>
+    </row>
+    <row r="1005" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1005" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1005" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1005" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1005" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1005" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1005" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1005" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1005" s="5"/>
+    </row>
+    <row r="1006" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1006" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1006" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1006" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1006" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1006" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1006" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1006" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1006" s="5"/>
+    </row>
+    <row r="1007" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1007" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="B1007" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1007" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1007" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1007" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1007" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1007" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1007" s="5"/>
+    </row>
+    <row r="1008" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1008" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1008" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1008" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1008" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1008" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1008" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1008" s="5"/>
+    </row>
+    <row r="1009" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1009" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="B1009" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1009" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1009" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1009" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1009" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1009" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1009" s="5"/>
+    </row>
+    <row r="1010" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1010" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="B1010" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1010" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1010" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1010" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1010" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1010" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1010" s="5"/>
+    </row>
+    <row r="1011" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1011" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1011" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1011" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1011" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1011" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1011" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1011" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1011" s="5"/>
+    </row>
+    <row r="1012" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1012" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="B1012" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1012" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1012" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1012" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1012" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1012" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1012" s="5"/>
+    </row>
+    <row r="1013" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1013" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1013" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1013" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1013" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1013" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1013" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1013" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1013" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFEB81E-336D-4E28-86E0-5B9F23954D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7B0E3E-A70C-4E8C-AE5D-68E59166DDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7138" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7180" uniqueCount="653">
   <si>
     <t>ФИО</t>
   </si>
@@ -2873,6 +2873,21 @@
   </si>
   <si>
     <t>Козырь Светлана Александровна</t>
+  </si>
+  <si>
+    <t>Кармазин Алексей Игоревич</t>
+  </si>
+  <si>
+    <t>Балаян Карина Рудольфовна</t>
+  </si>
+  <si>
+    <t>Исаева Периханум Такидиновна</t>
+  </si>
+  <si>
+    <t>Степаненкова Альбина Нурисламовна</t>
+  </si>
+  <si>
+    <t>Окунцова Наталья Евгеньевна</t>
   </si>
 </sst>
 </file>
@@ -3368,10 +3383,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1013"/>
+  <dimension ref="A1:H1019"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A991" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1004" sqref="A1004:H1013"/>
+      <selection activeCell="A1014" sqref="A1014:H1019"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28084,6 +28099,162 @@
         <v>8</v>
       </c>
       <c r="H1013" s="5"/>
+    </row>
+    <row r="1014" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1014" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1014" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1014" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1014" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1014" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1014" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1014" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1014" s="12">
+        <v>89219363070</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1015" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1015" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1015" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1015" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1015" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1015" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1015" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1015" s="12">
+        <v>89109366280</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1016" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1016" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1016" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1016" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1016" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1016" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1016" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1016" s="12">
+        <v>89164563400</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1017" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1017" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1017" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1017" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1017" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1017" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1017" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1017" s="12">
+        <v>89167890673</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1018" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1018" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1018" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1018" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1018" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1018" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1018" s="12">
+        <v>89872341275</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1019" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B1019" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1019" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1019" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1019" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1019" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1019" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1019" s="12">
+        <v>89107721291</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7B0E3E-A70C-4E8C-AE5D-68E59166DDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DBABFE-DA51-42A0-A82B-E1750BCBF0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7180" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7222" uniqueCount="654">
   <si>
     <t>ФИО</t>
   </si>
@@ -2888,6 +2888,9 @@
   </si>
   <si>
     <t>Окунцова Наталья Евгеньевна</t>
+  </si>
+  <si>
+    <t>Саяпин Александр Сергеевич</t>
   </si>
 </sst>
 </file>
@@ -3383,10 +3386,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1019"/>
+  <dimension ref="A1:H1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A991" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1014" sqref="A1014:H1019"/>
+    <sheetView tabSelected="1" topLeftCell="A1000" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1020" sqref="A1020:G1025"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28254,6 +28257,144 @@
       </c>
       <c r="H1019" s="12">
         <v>89107721291</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1020" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1020" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1020" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1020" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1020" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1020" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1020" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1021" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1021" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1021" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1021" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1021" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1021" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1022" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1022" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1022" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1022" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1022" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1022" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1022" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1023" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1023" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1023" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1023" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1023" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1023" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1023" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1024" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1024" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1024" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1024" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1024" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1024" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1024" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1025" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1025" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1025" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1025" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1025" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1025" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1025" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DBABFE-DA51-42A0-A82B-E1750BCBF0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3228E6-ED2B-4833-897D-4016D85E7BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7222" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7362" uniqueCount="666">
   <si>
     <t>ФИО</t>
   </si>
@@ -2891,6 +2891,42 @@
   </si>
   <si>
     <t>Саяпин Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Павлов Арсений Русланович</t>
+  </si>
+  <si>
+    <t>Вагерич Людмила Михайловна</t>
+  </si>
+  <si>
+    <t>Пукирев Вадим Александрович</t>
+  </si>
+  <si>
+    <t>Жилин Денис Николаевич</t>
+  </si>
+  <si>
+    <t>Торопова Юлиана Романовна</t>
+  </si>
+  <si>
+    <t>Галимова Ляйсан Венеровна</t>
+  </si>
+  <si>
+    <t>Лапшова Елена Алексеевна</t>
+  </si>
+  <si>
+    <t>Концевая Вера Николаевна</t>
+  </si>
+  <si>
+    <t>Губанова Елена Михайловна</t>
+  </si>
+  <si>
+    <t>Керимов Зохраб Марселоглы</t>
+  </si>
+  <si>
+    <t>Морозова Елена Николаевна</t>
+  </si>
+  <si>
+    <t>Ермаков Владимир Валерьевич</t>
   </si>
 </sst>
 </file>
@@ -3386,10 +3422,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1025"/>
+  <dimension ref="A1:H1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1000" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1020" sqref="A1020:G1025"/>
+    <sheetView tabSelected="1" topLeftCell="A1021" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1026" sqref="A1026:G1045"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28395,6 +28431,466 @@
       </c>
       <c r="G1025" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1026" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1026" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1026" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1026" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1026" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1026" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1026" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1027" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B1027" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1027" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1027" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1027" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1027" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1027" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1028" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1028" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1028" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1028" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1028" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1028" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1028" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1029" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1029" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1029" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1029" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1029" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1029" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1029" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1030" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1030" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1030" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1030" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1030" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1030" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1030" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1031" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B1031" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1031" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1031" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1031" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1031" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1031" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1032" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B1032" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1032" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1032" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1032" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1032" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1032" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B1033" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1033" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1033" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1033" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1033" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1033" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1034" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B1034" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1034" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1034" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1034" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1034" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1034" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1035" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1035" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1035" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1035" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1035" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1035" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1035" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1036" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1036" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1036" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1036" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1036" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1036" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1036" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1037" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1037" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1037" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1037" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1037" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1037" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1037" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1038" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="B1038" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1038" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1038" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1038" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1038" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1038" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1039" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1039" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1039" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1039" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1039" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1039" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1039" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1040" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1040" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1040" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1040" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1040" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1040" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1040" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1041" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1041" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1041" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1041" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1041" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1041" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1041" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1042" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1042" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1042" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1042" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1042" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1042" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1042" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1043" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1043" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1043" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1043" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1043" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1043" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1043" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1044" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="B1044" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1044" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1044" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1044" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1044" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1044" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1045" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1045" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1045" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1045" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1045" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1045" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1045" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3228E6-ED2B-4833-897D-4016D85E7BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6113F6-02F1-43DE-A3B3-57B3582F2C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7362" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7397" uniqueCount="668">
   <si>
     <t>ФИО</t>
   </si>
@@ -2927,6 +2927,12 @@
   </si>
   <si>
     <t>Ермаков Владимир Валерьевич</t>
+  </si>
+  <si>
+    <t>Антюхин Алексей Денисович</t>
+  </si>
+  <si>
+    <t>Евдокимова Олина Михайловна</t>
   </si>
 </sst>
 </file>
@@ -3422,10 +3428,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1045"/>
+  <dimension ref="A1:H1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1021" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1026" sqref="A1026:G1045"/>
+    <sheetView tabSelected="1" topLeftCell="A1027" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1046" sqref="A1046:H1050"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28778,7 +28784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1041" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1041" s="14" t="s">
         <v>665</v>
       </c>
@@ -28801,7 +28807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1042" s="14" t="s">
         <v>656</v>
       </c>
@@ -28824,7 +28830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1043" s="14" t="s">
         <v>662</v>
       </c>
@@ -28847,7 +28853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1044" s="14" t="s">
         <v>663</v>
       </c>
@@ -28870,7 +28876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1045" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1045" s="14" t="s">
         <v>657</v>
       </c>
@@ -28891,6 +28897,136 @@
       </c>
       <c r="G1045" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1046" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B1046" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1046" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1046" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1046" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1046" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1046" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1046" s="12">
+        <v>89851356569</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1047" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B1047" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1047" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1047" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1047" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1047" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1047" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1047" s="12">
+        <v>89182257003</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1048" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1048" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1048" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1048" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1048" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1048" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1048" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1048" s="12">
+        <v>89163534913</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1049" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1049" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1049" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1049" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1049" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1049" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1049" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1049" s="12">
+        <v>89806370682</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1050" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="B1050" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1050" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1050" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1050" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1050" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1050" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1050" s="12">
+        <v>89161422728</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6113F6-02F1-43DE-A3B3-57B3582F2C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8E8695-8FCE-4372-91FD-1DBEC04F06FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7397" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7474" uniqueCount="672">
   <si>
     <t>ФИО</t>
   </si>
@@ -2933,6 +2933,18 @@
   </si>
   <si>
     <t>Евдокимова Олина Михайловна</t>
+  </si>
+  <si>
+    <t>Негара Альбина Александровна</t>
+  </si>
+  <si>
+    <t>Пищулина Анна Анатольевна</t>
+  </si>
+  <si>
+    <t>Донгаузер Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>Вайшнер Светлана Сергеевна</t>
   </si>
 </sst>
 </file>
@@ -3428,10 +3440,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1050"/>
+  <dimension ref="A1:H1061"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1027" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1046" sqref="A1046:H1050"/>
+    <sheetView tabSelected="1" topLeftCell="A1033" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1051" sqref="A1051:H1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29028,6 +29040,270 @@
       <c r="H1050" s="12">
         <v>89161422728</v>
       </c>
+    </row>
+    <row r="1051" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1051" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1051" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1051" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1051" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1051" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1051" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1051" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1051" s="5"/>
+    </row>
+    <row r="1052" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1052" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1052" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1052" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1052" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1052" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1052" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1052" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1052" s="5"/>
+    </row>
+    <row r="1053" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1053" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1053" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1053" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1053" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1053" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1053" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1053" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1053" s="5"/>
+    </row>
+    <row r="1054" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1054" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1054" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1054" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1054" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1054" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1054" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1054" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1054" s="5"/>
+    </row>
+    <row r="1055" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1055" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1055" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1055" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1055" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1055" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1055" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1055" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1055" s="5"/>
+    </row>
+    <row r="1056" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1056" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B1056" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1056" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1056" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1056" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1056" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1056" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1056" s="5"/>
+    </row>
+    <row r="1057" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1057" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B1057" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1057" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1057" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1057" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1057" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1057" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1057" s="5"/>
+    </row>
+    <row r="1058" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1058" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B1058" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1058" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1058" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1058" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1058" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1058" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1058" s="5"/>
+    </row>
+    <row r="1059" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1059" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1059" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1059" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1059" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1059" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1059" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1059" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1059" s="5"/>
+    </row>
+    <row r="1060" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1060" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1060" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1060" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1060" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1060" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1060" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1060" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1060" s="5"/>
+    </row>
+    <row r="1061" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1061" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1061" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1061" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1061" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1061" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1061" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1061" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1061" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8E8695-8FCE-4372-91FD-1DBEC04F06FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB606D1-7FA2-4FF0-8351-D56A57E53A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7474" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7551" uniqueCount="677">
   <si>
     <t>ФИО</t>
   </si>
@@ -2945,6 +2945,21 @@
   </si>
   <si>
     <t>Вайшнер Светлана Сергеевна</t>
+  </si>
+  <si>
+    <t>Аверьянова Наталья Николаевна</t>
+  </si>
+  <si>
+    <t>Филиппова Оксана Владимировна</t>
+  </si>
+  <si>
+    <t>Плисов Михаил Анатольевич</t>
+  </si>
+  <si>
+    <t>Шаповал Оксана Витальевна</t>
+  </si>
+  <si>
+    <t>Кузьмина Екатерина Игоревна</t>
   </si>
 </sst>
 </file>
@@ -3440,10 +3455,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1061"/>
+  <dimension ref="A1:H1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1033" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1051" sqref="A1051:H1061"/>
+    <sheetView tabSelected="1" topLeftCell="A1045" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1062" sqref="A1062:H1072"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29304,6 +29319,270 @@
         <v>10</v>
       </c>
       <c r="H1061" s="5"/>
+    </row>
+    <row r="1062" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1062" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="B1062" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1062" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1062" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1062" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1062" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1062" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1062" s="5"/>
+    </row>
+    <row r="1063" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1063" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1063" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1063" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1063" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1063" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1063" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1063" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1063" s="5"/>
+    </row>
+    <row r="1064" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1064" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1064" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1064" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1064" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1064" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1064" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1064" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1064" s="5"/>
+    </row>
+    <row r="1065" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1065" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1065" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1065" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1065" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1065" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1065" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1065" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1065" s="5"/>
+    </row>
+    <row r="1066" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1066" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1066" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1066" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1066" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1066" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1066" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1066" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1066" s="5"/>
+    </row>
+    <row r="1067" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1067" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1067" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1067" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1067" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1067" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1067" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1067" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1067" s="5"/>
+    </row>
+    <row r="1068" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1068" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="B1068" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1068" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1068" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1068" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1068" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1068" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1068" s="5"/>
+    </row>
+    <row r="1069" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1069" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1069" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1069" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1069" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1069" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1069" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1069" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1069" s="5"/>
+    </row>
+    <row r="1070" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1070" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1070" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1070" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1070" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1070" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1070" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1070" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1070" s="5"/>
+    </row>
+    <row r="1071" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1071" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1071" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1071" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1071" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1071" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1071" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1071" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1071" s="5"/>
+    </row>
+    <row r="1072" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1072" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1072" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1072" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1072" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1072" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1072" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1072" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1072" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB606D1-7FA2-4FF0-8351-D56A57E53A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A11992-E06A-45E9-828E-B359F1689676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
     <sheet name="Текст" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Распределение!$A$1:$H$1072</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -3457,8 +3460,8 @@
   </sheetPr>
   <dimension ref="A1:H1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1045" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1062" sqref="A1062:H1072"/>
+    <sheetView tabSelected="1" topLeftCell="A317" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5610,7 +5613,7 @@
       <c r="A90" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="23" t="s">
         <v>140</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -5620,7 +5623,7 @@
         <v>17</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>8</v>
@@ -7964,23 +7967,23 @@
       <c r="A188" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H188" s="5"/>
     </row>
@@ -11704,23 +11707,23 @@
       <c r="A339" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B339" s="5" t="s">
+      <c r="B339" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H339" s="12">
         <v>89857240552</v>
@@ -29585,6 +29588,7 @@
       <c r="H1072" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1072" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A11992-E06A-45E9-828E-B359F1689676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAF0CA2-0B50-4FD1-A1A2-EEC0714E72A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7551" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7649" uniqueCount="683">
   <si>
     <t>ФИО</t>
   </si>
@@ -2963,6 +2963,24 @@
   </si>
   <si>
     <t>Кузьмина Екатерина Игоревна</t>
+  </si>
+  <si>
+    <t>Мордвинова Людмила Эдуардовна</t>
+  </si>
+  <si>
+    <t>Пархомовская Юлия Сергеевна</t>
+  </si>
+  <si>
+    <t>Худайбердиев Адылжан Карымжанович</t>
+  </si>
+  <si>
+    <t>Квас Арсений Сергеевич</t>
+  </si>
+  <si>
+    <t>Алиуллов Ринат Наилевич</t>
+  </si>
+  <si>
+    <t>Губанов Александр Михайлович</t>
   </si>
 </sst>
 </file>
@@ -3458,10 +3476,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1072"/>
+  <dimension ref="A1:H1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A339" sqref="A339"/>
+    <sheetView tabSelected="1" topLeftCell="A1053" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1073" sqref="A1073:H1086"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29586,6 +29604,342 @@
         <v>8</v>
       </c>
       <c r="H1072" s="5"/>
+    </row>
+    <row r="1073" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1073" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1073" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1073" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1073" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1073" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1073" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1073" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1073" s="5"/>
+    </row>
+    <row r="1074" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1074" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1074" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1074" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1074" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1074" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1074" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1074" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1074" s="5"/>
+    </row>
+    <row r="1075" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1075" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1075" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1075" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1075" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1075" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1075" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1075" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1075" s="5"/>
+    </row>
+    <row r="1076" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1076" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1076" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1076" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1076" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1076" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1076" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1076" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1076" s="5"/>
+    </row>
+    <row r="1077" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1077" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1077" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1077" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1077" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1077" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1077" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1077" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1077" s="5"/>
+    </row>
+    <row r="1078" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1078" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B1078" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1078" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1078" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1078" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1078" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1078" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1078" s="5"/>
+    </row>
+    <row r="1079" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1079" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1079" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1079" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1079" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1079" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1079" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1079" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1079" s="5"/>
+    </row>
+    <row r="1080" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1080" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1080" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1080" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1080" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1080" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1080" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1080" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1080" s="5"/>
+    </row>
+    <row r="1081" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1081" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B1081" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1081" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1081" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1081" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1081" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1081" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1081" s="5"/>
+    </row>
+    <row r="1082" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1082" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1082" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1082" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1082" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1082" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1082" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1082" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1082" s="5"/>
+    </row>
+    <row r="1083" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1083" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="B1083" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1083" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1083" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1083" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1083" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1083" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1083" s="5"/>
+    </row>
+    <row r="1084" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1084" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1084" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1084" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1084" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1084" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1084" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1084" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1084" s="5"/>
+    </row>
+    <row r="1085" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1085" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="B1085" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1085" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1085" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1085" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1085" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1085" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1085" s="5"/>
+    </row>
+    <row r="1086" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1086" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1086" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1086" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1086" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1086" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1086" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1086" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1086" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1072" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAF0CA2-0B50-4FD1-A1A2-EEC0714E72A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B57971A-BF1C-429D-B032-18EDAF2C469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7649" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7677" uniqueCount="684">
   <si>
     <t>ФИО</t>
   </si>
@@ -2981,6 +2981,9 @@
   </si>
   <si>
     <t>Губанов Александр Михайлович</t>
+  </si>
+  <si>
+    <t>Павлов Алексей Викторович</t>
   </si>
 </sst>
 </file>
@@ -3476,10 +3479,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1086"/>
+  <dimension ref="A1:H1090"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1053" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1073" sqref="A1073:H1086"/>
+    <sheetView tabSelected="1" topLeftCell="A1068" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1087" sqref="A1087:H1090"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29940,6 +29943,102 @@
         <v>10</v>
       </c>
       <c r="H1086" s="5"/>
+    </row>
+    <row r="1087" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1087" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1087" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1087" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1087" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1087" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1087" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1087" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1087" s="5"/>
+    </row>
+    <row r="1088" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1088" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1088" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1088" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1088" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1088" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1088" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1088" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1088" s="5"/>
+    </row>
+    <row r="1089" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1089" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1089" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1089" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1089" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1089" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1089" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1089" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1089" s="5"/>
+    </row>
+    <row r="1090" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1090" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1090" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1090" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1090" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1090" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1090" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1090" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1090" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1072" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B57971A-BF1C-429D-B032-18EDAF2C469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6BF9D3-067B-4CD9-A5FA-33723437A57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7677" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7684" uniqueCount="685">
   <si>
     <t>ФИО</t>
   </si>
@@ -2984,6 +2984,9 @@
   </si>
   <si>
     <t>Павлов Алексей Викторович</t>
+  </si>
+  <si>
+    <t>Чегринцева Мария Андреевна</t>
   </si>
 </sst>
 </file>
@@ -3479,10 +3482,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1090"/>
+  <dimension ref="A1:H1091"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1068" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1087" sqref="A1087:H1090"/>
+    <sheetView tabSelected="1" topLeftCell="A792" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A795" sqref="A795:G795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22684,14 +22687,14 @@
       <c r="A795" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B795" s="19" t="s">
+      <c r="B795" s="5" t="s">
         <v>224</v>
       </c>
       <c r="C795" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D795" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E795" s="5" t="s">
         <v>15</v>
@@ -30039,6 +30042,29 @@
         <v>8</v>
       </c>
       <c r="H1090" s="5"/>
+    </row>
+    <row r="1091" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1091" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1091" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1091" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1091" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1091" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1091" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1091" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1072" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6BF9D3-067B-4CD9-A5FA-33723437A57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2BE72C-48D3-4509-96C9-5AAEB0836118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7684" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7740" uniqueCount="689">
   <si>
     <t>ФИО</t>
   </si>
@@ -2987,6 +2987,18 @@
   </si>
   <si>
     <t>Чегринцева Мария Андреевна</t>
+  </si>
+  <si>
+    <t>Кириченко Елена Александровна</t>
+  </si>
+  <si>
+    <t>Сидорова Елена Евгеньевна</t>
+  </si>
+  <si>
+    <t>Парамонов Анатолий Викторович</t>
+  </si>
+  <si>
+    <t>Шелпакова Екатерина Александровна</t>
   </si>
 </sst>
 </file>
@@ -3482,10 +3494,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1091"/>
+  <dimension ref="A1:H1099"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A792" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A795" sqref="A795:G795"/>
+    <sheetView tabSelected="1" topLeftCell="A1074" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1100" sqref="A1100:XFD1100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30064,6 +30076,214 @@
       </c>
       <c r="G1091" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1092" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1092" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1092" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1092" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1092" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1092" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1092" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1092" s="12">
+        <v>89855345345</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1093" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1093" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1093" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1093" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1093" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1093" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1093" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1093" s="12">
+        <v>89171182727</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1094" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1094" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1094" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1094" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1094" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1094" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1094" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1094" s="12">
+        <v>89957071757</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1095" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1095" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1095" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1095" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1095" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1095" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1095" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1095" s="12">
+        <v>89951975328</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1096" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1096" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1096" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1096" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1096" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1096" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1096" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1096" s="12">
+        <v>89122454756</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1097" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1097" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1097" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1097" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1097" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1097" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1097" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1097" s="12">
+        <v>89119858929</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1098" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B1098" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1098" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1098" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1098" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1098" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1098" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1098" s="12">
+        <v>89150790406</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1099" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="B1099" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1099" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1099" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1099" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1099" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1099" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1099" s="12">
+        <v>89106462846</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2BE72C-48D3-4509-96C9-5AAEB0836118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31533580-22C7-403D-83DA-A88F4936F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7740" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7838" uniqueCount="698">
   <si>
     <t>ФИО</t>
   </si>
@@ -2999,6 +2999,33 @@
   </si>
   <si>
     <t>Шелпакова Екатерина Александровна</t>
+  </si>
+  <si>
+    <t>Исмагилова Гузель Равилевна</t>
+  </si>
+  <si>
+    <t>Савинов Евгений Владимирович</t>
+  </si>
+  <si>
+    <t>Трофимова Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t>Корчик Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t>Аверин Сергей Викторович</t>
+  </si>
+  <si>
+    <t>Сахно Ирина Рустемовна</t>
+  </si>
+  <si>
+    <t>Шелудько Андрей Александрович</t>
+  </si>
+  <si>
+    <t>Красильникова Ксения Александровна</t>
+  </si>
+  <si>
+    <t>Гюльметов Вадим Фикретович</t>
   </si>
 </sst>
 </file>
@@ -3494,10 +3521,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1099"/>
+  <dimension ref="A1:H1113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1074" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1100" sqref="A1100:XFD1100"/>
+    <sheetView tabSelected="1" topLeftCell="A1080" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1100" sqref="A1100:G1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30284,6 +30311,328 @@
       </c>
       <c r="H1099" s="12">
         <v>89106462846</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1100" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1100" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1100" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1101" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="B1101" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1101" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1102" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="B1102" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1102" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1102" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1103" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1103" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1103" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1103" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1104" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B1104" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1104" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1104" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1105" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="B1105" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1105" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1105" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1106" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1106" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1106" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1106" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1107" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="B1107" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1107" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1107" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1107" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1108" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="B1108" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1108" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1108" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1108" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1109" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="B1109" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1109" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1109" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1109" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1110" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B1110" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1110" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1110" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1111" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="B1111" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1111" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1111" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1111" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1112" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1112" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1112" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1112" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1112" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1112" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1113" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1113" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1113" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1113" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31533580-22C7-403D-83DA-A88F4936F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F7AB61-4253-4C2E-B102-5E2540ECB226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7838" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8020" uniqueCount="705">
   <si>
     <t>ФИО</t>
   </si>
@@ -3026,6 +3026,27 @@
   </si>
   <si>
     <t>Гюльметов Вадим Фикретович</t>
+  </si>
+  <si>
+    <t>Минченко Александр Евгеньевич</t>
+  </si>
+  <si>
+    <t>Поддубная Светлана Мадхатовна</t>
+  </si>
+  <si>
+    <t>Бартель Анастасия Станиславовна</t>
+  </si>
+  <si>
+    <t>Коханская Алена Олеговна</t>
+  </si>
+  <si>
+    <t>Бруякина Зинаида Викторовна</t>
+  </si>
+  <si>
+    <t>Гаврилов Сергей Михайлович</t>
+  </si>
+  <si>
+    <t>Клеща Вадим Александрович</t>
   </si>
 </sst>
 </file>
@@ -3521,10 +3542,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1113"/>
+  <dimension ref="A1:H1139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1080" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1100" sqref="A1100:G1113"/>
+    <sheetView tabSelected="1" topLeftCell="A1110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1114" sqref="A1114:H1139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30428,7 +30449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1105" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1105" s="14" t="s">
         <v>693</v>
       </c>
@@ -30451,7 +30472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1106" s="14" t="s">
         <v>694</v>
       </c>
@@ -30474,7 +30495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1107" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1107" s="14" t="s">
         <v>690</v>
       </c>
@@ -30497,7 +30518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1108" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1108" s="14" t="s">
         <v>691</v>
       </c>
@@ -30520,7 +30541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1109" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1109" s="14" t="s">
         <v>695</v>
       </c>
@@ -30543,7 +30564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1110" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1110" s="5" t="s">
         <v>696</v>
       </c>
@@ -30566,7 +30587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1111" s="5" t="s">
         <v>697</v>
       </c>
@@ -30589,7 +30610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1112" s="14" t="s">
         <v>551</v>
       </c>
@@ -30612,7 +30633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1113" s="14" t="s">
         <v>514</v>
       </c>
@@ -30634,6 +30655,630 @@
       <c r="G1113" s="5" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="1114" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1114" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B1114" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1114" s="5"/>
+    </row>
+    <row r="1115" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1115" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1115" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1115" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1115" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1115" s="5"/>
+    </row>
+    <row r="1116" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1116" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="B1116" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1116" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1116" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1116" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1116" s="5"/>
+    </row>
+    <row r="1117" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1117" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="B1117" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1117" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1117" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1117" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1117" s="5"/>
+    </row>
+    <row r="1118" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1118" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="B1118" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1118" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1118" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1118" s="5"/>
+    </row>
+    <row r="1119" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1119" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1119" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1119" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1119" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1119" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1119" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1119" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1119" s="5"/>
+    </row>
+    <row r="1120" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1120" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1120" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1120" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1120" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1120" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1120" s="5"/>
+    </row>
+    <row r="1121" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1121" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1121" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1121" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1121" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1121" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1121" s="5"/>
+    </row>
+    <row r="1122" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1122" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="B1122" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1122" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1122" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1122" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1122" s="5"/>
+    </row>
+    <row r="1123" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1123" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1123" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1123" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1123" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1123" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1123" s="5"/>
+    </row>
+    <row r="1124" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1124" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1124" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1124" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1124" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1124" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1124" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1124" s="5"/>
+    </row>
+    <row r="1125" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1125" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1125" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1125" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1125" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1125" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1125" s="5"/>
+    </row>
+    <row r="1126" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1126" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1126" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1126" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1126" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1126" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1126" s="5"/>
+    </row>
+    <row r="1127" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1127" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1127" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1127" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1127" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1127" s="5"/>
+    </row>
+    <row r="1128" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1128" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1128" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1128" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1128" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1128" s="5"/>
+    </row>
+    <row r="1129" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1129" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="B1129" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1129" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1129" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1129" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1129" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1129" s="5"/>
+    </row>
+    <row r="1130" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1130" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1130" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1130" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1130" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1130" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1130" s="5"/>
+    </row>
+    <row r="1131" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1131" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="B1131" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1131" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1131" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1131" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1131" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1131" s="5"/>
+    </row>
+    <row r="1132" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1132" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1132" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1132" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1132" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1132" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1132" s="5"/>
+    </row>
+    <row r="1133" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1133" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1133" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1133" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1133" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1133" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1133" s="5"/>
+    </row>
+    <row r="1134" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1134" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1134" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1134" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1134" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1134" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1134" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1134" s="5"/>
+    </row>
+    <row r="1135" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1135" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1135" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1135" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1135" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1135" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1135" s="5"/>
+    </row>
+    <row r="1136" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1136" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1136" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1136" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1136" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1136" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1136" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1136" s="5"/>
+    </row>
+    <row r="1137" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1137" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1137" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1137" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1137" s="5"/>
+    </row>
+    <row r="1138" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1138" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1138" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1138" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1138" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1138" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1138" s="5"/>
+    </row>
+    <row r="1139" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1139" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1139" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1139" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1139" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1139" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1139" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1072" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F7AB61-4253-4C2E-B102-5E2540ECB226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A6294E-3978-49E6-A968-D7DF743B3134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8020" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8139" uniqueCount="712">
   <si>
     <t>ФИО</t>
   </si>
@@ -3047,6 +3047,27 @@
   </si>
   <si>
     <t>Клеща Вадим Александрович</t>
+  </si>
+  <si>
+    <t>Акопян Светлана Алексеевна</t>
+  </si>
+  <si>
+    <t>Зозуля Ирина Николаевна</t>
+  </si>
+  <si>
+    <t>Забегаева Ирина Генадьевна</t>
+  </si>
+  <si>
+    <t>Абрамов Сергей Витальевич</t>
+  </si>
+  <si>
+    <t>Ануфриев Михаил Владимирович</t>
+  </si>
+  <si>
+    <t>Соломатина Татьяна Евгеньевна</t>
+  </si>
+  <si>
+    <t>Абдуллина Гаяз Ниязович</t>
   </si>
 </sst>
 </file>
@@ -3542,10 +3563,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1139"/>
+  <dimension ref="A1:H1156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1114" sqref="A1114:H1139"/>
+    <sheetView tabSelected="1" topLeftCell="A1128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1140" sqref="A1140:G1156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31279,6 +31300,397 @@
         <v>8</v>
       </c>
       <c r="H1139" s="5"/>
+    </row>
+    <row r="1140" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1140" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1140" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1140" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1140" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1140" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1141" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1141" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1141" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1141" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1141" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1141" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1142" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1142" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1142" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1142" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1142" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1142" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1143" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1143" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1143" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1143" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1143" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1143" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1143" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1144" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1144" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1144" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1144" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1144" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1144" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1145" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1145" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1145" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1145" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1145" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1145" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1145" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1146" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1146" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1146" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1146" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1146" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1146" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1146" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1147" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1147" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1147" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1147" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1147" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1147" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1147" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1148" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1148" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1148" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1148" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1148" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1148" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1148" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1149" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1149" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1149" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1149" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1149" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1149" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1150" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1150" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1150" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1150" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1150" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1150" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1150" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1151" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1151" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1151" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1151" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1151" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1151" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1151" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1152" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1152" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1152" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1152" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1152" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1152" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1153" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1153" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1153" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1153" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1153" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1153" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1153" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1154" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="B1154" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1154" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1154" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1154" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1154" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1154" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1155" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1155" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1155" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1155" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1155" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1155" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1155" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1156" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1156" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1156" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1156" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1156" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1156" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1072" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A6294E-3978-49E6-A968-D7DF743B3134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BBFE00-0517-4A1F-879E-E6C62000F887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8139" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8216" uniqueCount="720">
   <si>
     <t>ФИО</t>
   </si>
@@ -3068,6 +3068,30 @@
   </si>
   <si>
     <t>Абдуллина Гаяз Ниязович</t>
+  </si>
+  <si>
+    <t>Герасименко Артем Дмитриевич</t>
+  </si>
+  <si>
+    <t>Чепелева Мария Антоновна</t>
+  </si>
+  <si>
+    <t>Димова Лидия Александровна</t>
+  </si>
+  <si>
+    <t>Станотина Ангелина Владимировна</t>
+  </si>
+  <si>
+    <t>Воронин Никита Георгиевич</t>
+  </si>
+  <si>
+    <t>Комарова Светлана Валерьевна</t>
+  </si>
+  <si>
+    <t>Куделина Екатерина Васильевна</t>
+  </si>
+  <si>
+    <t>Абдуллин Гаяз Ниязович</t>
   </si>
 </sst>
 </file>
@@ -3563,10 +3587,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1156"/>
+  <dimension ref="A1:H1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1140" sqref="A1140:G1156"/>
+    <sheetView tabSelected="1" topLeftCell="A1143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1157" sqref="A1157:H1167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31600,7 +31624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1153" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1153" s="14" t="s">
         <v>709</v>
       </c>
@@ -31623,7 +31647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1154" s="14" t="s">
         <v>710</v>
       </c>
@@ -31646,7 +31670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1155" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1155" s="5" t="s">
         <v>711</v>
       </c>
@@ -31669,7 +31693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1156" s="14" t="s">
         <v>709</v>
       </c>
@@ -31691,6 +31715,270 @@
       <c r="G1156" s="5" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="1157" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1157" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1157" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1157" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1157" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1157" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1157" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1157" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1157" s="5"/>
+    </row>
+    <row r="1158" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1158" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1158" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1158" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1158" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1158" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1158" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1158" s="5"/>
+    </row>
+    <row r="1159" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1159" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B1159" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1159" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1159" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1159" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1159" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1159" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1159" s="5"/>
+    </row>
+    <row r="1160" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1160" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1160" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1160" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1160" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1160" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1160" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1160" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1160" s="5"/>
+    </row>
+    <row r="1161" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1161" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="B1161" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1161" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1161" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1161" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1161" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1161" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1161" s="5"/>
+    </row>
+    <row r="1162" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1162" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1162" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1162" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1162" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1162" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1162" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1162" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1162" s="5"/>
+    </row>
+    <row r="1163" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1163" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1163" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1163" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1163" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1163" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1163" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1163" s="5"/>
+    </row>
+    <row r="1164" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1164" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B1164" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1164" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1164" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1164" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1164" s="5"/>
+    </row>
+    <row r="1165" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1165" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1165" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1165" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1165" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1165" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1165" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1165" s="5"/>
+    </row>
+    <row r="1166" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1166" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="B1166" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1166" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1166" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1166" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1166" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1166" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1166" s="5"/>
+    </row>
+    <row r="1167" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1167" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1167" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1167" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1167" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1167" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1167" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1167" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1072" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB3A22B-F0CC-486F-8831-ECF6D5268B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E728851B-FBBB-4F72-8ECC-A20B5361D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1980" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="2385" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8181" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8202" uniqueCount="724">
   <si>
     <t>ФИО</t>
   </si>
@@ -3095,6 +3095,15 @@
   </si>
   <si>
     <t>Сырямин Максим Юрьевич</t>
+  </si>
+  <si>
+    <t>Рожнова Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Малашенкова Вероника Владимировна</t>
+  </si>
+  <si>
+    <t>Абдуллин Гаяз ниязович</t>
   </si>
 </sst>
 </file>
@@ -3591,10 +3600,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1162"/>
+  <dimension ref="A1:H1165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1165" sqref="C1165"/>
+      <selection activeCell="A1163" sqref="A1163:G1165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31863,6 +31872,75 @@
         <v>10</v>
       </c>
       <c r="G1162" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1163" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1163" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1163" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1163" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1163" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1163" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1164" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B1164" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1164" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1164" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1164" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1164" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1165" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B1165" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1165" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1165" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1165" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1165" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E728851B-FBBB-4F72-8ECC-A20B5361D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8C21EF-1366-4926-A468-18318F7A4C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5550" yWindow="2385" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8202" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8258" uniqueCount="730">
   <si>
     <t>ФИО</t>
   </si>
@@ -3104,6 +3104,24 @@
   </si>
   <si>
     <t>Абдуллин Гаяз ниязович</t>
+  </si>
+  <si>
+    <t>Ткачева Валерия Александровна</t>
+  </si>
+  <si>
+    <t>Лавриненко Ольга Алексеевна</t>
+  </si>
+  <si>
+    <t>Сулаева Екатерина Викторовна</t>
+  </si>
+  <si>
+    <t>Кириллов Юрий Викторович</t>
+  </si>
+  <si>
+    <t>Ефремова Светлана Вячеславовна</t>
+  </si>
+  <si>
+    <t>Мазалев Дмитрий Евгеньевич</t>
   </si>
 </sst>
 </file>
@@ -3600,10 +3618,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1165"/>
+  <dimension ref="A1:H1173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1163" sqref="A1163:G1165"/>
+      <selection activeCell="A1165" sqref="A1165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31942,6 +31960,190 @@
       </c>
       <c r="G1165" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1166" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1166" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1166" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1166" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1166" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1166" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1166" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1167" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1167" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1167" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1167" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1167" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1167" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1167" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1168" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1168" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1168" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1168" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1168" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1168" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1169" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B1169" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1169" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1169" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1169" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1169" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1169" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1170" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1170" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1170" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1170" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1170" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1170" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1170" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1171" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1171" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1171" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1171" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1171" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1171" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1172" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B1172" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1172" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1172" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1172" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1172" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1172" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1173" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B1173" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1173" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1173" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1173" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1173" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8C21EF-1366-4926-A468-18318F7A4C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F749F7-29E7-4C58-8170-F910282663B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="2385" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="2625" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8258" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8272" uniqueCount="732">
   <si>
     <t>ФИО</t>
   </si>
@@ -3122,6 +3122,12 @@
   </si>
   <si>
     <t>Мазалев Дмитрий Евгеньевич</t>
+  </si>
+  <si>
+    <t>Соколова Юлия Николаевна</t>
+  </si>
+  <si>
+    <t>Захаров Павел Львович</t>
   </si>
 </sst>
 </file>
@@ -3618,10 +3624,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1173"/>
+  <dimension ref="A1:H1175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1165" sqref="A1165"/>
+    <sheetView tabSelected="1" topLeftCell="A1172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1174" sqref="A1174:G1175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32144,6 +32150,52 @@
       </c>
       <c r="G1173" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1174" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B1174" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1174" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1174" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1174" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1174" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1175" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1175" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1175" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1175" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1175" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1175" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1175" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F749F7-29E7-4C58-8170-F910282663B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25205B8-5F95-4E31-BC67-E785BDF2FFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="2625" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="2280" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8272" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8307" uniqueCount="736">
   <si>
     <t>ФИО</t>
   </si>
@@ -3128,6 +3128,18 @@
   </si>
   <si>
     <t>Захаров Павел Львович</t>
+  </si>
+  <si>
+    <t>Морозова Анна Дмитриевна</t>
+  </si>
+  <si>
+    <t>Громов Артем Аркадьевич</t>
+  </si>
+  <si>
+    <t>Белоусова Марина Владимировна</t>
+  </si>
+  <si>
+    <t>Кан Сергей</t>
   </si>
 </sst>
 </file>
@@ -3624,10 +3636,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1175"/>
+  <dimension ref="A1:H1180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1174" sqref="A1174:G1175"/>
+      <selection activeCell="A1176" sqref="A1176:G1180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32196,6 +32208,121 @@
       </c>
       <c r="G1175" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1176" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="B1176" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1176" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1176" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1176" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1176" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1177" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1177" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1177" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1177" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1177" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1177" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1177" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1178" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B1178" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1178" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1178" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1178" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1178" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1179" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B1179" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1179" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1179" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1179" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1179" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1179" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1180" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B1180" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1180" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1180" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1180" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1180" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1180" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25205B8-5F95-4E31-BC67-E785BDF2FFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8D569D-5AED-4B2C-B610-A36AC06CAE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2280" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Текст" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Распределение!$A$1:$H$1070</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Распределение!$A$1:$H$1069</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8307" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="748">
   <si>
     <t>ФИО</t>
   </si>
@@ -3140,6 +3140,42 @@
   </si>
   <si>
     <t>Кан Сергей</t>
+  </si>
+  <si>
+    <t>Титова Маргарита Андреевна</t>
+  </si>
+  <si>
+    <t>Асланян Ирина Рудиковна</t>
+  </si>
+  <si>
+    <t>Еремеева Мария Сергеевна</t>
+  </si>
+  <si>
+    <t>Клешнина Валерия Евгеньевна</t>
+  </si>
+  <si>
+    <t>xxxdanuxx@mail.ru почта</t>
+  </si>
+  <si>
+    <t>Крылова Ирина Михайловна</t>
+  </si>
+  <si>
+    <t>Мифтахутдинова Диана Ринатовна</t>
+  </si>
+  <si>
+    <t>Бачурина Анастасия Дмитриевна</t>
+  </si>
+  <si>
+    <t>Бонк Владимир Адамович</t>
+  </si>
+  <si>
+    <t>Благовещенский Сергей Ильич</t>
+  </si>
+  <si>
+    <t>Шоморова Маргарита Александровна</t>
+  </si>
+  <si>
+    <t>Злобин Сергей Владимирович</t>
   </si>
 </sst>
 </file>
@@ -3636,10 +3672,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1180"/>
+  <dimension ref="A1:H1199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1176" sqref="A1176:G1180"/>
+    <sheetView tabSelected="1" topLeftCell="A981" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A981" sqref="A981:XFD981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27553,7 +27589,7 @@
     </row>
     <row r="981" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B981" s="25" t="s">
         <v>149</v>
@@ -27562,24 +27598,24 @@
         <v>11</v>
       </c>
       <c r="D981" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E981" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F981" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G981" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H981" s="12">
-        <v>89174163129</v>
+        <v>89615942102</v>
       </c>
     </row>
     <row r="982" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B982" s="25" t="s">
         <v>149</v>
@@ -27588,24 +27624,24 @@
         <v>11</v>
       </c>
       <c r="D982" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E982" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F982" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G982" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H982" s="12">
-        <v>89615942102</v>
+        <v>89171099240</v>
       </c>
     </row>
     <row r="983" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A983" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B983" s="25" t="s">
         <v>149</v>
@@ -27614,10 +27650,10 @@
         <v>11</v>
       </c>
       <c r="D983" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E983" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F983" s="5" t="s">
         <v>10</v>
@@ -27626,12 +27662,12 @@
         <v>8</v>
       </c>
       <c r="H983" s="12">
-        <v>89171099240</v>
+        <v>89057585144</v>
       </c>
     </row>
     <row r="984" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A984" s="5" t="s">
-        <v>636</v>
+      <c r="A984" s="14" t="s">
+        <v>619</v>
       </c>
       <c r="B984" s="25" t="s">
         <v>149</v>
@@ -27643,7 +27679,7 @@
         <v>12</v>
       </c>
       <c r="E984" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F984" s="5" t="s">
         <v>10</v>
@@ -27652,68 +27688,66 @@
         <v>8</v>
       </c>
       <c r="H984" s="12">
-        <v>89057585144</v>
+        <v>89260118200</v>
       </c>
     </row>
     <row r="985" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A985" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="B985" s="25" t="s">
-        <v>149</v>
+      <c r="A985" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B985" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C985" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D985" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E985" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F985" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G985" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H985" s="1"/>
+    </row>
+    <row r="986" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A986" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B986" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C986" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D985" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E985" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F985" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G985" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H985" s="12">
-        <v>89260118200</v>
-      </c>
-    </row>
-    <row r="986" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A986" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B986" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C986" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="D986" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E986" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F986" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G986" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H986" s="1"/>
     </row>
     <row r="987" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A987" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B987" s="23" t="s">
-        <v>140</v>
+      <c r="A987" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B987" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C987" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D987" s="5" t="s">
         <v>16</v>
@@ -27722,16 +27756,16 @@
         <v>19</v>
       </c>
       <c r="F987" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G987" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H987" s="1"/>
     </row>
     <row r="988" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A988" s="5" t="s">
-        <v>638</v>
+      <c r="A988" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="B988" s="24" t="s">
         <v>150</v>
@@ -27740,10 +27774,10 @@
         <v>6</v>
       </c>
       <c r="D988" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E988" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F988" s="5" t="s">
         <v>10</v>
@@ -27755,7 +27789,7 @@
     </row>
     <row r="989" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A989" s="14" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B989" s="24" t="s">
         <v>150</v>
@@ -27764,34 +27798,34 @@
         <v>6</v>
       </c>
       <c r="D989" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E989" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F989" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G989" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H989" s="1"/>
     </row>
     <row r="990" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A990" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B990" s="24" t="s">
-        <v>150</v>
+      <c r="A990" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B990" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C990" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D990" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E990" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F990" s="5" t="s">
         <v>8</v>
@@ -27802,26 +27836,26 @@
       <c r="H990" s="1"/>
     </row>
     <row r="991" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A991" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B991" s="19" t="s">
-        <v>224</v>
+      <c r="A991" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B991" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C991" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D991" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E991" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F991" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G991" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H991" s="1"/>
     </row>
@@ -27829,17 +27863,17 @@
       <c r="A992" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="B992" s="23" t="s">
-        <v>140</v>
+      <c r="B992" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C992" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D992" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E992" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F992" s="5" t="s">
         <v>10</v>
@@ -27850,32 +27884,32 @@
       <c r="H992" s="1"/>
     </row>
     <row r="993" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A993" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="B993" s="24" t="s">
-        <v>150</v>
+      <c r="A993" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B993" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C993" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D993" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E993" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F993" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G993" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H993" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="H993" s="5"/>
     </row>
     <row r="994" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A994" s="5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B994" s="19" t="s">
         <v>224</v>
@@ -27884,10 +27918,10 @@
         <v>11</v>
       </c>
       <c r="D994" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E994" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F994" s="5" t="s">
         <v>8</v>
@@ -27899,7 +27933,7 @@
     </row>
     <row r="995" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A995" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B995" s="19" t="s">
         <v>224</v>
@@ -27908,34 +27942,34 @@
         <v>11</v>
       </c>
       <c r="D995" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E995" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F995" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G995" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H995" s="5"/>
     </row>
     <row r="996" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="B996" s="19" t="s">
-        <v>224</v>
+      <c r="A996" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="B996" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="C996" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D996" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E996" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F996" s="5" t="s">
         <v>10</v>
@@ -27947,7 +27981,7 @@
     </row>
     <row r="997" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A997" s="14" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B997" s="15" t="s">
         <v>140</v>
@@ -27956,25 +27990,25 @@
         <v>11</v>
       </c>
       <c r="D997" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E997" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F997" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G997" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H997" s="5"/>
     </row>
     <row r="998" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A998" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="B998" s="15" t="s">
-        <v>140</v>
+        <v>641</v>
+      </c>
+      <c r="B998" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C998" s="5" t="s">
         <v>11</v>
@@ -27983,7 +28017,7 @@
         <v>16</v>
       </c>
       <c r="E998" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F998" s="5" t="s">
         <v>8</v>
@@ -27995,7 +28029,7 @@
     </row>
     <row r="999" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A999" s="14" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B999" s="5" t="s">
         <v>150</v>
@@ -28004,70 +28038,70 @@
         <v>11</v>
       </c>
       <c r="D999" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E999" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F999" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G999" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H999" s="5"/>
     </row>
     <row r="1000" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="14" t="s">
-        <v>643</v>
+      <c r="A1000" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="B1000" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C1000" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1000" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1000" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F1000" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1000" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1000" s="5"/>
     </row>
     <row r="1001" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="5" t="s">
-        <v>446</v>
+        <v>253</v>
       </c>
       <c r="B1001" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C1001" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1001" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1001" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F1001" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1001" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1001" s="5"/>
     </row>
     <row r="1002" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="5" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B1002" s="5" t="s">
         <v>140</v>
@@ -28076,70 +28110,70 @@
         <v>6</v>
       </c>
       <c r="D1002" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1002" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1002" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1002" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1002" s="5"/>
+    </row>
+    <row r="1003" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1003" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1003" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1003" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E1002" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1002" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1002" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1002" s="5"/>
-    </row>
-    <row r="1003" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1003" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1003" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1003" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1003" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E1003" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F1003" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1003" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1003" s="5"/>
     </row>
     <row r="1004" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1004" s="24" t="s">
-        <v>150</v>
+        <v>644</v>
+      </c>
+      <c r="B1004" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1004" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1004" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E1004" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F1004" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1004" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1004" s="5"/>
     </row>
     <row r="1005" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B1005" s="22" t="s">
         <v>181</v>
@@ -28148,34 +28182,34 @@
         <v>11</v>
       </c>
       <c r="D1005" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1005" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1005" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1005" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1005" s="5"/>
     </row>
     <row r="1006" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="B1006" s="22" t="s">
-        <v>181</v>
+        <v>646</v>
+      </c>
+      <c r="B1006" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1006" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1006" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E1006" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F1006" s="5" t="s">
         <v>10</v>
@@ -28187,7 +28221,7 @@
     </row>
     <row r="1007" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="14" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B1007" s="23" t="s">
         <v>140</v>
@@ -28196,10 +28230,10 @@
         <v>11</v>
       </c>
       <c r="D1007" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1007" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1007" s="5" t="s">
         <v>10</v>
@@ -28211,7 +28245,7 @@
     </row>
     <row r="1008" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B1008" s="23" t="s">
         <v>140</v>
@@ -28220,34 +28254,34 @@
         <v>11</v>
       </c>
       <c r="D1008" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1008" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1008" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1008" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1008" s="5"/>
     </row>
     <row r="1009" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="B1009" s="23" t="s">
-        <v>140</v>
+        <v>646</v>
+      </c>
+      <c r="B1009" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1009" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1009" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1009" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1009" s="5" t="s">
         <v>8</v>
@@ -28258,44 +28292,44 @@
       <c r="H1009" s="5"/>
     </row>
     <row r="1010" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1010" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="B1010" s="24" t="s">
-        <v>150</v>
+      <c r="A1010" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1010" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="C1010" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1010" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1010" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1010" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1010" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1010" s="5"/>
     </row>
     <row r="1011" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="5" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B1011" s="5" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="C1011" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1011" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1011" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1011" s="5" t="s">
         <v>10</v>
@@ -28303,23 +28337,25 @@
       <c r="G1011" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1011" s="5"/>
+      <c r="H1011" s="12">
+        <v>89219363070</v>
+      </c>
     </row>
     <row r="1012" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="5" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="B1012" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C1012" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1012" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E1012" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1012" s="5" t="s">
         <v>10</v>
@@ -28328,18 +28364,18 @@
         <v>8</v>
       </c>
       <c r="H1012" s="12">
-        <v>89219363070</v>
+        <v>89109366280</v>
       </c>
     </row>
     <row r="1013" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B1013" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C1013" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1013" s="5" t="s">
         <v>7</v>
@@ -28354,12 +28390,12 @@
         <v>8</v>
       </c>
       <c r="H1013" s="12">
-        <v>89109366280</v>
+        <v>89164563400</v>
       </c>
     </row>
     <row r="1014" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B1014" s="5" t="s">
         <v>149</v>
@@ -28368,10 +28404,10 @@
         <v>11</v>
       </c>
       <c r="D1014" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1014" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1014" s="5" t="s">
         <v>10</v>
@@ -28380,38 +28416,38 @@
         <v>8</v>
       </c>
       <c r="H1014" s="12">
-        <v>89164563400</v>
+        <v>89167890673</v>
       </c>
     </row>
     <row r="1015" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B1015" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C1015" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1015" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1015" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1015" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1015" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1015" s="12">
-        <v>89167890673</v>
+        <v>89872341275</v>
       </c>
     </row>
     <row r="1016" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B1016" s="5" t="s">
         <v>149</v>
@@ -28420,7 +28456,7 @@
         <v>6</v>
       </c>
       <c r="D1016" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1016" s="5" t="s">
         <v>14</v>
@@ -28432,15 +28468,15 @@
         <v>10</v>
       </c>
       <c r="H1016" s="12">
-        <v>89872341275</v>
+        <v>89107721291</v>
       </c>
     </row>
     <row r="1017" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1017" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="B1017" s="5" t="s">
-        <v>149</v>
+      <c r="A1017" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1017" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1017" s="5" t="s">
         <v>6</v>
@@ -28449,33 +28485,30 @@
         <v>7</v>
       </c>
       <c r="E1017" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1017" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1017" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1017" s="12">
-        <v>89107721291</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1018" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="B1018" s="19" t="s">
-        <v>224</v>
+      <c r="B1018" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1018" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1018" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1018" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1018" s="5" t="s">
         <v>10</v>
@@ -28486,39 +28519,39 @@
     </row>
     <row r="1019" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B1019" s="22" t="s">
-        <v>181</v>
+        <v>158</v>
+      </c>
+      <c r="B1019" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1019" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1019" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E1019" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1019" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1019" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1020" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="14" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B1020" s="23" t="s">
         <v>140</v>
       </c>
       <c r="C1020" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1020" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1020" s="5" t="s">
         <v>19</v>
@@ -28532,7 +28565,7 @@
     </row>
     <row r="1021" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="14" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="B1021" s="23" t="s">
         <v>140</v>
@@ -28544,18 +28577,18 @@
         <v>18</v>
       </c>
       <c r="E1021" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1021" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1021" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1022" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="14" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B1022" s="23" t="s">
         <v>140</v>
@@ -28567,7 +28600,7 @@
         <v>18</v>
       </c>
       <c r="E1022" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1022" s="5" t="s">
         <v>10</v>
@@ -28577,31 +28610,31 @@
       </c>
     </row>
     <row r="1023" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1023" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1023" s="23" t="s">
-        <v>140</v>
+      <c r="A1023" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1023" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1023" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1023" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1023" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1023" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1023" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1024" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B1024" s="19" t="s">
         <v>224</v>
@@ -28610,21 +28643,21 @@
         <v>11</v>
       </c>
       <c r="D1024" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1024" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1024" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1024" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1025" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1025" s="5" t="s">
-        <v>655</v>
+      <c r="A1025" s="14" t="s">
+        <v>656</v>
       </c>
       <c r="B1025" s="19" t="s">
         <v>224</v>
@@ -28633,10 +28666,10 @@
         <v>11</v>
       </c>
       <c r="D1025" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1025" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1025" s="5" t="s">
         <v>10</v>
@@ -28647,7 +28680,7 @@
     </row>
     <row r="1026" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="14" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B1026" s="19" t="s">
         <v>224</v>
@@ -28656,24 +28689,24 @@
         <v>11</v>
       </c>
       <c r="D1026" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1026" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1026" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1026" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1027" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1027" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="B1027" s="19" t="s">
-        <v>224</v>
+      <c r="A1027" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1027" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1027" s="5" t="s">
         <v>11</v>
@@ -28682,18 +28715,18 @@
         <v>7</v>
       </c>
       <c r="E1027" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1027" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1027" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1028" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B1028" s="22" t="s">
         <v>181</v>
@@ -28702,21 +28735,21 @@
         <v>11</v>
       </c>
       <c r="D1028" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1028" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1028" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1028" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1029" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B1029" s="22" t="s">
         <v>181</v>
@@ -28725,56 +28758,56 @@
         <v>11</v>
       </c>
       <c r="D1029" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1029" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1029" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1029" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1030" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1030" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="B1030" s="22" t="s">
-        <v>181</v>
+      <c r="A1030" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B1030" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1030" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1030" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1030" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1030" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1030" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1031" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="B1031" s="23" t="s">
-        <v>140</v>
+      <c r="B1031" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1031" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1031" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1031" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1031" s="5" t="s">
         <v>8</v>
@@ -28785,19 +28818,19 @@
     </row>
     <row r="1032" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1032" s="14" t="s">
-        <v>661</v>
+        <v>584</v>
       </c>
       <c r="B1032" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C1032" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1032" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1032" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1032" s="5" t="s">
         <v>8</v>
@@ -28808,7 +28841,7 @@
     </row>
     <row r="1033" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="14" t="s">
-        <v>584</v>
+        <v>300</v>
       </c>
       <c r="B1033" s="24" t="s">
         <v>150</v>
@@ -28817,33 +28850,33 @@
         <v>6</v>
       </c>
       <c r="D1033" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1033" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F1033" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1033" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1034" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="14" t="s">
-        <v>300</v>
+        <v>662</v>
       </c>
       <c r="B1034" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C1034" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1034" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1034" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1034" s="5" t="s">
         <v>10</v>
@@ -28854,7 +28887,7 @@
     </row>
     <row r="1035" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1035" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1035" s="24" t="s">
         <v>150</v>
@@ -28863,10 +28896,10 @@
         <v>11</v>
       </c>
       <c r="D1035" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1035" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1035" s="5" t="s">
         <v>10</v>
@@ -28877,7 +28910,7 @@
     </row>
     <row r="1036" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1036" s="14" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B1036" s="24" t="s">
         <v>150</v>
@@ -28886,24 +28919,24 @@
         <v>11</v>
       </c>
       <c r="D1036" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1036" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1036" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1036" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1037" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1037" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="B1037" s="24" t="s">
-        <v>150</v>
+      <c r="A1037" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1037" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1037" s="5" t="s">
         <v>11</v>
@@ -28912,7 +28945,7 @@
         <v>17</v>
       </c>
       <c r="E1037" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1037" s="5" t="s">
         <v>8</v>
@@ -28922,8 +28955,8 @@
       </c>
     </row>
     <row r="1038" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1038" s="5" t="s">
-        <v>664</v>
+      <c r="A1038" s="14" t="s">
+        <v>665</v>
       </c>
       <c r="B1038" s="23" t="s">
         <v>140</v>
@@ -28932,21 +28965,21 @@
         <v>11</v>
       </c>
       <c r="D1038" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1038" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F1038" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1038" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1039" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1039" s="14" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B1039" s="23" t="s">
         <v>140</v>
@@ -28955,21 +28988,21 @@
         <v>11</v>
       </c>
       <c r="D1039" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1039" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1039" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1039" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1040" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1040" s="14" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="B1040" s="23" t="s">
         <v>140</v>
@@ -28978,21 +29011,21 @@
         <v>11</v>
       </c>
       <c r="D1040" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1040" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1040" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1040" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1041" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1041" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1041" s="23" t="s">
         <v>140</v>
@@ -29001,21 +29034,21 @@
         <v>11</v>
       </c>
       <c r="D1041" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1041" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1041" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1041" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1042" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1042" s="14" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B1042" s="23" t="s">
         <v>140</v>
@@ -29024,10 +29057,10 @@
         <v>11</v>
       </c>
       <c r="D1042" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1042" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1042" s="5" t="s">
         <v>8</v>
@@ -29037,31 +29070,34 @@
       </c>
     </row>
     <row r="1043" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1043" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="B1043" s="23" t="s">
-        <v>140</v>
+      <c r="A1043" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B1043" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1043" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1043" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E1043" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F1043" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1043" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H1043" s="12">
+        <v>89851356569</v>
       </c>
     </row>
     <row r="1044" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1044" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B1044" s="25" t="s">
         <v>149</v>
@@ -29070,50 +29106,50 @@
         <v>6</v>
       </c>
       <c r="D1044" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1044" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1044" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1044" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1044" s="12">
-        <v>89851356569</v>
+        <v>89182257003</v>
       </c>
     </row>
     <row r="1045" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1045" s="5" t="s">
-        <v>667</v>
+      <c r="A1045" s="14" t="s">
+        <v>665</v>
       </c>
       <c r="B1045" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1045" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1045" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1045" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1045" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1045" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1045" s="12">
-        <v>89182257003</v>
+        <v>89163534913</v>
       </c>
     </row>
     <row r="1046" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1046" s="14" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B1046" s="25" t="s">
         <v>149</v>
@@ -29125,7 +29161,7 @@
         <v>12</v>
       </c>
       <c r="E1046" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1046" s="5" t="s">
         <v>10</v>
@@ -29134,12 +29170,12 @@
         <v>8</v>
       </c>
       <c r="H1046" s="12">
-        <v>89163534913</v>
+        <v>89806370682</v>
       </c>
     </row>
     <row r="1047" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1047" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1047" s="25" t="s">
         <v>149</v>
@@ -29148,50 +29184,48 @@
         <v>11</v>
       </c>
       <c r="D1047" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1047" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1047" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1047" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1047" s="12">
-        <v>89806370682</v>
+        <v>89161422728</v>
       </c>
     </row>
     <row r="1048" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1048" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="B1048" s="25" t="s">
-        <v>149</v>
+        <v>668</v>
+      </c>
+      <c r="B1048" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1048" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1048" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1048" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1048" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1048" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1048" s="12">
-        <v>89161422728</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H1048" s="5"/>
     </row>
     <row r="1049" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1049" s="14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B1049" s="22" t="s">
         <v>181</v>
@@ -29200,10 +29234,10 @@
         <v>11</v>
       </c>
       <c r="D1049" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1049" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1049" s="5" t="s">
         <v>10</v>
@@ -29215,31 +29249,31 @@
     </row>
     <row r="1050" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1050" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="B1050" s="22" t="s">
-        <v>181</v>
+        <v>668</v>
+      </c>
+      <c r="B1050" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1050" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1050" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1050" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1050" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1050" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1050" s="5"/>
     </row>
     <row r="1051" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1051" s="14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B1051" s="23" t="s">
         <v>140</v>
@@ -29248,7 +29282,7 @@
         <v>11</v>
       </c>
       <c r="D1051" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1051" s="5" t="s">
         <v>20</v>
@@ -29265,8 +29299,8 @@
       <c r="A1052" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="B1052" s="23" t="s">
-        <v>140</v>
+      <c r="B1052" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1052" s="5" t="s">
         <v>11</v>
@@ -29286,8 +29320,8 @@
       <c r="H1052" s="5"/>
     </row>
     <row r="1053" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1053" s="14" t="s">
-        <v>669</v>
+      <c r="A1053" s="5" t="s">
+        <v>670</v>
       </c>
       <c r="B1053" s="24" t="s">
         <v>150</v>
@@ -29299,43 +29333,43 @@
         <v>18</v>
       </c>
       <c r="E1053" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1053" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1053" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1053" s="5"/>
     </row>
     <row r="1054" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1054" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="B1054" s="24" t="s">
-        <v>150</v>
+        <v>671</v>
+      </c>
+      <c r="B1054" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1054" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1054" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1054" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F1054" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1054" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1054" s="5"/>
     </row>
     <row r="1055" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1055" s="5" t="s">
-        <v>671</v>
+      <c r="A1055" s="14" t="s">
+        <v>623</v>
       </c>
       <c r="B1055" s="22" t="s">
         <v>181</v>
@@ -29359,31 +29393,31 @@
     </row>
     <row r="1056" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1056" s="22" t="s">
-        <v>181</v>
+        <v>406</v>
+      </c>
+      <c r="B1056" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1056" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1056" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E1056" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F1056" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1056" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1056" s="5"/>
     </row>
     <row r="1057" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1057" s="14" t="s">
-        <v>406</v>
+        <v>241</v>
       </c>
       <c r="B1057" s="24" t="s">
         <v>150</v>
@@ -29392,34 +29426,34 @@
         <v>11</v>
       </c>
       <c r="D1057" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1057" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1057" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1057" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1057" s="5"/>
     </row>
     <row r="1058" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1058" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1058" s="24" t="s">
-        <v>150</v>
+        <v>537</v>
+      </c>
+      <c r="B1058" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1058" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1058" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1058" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1058" s="5" t="s">
         <v>8</v>
@@ -29431,7 +29465,7 @@
     </row>
     <row r="1059" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1059" s="14" t="s">
-        <v>537</v>
+        <v>672</v>
       </c>
       <c r="B1059" s="22" t="s">
         <v>181</v>
@@ -29440,22 +29474,22 @@
         <v>11</v>
       </c>
       <c r="D1059" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1059" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1059" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1059" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1059" s="5"/>
     </row>
     <row r="1060" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1060" s="14" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B1060" s="22" t="s">
         <v>181</v>
@@ -29464,10 +29498,10 @@
         <v>11</v>
       </c>
       <c r="D1060" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1060" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1060" s="5" t="s">
         <v>10</v>
@@ -29479,7 +29513,7 @@
     </row>
     <row r="1061" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1061" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B1061" s="22" t="s">
         <v>181</v>
@@ -29488,34 +29522,34 @@
         <v>11</v>
       </c>
       <c r="D1061" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1061" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1061" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1061" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1061" s="5"/>
     </row>
     <row r="1062" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1062" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="B1062" s="22" t="s">
-        <v>181</v>
+        <v>675</v>
+      </c>
+      <c r="B1062" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1062" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1062" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1062" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1062" s="5" t="s">
         <v>8</v>
@@ -29526,32 +29560,32 @@
       <c r="H1062" s="5"/>
     </row>
     <row r="1063" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1063" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="B1063" s="19" t="s">
-        <v>224</v>
+      <c r="A1063" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1063" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1063" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1063" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E1063" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1063" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1063" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1063" s="5"/>
     </row>
     <row r="1064" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1064" s="5" t="s">
-        <v>676</v>
+      <c r="A1064" s="14" t="s">
+        <v>675</v>
       </c>
       <c r="B1064" s="23" t="s">
         <v>140</v>
@@ -29560,10 +29594,10 @@
         <v>11</v>
       </c>
       <c r="D1064" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1064" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1064" s="5" t="s">
         <v>10</v>
@@ -29575,7 +29609,7 @@
     </row>
     <row r="1065" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1065" s="14" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B1065" s="23" t="s">
         <v>140</v>
@@ -29584,22 +29618,22 @@
         <v>11</v>
       </c>
       <c r="D1065" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1065" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1065" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1065" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1065" s="5"/>
     </row>
     <row r="1066" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1066" s="14" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B1066" s="23" t="s">
         <v>140</v>
@@ -29608,22 +29642,22 @@
         <v>11</v>
       </c>
       <c r="D1066" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1066" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1066" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1066" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1066" s="5"/>
     </row>
     <row r="1067" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1067" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B1067" s="23" t="s">
         <v>140</v>
@@ -29632,7 +29666,7 @@
         <v>11</v>
       </c>
       <c r="D1067" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1067" s="5" t="s">
         <v>21</v>
@@ -29649,8 +29683,8 @@
       <c r="A1068" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="B1068" s="23" t="s">
-        <v>140</v>
+      <c r="B1068" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1068" s="5" t="s">
         <v>11</v>
@@ -29659,7 +29693,7 @@
         <v>16</v>
       </c>
       <c r="E1068" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1068" s="5" t="s">
         <v>10</v>
@@ -29671,7 +29705,7 @@
     </row>
     <row r="1069" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1069" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B1069" s="24" t="s">
         <v>150</v>
@@ -29680,10 +29714,10 @@
         <v>11</v>
       </c>
       <c r="D1069" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1069" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1069" s="5" t="s">
         <v>10</v>
@@ -29695,88 +29729,88 @@
     </row>
     <row r="1070" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1070" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="B1070" s="24" t="s">
-        <v>150</v>
+        <v>67</v>
+      </c>
+      <c r="B1070" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1070" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1070" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1070" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F1070" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1070" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1070" s="5"/>
     </row>
     <row r="1071" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1071" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1071" s="19" t="s">
-        <v>224</v>
+        <v>677</v>
+      </c>
+      <c r="B1071" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1071" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1071" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1071" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1071" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1071" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1071" s="5"/>
     </row>
     <row r="1072" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1072" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="B1072" s="22" t="s">
-        <v>181</v>
+        <v>255</v>
+      </c>
+      <c r="B1072" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1072" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1072" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1072" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1072" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1072" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1072" s="5"/>
     </row>
     <row r="1073" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1073" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1073" s="23" t="s">
-        <v>140</v>
+        <v>259</v>
+      </c>
+      <c r="B1073" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1073" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1073" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1073" s="5" t="s">
         <v>20</v>
@@ -29791,19 +29825,19 @@
     </row>
     <row r="1074" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1074" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1074" s="24" t="s">
-        <v>150</v>
+        <v>678</v>
+      </c>
+      <c r="B1074" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1074" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1074" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1074" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1074" s="5" t="s">
         <v>8</v>
@@ -29814,80 +29848,80 @@
       <c r="H1074" s="5"/>
     </row>
     <row r="1075" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1075" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="B1075" s="23" t="s">
-        <v>140</v>
+      <c r="A1075" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B1075" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1075" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1075" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1075" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1075" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1075" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1075" s="5"/>
     </row>
     <row r="1076" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1076" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="B1076" s="22" t="s">
-        <v>181</v>
+      <c r="A1076" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1076" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1076" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1076" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E1076" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F1076" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1076" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1076" s="5"/>
     </row>
     <row r="1077" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1077" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="B1077" s="24" t="s">
-        <v>150</v>
+        <v>68</v>
+      </c>
+      <c r="B1077" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1077" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1077" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E1077" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1077" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1077" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1077" s="5"/>
     </row>
     <row r="1078" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1078" s="14" t="s">
-        <v>68</v>
+      <c r="A1078" s="5" t="s">
+        <v>680</v>
       </c>
       <c r="B1078" s="19" t="s">
         <v>224</v>
@@ -29896,10 +29930,10 @@
         <v>11</v>
       </c>
       <c r="D1078" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1078" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1078" s="5" t="s">
         <v>10</v>
@@ -29910,8 +29944,8 @@
       <c r="H1078" s="5"/>
     </row>
     <row r="1079" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1079" s="5" t="s">
-        <v>680</v>
+      <c r="A1079" s="14" t="s">
+        <v>681</v>
       </c>
       <c r="B1079" s="19" t="s">
         <v>224</v>
@@ -29920,7 +29954,7 @@
         <v>11</v>
       </c>
       <c r="D1079" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1079" s="5" t="s">
         <v>14</v>
@@ -29935,19 +29969,19 @@
     </row>
     <row r="1080" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1080" s="19" t="s">
-        <v>224</v>
+        <v>682</v>
+      </c>
+      <c r="B1080" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1080" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1080" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E1080" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1080" s="5" t="s">
         <v>10</v>
@@ -29959,7 +29993,7 @@
     </row>
     <row r="1081" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1081" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1081" s="23" t="s">
         <v>140</v>
@@ -29968,10 +30002,10 @@
         <v>11</v>
       </c>
       <c r="D1081" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1081" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1081" s="5" t="s">
         <v>10</v>
@@ -29983,19 +30017,19 @@
     </row>
     <row r="1082" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1082" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1082" s="23" t="s">
-        <v>140</v>
+        <v>682</v>
+      </c>
+      <c r="B1082" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1082" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1082" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1082" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1082" s="5" t="s">
         <v>10</v>
@@ -30007,7 +30041,7 @@
     </row>
     <row r="1083" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1083" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1083" s="24" t="s">
         <v>150</v>
@@ -30016,34 +30050,34 @@
         <v>11</v>
       </c>
       <c r="D1083" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1083" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1083" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1083" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1083" s="5"/>
     </row>
     <row r="1084" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1084" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1084" s="24" t="s">
-        <v>150</v>
+        <v>183</v>
+      </c>
+      <c r="B1084" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1084" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1084" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1084" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1084" s="5" t="s">
         <v>8</v>
@@ -30057,8 +30091,8 @@
       <c r="A1085" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B1085" s="23" t="s">
-        <v>140</v>
+      <c r="B1085" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1085" s="5" t="s">
         <v>6</v>
@@ -30079,7 +30113,7 @@
     </row>
     <row r="1086" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1086" s="14" t="s">
-        <v>183</v>
+        <v>369</v>
       </c>
       <c r="B1086" s="24" t="s">
         <v>150</v>
@@ -30094,63 +30128,65 @@
         <v>19</v>
       </c>
       <c r="F1086" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1086" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1086" s="5"/>
     </row>
     <row r="1087" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1087" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1087" s="24" t="s">
-        <v>150</v>
+      <c r="A1087" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1087" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1087" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1087" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1087" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F1087" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1087" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1087" s="5"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="1088" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1088" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="B1088" s="19" t="s">
-        <v>224</v>
+        <v>685</v>
+      </c>
+      <c r="B1088" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1088" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1088" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E1088" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1088" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G1088" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="H1088" s="12">
+        <v>89855345345</v>
       </c>
     </row>
     <row r="1089" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1089" s="5" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B1089" s="25" t="s">
         <v>149</v>
@@ -30159,24 +30195,24 @@
         <v>11</v>
       </c>
       <c r="D1089" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1089" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1089" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1089" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1089" s="12">
-        <v>89855345345</v>
+        <v>89171182727</v>
       </c>
     </row>
     <row r="1090" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1090" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B1090" s="25" t="s">
         <v>149</v>
@@ -30185,10 +30221,10 @@
         <v>11</v>
       </c>
       <c r="D1090" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1090" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1090" s="5" t="s">
         <v>10</v>
@@ -30197,12 +30233,12 @@
         <v>8</v>
       </c>
       <c r="H1090" s="12">
-        <v>89171182727</v>
+        <v>89957071757</v>
       </c>
     </row>
     <row r="1091" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1091" s="5" t="s">
-        <v>687</v>
+      <c r="A1091" s="14" t="s">
+        <v>678</v>
       </c>
       <c r="B1091" s="25" t="s">
         <v>149</v>
@@ -30211,24 +30247,24 @@
         <v>11</v>
       </c>
       <c r="D1091" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1091" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1091" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1091" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1091" s="12">
-        <v>89957071757</v>
+        <v>89951975328</v>
       </c>
     </row>
     <row r="1092" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1092" s="14" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B1092" s="25" t="s">
         <v>149</v>
@@ -30249,12 +30285,12 @@
         <v>10</v>
       </c>
       <c r="H1092" s="12">
-        <v>89951975328</v>
+        <v>89122454756</v>
       </c>
     </row>
     <row r="1093" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1093" s="14" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B1093" s="25" t="s">
         <v>149</v>
@@ -30263,24 +30299,24 @@
         <v>11</v>
       </c>
       <c r="D1093" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1093" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1093" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1093" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1093" s="12">
-        <v>89122454756</v>
+        <v>89119858929</v>
       </c>
     </row>
     <row r="1094" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1094" s="14" t="s">
-        <v>674</v>
+      <c r="A1094" s="5" t="s">
+        <v>688</v>
       </c>
       <c r="B1094" s="25" t="s">
         <v>149</v>
@@ -30289,10 +30325,10 @@
         <v>11</v>
       </c>
       <c r="D1094" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1094" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1094" s="5" t="s">
         <v>10</v>
@@ -30301,12 +30337,12 @@
         <v>8</v>
       </c>
       <c r="H1094" s="12">
-        <v>89119858929</v>
+        <v>89150790406</v>
       </c>
     </row>
     <row r="1095" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1095" s="5" t="s">
-        <v>688</v>
+      <c r="A1095" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="B1095" s="25" t="s">
         <v>149</v>
@@ -30315,27 +30351,27 @@
         <v>11</v>
       </c>
       <c r="D1095" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1095" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1095" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1095" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1095" s="12">
-        <v>89150790406</v>
+        <v>89106462846</v>
       </c>
     </row>
     <row r="1096" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1096" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="B1096" s="25" t="s">
-        <v>149</v>
+        <v>689</v>
+      </c>
+      <c r="B1096" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1096" s="5" t="s">
         <v>11</v>
@@ -30352,13 +30388,10 @@
       <c r="G1096" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1096" s="12">
-        <v>89106462846</v>
-      </c>
     </row>
     <row r="1097" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1097" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B1097" s="22" t="s">
         <v>181</v>
@@ -30367,10 +30400,10 @@
         <v>11</v>
       </c>
       <c r="D1097" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1097" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1097" s="5" t="s">
         <v>8</v>
@@ -30381,42 +30414,42 @@
     </row>
     <row r="1098" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1098" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="B1098" s="22" t="s">
-        <v>181</v>
+        <v>691</v>
+      </c>
+      <c r="B1098" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1098" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1098" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1098" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1098" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1098" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1099" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1099" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="B1099" s="19" t="s">
-        <v>224</v>
+        <v>689</v>
+      </c>
+      <c r="B1099" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1099" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1099" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E1099" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1099" s="5" t="s">
         <v>10</v>
@@ -30426,8 +30459,8 @@
       </c>
     </row>
     <row r="1100" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1100" s="14" t="s">
-        <v>689</v>
+      <c r="A1100" s="5" t="s">
+        <v>692</v>
       </c>
       <c r="B1100" s="24" t="s">
         <v>150</v>
@@ -30436,21 +30469,21 @@
         <v>11</v>
       </c>
       <c r="D1100" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1100" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F1100" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1100" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1101" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1101" s="5" t="s">
-        <v>692</v>
+      <c r="A1101" s="14" t="s">
+        <v>693</v>
       </c>
       <c r="B1101" s="24" t="s">
         <v>150</v>
@@ -30459,7 +30492,7 @@
         <v>11</v>
       </c>
       <c r="D1101" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1101" s="5" t="s">
         <v>19</v>
@@ -30473,7 +30506,7 @@
     </row>
     <row r="1102" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1102" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B1102" s="24" t="s">
         <v>150</v>
@@ -30482,21 +30515,21 @@
         <v>11</v>
       </c>
       <c r="D1102" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1102" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1102" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1102" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1103" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1103" s="14" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B1103" s="24" t="s">
         <v>150</v>
@@ -30505,7 +30538,7 @@
         <v>11</v>
       </c>
       <c r="D1103" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1103" s="5" t="s">
         <v>20</v>
@@ -30519,7 +30552,7 @@
     </row>
     <row r="1104" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1104" s="14" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B1104" s="24" t="s">
         <v>150</v>
@@ -30528,44 +30561,44 @@
         <v>11</v>
       </c>
       <c r="D1104" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1104" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1104" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1104" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1105" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1105" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="B1105" s="24" t="s">
-        <v>150</v>
+        <v>695</v>
+      </c>
+      <c r="B1105" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1105" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1105" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F1105" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1105" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1106" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1106" s="14" t="s">
-        <v>695</v>
+      <c r="A1106" s="5" t="s">
+        <v>696</v>
       </c>
       <c r="B1106" s="22" t="s">
         <v>181</v>
@@ -30574,10 +30607,10 @@
         <v>6</v>
       </c>
       <c r="D1106" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1106" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1106" s="5" t="s">
         <v>10</v>
@@ -30588,19 +30621,19 @@
     </row>
     <row r="1107" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1107" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="B1107" s="22" t="s">
-        <v>181</v>
+        <v>697</v>
+      </c>
+      <c r="B1107" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1107" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1107" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1107" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1107" s="5" t="s">
         <v>10</v>
@@ -30610,8 +30643,8 @@
       </c>
     </row>
     <row r="1108" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1108" s="5" t="s">
-        <v>697</v>
+      <c r="A1108" s="14" t="s">
+        <v>551</v>
       </c>
       <c r="B1108" s="19" t="s">
         <v>224</v>
@@ -30623,7 +30656,7 @@
         <v>7</v>
       </c>
       <c r="E1108" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1108" s="5" t="s">
         <v>10</v>
@@ -30634,7 +30667,7 @@
     </row>
     <row r="1109" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1109" s="14" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="B1109" s="19" t="s">
         <v>224</v>
@@ -30646,18 +30679,18 @@
         <v>7</v>
       </c>
       <c r="E1109" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1109" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1109" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1110" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1110" s="14" t="s">
-        <v>514</v>
+      <c r="A1110" s="5" t="s">
+        <v>698</v>
       </c>
       <c r="B1110" s="19" t="s">
         <v>224</v>
@@ -30672,15 +30705,16 @@
         <v>15</v>
       </c>
       <c r="F1110" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1110" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H1110" s="5"/>
     </row>
     <row r="1111" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1111" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B1111" s="19" t="s">
         <v>224</v>
@@ -30689,10 +30723,10 @@
         <v>6</v>
       </c>
       <c r="D1111" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1111" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1111" s="5" t="s">
         <v>10</v>
@@ -30703,20 +30737,20 @@
       <c r="H1111" s="5"/>
     </row>
     <row r="1112" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1112" s="5" t="s">
-        <v>699</v>
+      <c r="A1112" s="14" t="s">
+        <v>635</v>
       </c>
       <c r="B1112" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E1112" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1112" s="5" t="s">
         <v>10</v>
@@ -30728,25 +30762,25 @@
     </row>
     <row r="1113" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1113" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="B1113" s="19" t="s">
-        <v>224</v>
+        <v>700</v>
+      </c>
+      <c r="B1113" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1113" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E1113" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1113" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1113" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1113" s="5"/>
     </row>
@@ -30754,29 +30788,29 @@
       <c r="A1114" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="B1114" s="22" t="s">
-        <v>181</v>
+      <c r="B1114" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1114" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1114" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1114" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F1114" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1114" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1114" s="5"/>
     </row>
     <row r="1115" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1115" s="14" t="s">
-        <v>700</v>
+      <c r="A1115" s="5" t="s">
+        <v>701</v>
       </c>
       <c r="B1115" s="23" t="s">
         <v>140</v>
@@ -30788,7 +30822,7 @@
         <v>17</v>
       </c>
       <c r="E1115" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1115" s="5" t="s">
         <v>10</v>
@@ -30799,8 +30833,8 @@
       <c r="H1115" s="5"/>
     </row>
     <row r="1116" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1116" s="5" t="s">
-        <v>701</v>
+      <c r="A1116" s="14" t="s">
+        <v>430</v>
       </c>
       <c r="B1116" s="23" t="s">
         <v>140</v>
@@ -30809,58 +30843,58 @@
         <v>6</v>
       </c>
       <c r="D1116" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1116" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F1116" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1116" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1116" s="5"/>
     </row>
     <row r="1117" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1117" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1117" s="23" t="s">
-        <v>140</v>
+        <v>243</v>
+      </c>
+      <c r="B1117" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1117" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1117" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1117" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1117" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1117" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1117" s="5"/>
     </row>
     <row r="1118" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1118" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B1118" s="24" t="s">
-        <v>150</v>
+        <v>697</v>
+      </c>
+      <c r="B1118" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1118" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1118" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1118" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F1118" s="5" t="s">
         <v>10</v>
@@ -30872,19 +30906,19 @@
     </row>
     <row r="1119" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1119" s="14" t="s">
-        <v>697</v>
-      </c>
-      <c r="B1119" s="22" t="s">
-        <v>181</v>
+        <v>206</v>
+      </c>
+      <c r="B1119" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1119" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1119" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E1119" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F1119" s="5" t="s">
         <v>10</v>
@@ -30896,7 +30930,7 @@
     </row>
     <row r="1120" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1120" s="14" t="s">
-        <v>206</v>
+        <v>651</v>
       </c>
       <c r="B1120" s="23" t="s">
         <v>140</v>
@@ -30908,31 +30942,31 @@
         <v>17</v>
       </c>
       <c r="E1120" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1120" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1120" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1120" s="5"/>
     </row>
     <row r="1121" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1121" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="B1121" s="23" t="s">
-        <v>140</v>
+        <v>197</v>
+      </c>
+      <c r="B1121" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1121" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1121" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1121" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1121" s="5" t="s">
         <v>8</v>
@@ -30944,49 +30978,49 @@
     </row>
     <row r="1122" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1122" s="14" t="s">
-        <v>197</v>
+        <v>602</v>
       </c>
       <c r="B1122" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1122" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1122" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1122" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1122" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1122" s="5"/>
     </row>
     <row r="1123" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1123" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1123" s="24" t="s">
-        <v>150</v>
+        <v>340</v>
+      </c>
+      <c r="B1123" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1123" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1123" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1123" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1123" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1123" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1123" s="5"/>
     </row>
@@ -30994,17 +31028,17 @@
       <c r="A1124" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B1124" s="23" t="s">
-        <v>140</v>
+      <c r="B1124" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1124" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1124" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1124" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1124" s="5" t="s">
         <v>8</v>
@@ -31016,10 +31050,10 @@
     </row>
     <row r="1125" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1125" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1125" s="24" t="s">
-        <v>150</v>
+        <v>613</v>
+      </c>
+      <c r="B1125" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1125" s="5" t="s">
         <v>11</v>
@@ -31031,16 +31065,16 @@
         <v>21</v>
       </c>
       <c r="F1125" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1125" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1125" s="5"/>
     </row>
     <row r="1126" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1126" s="14" t="s">
-        <v>613</v>
+        <v>216</v>
       </c>
       <c r="B1126" s="23" t="s">
         <v>140</v>
@@ -31049,7 +31083,7 @@
         <v>11</v>
       </c>
       <c r="D1126" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1126" s="5" t="s">
         <v>21</v>
@@ -31064,7 +31098,7 @@
     </row>
     <row r="1127" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1127" s="14" t="s">
-        <v>216</v>
+        <v>692</v>
       </c>
       <c r="B1127" s="23" t="s">
         <v>140</v>
@@ -31073,10 +31107,10 @@
         <v>11</v>
       </c>
       <c r="D1127" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1127" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1127" s="5" t="s">
         <v>10</v>
@@ -31088,10 +31122,10 @@
     </row>
     <row r="1128" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1128" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="B1128" s="23" t="s">
-        <v>140</v>
+        <v>535</v>
+      </c>
+      <c r="B1128" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1128" s="5" t="s">
         <v>11</v>
@@ -31100,7 +31134,7 @@
         <v>17</v>
       </c>
       <c r="E1128" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1128" s="5" t="s">
         <v>10</v>
@@ -31112,7 +31146,7 @@
     </row>
     <row r="1129" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1129" s="14" t="s">
-        <v>535</v>
+        <v>331</v>
       </c>
       <c r="B1129" s="24" t="s">
         <v>150</v>
@@ -31136,31 +31170,31 @@
     </row>
     <row r="1130" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1130" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1130" s="24" t="s">
-        <v>150</v>
+        <v>240</v>
+      </c>
+      <c r="B1130" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1130" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1130" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1130" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1130" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1130" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1130" s="5"/>
     </row>
     <row r="1131" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1131" s="14" t="s">
-        <v>240</v>
+      <c r="A1131" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="B1131" s="22" t="s">
         <v>181</v>
@@ -31169,7 +31203,7 @@
         <v>11</v>
       </c>
       <c r="D1131" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1131" s="5" t="s">
         <v>15</v>
@@ -31183,8 +31217,8 @@
       <c r="H1131" s="5"/>
     </row>
     <row r="1132" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1132" s="5" t="s">
-        <v>702</v>
+      <c r="A1132" s="14" t="s">
+        <v>703</v>
       </c>
       <c r="B1132" s="22" t="s">
         <v>181</v>
@@ -31193,22 +31227,22 @@
         <v>11</v>
       </c>
       <c r="D1132" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1132" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1132" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1132" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1132" s="5"/>
     </row>
     <row r="1133" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1133" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B1133" s="22" t="s">
         <v>181</v>
@@ -31217,10 +31251,10 @@
         <v>11</v>
       </c>
       <c r="D1133" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1133" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1133" s="5" t="s">
         <v>10</v>
@@ -31232,31 +31266,31 @@
     </row>
     <row r="1134" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1134" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B1134" s="22" t="s">
-        <v>181</v>
+        <v>703</v>
+      </c>
+      <c r="B1134" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1134" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1134" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1134" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F1134" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1134" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1134" s="5"/>
     </row>
     <row r="1135" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1135" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B1135" s="24" t="s">
         <v>150</v>
@@ -31265,92 +31299,91 @@
         <v>11</v>
       </c>
       <c r="D1135" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1135" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1135" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1135" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1135" s="5"/>
     </row>
     <row r="1136" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1136" s="14" t="s">
-        <v>704</v>
+        <v>253</v>
       </c>
       <c r="B1136" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1136" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1136" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1136" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1136" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1136" s="5"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="1137" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1137" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1137" s="24" t="s">
+      <c r="A1137" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1137" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1137" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1137" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1137" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1138" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1138" s="24" t="s">
         <v>150</v>
-      </c>
-      <c r="C1137" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1137" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1137" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1137" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1137" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1138" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="B1138" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="C1138" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1138" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1138" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F1138" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1138" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1139" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1139" s="14" t="s">
-        <v>218</v>
+        <v>702</v>
       </c>
       <c r="B1139" s="24" t="s">
         <v>150</v>
@@ -31359,56 +31392,56 @@
         <v>11</v>
       </c>
       <c r="D1139" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1139" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1139" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1139" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1140" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1140" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1140" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1140" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1140" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1140" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1141" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1141" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1141" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1141" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="F1139" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1139" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1140" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="B1140" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1140" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1140" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1140" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1140" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1140" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1141" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="B1141" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1141" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1141" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1141" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="F1141" s="5" t="s">
         <v>8</v>
@@ -31419,10 +31452,10 @@
     </row>
     <row r="1142" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1142" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1142" s="23" t="s">
-        <v>140</v>
+        <v>308</v>
+      </c>
+      <c r="B1142" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1142" s="5" t="s">
         <v>6</v>
@@ -31431,30 +31464,30 @@
         <v>18</v>
       </c>
       <c r="E1142" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1142" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1142" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1143" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1143" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1143" s="24" t="s">
-        <v>150</v>
+      <c r="A1143" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1143" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1143" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1143" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F1143" s="5" t="s">
         <v>10</v>
@@ -31464,20 +31497,20 @@
       </c>
     </row>
     <row r="1144" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1144" s="5" t="s">
-        <v>707</v>
+      <c r="A1144" s="14" t="s">
+        <v>683</v>
       </c>
       <c r="B1144" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1144" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1144" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1144" s="5" t="s">
         <v>10</v>
@@ -31488,30 +31521,30 @@
     </row>
     <row r="1145" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1145" s="14" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="B1145" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1145" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1145" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1145" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1145" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1146" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1146" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B1146" s="22" t="s">
         <v>181</v>
@@ -31520,10 +31553,10 @@
         <v>11</v>
       </c>
       <c r="D1146" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1146" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1146" s="5" t="s">
         <v>8</v>
@@ -31534,7 +31567,7 @@
     </row>
     <row r="1147" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1147" s="14" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B1147" s="22" t="s">
         <v>181</v>
@@ -31543,33 +31576,33 @@
         <v>11</v>
       </c>
       <c r="D1147" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1147" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1147" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1147" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1148" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1148" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="B1148" s="22" t="s">
-        <v>181</v>
+      <c r="A1148" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1148" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1148" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1148" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1148" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1148" s="5" t="s">
         <v>10</v>
@@ -31579,8 +31612,8 @@
       </c>
     </row>
     <row r="1149" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1149" s="5" t="s">
-        <v>711</v>
+      <c r="A1149" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="B1149" s="19" t="s">
         <v>224</v>
@@ -31595,38 +31628,39 @@
         <v>13</v>
       </c>
       <c r="F1149" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1149" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1150" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1150" s="14" t="s">
-        <v>709</v>
+        <v>480</v>
       </c>
       <c r="B1150" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1150" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1150" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1150" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1150" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H1150" s="5"/>
     </row>
     <row r="1151" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1151" s="14" t="s">
-        <v>480</v>
+      <c r="A1151" s="5" t="s">
+        <v>712</v>
       </c>
       <c r="B1151" s="19" t="s">
         <v>224</v>
@@ -31635,7 +31669,7 @@
         <v>6</v>
       </c>
       <c r="D1151" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1151" s="5" t="s">
         <v>13</v>
@@ -31650,7 +31684,7 @@
     </row>
     <row r="1152" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1152" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B1152" s="19" t="s">
         <v>224</v>
@@ -31659,10 +31693,10 @@
         <v>6</v>
       </c>
       <c r="D1152" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1152" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1152" s="5" t="s">
         <v>10</v>
@@ -31674,7 +31708,7 @@
     </row>
     <row r="1153" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1153" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B1153" s="19" t="s">
         <v>224</v>
@@ -31683,10 +31717,10 @@
         <v>6</v>
       </c>
       <c r="D1153" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1153" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1153" s="5" t="s">
         <v>10</v>
@@ -31698,13 +31732,13 @@
     </row>
     <row r="1154" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1154" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B1154" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1154" s="5" t="s">
         <v>9</v>
@@ -31722,7 +31756,7 @@
     </row>
     <row r="1155" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1155" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B1155" s="19" t="s">
         <v>224</v>
@@ -31734,7 +31768,7 @@
         <v>9</v>
       </c>
       <c r="E1155" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1155" s="5" t="s">
         <v>10</v>
@@ -31746,7 +31780,7 @@
     </row>
     <row r="1156" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1156" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B1156" s="19" t="s">
         <v>224</v>
@@ -31755,34 +31789,34 @@
         <v>11</v>
       </c>
       <c r="D1156" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1156" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1156" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1156" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1156" s="5"/>
     </row>
     <row r="1157" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1157" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1157" s="19" t="s">
-        <v>224</v>
+        <v>718</v>
+      </c>
+      <c r="B1157" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1157" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1157" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1157" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1157" s="5" t="s">
         <v>8</v>
@@ -31793,32 +31827,32 @@
       <c r="H1157" s="5"/>
     </row>
     <row r="1158" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1158" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="B1158" s="22" t="s">
-        <v>181</v>
+      <c r="A1158" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1158" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1158" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1158" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E1158" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1158" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1158" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1158" s="5"/>
     </row>
     <row r="1159" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1159" s="14" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="B1159" s="24" t="s">
         <v>150</v>
@@ -31827,7 +31861,7 @@
         <v>11</v>
       </c>
       <c r="D1159" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1159" s="5" t="s">
         <v>20</v>
@@ -31842,7 +31876,7 @@
     </row>
     <row r="1160" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1160" s="14" t="s">
-        <v>719</v>
+        <v>616</v>
       </c>
       <c r="B1160" s="24" t="s">
         <v>150</v>
@@ -31854,55 +31888,54 @@
         <v>18</v>
       </c>
       <c r="E1160" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1160" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1160" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1160" s="5"/>
     </row>
     <row r="1161" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1161" s="14" t="s">
-        <v>616</v>
-      </c>
-      <c r="B1161" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1161" s="5" t="s">
+      <c r="A1161" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1161" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1161" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1161" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1161" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1161" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1162" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1162" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1162" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D1161" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1161" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1161" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1161" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1161" s="5"/>
-    </row>
-    <row r="1162" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1162" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="B1162" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1162" s="26" t="s">
-        <v>6</v>
       </c>
       <c r="D1162" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E1162" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1162" s="5" t="s">
         <v>10</v>
@@ -31913,7 +31946,7 @@
     </row>
     <row r="1163" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1163" s="5" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B1163" s="19" t="s">
         <v>224</v>
@@ -31922,7 +31955,7 @@
         <v>11</v>
       </c>
       <c r="D1163" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1163" s="5" t="s">
         <v>15</v>
@@ -31936,7 +31969,7 @@
     </row>
     <row r="1164" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1164" s="5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B1164" s="19" t="s">
         <v>224</v>
@@ -31945,10 +31978,10 @@
         <v>11</v>
       </c>
       <c r="D1164" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1164" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1164" s="5" t="s">
         <v>10</v>
@@ -31959,7 +31992,7 @@
     </row>
     <row r="1165" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1165" s="5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B1165" s="19" t="s">
         <v>224</v>
@@ -31982,10 +32015,10 @@
     </row>
     <row r="1166" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1166" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="B1166" s="19" t="s">
-        <v>224</v>
+        <v>725</v>
+      </c>
+      <c r="B1166" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1166" s="5" t="s">
         <v>11</v>
@@ -31994,18 +32027,18 @@
         <v>7</v>
       </c>
       <c r="E1166" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1166" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1166" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1167" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1167" s="5" t="s">
-        <v>725</v>
+      <c r="A1167" s="14" t="s">
+        <v>726</v>
       </c>
       <c r="B1167" s="22" t="s">
         <v>181</v>
@@ -32014,33 +32047,33 @@
         <v>11</v>
       </c>
       <c r="D1167" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1167" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1167" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1167" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1168" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1168" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1168" s="22" t="s">
-        <v>181</v>
+      <c r="A1168" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B1168" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1168" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1168" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1168" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1168" s="5" t="s">
         <v>10</v>
@@ -32049,9 +32082,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1169" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1169" s="5" t="s">
-        <v>727</v>
+    <row r="1169" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1169" s="14" t="s">
+        <v>726</v>
       </c>
       <c r="B1169" s="19" t="s">
         <v>224</v>
@@ -32060,30 +32093,30 @@
         <v>11</v>
       </c>
       <c r="D1169" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1169" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1169" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1169" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1170" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1170" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1170" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1170" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E1169" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1169" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1169" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1170" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1170" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1170" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1170" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="E1170" s="5" t="s">
         <v>15</v>
@@ -32095,9 +32128,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1171" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1171" s="14" t="s">
-        <v>701</v>
+    <row r="1171" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1171" s="5" t="s">
+        <v>728</v>
       </c>
       <c r="B1171" s="22" t="s">
         <v>181</v>
@@ -32106,21 +32139,21 @@
         <v>6</v>
       </c>
       <c r="D1171" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1171" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1171" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1171" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1172" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B1172" s="22" t="s">
         <v>181</v>
@@ -32129,27 +32162,27 @@
         <v>6</v>
       </c>
       <c r="D1172" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1172" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1172" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1172" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1173" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="B1173" s="22" t="s">
-        <v>181</v>
+        <v>730</v>
+      </c>
+      <c r="B1173" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1173" s="5" t="s">
         <v>12</v>
@@ -32164,38 +32197,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1174" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="B1174" s="19" t="s">
-        <v>224</v>
+        <v>731</v>
+      </c>
+      <c r="B1174" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1174" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1174" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1174" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1174" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1175" s="5" t="s">
-        <v>731</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1175" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="B1175" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1175" s="5" t="s">
         <v>7</v>
@@ -32210,9 +32243,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1176" s="14" t="s">
-        <v>680</v>
+    <row r="1176" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1176" s="5" t="s">
+        <v>732</v>
       </c>
       <c r="B1176" s="22" t="s">
         <v>181</v>
@@ -32224,18 +32257,18 @@
         <v>7</v>
       </c>
       <c r="E1176" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1176" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1176" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1177" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B1177" s="22" t="s">
         <v>181</v>
@@ -32244,33 +32277,33 @@
         <v>11</v>
       </c>
       <c r="D1177" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1177" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1177" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1177" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1178" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="B1178" s="22" t="s">
-        <v>181</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1178" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B1178" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1178" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1178" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E1178" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1178" s="5" t="s">
         <v>10</v>
@@ -32279,9 +32312,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1179" s="14" t="s">
-        <v>734</v>
+    <row r="1179" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1179" s="5" t="s">
+        <v>735</v>
       </c>
       <c r="B1179" s="24" t="s">
         <v>150</v>
@@ -32293,40 +32326,537 @@
         <v>18</v>
       </c>
       <c r="E1179" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1179" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1179" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1180" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="B1180" s="24" t="s">
-        <v>150</v>
+        <v>736</v>
+      </c>
+      <c r="B1180" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1180" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1180" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1180" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1180" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1180" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1180" s="12">
+        <v>89190006120</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1181" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B1181" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1181" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1180" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1180" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1180" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1180" s="5" t="s">
-        <v>10</v>
+      <c r="D1181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1181" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1181" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1181" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1181" s="12">
+        <v>89773988089</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1182" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="B1182" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1182" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1182" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1182" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1182" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1182" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1182" s="12">
+        <v>79854366688</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1183" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="B1183" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1183" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1183" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1183" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1183" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1183" s="12">
+        <v>89217778272</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1184" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1184" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1184" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1184" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1184" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1184" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1184" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1184" s="12">
+        <v>89173405367</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1185" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B1185" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1185" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1185" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1185" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1185" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1185" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1185" s="12">
+        <v>89874020142</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1186" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1186" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1186" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1186" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1186" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1186" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1186" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1186" s="12" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1187" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1187" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1187" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1187" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1187" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1187" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1187" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1187" s="12">
+        <v>89161882230</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1188" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1188" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1188" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1188" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1188" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1188" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1188" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1188" s="12">
+        <v>7987414616</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1189" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B1189" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1189" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1189" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1189" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1189" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1189" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1189" s="12">
+        <v>89151501549</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1190" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1190" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1190" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1190" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1190" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1190" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1190" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1190" s="12">
+        <v>89850195180</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1191" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1191" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1191" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1191" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1191" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1191" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1191" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1191" s="12">
+        <v>89857379635</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1192" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1192" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1192" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1192" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1192" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1192" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1192" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1192" s="12">
+        <v>89153120548</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1193" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1193" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1193" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1193" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1193" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1193" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1193" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1193" s="12">
+        <v>89895018181</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1194" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1194" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1194" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1194" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1194" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1194" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1194" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1194" s="12">
+        <v>89165923109</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1195" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B1195" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1195" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1195" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1195" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1195" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1195" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1195" s="12">
+        <v>89104888338</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1196" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="B1196" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1196" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1196" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1196" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1196" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1196" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1196" s="12">
+        <v>89175324430</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1197" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1197" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1197" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1197" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1197" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1197" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1197" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1197" s="12">
+        <v>79119135035</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1198" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1198" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1198" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1198" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1198" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1198" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1198" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1198" s="12">
+        <v>89161192751</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1199" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B1199" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1199" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1199" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1199" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1199" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1199" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1199" s="12">
+        <v>89174065790</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1070" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H1069" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8D569D-5AED-4B2C-B610-A36AC06CAE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52741BEF-8A7B-420B-99A2-3C4738A7F05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2280" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8476" uniqueCount="752">
   <si>
     <t>ФИО</t>
   </si>
@@ -3176,6 +3176,18 @@
   </si>
   <si>
     <t>Злобин Сергей Владимирович</t>
+  </si>
+  <si>
+    <t>Петрова Екатерина Владимировна</t>
+  </si>
+  <si>
+    <t>Романова Ирина Николаевна</t>
+  </si>
+  <si>
+    <t>Попова Мариян Рамазановна</t>
+  </si>
+  <si>
+    <t>Коваленко Александр Анатольевич</t>
   </si>
 </sst>
 </file>
@@ -3672,10 +3684,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1199"/>
+  <dimension ref="A1:H1204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A981" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A981" sqref="A981:XFD981"/>
+    <sheetView tabSelected="1" topLeftCell="A1188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1200" sqref="A1200:G1204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32853,6 +32865,121 @@
       </c>
       <c r="H1199" s="12">
         <v>89174065790</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1200" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1200" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1200" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1200" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1200" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1200" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1200" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1201" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1201" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1201" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1201" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1201" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1201" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1201" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1202" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B1202" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1202" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1202" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1202" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1202" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1202" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1203" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1203" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1203" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1203" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1203" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1203" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1203" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1204" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1204" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1204" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1204" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1204" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1204" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1204" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52741BEF-8A7B-420B-99A2-3C4738A7F05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D805C6B4-CE39-469E-BA96-BF20618585F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2280" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8476" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8581" uniqueCount="761">
   <si>
     <t>ФИО</t>
   </si>
@@ -3188,6 +3188,33 @@
   </si>
   <si>
     <t>Коваленко Александр Анатольевич</t>
+  </si>
+  <si>
+    <t>Федяшова Ольга Евгеньевна</t>
+  </si>
+  <si>
+    <t>Каретникова Наталия Александровна</t>
+  </si>
+  <si>
+    <t>Притыкин Роман Николаевич</t>
+  </si>
+  <si>
+    <t>Гришин Алексей Михайлович</t>
+  </si>
+  <si>
+    <t>Марышева Наталья Викторовна</t>
+  </si>
+  <si>
+    <t>Евстафиевская Татьяна Вячеславовна</t>
+  </si>
+  <si>
+    <t>Жилина Юлия Александровна</t>
+  </si>
+  <si>
+    <t>Щербакова Вероника Владимировна</t>
+  </si>
+  <si>
+    <t>Хржчанович Ольга Альбертовна</t>
   </si>
 </sst>
 </file>
@@ -3268,7 +3295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3347,6 +3374,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3390,7 +3423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3466,6 +3499,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3684,10 +3720,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1204"/>
+  <dimension ref="A1:H1219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1200" sqref="A1200:G1204"/>
+    <sheetView tabSelected="1" topLeftCell="A1203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1205" sqref="A1205:G1219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32980,6 +33016,351 @@
       </c>
       <c r="G1204" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1205" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1205" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1205" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1205" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1205" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1205" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1205" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1206" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1206" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1206" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1206" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1206" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1206" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1206" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1207" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1207" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1207" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1207" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1207" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1207" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1207" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1208" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B1208" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1208" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1208" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1208" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1208" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1208" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1209" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1209" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1209" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1209" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1209" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1209" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1209" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1210" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1210" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1210" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1210" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1210" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1210" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1210" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1211" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B1211" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1211" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1211" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1211" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1211" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1211" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1212" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="B1212" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1212" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1212" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1212" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1212" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1212" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1213" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B1213" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1213" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1213" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1213" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1213" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1213" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1214" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="B1214" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1214" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1214" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1214" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1214" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1214" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1215" s="27" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1215" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1215" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1215" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1215" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1215" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1215" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1216" s="27" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1216" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1216" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1216" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1216" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1216" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1216" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1217" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B1217" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1217" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1217" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1217" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1217" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1217" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1218" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1218" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1218" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1218" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1218" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1218" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1218" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1219" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="B1219" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1219" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1219" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1219" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1219" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1219" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D805C6B4-CE39-469E-BA96-BF20618585F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFB54A3-3DD5-4CC3-881A-F2711E0DFA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2280" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8581" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8644" uniqueCount="768">
   <si>
     <t>ФИО</t>
   </si>
@@ -3215,6 +3215,27 @@
   </si>
   <si>
     <t>Хржчанович Ольга Альбертовна</t>
+  </si>
+  <si>
+    <t>Медведева Алина Алексеевна</t>
+  </si>
+  <si>
+    <t>Малов Алексей Иванович</t>
+  </si>
+  <si>
+    <t>Мазалева Ольга Аркпдьевна</t>
+  </si>
+  <si>
+    <t>Третьякова Елена Евгеньевна</t>
+  </si>
+  <si>
+    <t>Балмашева Ирина Николаевна</t>
+  </si>
+  <si>
+    <t>Сокольникова Олеся Дмитриевна</t>
+  </si>
+  <si>
+    <t>Грекова Ольга Сергеевна</t>
   </si>
 </sst>
 </file>
@@ -3720,10 +3741,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1219"/>
+  <dimension ref="A1:H1228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1205" sqref="A1205:G1219"/>
+    <sheetView tabSelected="1" topLeftCell="A1212" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1220" sqref="A1220:H1228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33294,7 +33315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1217" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1217" s="5" t="s">
         <v>760</v>
       </c>
@@ -33317,7 +33338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1218" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1218" s="14" t="s">
         <v>751</v>
       </c>
@@ -33340,7 +33361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1219" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1219" s="14" t="s">
         <v>728</v>
       </c>
@@ -33361,6 +33382,240 @@
       </c>
       <c r="G1219" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1220" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1220" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1220" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1220" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1220" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1220" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1220" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1220" s="12">
+        <v>89801592439</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1221" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B1221" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1221" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1221" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1221" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1221" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1221" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1221" s="12">
+        <v>89819131532</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1222" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1222" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1222" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1222" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1222" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1222" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1222" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1222" s="12">
+        <v>89854584952</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1223" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B1223" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1223" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1223" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1223" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1223" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1223" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1223" s="12">
+        <v>89157515179</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1224" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1224" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1224" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1224" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1224" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1224" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1224" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1224" s="12">
+        <v>89817682243</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1225" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1225" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1225" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1225" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1225" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1225" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1225" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1225" s="12">
+        <v>89139231988</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1226" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1226" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1226" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1226" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1226" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1226" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1226" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1226" s="12">
+        <v>89111191238</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1227" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B1227" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1227" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1227" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1227" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1227" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1227" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1227" s="12">
+        <v>89149066211</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1228" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B1228" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1228" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1228" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1228" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1228" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1228" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1228" s="12">
+        <v>89117192363</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFB54A3-3DD5-4CC3-881A-F2711E0DFA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51C2477-6234-4187-89EB-2ABB64426272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2280" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8644" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8924" uniqueCount="791">
   <si>
     <t>ФИО</t>
   </si>
@@ -3236,6 +3236,75 @@
   </si>
   <si>
     <t>Грекова Ольга Сергеевна</t>
+  </si>
+  <si>
+    <t>Куликов Владислав Сергеевич</t>
+  </si>
+  <si>
+    <t>Горб Антон Сергеевич</t>
+  </si>
+  <si>
+    <t>Танагоз Андрей Сергеевич</t>
+  </si>
+  <si>
+    <t>Чурсина Людмила Сергеевна</t>
+  </si>
+  <si>
+    <t>Дементьев Сергей Александрович</t>
+  </si>
+  <si>
+    <t>Евдокимова Марина Георгиевна</t>
+  </si>
+  <si>
+    <t>Глушков Алексей Евгеньевич</t>
+  </si>
+  <si>
+    <t>Дынер Ирина Александровна</t>
+  </si>
+  <si>
+    <t>Курындин Иван Сергеевич</t>
+  </si>
+  <si>
+    <t>Павлов Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Счастный Артем Юрьевич</t>
+  </si>
+  <si>
+    <t>Чубаркаев Марат Хайдарович</t>
+  </si>
+  <si>
+    <t>Привалова Ольга Сергеевна</t>
+  </si>
+  <si>
+    <t>Ларцева Елена Борисовна</t>
+  </si>
+  <si>
+    <t>Громов Павел Вячеславович</t>
+  </si>
+  <si>
+    <t>Муравьева Маргарита Артуровна</t>
+  </si>
+  <si>
+    <t>Золотарев Александр Анатольевич</t>
+  </si>
+  <si>
+    <t>Коржова Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>Ульнова Елена Витальевна</t>
+  </si>
+  <si>
+    <t>Каретникова Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>Щеняева Елена Викторовна</t>
+  </si>
+  <si>
+    <t>Колпикова Юлия Александровна</t>
+  </si>
+  <si>
+    <t>Иванова Анна Николаевна</t>
   </si>
 </sst>
 </file>
@@ -3741,10 +3810,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1228"/>
+  <dimension ref="A1:H1268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1212" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1220" sqref="A1220:H1228"/>
+    <sheetView tabSelected="1" topLeftCell="A1224" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1229" sqref="A1229:G1268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33616,6 +33685,926 @@
       </c>
       <c r="H1228" s="12">
         <v>89117192363</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1229" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1229" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1229" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1229" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1229" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1229" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1229" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1230" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1230" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1230" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1230" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1230" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1230" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1230" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1231" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1231" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1231" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1231" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1231" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1231" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1231" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1232" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="B1232" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1232" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1232" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1232" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1232" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1232" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1233" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1233" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1233" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1233" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1233" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1233" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1233" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1234" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="B1234" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1234" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1234" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1234" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1234" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1234" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1235" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="B1235" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1235" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1235" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1235" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1235" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1235" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1236" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1236" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1236" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1236" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1236" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1236" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1236" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1237" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1237" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1237" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1237" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1237" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1237" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1237" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1238" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1238" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1238" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1238" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1238" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1238" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1238" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1239" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1239" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1239" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1239" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1239" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1239" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1239" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1240" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1240" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1240" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1240" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1240" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1240" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1240" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1241" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1241" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1241" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1241" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1241" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1241" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1241" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1242" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1242" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1242" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1242" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1242" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1242" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1242" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1243" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1243" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1243" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1243" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1243" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1243" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1243" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1244" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1244" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1244" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1244" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1244" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1244" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1244" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1245" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1245" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1245" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1245" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1245" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1245" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1245" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1246" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B1246" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1246" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1246" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1246" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1246" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1246" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1247" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B1247" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1247" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1247" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1247" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1247" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1247" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1248" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B1248" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1248" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1248" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1248" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1248" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1248" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1249" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B1249" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1249" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1249" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1249" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1249" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1249" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1250" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="B1250" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1250" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1250" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1250" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1250" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1250" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1251" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B1251" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1251" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1251" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1251" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1251" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1251" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1252" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="B1252" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1252" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1252" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1252" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1252" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1252" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1253" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B1253" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1253" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1253" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1253" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1253" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1253" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1254" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="B1254" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1254" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1254" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1254" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1254" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1254" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1255" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B1255" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1255" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1255" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1255" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1255" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1255" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1256" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="B1256" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1256" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1256" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1256" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1256" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1256" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1257" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B1257" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1257" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1257" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1257" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1257" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1257" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1258" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1258" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1258" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1258" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1258" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1258" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1258" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1259" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1259" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1259" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1259" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1259" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1259" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1259" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1260" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1260" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1260" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1260" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1260" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1260" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1260" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1261" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1261" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1261" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1261" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1261" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1261" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1261" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1262" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1262" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1262" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1262" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1262" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1262" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1262" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1263" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1263" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1263" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1263" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1263" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1263" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1263" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1264" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1264" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1264" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1264" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1264" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1264" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1264" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1265" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1265" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1265" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1265" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1265" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1265" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1265" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1266" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1266" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1266" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1266" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1266" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1266" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1266" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1267" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1267" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1267" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1267" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1267" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1267" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1267" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1268" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1268" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1268" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1268" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1268" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1268" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1268" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51C2477-6234-4187-89EB-2ABB64426272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371F7F07-46D3-46FE-9F64-C9FA908783F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2280" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8924" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8952" uniqueCount="794">
   <si>
     <t>ФИО</t>
   </si>
@@ -3305,6 +3305,15 @@
   </si>
   <si>
     <t>Иванова Анна Николаевна</t>
+  </si>
+  <si>
+    <t>Гершман Игорь Рудольфович</t>
+  </si>
+  <si>
+    <t>Лысякова Светлана Ивановна</t>
+  </si>
+  <si>
+    <t>Хуснутдинова Зифа Мавлютовна</t>
   </si>
 </sst>
 </file>
@@ -3810,10 +3819,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1268"/>
+  <dimension ref="A1:H1272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1224" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1229" sqref="A1229:G1268"/>
+    <sheetView tabSelected="1" topLeftCell="A1263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1269" sqref="A1269:G1272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33780,7 +33789,7 @@
       </c>
     </row>
     <row r="1233" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1233" s="14" t="s">
+      <c r="A1233" s="5" t="s">
         <v>763</v>
       </c>
       <c r="B1233" s="22" t="s">
@@ -33799,7 +33808,7 @@
         <v>10</v>
       </c>
       <c r="G1233" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1234" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -34605,6 +34614,98 @@
       </c>
       <c r="G1268" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1269" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1269" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1269" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1269" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1269" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1269" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1269" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1270" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1270" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1270" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1270" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1270" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1270" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1270" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1271" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B1271" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1271" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1271" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1271" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1271" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1271" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1272" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="B1272" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1272" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1272" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1272" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1272" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1272" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371F7F07-46D3-46FE-9F64-C9FA908783F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B326A897-1ED0-471C-9B93-0D8D61CDB4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2280" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8952" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9022" uniqueCount="801">
   <si>
     <t>ФИО</t>
   </si>
@@ -3314,6 +3314,27 @@
   </si>
   <si>
     <t>Хуснутдинова Зифа Мавлютовна</t>
+  </si>
+  <si>
+    <t>Матвеев Матвей Алексеевич</t>
+  </si>
+  <si>
+    <t>остроцкая ирина валерьевна</t>
+  </si>
+  <si>
+    <t>Папельнюк Павел Владимирович</t>
+  </si>
+  <si>
+    <t>Сидоров Виктор Николаевич</t>
+  </si>
+  <si>
+    <t>Гудкова Наталья Андреевна</t>
+  </si>
+  <si>
+    <t>Назаров Артем Эрнестович</t>
+  </si>
+  <si>
+    <t>Сорокина Кристина Владимировна</t>
   </si>
 </sst>
 </file>
@@ -3819,10 +3840,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1272"/>
+  <dimension ref="A1:H1282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1269" sqref="A1269:G1272"/>
+    <sheetView tabSelected="1" topLeftCell="A1266" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1273" sqref="A1273:H1282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34524,7 +34545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1265" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1265" s="14" t="s">
         <v>651</v>
       </c>
@@ -34547,7 +34568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1266" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1266" s="14" t="s">
         <v>330</v>
       </c>
@@ -34570,7 +34591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1267" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1267" s="14" t="s">
         <v>335</v>
       </c>
@@ -34593,7 +34614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1268" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1268" s="14" t="s">
         <v>238</v>
       </c>
@@ -34616,7 +34637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1269" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1269" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1269" s="5" t="s">
         <v>703</v>
       </c>
@@ -34639,7 +34660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1270" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1270" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1270" s="5" t="s">
         <v>791</v>
       </c>
@@ -34662,7 +34683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1271" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1271" s="5" t="s">
         <v>792</v>
       </c>
@@ -34685,7 +34706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1272" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1272" s="5" t="s">
         <v>793</v>
       </c>
@@ -34706,6 +34727,266 @@
       </c>
       <c r="G1272" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1273" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B1273" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1273" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1273" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1273" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1273" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1273" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1273" s="12">
+        <v>89185472249</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1274" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1274" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1274" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1274" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1274" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1274" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1274" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1274" s="12">
+        <v>89163296853</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1275" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="B1275" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1275" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1275" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1275" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1275" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1275" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1275" s="12">
+        <v>89197718180</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1276" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B1276" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1276" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1276" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1276" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1276" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1276" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1276" s="12">
+        <v>89851660864</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1277" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1277" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1277" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1277" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1277" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1277" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1277" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1277" s="12">
+        <v>89171470647</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1278" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="B1278" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1278" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1278" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1278" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1278" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1278" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1278" s="12">
+        <v>89119497131</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1279" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1279" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1279" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1279" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1279" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1279" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1279" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1279" s="12">
+        <v>89831366311</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1280" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B1280" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1280" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1280" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1280" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1280" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1280" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1280" s="12">
+        <v>89105976009</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1281" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1281" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1281" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1281" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1281" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1281" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1281" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1281" s="12">
+        <v>89163255703</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1282" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B1282" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1282" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1282" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1282" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1282" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1282" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1282" s="12">
+        <v>89162191007</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B326A897-1ED0-471C-9B93-0D8D61CDB4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81BCDF-1CAE-49EA-A626-6BC1F0802B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2280" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="630" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -3842,8 +3842,8 @@
   </sheetPr>
   <dimension ref="A1:H1282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1266" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1273" sqref="A1273:H1282"/>
+    <sheetView tabSelected="1" topLeftCell="A1220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1225" sqref="H1225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33636,7 +33636,7 @@
         <v>10</v>
       </c>
       <c r="H1225" s="12">
-        <v>89139231988</v>
+        <v>89139231989</v>
       </c>
     </row>
     <row r="1226" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81BCDF-1CAE-49EA-A626-6BC1F0802B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380894E2-16E4-47EA-A9E2-3050CFF7A519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="630" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Текст" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Распределение!$A$1:$H$1069</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Распределение!$A$1:$H$1068</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9022" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9099" uniqueCount="809">
   <si>
     <t>ФИО</t>
   </si>
@@ -3335,6 +3335,30 @@
   </si>
   <si>
     <t>Сорокина Кристина Владимировна</t>
+  </si>
+  <si>
+    <t>Ласточкина Эмма Анатольевна</t>
+  </si>
+  <si>
+    <t>Лапшин Сергей Валериевич</t>
+  </si>
+  <si>
+    <t>Черкасская Мария Владимировна</t>
+  </si>
+  <si>
+    <t>Смирнов Александр Васильевич</t>
+  </si>
+  <si>
+    <t>Кожемяко Николай Николаевич</t>
+  </si>
+  <si>
+    <t>Цветинская Раушания Гасимовна</t>
+  </si>
+  <si>
+    <t>Сергеева Наталья Викторовна</t>
+  </si>
+  <si>
+    <t>Мурзина Светлана Валентиновна</t>
   </si>
 </sst>
 </file>
@@ -3840,10 +3864,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1282"/>
+  <dimension ref="A1:H1293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1225" sqref="H1225"/>
+    <sheetView tabSelected="1" topLeftCell="A970" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A970" sqref="A970:XFD970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27481,7 +27505,7 @@
     </row>
     <row r="970" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A970" s="5" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B970" s="19" t="s">
         <v>224</v>
@@ -27490,22 +27514,22 @@
         <v>11</v>
       </c>
       <c r="D970" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E970" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F970" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G970" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H970" s="5"/>
     </row>
     <row r="971" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A971" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B971" s="19" t="s">
         <v>224</v>
@@ -27514,10 +27538,10 @@
         <v>11</v>
       </c>
       <c r="D971" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E971" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F971" s="5" t="s">
         <v>8</v>
@@ -27529,7 +27553,7 @@
     </row>
     <row r="972" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A972" s="5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B972" s="19" t="s">
         <v>224</v>
@@ -27538,10 +27562,10 @@
         <v>11</v>
       </c>
       <c r="D972" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E972" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F972" s="5" t="s">
         <v>8</v>
@@ -27553,7 +27577,7 @@
     </row>
     <row r="973" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A973" s="5" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B973" s="19" t="s">
         <v>224</v>
@@ -27562,46 +27586,48 @@
         <v>11</v>
       </c>
       <c r="D973" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E973" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F973" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G973" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H973" s="5"/>
     </row>
     <row r="974" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A974" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="B974" s="19" t="s">
-        <v>224</v>
+        <v>627</v>
+      </c>
+      <c r="B974" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C974" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D974" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E974" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F974" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G974" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H974" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="H974" s="12">
+        <v>89885082916</v>
+      </c>
     </row>
     <row r="975" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A975" s="5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B975" s="25" t="s">
         <v>149</v>
@@ -27610,7 +27636,7 @@
         <v>11</v>
       </c>
       <c r="D975" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E975" s="5" t="s">
         <v>15</v>
@@ -27622,12 +27648,12 @@
         <v>10</v>
       </c>
       <c r="H975" s="12">
-        <v>89885082916</v>
+        <v>89137364796</v>
       </c>
     </row>
     <row r="976" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A976" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B976" s="25" t="s">
         <v>149</v>
@@ -27636,10 +27662,10 @@
         <v>11</v>
       </c>
       <c r="D976" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E976" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F976" s="5" t="s">
         <v>8</v>
@@ -27648,12 +27674,12 @@
         <v>10</v>
       </c>
       <c r="H976" s="12">
-        <v>89137364796</v>
+        <v>89162097128</v>
       </c>
     </row>
     <row r="977" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A977" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B977" s="25" t="s">
         <v>149</v>
@@ -27662,10 +27688,10 @@
         <v>11</v>
       </c>
       <c r="D977" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E977" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F977" s="5" t="s">
         <v>8</v>
@@ -27674,12 +27700,12 @@
         <v>10</v>
       </c>
       <c r="H977" s="12">
-        <v>89162097128</v>
+        <v>89109551661</v>
       </c>
     </row>
     <row r="978" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A978" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B978" s="25" t="s">
         <v>149</v>
@@ -27688,10 +27714,10 @@
         <v>11</v>
       </c>
       <c r="D978" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E978" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F978" s="5" t="s">
         <v>8</v>
@@ -27700,12 +27726,12 @@
         <v>10</v>
       </c>
       <c r="H978" s="12">
-        <v>89109551661</v>
+        <v>89117626933</v>
       </c>
     </row>
     <row r="979" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A979" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B979" s="25" t="s">
         <v>149</v>
@@ -27714,24 +27740,24 @@
         <v>11</v>
       </c>
       <c r="D979" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E979" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F979" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G979" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H979" s="12">
-        <v>89117626933</v>
+        <v>89653965156</v>
       </c>
     </row>
     <row r="980" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A980" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B980" s="25" t="s">
         <v>149</v>
@@ -27740,24 +27766,24 @@
         <v>11</v>
       </c>
       <c r="D980" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E980" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F980" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G980" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H980" s="12">
-        <v>89653965156</v>
+        <v>89615942102</v>
       </c>
     </row>
     <row r="981" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B981" s="25" t="s">
         <v>149</v>
@@ -27766,24 +27792,24 @@
         <v>11</v>
       </c>
       <c r="D981" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E981" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F981" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G981" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H981" s="12">
-        <v>89615942102</v>
+        <v>89171099240</v>
       </c>
     </row>
     <row r="982" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B982" s="25" t="s">
         <v>149</v>
@@ -27792,10 +27818,10 @@
         <v>11</v>
       </c>
       <c r="D982" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E982" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F982" s="5" t="s">
         <v>10</v>
@@ -27804,12 +27830,12 @@
         <v>8</v>
       </c>
       <c r="H982" s="12">
-        <v>89171099240</v>
+        <v>89057585144</v>
       </c>
     </row>
     <row r="983" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A983" s="5" t="s">
-        <v>636</v>
+      <c r="A983" s="14" t="s">
+        <v>619</v>
       </c>
       <c r="B983" s="25" t="s">
         <v>149</v>
@@ -27821,7 +27847,7 @@
         <v>12</v>
       </c>
       <c r="E983" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F983" s="5" t="s">
         <v>10</v>
@@ -27830,68 +27856,66 @@
         <v>8</v>
       </c>
       <c r="H983" s="12">
-        <v>89057585144</v>
+        <v>89260118200</v>
       </c>
     </row>
     <row r="984" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A984" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="B984" s="25" t="s">
-        <v>149</v>
+      <c r="A984" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B984" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C984" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D984" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E984" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F984" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G984" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H984" s="1"/>
+    </row>
+    <row r="985" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A985" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B985" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C985" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D984" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E984" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F984" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G984" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H984" s="12">
-        <v>89260118200</v>
-      </c>
-    </row>
-    <row r="985" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A985" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B985" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C985" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="D985" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E985" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F985" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G985" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H985" s="1"/>
     </row>
     <row r="986" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A986" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B986" s="23" t="s">
-        <v>140</v>
+      <c r="A986" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B986" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C986" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D986" s="5" t="s">
         <v>16</v>
@@ -27900,16 +27924,16 @@
         <v>19</v>
       </c>
       <c r="F986" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G986" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H986" s="1"/>
     </row>
     <row r="987" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A987" s="5" t="s">
-        <v>638</v>
+      <c r="A987" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="B987" s="24" t="s">
         <v>150</v>
@@ -27918,10 +27942,10 @@
         <v>6</v>
       </c>
       <c r="D987" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E987" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F987" s="5" t="s">
         <v>10</v>
@@ -27933,7 +27957,7 @@
     </row>
     <row r="988" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A988" s="14" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B988" s="24" t="s">
         <v>150</v>
@@ -27942,34 +27966,34 @@
         <v>6</v>
       </c>
       <c r="D988" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E988" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F988" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G988" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H988" s="1"/>
     </row>
     <row r="989" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A989" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B989" s="24" t="s">
-        <v>150</v>
+      <c r="A989" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B989" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C989" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D989" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E989" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F989" s="5" t="s">
         <v>8</v>
@@ -27980,26 +28004,26 @@
       <c r="H989" s="1"/>
     </row>
     <row r="990" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A990" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B990" s="19" t="s">
-        <v>224</v>
+      <c r="A990" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B990" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C990" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D990" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E990" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F990" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G990" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H990" s="1"/>
     </row>
@@ -28007,17 +28031,17 @@
       <c r="A991" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="B991" s="23" t="s">
-        <v>140</v>
+      <c r="B991" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C991" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D991" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E991" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F991" s="5" t="s">
         <v>10</v>
@@ -28028,32 +28052,32 @@
       <c r="H991" s="1"/>
     </row>
     <row r="992" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A992" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="B992" s="24" t="s">
-        <v>150</v>
+      <c r="A992" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B992" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C992" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D992" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E992" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F992" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G992" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H992" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="H992" s="5"/>
     </row>
     <row r="993" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A993" s="5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B993" s="19" t="s">
         <v>224</v>
@@ -28062,10 +28086,10 @@
         <v>11</v>
       </c>
       <c r="D993" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E993" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F993" s="5" t="s">
         <v>8</v>
@@ -28077,7 +28101,7 @@
     </row>
     <row r="994" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A994" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B994" s="19" t="s">
         <v>224</v>
@@ -28086,34 +28110,34 @@
         <v>11</v>
       </c>
       <c r="D994" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E994" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F994" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G994" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H994" s="5"/>
     </row>
     <row r="995" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A995" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="B995" s="19" t="s">
-        <v>224</v>
+      <c r="A995" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="B995" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="C995" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D995" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E995" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F995" s="5" t="s">
         <v>10</v>
@@ -28125,7 +28149,7 @@
     </row>
     <row r="996" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A996" s="14" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B996" s="15" t="s">
         <v>140</v>
@@ -28134,25 +28158,25 @@
         <v>11</v>
       </c>
       <c r="D996" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E996" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F996" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G996" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H996" s="5"/>
     </row>
     <row r="997" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A997" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="B997" s="15" t="s">
-        <v>140</v>
+        <v>641</v>
+      </c>
+      <c r="B997" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C997" s="5" t="s">
         <v>11</v>
@@ -28161,7 +28185,7 @@
         <v>16</v>
       </c>
       <c r="E997" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F997" s="5" t="s">
         <v>8</v>
@@ -28173,7 +28197,7 @@
     </row>
     <row r="998" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A998" s="14" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B998" s="5" t="s">
         <v>150</v>
@@ -28182,70 +28206,70 @@
         <v>11</v>
       </c>
       <c r="D998" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E998" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F998" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G998" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H998" s="5"/>
     </row>
     <row r="999" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="14" t="s">
-        <v>643</v>
+      <c r="A999" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="B999" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C999" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D999" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E999" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F999" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G999" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H999" s="5"/>
     </row>
     <row r="1000" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="5" t="s">
-        <v>446</v>
+        <v>253</v>
       </c>
       <c r="B1000" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C1000" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1000" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1000" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F1000" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1000" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1000" s="5"/>
     </row>
     <row r="1001" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="5" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B1001" s="5" t="s">
         <v>140</v>
@@ -28254,70 +28278,70 @@
         <v>6</v>
       </c>
       <c r="D1001" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1001" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1001" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1001" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1001" s="5"/>
+    </row>
+    <row r="1002" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1002" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1002" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1002" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E1001" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1001" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1001" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1001" s="5"/>
-    </row>
-    <row r="1002" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1002" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1002" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1002" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1002" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E1002" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F1002" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1002" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1002" s="5"/>
     </row>
     <row r="1003" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1003" s="24" t="s">
-        <v>150</v>
+        <v>644</v>
+      </c>
+      <c r="B1003" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1003" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1003" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E1003" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F1003" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1003" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1003" s="5"/>
     </row>
     <row r="1004" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B1004" s="22" t="s">
         <v>181</v>
@@ -28326,34 +28350,34 @@
         <v>11</v>
       </c>
       <c r="D1004" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1004" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1004" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1004" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1004" s="5"/>
     </row>
     <row r="1005" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="B1005" s="22" t="s">
-        <v>181</v>
+        <v>646</v>
+      </c>
+      <c r="B1005" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1005" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1005" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E1005" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F1005" s="5" t="s">
         <v>10</v>
@@ -28365,7 +28389,7 @@
     </row>
     <row r="1006" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="14" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B1006" s="23" t="s">
         <v>140</v>
@@ -28374,10 +28398,10 @@
         <v>11</v>
       </c>
       <c r="D1006" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1006" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1006" s="5" t="s">
         <v>10</v>
@@ -28389,7 +28413,7 @@
     </row>
     <row r="1007" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B1007" s="23" t="s">
         <v>140</v>
@@ -28398,34 +28422,34 @@
         <v>11</v>
       </c>
       <c r="D1007" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1007" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1007" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1007" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1007" s="5"/>
     </row>
     <row r="1008" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="B1008" s="23" t="s">
-        <v>140</v>
+        <v>646</v>
+      </c>
+      <c r="B1008" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1008" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1008" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1008" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1008" s="5" t="s">
         <v>8</v>
@@ -28436,44 +28460,44 @@
       <c r="H1008" s="5"/>
     </row>
     <row r="1009" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1009" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="B1009" s="24" t="s">
-        <v>150</v>
+      <c r="A1009" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1009" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="C1009" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1009" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1009" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1009" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1009" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1009" s="5"/>
     </row>
     <row r="1010" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="5" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B1010" s="5" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="C1010" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1010" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1010" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1010" s="5" t="s">
         <v>10</v>
@@ -28481,23 +28505,25 @@
       <c r="G1010" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1010" s="5"/>
+      <c r="H1010" s="12">
+        <v>89219363070</v>
+      </c>
     </row>
     <row r="1011" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="5" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="B1011" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C1011" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1011" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E1011" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1011" s="5" t="s">
         <v>10</v>
@@ -28506,18 +28532,18 @@
         <v>8</v>
       </c>
       <c r="H1011" s="12">
-        <v>89219363070</v>
+        <v>89109366280</v>
       </c>
     </row>
     <row r="1012" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B1012" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C1012" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1012" s="5" t="s">
         <v>7</v>
@@ -28532,12 +28558,12 @@
         <v>8</v>
       </c>
       <c r="H1012" s="12">
-        <v>89109366280</v>
+        <v>89164563400</v>
       </c>
     </row>
     <row r="1013" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B1013" s="5" t="s">
         <v>149</v>
@@ -28546,10 +28572,10 @@
         <v>11</v>
       </c>
       <c r="D1013" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1013" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1013" s="5" t="s">
         <v>10</v>
@@ -28558,38 +28584,38 @@
         <v>8</v>
       </c>
       <c r="H1013" s="12">
-        <v>89164563400</v>
+        <v>89167890673</v>
       </c>
     </row>
     <row r="1014" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B1014" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C1014" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1014" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1014" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1014" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1014" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1014" s="12">
-        <v>89167890673</v>
+        <v>89872341275</v>
       </c>
     </row>
     <row r="1015" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B1015" s="5" t="s">
         <v>149</v>
@@ -28598,7 +28624,7 @@
         <v>6</v>
       </c>
       <c r="D1015" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1015" s="5" t="s">
         <v>14</v>
@@ -28610,15 +28636,15 @@
         <v>10</v>
       </c>
       <c r="H1015" s="12">
-        <v>89872341275</v>
+        <v>89107721291</v>
       </c>
     </row>
     <row r="1016" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1016" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="B1016" s="5" t="s">
-        <v>149</v>
+      <c r="A1016" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1016" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1016" s="5" t="s">
         <v>6</v>
@@ -28627,33 +28653,30 @@
         <v>7</v>
       </c>
       <c r="E1016" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1016" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1016" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1016" s="12">
-        <v>89107721291</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1017" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="B1017" s="19" t="s">
-        <v>224</v>
+      <c r="B1017" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1017" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1017" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1017" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1017" s="5" t="s">
         <v>10</v>
@@ -28664,39 +28687,39 @@
     </row>
     <row r="1018" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B1018" s="22" t="s">
-        <v>181</v>
+        <v>158</v>
+      </c>
+      <c r="B1018" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1018" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1018" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E1018" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1018" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1018" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1019" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="14" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B1019" s="23" t="s">
         <v>140</v>
       </c>
       <c r="C1019" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1019" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1019" s="5" t="s">
         <v>19</v>
@@ -28710,7 +28733,7 @@
     </row>
     <row r="1020" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="14" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="B1020" s="23" t="s">
         <v>140</v>
@@ -28722,18 +28745,18 @@
         <v>18</v>
       </c>
       <c r="E1020" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1020" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1020" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1021" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="14" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B1021" s="23" t="s">
         <v>140</v>
@@ -28745,7 +28768,7 @@
         <v>18</v>
       </c>
       <c r="E1021" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1021" s="5" t="s">
         <v>10</v>
@@ -28755,31 +28778,31 @@
       </c>
     </row>
     <row r="1022" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1022" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1022" s="23" t="s">
-        <v>140</v>
+      <c r="A1022" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1022" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1022" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1022" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1022" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1022" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1022" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1023" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B1023" s="19" t="s">
         <v>224</v>
@@ -28788,21 +28811,21 @@
         <v>11</v>
       </c>
       <c r="D1023" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1023" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1023" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1023" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1024" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1024" s="5" t="s">
-        <v>655</v>
+      <c r="A1024" s="14" t="s">
+        <v>656</v>
       </c>
       <c r="B1024" s="19" t="s">
         <v>224</v>
@@ -28811,10 +28834,10 @@
         <v>11</v>
       </c>
       <c r="D1024" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1024" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1024" s="5" t="s">
         <v>10</v>
@@ -28825,7 +28848,7 @@
     </row>
     <row r="1025" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="14" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B1025" s="19" t="s">
         <v>224</v>
@@ -28834,24 +28857,24 @@
         <v>11</v>
       </c>
       <c r="D1025" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1025" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1025" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1025" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1026" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1026" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="B1026" s="19" t="s">
-        <v>224</v>
+      <c r="A1026" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1026" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1026" s="5" t="s">
         <v>11</v>
@@ -28860,18 +28883,18 @@
         <v>7</v>
       </c>
       <c r="E1026" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1026" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1026" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1027" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B1027" s="22" t="s">
         <v>181</v>
@@ -28880,21 +28903,21 @@
         <v>11</v>
       </c>
       <c r="D1027" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1027" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1027" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1027" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1028" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B1028" s="22" t="s">
         <v>181</v>
@@ -28903,56 +28926,56 @@
         <v>11</v>
       </c>
       <c r="D1028" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1028" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1028" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1028" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1029" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1029" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="B1029" s="22" t="s">
-        <v>181</v>
+      <c r="A1029" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B1029" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1029" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1029" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1029" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1029" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1029" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1030" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="B1030" s="23" t="s">
-        <v>140</v>
+      <c r="B1030" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1030" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1030" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1030" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1030" s="5" t="s">
         <v>8</v>
@@ -28963,19 +28986,19 @@
     </row>
     <row r="1031" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="14" t="s">
-        <v>661</v>
+        <v>584</v>
       </c>
       <c r="B1031" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C1031" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1031" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1031" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1031" s="5" t="s">
         <v>8</v>
@@ -28986,7 +29009,7 @@
     </row>
     <row r="1032" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1032" s="14" t="s">
-        <v>584</v>
+        <v>300</v>
       </c>
       <c r="B1032" s="24" t="s">
         <v>150</v>
@@ -28995,33 +29018,33 @@
         <v>6</v>
       </c>
       <c r="D1032" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1032" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F1032" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1032" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1033" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="14" t="s">
-        <v>300</v>
+        <v>662</v>
       </c>
       <c r="B1033" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C1033" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1033" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1033" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1033" s="5" t="s">
         <v>10</v>
@@ -29032,7 +29055,7 @@
     </row>
     <row r="1034" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1034" s="24" t="s">
         <v>150</v>
@@ -29041,10 +29064,10 @@
         <v>11</v>
       </c>
       <c r="D1034" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1034" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1034" s="5" t="s">
         <v>10</v>
@@ -29055,7 +29078,7 @@
     </row>
     <row r="1035" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1035" s="14" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B1035" s="24" t="s">
         <v>150</v>
@@ -29064,24 +29087,24 @@
         <v>11</v>
       </c>
       <c r="D1035" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1035" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1035" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1035" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1036" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1036" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="B1036" s="24" t="s">
-        <v>150</v>
+      <c r="A1036" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1036" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1036" s="5" t="s">
         <v>11</v>
@@ -29090,7 +29113,7 @@
         <v>17</v>
       </c>
       <c r="E1036" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1036" s="5" t="s">
         <v>8</v>
@@ -29100,8 +29123,8 @@
       </c>
     </row>
     <row r="1037" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1037" s="5" t="s">
-        <v>664</v>
+      <c r="A1037" s="14" t="s">
+        <v>665</v>
       </c>
       <c r="B1037" s="23" t="s">
         <v>140</v>
@@ -29110,21 +29133,21 @@
         <v>11</v>
       </c>
       <c r="D1037" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1037" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F1037" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1037" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1038" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1038" s="14" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B1038" s="23" t="s">
         <v>140</v>
@@ -29133,21 +29156,21 @@
         <v>11</v>
       </c>
       <c r="D1038" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1038" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1038" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1038" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1039" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1039" s="14" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="B1039" s="23" t="s">
         <v>140</v>
@@ -29156,21 +29179,21 @@
         <v>11</v>
       </c>
       <c r="D1039" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1039" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1039" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1039" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1040" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1040" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1040" s="23" t="s">
         <v>140</v>
@@ -29179,21 +29202,21 @@
         <v>11</v>
       </c>
       <c r="D1040" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1040" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1040" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1040" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1041" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1041" s="14" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B1041" s="23" t="s">
         <v>140</v>
@@ -29202,10 +29225,10 @@
         <v>11</v>
       </c>
       <c r="D1041" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1041" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1041" s="5" t="s">
         <v>8</v>
@@ -29215,31 +29238,34 @@
       </c>
     </row>
     <row r="1042" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1042" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="B1042" s="23" t="s">
-        <v>140</v>
+      <c r="A1042" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B1042" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1042" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1042" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E1042" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F1042" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1042" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H1042" s="12">
+        <v>89851356569</v>
       </c>
     </row>
     <row r="1043" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1043" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B1043" s="25" t="s">
         <v>149</v>
@@ -29248,50 +29274,50 @@
         <v>6</v>
       </c>
       <c r="D1043" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1043" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1043" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1043" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1043" s="12">
-        <v>89851356569</v>
+        <v>89182257003</v>
       </c>
     </row>
     <row r="1044" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1044" s="5" t="s">
-        <v>667</v>
+      <c r="A1044" s="14" t="s">
+        <v>665</v>
       </c>
       <c r="B1044" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1044" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1044" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1044" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1044" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1044" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1044" s="12">
-        <v>89182257003</v>
+        <v>89163534913</v>
       </c>
     </row>
     <row r="1045" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1045" s="14" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B1045" s="25" t="s">
         <v>149</v>
@@ -29303,7 +29329,7 @@
         <v>12</v>
       </c>
       <c r="E1045" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1045" s="5" t="s">
         <v>10</v>
@@ -29312,12 +29338,12 @@
         <v>8</v>
       </c>
       <c r="H1045" s="12">
-        <v>89163534913</v>
+        <v>89806370682</v>
       </c>
     </row>
     <row r="1046" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1046" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1046" s="25" t="s">
         <v>149</v>
@@ -29326,50 +29352,48 @@
         <v>11</v>
       </c>
       <c r="D1046" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1046" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1046" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1046" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1046" s="12">
-        <v>89806370682</v>
+        <v>89161422728</v>
       </c>
     </row>
     <row r="1047" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1047" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="B1047" s="25" t="s">
-        <v>149</v>
+        <v>668</v>
+      </c>
+      <c r="B1047" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1047" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1047" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1047" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1047" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1047" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1047" s="12">
-        <v>89161422728</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H1047" s="5"/>
     </row>
     <row r="1048" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1048" s="14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B1048" s="22" t="s">
         <v>181</v>
@@ -29378,10 +29402,10 @@
         <v>11</v>
       </c>
       <c r="D1048" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1048" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1048" s="5" t="s">
         <v>10</v>
@@ -29393,31 +29417,31 @@
     </row>
     <row r="1049" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1049" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="B1049" s="22" t="s">
-        <v>181</v>
+        <v>668</v>
+      </c>
+      <c r="B1049" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1049" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1049" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1049" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1049" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1049" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1049" s="5"/>
     </row>
     <row r="1050" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1050" s="14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B1050" s="23" t="s">
         <v>140</v>
@@ -29426,7 +29450,7 @@
         <v>11</v>
       </c>
       <c r="D1050" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1050" s="5" t="s">
         <v>20</v>
@@ -29443,8 +29467,8 @@
       <c r="A1051" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="B1051" s="23" t="s">
-        <v>140</v>
+      <c r="B1051" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1051" s="5" t="s">
         <v>11</v>
@@ -29464,8 +29488,8 @@
       <c r="H1051" s="5"/>
     </row>
     <row r="1052" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1052" s="14" t="s">
-        <v>669</v>
+      <c r="A1052" s="5" t="s">
+        <v>670</v>
       </c>
       <c r="B1052" s="24" t="s">
         <v>150</v>
@@ -29477,43 +29501,43 @@
         <v>18</v>
       </c>
       <c r="E1052" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1052" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1052" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1052" s="5"/>
     </row>
     <row r="1053" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1053" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="B1053" s="24" t="s">
-        <v>150</v>
+        <v>671</v>
+      </c>
+      <c r="B1053" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1053" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1053" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1053" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F1053" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1053" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1053" s="5"/>
     </row>
     <row r="1054" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1054" s="5" t="s">
-        <v>671</v>
+      <c r="A1054" s="14" t="s">
+        <v>623</v>
       </c>
       <c r="B1054" s="22" t="s">
         <v>181</v>
@@ -29537,31 +29561,31 @@
     </row>
     <row r="1055" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1055" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1055" s="22" t="s">
-        <v>181</v>
+        <v>406</v>
+      </c>
+      <c r="B1055" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1055" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1055" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E1055" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F1055" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1055" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1055" s="5"/>
     </row>
     <row r="1056" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="14" t="s">
-        <v>406</v>
+        <v>241</v>
       </c>
       <c r="B1056" s="24" t="s">
         <v>150</v>
@@ -29570,34 +29594,34 @@
         <v>11</v>
       </c>
       <c r="D1056" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1056" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1056" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1056" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1056" s="5"/>
     </row>
     <row r="1057" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1057" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1057" s="24" t="s">
-        <v>150</v>
+        <v>537</v>
+      </c>
+      <c r="B1057" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1057" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1057" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1057" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1057" s="5" t="s">
         <v>8</v>
@@ -29609,7 +29633,7 @@
     </row>
     <row r="1058" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1058" s="14" t="s">
-        <v>537</v>
+        <v>672</v>
       </c>
       <c r="B1058" s="22" t="s">
         <v>181</v>
@@ -29618,22 +29642,22 @@
         <v>11</v>
       </c>
       <c r="D1058" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1058" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1058" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1058" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1058" s="5"/>
     </row>
     <row r="1059" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1059" s="14" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B1059" s="22" t="s">
         <v>181</v>
@@ -29642,10 +29666,10 @@
         <v>11</v>
       </c>
       <c r="D1059" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1059" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1059" s="5" t="s">
         <v>10</v>
@@ -29657,7 +29681,7 @@
     </row>
     <row r="1060" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1060" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B1060" s="22" t="s">
         <v>181</v>
@@ -29666,34 +29690,34 @@
         <v>11</v>
       </c>
       <c r="D1060" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1060" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1060" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1060" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1060" s="5"/>
     </row>
     <row r="1061" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1061" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="B1061" s="22" t="s">
-        <v>181</v>
+        <v>675</v>
+      </c>
+      <c r="B1061" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1061" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1061" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1061" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1061" s="5" t="s">
         <v>8</v>
@@ -29704,32 +29728,32 @@
       <c r="H1061" s="5"/>
     </row>
     <row r="1062" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1062" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="B1062" s="19" t="s">
-        <v>224</v>
+      <c r="A1062" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1062" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1062" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1062" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E1062" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1062" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1062" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1062" s="5"/>
     </row>
     <row r="1063" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1063" s="5" t="s">
-        <v>676</v>
+      <c r="A1063" s="14" t="s">
+        <v>675</v>
       </c>
       <c r="B1063" s="23" t="s">
         <v>140</v>
@@ -29738,10 +29762,10 @@
         <v>11</v>
       </c>
       <c r="D1063" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1063" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1063" s="5" t="s">
         <v>10</v>
@@ -29753,7 +29777,7 @@
     </row>
     <row r="1064" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1064" s="14" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B1064" s="23" t="s">
         <v>140</v>
@@ -29762,22 +29786,22 @@
         <v>11</v>
       </c>
       <c r="D1064" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1064" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1064" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1064" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1064" s="5"/>
     </row>
     <row r="1065" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1065" s="14" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B1065" s="23" t="s">
         <v>140</v>
@@ -29786,22 +29810,22 @@
         <v>11</v>
       </c>
       <c r="D1065" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1065" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1065" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1065" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1065" s="5"/>
     </row>
     <row r="1066" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1066" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B1066" s="23" t="s">
         <v>140</v>
@@ -29810,7 +29834,7 @@
         <v>11</v>
       </c>
       <c r="D1066" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1066" s="5" t="s">
         <v>21</v>
@@ -29827,8 +29851,8 @@
       <c r="A1067" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="B1067" s="23" t="s">
-        <v>140</v>
+      <c r="B1067" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1067" s="5" t="s">
         <v>11</v>
@@ -29837,7 +29861,7 @@
         <v>16</v>
       </c>
       <c r="E1067" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1067" s="5" t="s">
         <v>10</v>
@@ -29849,7 +29873,7 @@
     </row>
     <row r="1068" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1068" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B1068" s="24" t="s">
         <v>150</v>
@@ -29858,10 +29882,10 @@
         <v>11</v>
       </c>
       <c r="D1068" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1068" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1068" s="5" t="s">
         <v>10</v>
@@ -29873,88 +29897,88 @@
     </row>
     <row r="1069" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1069" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="B1069" s="24" t="s">
-        <v>150</v>
+        <v>67</v>
+      </c>
+      <c r="B1069" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1069" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1069" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1069" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F1069" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1069" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1069" s="5"/>
     </row>
     <row r="1070" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1070" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1070" s="19" t="s">
-        <v>224</v>
+        <v>677</v>
+      </c>
+      <c r="B1070" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1070" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1070" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1070" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1070" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1070" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1070" s="5"/>
     </row>
     <row r="1071" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1071" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="B1071" s="22" t="s">
-        <v>181</v>
+        <v>255</v>
+      </c>
+      <c r="B1071" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1071" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1071" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1071" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1071" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1071" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1071" s="5"/>
     </row>
     <row r="1072" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1072" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1072" s="23" t="s">
-        <v>140</v>
+        <v>259</v>
+      </c>
+      <c r="B1072" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1072" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1072" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1072" s="5" t="s">
         <v>20</v>
@@ -29969,19 +29993,19 @@
     </row>
     <row r="1073" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1073" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1073" s="24" t="s">
-        <v>150</v>
+        <v>678</v>
+      </c>
+      <c r="B1073" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1073" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1073" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1073" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1073" s="5" t="s">
         <v>8</v>
@@ -29992,80 +30016,80 @@
       <c r="H1073" s="5"/>
     </row>
     <row r="1074" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1074" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="B1074" s="23" t="s">
-        <v>140</v>
+      <c r="A1074" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B1074" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1074" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1074" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1074" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1074" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1074" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1074" s="5"/>
     </row>
     <row r="1075" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1075" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="B1075" s="22" t="s">
-        <v>181</v>
+      <c r="A1075" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1075" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1075" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1075" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E1075" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F1075" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1075" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1075" s="5"/>
     </row>
     <row r="1076" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1076" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="B1076" s="24" t="s">
-        <v>150</v>
+        <v>68</v>
+      </c>
+      <c r="B1076" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1076" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1076" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E1076" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1076" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1076" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1076" s="5"/>
     </row>
     <row r="1077" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1077" s="14" t="s">
-        <v>68</v>
+      <c r="A1077" s="5" t="s">
+        <v>680</v>
       </c>
       <c r="B1077" s="19" t="s">
         <v>224</v>
@@ -30074,10 +30098,10 @@
         <v>11</v>
       </c>
       <c r="D1077" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1077" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1077" s="5" t="s">
         <v>10</v>
@@ -30088,8 +30112,8 @@
       <c r="H1077" s="5"/>
     </row>
     <row r="1078" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1078" s="5" t="s">
-        <v>680</v>
+      <c r="A1078" s="14" t="s">
+        <v>681</v>
       </c>
       <c r="B1078" s="19" t="s">
         <v>224</v>
@@ -30098,7 +30122,7 @@
         <v>11</v>
       </c>
       <c r="D1078" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1078" s="5" t="s">
         <v>14</v>
@@ -30113,19 +30137,19 @@
     </row>
     <row r="1079" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1079" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1079" s="19" t="s">
-        <v>224</v>
+        <v>682</v>
+      </c>
+      <c r="B1079" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1079" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1079" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E1079" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1079" s="5" t="s">
         <v>10</v>
@@ -30137,7 +30161,7 @@
     </row>
     <row r="1080" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1080" s="23" t="s">
         <v>140</v>
@@ -30146,10 +30170,10 @@
         <v>11</v>
       </c>
       <c r="D1080" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1080" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1080" s="5" t="s">
         <v>10</v>
@@ -30161,19 +30185,19 @@
     </row>
     <row r="1081" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1081" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1081" s="23" t="s">
-        <v>140</v>
+        <v>682</v>
+      </c>
+      <c r="B1081" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1081" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1081" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1081" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1081" s="5" t="s">
         <v>10</v>
@@ -30185,7 +30209,7 @@
     </row>
     <row r="1082" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1082" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1082" s="24" t="s">
         <v>150</v>
@@ -30194,34 +30218,34 @@
         <v>11</v>
       </c>
       <c r="D1082" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1082" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1082" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1082" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1082" s="5"/>
     </row>
     <row r="1083" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1083" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1083" s="24" t="s">
-        <v>150</v>
+        <v>183</v>
+      </c>
+      <c r="B1083" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1083" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1083" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1083" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1083" s="5" t="s">
         <v>8</v>
@@ -30235,8 +30259,8 @@
       <c r="A1084" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B1084" s="23" t="s">
-        <v>140</v>
+      <c r="B1084" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1084" s="5" t="s">
         <v>6</v>
@@ -30257,7 +30281,7 @@
     </row>
     <row r="1085" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1085" s="14" t="s">
-        <v>183</v>
+        <v>369</v>
       </c>
       <c r="B1085" s="24" t="s">
         <v>150</v>
@@ -30272,63 +30296,65 @@
         <v>19</v>
       </c>
       <c r="F1085" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1085" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1085" s="5"/>
     </row>
     <row r="1086" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1086" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1086" s="24" t="s">
-        <v>150</v>
+      <c r="A1086" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1086" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1086" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1086" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1086" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F1086" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1086" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1086" s="5"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="1087" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1087" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="B1087" s="19" t="s">
-        <v>224</v>
+        <v>685</v>
+      </c>
+      <c r="B1087" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1087" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1087" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E1087" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1087" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G1087" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="H1087" s="12">
+        <v>89855345345</v>
       </c>
     </row>
     <row r="1088" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1088" s="5" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B1088" s="25" t="s">
         <v>149</v>
@@ -30337,24 +30363,24 @@
         <v>11</v>
       </c>
       <c r="D1088" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1088" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1088" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1088" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1088" s="12">
-        <v>89855345345</v>
+        <v>89171182727</v>
       </c>
     </row>
     <row r="1089" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1089" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B1089" s="25" t="s">
         <v>149</v>
@@ -30363,10 +30389,10 @@
         <v>11</v>
       </c>
       <c r="D1089" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1089" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1089" s="5" t="s">
         <v>10</v>
@@ -30375,12 +30401,12 @@
         <v>8</v>
       </c>
       <c r="H1089" s="12">
-        <v>89171182727</v>
+        <v>89957071757</v>
       </c>
     </row>
     <row r="1090" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1090" s="5" t="s">
-        <v>687</v>
+      <c r="A1090" s="14" t="s">
+        <v>678</v>
       </c>
       <c r="B1090" s="25" t="s">
         <v>149</v>
@@ -30389,24 +30415,24 @@
         <v>11</v>
       </c>
       <c r="D1090" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1090" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1090" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1090" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1090" s="12">
-        <v>89957071757</v>
+        <v>89951975328</v>
       </c>
     </row>
     <row r="1091" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1091" s="14" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B1091" s="25" t="s">
         <v>149</v>
@@ -30427,12 +30453,12 @@
         <v>10</v>
       </c>
       <c r="H1091" s="12">
-        <v>89951975328</v>
+        <v>89122454756</v>
       </c>
     </row>
     <row r="1092" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1092" s="14" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B1092" s="25" t="s">
         <v>149</v>
@@ -30441,24 +30467,24 @@
         <v>11</v>
       </c>
       <c r="D1092" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1092" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1092" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1092" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1092" s="12">
-        <v>89122454756</v>
+        <v>89119858929</v>
       </c>
     </row>
     <row r="1093" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1093" s="14" t="s">
-        <v>674</v>
+      <c r="A1093" s="5" t="s">
+        <v>688</v>
       </c>
       <c r="B1093" s="25" t="s">
         <v>149</v>
@@ -30467,10 +30493,10 @@
         <v>11</v>
       </c>
       <c r="D1093" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1093" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1093" s="5" t="s">
         <v>10</v>
@@ -30479,12 +30505,12 @@
         <v>8</v>
       </c>
       <c r="H1093" s="12">
-        <v>89119858929</v>
+        <v>89150790406</v>
       </c>
     </row>
     <row r="1094" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1094" s="5" t="s">
-        <v>688</v>
+      <c r="A1094" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="B1094" s="25" t="s">
         <v>149</v>
@@ -30493,27 +30519,27 @@
         <v>11</v>
       </c>
       <c r="D1094" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1094" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1094" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1094" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1094" s="12">
-        <v>89150790406</v>
+        <v>89106462846</v>
       </c>
     </row>
     <row r="1095" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1095" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="B1095" s="25" t="s">
-        <v>149</v>
+        <v>689</v>
+      </c>
+      <c r="B1095" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1095" s="5" t="s">
         <v>11</v>
@@ -30530,13 +30556,10 @@
       <c r="G1095" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1095" s="12">
-        <v>89106462846</v>
-      </c>
     </row>
     <row r="1096" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1096" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B1096" s="22" t="s">
         <v>181</v>
@@ -30545,10 +30568,10 @@
         <v>11</v>
       </c>
       <c r="D1096" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1096" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1096" s="5" t="s">
         <v>8</v>
@@ -30559,42 +30582,42 @@
     </row>
     <row r="1097" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1097" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="B1097" s="22" t="s">
-        <v>181</v>
+        <v>691</v>
+      </c>
+      <c r="B1097" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1097" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1097" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1097" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1097" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1097" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1098" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1098" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="B1098" s="19" t="s">
-        <v>224</v>
+        <v>689</v>
+      </c>
+      <c r="B1098" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1098" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1098" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E1098" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1098" s="5" t="s">
         <v>10</v>
@@ -30604,8 +30627,8 @@
       </c>
     </row>
     <row r="1099" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1099" s="14" t="s">
-        <v>689</v>
+      <c r="A1099" s="5" t="s">
+        <v>692</v>
       </c>
       <c r="B1099" s="24" t="s">
         <v>150</v>
@@ -30614,21 +30637,21 @@
         <v>11</v>
       </c>
       <c r="D1099" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1099" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F1099" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1099" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1100" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1100" s="5" t="s">
-        <v>692</v>
+      <c r="A1100" s="14" t="s">
+        <v>693</v>
       </c>
       <c r="B1100" s="24" t="s">
         <v>150</v>
@@ -30637,7 +30660,7 @@
         <v>11</v>
       </c>
       <c r="D1100" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1100" s="5" t="s">
         <v>19</v>
@@ -30651,7 +30674,7 @@
     </row>
     <row r="1101" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1101" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B1101" s="24" t="s">
         <v>150</v>
@@ -30660,21 +30683,21 @@
         <v>11</v>
       </c>
       <c r="D1101" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1101" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1101" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1101" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1102" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1102" s="14" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B1102" s="24" t="s">
         <v>150</v>
@@ -30683,7 +30706,7 @@
         <v>11</v>
       </c>
       <c r="D1102" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1102" s="5" t="s">
         <v>20</v>
@@ -30697,7 +30720,7 @@
     </row>
     <row r="1103" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1103" s="14" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B1103" s="24" t="s">
         <v>150</v>
@@ -30706,44 +30729,44 @@
         <v>11</v>
       </c>
       <c r="D1103" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1103" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1103" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1103" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1104" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1104" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="B1104" s="24" t="s">
-        <v>150</v>
+        <v>695</v>
+      </c>
+      <c r="B1104" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1104" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1104" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1104" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F1104" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1104" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1105" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1105" s="14" t="s">
-        <v>695</v>
+      <c r="A1105" s="5" t="s">
+        <v>696</v>
       </c>
       <c r="B1105" s="22" t="s">
         <v>181</v>
@@ -30752,10 +30775,10 @@
         <v>6</v>
       </c>
       <c r="D1105" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1105" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1105" s="5" t="s">
         <v>10</v>
@@ -30766,19 +30789,19 @@
     </row>
     <row r="1106" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1106" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="B1106" s="22" t="s">
-        <v>181</v>
+        <v>697</v>
+      </c>
+      <c r="B1106" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1106" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1106" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1106" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1106" s="5" t="s">
         <v>10</v>
@@ -30788,8 +30811,8 @@
       </c>
     </row>
     <row r="1107" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1107" s="5" t="s">
-        <v>697</v>
+      <c r="A1107" s="14" t="s">
+        <v>551</v>
       </c>
       <c r="B1107" s="19" t="s">
         <v>224</v>
@@ -30801,7 +30824,7 @@
         <v>7</v>
       </c>
       <c r="E1107" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1107" s="5" t="s">
         <v>10</v>
@@ -30812,7 +30835,7 @@
     </row>
     <row r="1108" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1108" s="14" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="B1108" s="19" t="s">
         <v>224</v>
@@ -30824,18 +30847,18 @@
         <v>7</v>
       </c>
       <c r="E1108" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1108" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1108" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1109" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1109" s="14" t="s">
-        <v>514</v>
+      <c r="A1109" s="5" t="s">
+        <v>698</v>
       </c>
       <c r="B1109" s="19" t="s">
         <v>224</v>
@@ -30850,15 +30873,16 @@
         <v>15</v>
       </c>
       <c r="F1109" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1109" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H1109" s="5"/>
     </row>
     <row r="1110" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1110" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B1110" s="19" t="s">
         <v>224</v>
@@ -30867,10 +30891,10 @@
         <v>6</v>
       </c>
       <c r="D1110" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1110" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1110" s="5" t="s">
         <v>10</v>
@@ -30881,20 +30905,20 @@
       <c r="H1110" s="5"/>
     </row>
     <row r="1111" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1111" s="5" t="s">
-        <v>699</v>
+      <c r="A1111" s="14" t="s">
+        <v>635</v>
       </c>
       <c r="B1111" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1111" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E1111" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1111" s="5" t="s">
         <v>10</v>
@@ -30906,25 +30930,25 @@
     </row>
     <row r="1112" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1112" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="B1112" s="19" t="s">
-        <v>224</v>
+        <v>700</v>
+      </c>
+      <c r="B1112" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E1112" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1112" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1112" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1112" s="5"/>
     </row>
@@ -30932,29 +30956,29 @@
       <c r="A1113" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="B1113" s="22" t="s">
-        <v>181</v>
+      <c r="B1113" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1113" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1113" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1113" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F1113" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1113" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1113" s="5"/>
     </row>
     <row r="1114" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1114" s="14" t="s">
-        <v>700</v>
+      <c r="A1114" s="5" t="s">
+        <v>701</v>
       </c>
       <c r="B1114" s="23" t="s">
         <v>140</v>
@@ -30966,7 +30990,7 @@
         <v>17</v>
       </c>
       <c r="E1114" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1114" s="5" t="s">
         <v>10</v>
@@ -30977,8 +31001,8 @@
       <c r="H1114" s="5"/>
     </row>
     <row r="1115" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1115" s="5" t="s">
-        <v>701</v>
+      <c r="A1115" s="14" t="s">
+        <v>430</v>
       </c>
       <c r="B1115" s="23" t="s">
         <v>140</v>
@@ -30987,58 +31011,58 @@
         <v>6</v>
       </c>
       <c r="D1115" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1115" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F1115" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1115" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1115" s="5"/>
     </row>
     <row r="1116" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1116" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1116" s="23" t="s">
-        <v>140</v>
+        <v>243</v>
+      </c>
+      <c r="B1116" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1116" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1116" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1116" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1116" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1116" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1116" s="5"/>
     </row>
     <row r="1117" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1117" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B1117" s="24" t="s">
-        <v>150</v>
+        <v>697</v>
+      </c>
+      <c r="B1117" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1117" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1117" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1117" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F1117" s="5" t="s">
         <v>10</v>
@@ -31050,19 +31074,19 @@
     </row>
     <row r="1118" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1118" s="14" t="s">
-        <v>697</v>
-      </c>
-      <c r="B1118" s="22" t="s">
-        <v>181</v>
+        <v>206</v>
+      </c>
+      <c r="B1118" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1118" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1118" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E1118" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F1118" s="5" t="s">
         <v>10</v>
@@ -31074,7 +31098,7 @@
     </row>
     <row r="1119" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1119" s="14" t="s">
-        <v>206</v>
+        <v>651</v>
       </c>
       <c r="B1119" s="23" t="s">
         <v>140</v>
@@ -31086,31 +31110,31 @@
         <v>17</v>
       </c>
       <c r="E1119" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1119" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1119" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1119" s="5"/>
     </row>
     <row r="1120" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1120" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="B1120" s="23" t="s">
-        <v>140</v>
+        <v>197</v>
+      </c>
+      <c r="B1120" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1120" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1120" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1120" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1120" s="5" t="s">
         <v>8</v>
@@ -31122,49 +31146,49 @@
     </row>
     <row r="1121" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1121" s="14" t="s">
-        <v>197</v>
+        <v>602</v>
       </c>
       <c r="B1121" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1121" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1121" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1121" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1121" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1121" s="5"/>
     </row>
     <row r="1122" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1122" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1122" s="24" t="s">
-        <v>150</v>
+        <v>340</v>
+      </c>
+      <c r="B1122" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1122" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1122" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1122" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1122" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1122" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1122" s="5"/>
     </row>
@@ -31172,17 +31196,17 @@
       <c r="A1123" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B1123" s="23" t="s">
-        <v>140</v>
+      <c r="B1123" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1123" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1123" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1123" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1123" s="5" t="s">
         <v>8</v>
@@ -31194,10 +31218,10 @@
     </row>
     <row r="1124" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1124" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1124" s="24" t="s">
-        <v>150</v>
+        <v>613</v>
+      </c>
+      <c r="B1124" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1124" s="5" t="s">
         <v>11</v>
@@ -31209,16 +31233,16 @@
         <v>21</v>
       </c>
       <c r="F1124" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1124" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1124" s="5"/>
     </row>
     <row r="1125" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1125" s="14" t="s">
-        <v>613</v>
+        <v>216</v>
       </c>
       <c r="B1125" s="23" t="s">
         <v>140</v>
@@ -31227,7 +31251,7 @@
         <v>11</v>
       </c>
       <c r="D1125" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1125" s="5" t="s">
         <v>21</v>
@@ -31242,7 +31266,7 @@
     </row>
     <row r="1126" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1126" s="14" t="s">
-        <v>216</v>
+        <v>692</v>
       </c>
       <c r="B1126" s="23" t="s">
         <v>140</v>
@@ -31251,10 +31275,10 @@
         <v>11</v>
       </c>
       <c r="D1126" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1126" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1126" s="5" t="s">
         <v>10</v>
@@ -31266,10 +31290,10 @@
     </row>
     <row r="1127" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1127" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="B1127" s="23" t="s">
-        <v>140</v>
+        <v>535</v>
+      </c>
+      <c r="B1127" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1127" s="5" t="s">
         <v>11</v>
@@ -31278,7 +31302,7 @@
         <v>17</v>
       </c>
       <c r="E1127" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1127" s="5" t="s">
         <v>10</v>
@@ -31290,7 +31314,7 @@
     </row>
     <row r="1128" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1128" s="14" t="s">
-        <v>535</v>
+        <v>331</v>
       </c>
       <c r="B1128" s="24" t="s">
         <v>150</v>
@@ -31314,31 +31338,31 @@
     </row>
     <row r="1129" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1129" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1129" s="24" t="s">
-        <v>150</v>
+        <v>240</v>
+      </c>
+      <c r="B1129" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1129" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1129" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1129" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1129" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1129" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1129" s="5"/>
     </row>
     <row r="1130" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1130" s="14" t="s">
-        <v>240</v>
+      <c r="A1130" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="B1130" s="22" t="s">
         <v>181</v>
@@ -31347,7 +31371,7 @@
         <v>11</v>
       </c>
       <c r="D1130" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1130" s="5" t="s">
         <v>15</v>
@@ -31361,8 +31385,8 @@
       <c r="H1130" s="5"/>
     </row>
     <row r="1131" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1131" s="5" t="s">
-        <v>702</v>
+      <c r="A1131" s="14" t="s">
+        <v>703</v>
       </c>
       <c r="B1131" s="22" t="s">
         <v>181</v>
@@ -31371,22 +31395,22 @@
         <v>11</v>
       </c>
       <c r="D1131" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1131" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1131" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1131" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1131" s="5"/>
     </row>
     <row r="1132" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1132" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B1132" s="22" t="s">
         <v>181</v>
@@ -31395,10 +31419,10 @@
         <v>11</v>
       </c>
       <c r="D1132" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1132" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1132" s="5" t="s">
         <v>10</v>
@@ -31410,31 +31434,31 @@
     </row>
     <row r="1133" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1133" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B1133" s="22" t="s">
-        <v>181</v>
+        <v>703</v>
+      </c>
+      <c r="B1133" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1133" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1133" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1133" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F1133" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1133" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1133" s="5"/>
     </row>
     <row r="1134" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1134" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B1134" s="24" t="s">
         <v>150</v>
@@ -31443,92 +31467,91 @@
         <v>11</v>
       </c>
       <c r="D1134" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1134" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1134" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1134" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1134" s="5"/>
     </row>
     <row r="1135" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1135" s="14" t="s">
-        <v>704</v>
+        <v>253</v>
       </c>
       <c r="B1135" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1135" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1135" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F1135" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1135" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1135" s="5"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="1136" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1136" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1136" s="24" t="s">
+      <c r="A1136" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1136" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1136" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1136" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1136" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1137" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1137" s="24" t="s">
         <v>150</v>
-      </c>
-      <c r="C1136" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1136" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1136" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1136" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1136" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1137" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="B1137" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="C1137" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1137" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1137" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F1137" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1137" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1138" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1138" s="14" t="s">
-        <v>218</v>
+        <v>702</v>
       </c>
       <c r="B1138" s="24" t="s">
         <v>150</v>
@@ -31537,56 +31560,56 @@
         <v>11</v>
       </c>
       <c r="D1138" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1138" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1138" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1138" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1139" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1139" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1139" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1139" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1139" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1140" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1140" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1140" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1140" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1140" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="F1138" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1138" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1139" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="B1139" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1139" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1139" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1139" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1139" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1139" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1140" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="B1140" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1140" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1140" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1140" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="F1140" s="5" t="s">
         <v>8</v>
@@ -31597,10 +31620,10 @@
     </row>
     <row r="1141" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1141" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1141" s="23" t="s">
-        <v>140</v>
+        <v>308</v>
+      </c>
+      <c r="B1141" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1141" s="5" t="s">
         <v>6</v>
@@ -31609,30 +31632,30 @@
         <v>18</v>
       </c>
       <c r="E1141" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1141" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1141" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1142" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1142" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1142" s="24" t="s">
-        <v>150</v>
+      <c r="A1142" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1142" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1142" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1142" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F1142" s="5" t="s">
         <v>10</v>
@@ -31642,20 +31665,20 @@
       </c>
     </row>
     <row r="1143" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1143" s="5" t="s">
-        <v>707</v>
+      <c r="A1143" s="14" t="s">
+        <v>683</v>
       </c>
       <c r="B1143" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1143" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1143" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1143" s="5" t="s">
         <v>10</v>
@@ -31666,30 +31689,30 @@
     </row>
     <row r="1144" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1144" s="14" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="B1144" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1144" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1144" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1144" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1144" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1145" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1145" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B1145" s="22" t="s">
         <v>181</v>
@@ -31698,10 +31721,10 @@
         <v>11</v>
       </c>
       <c r="D1145" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1145" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1145" s="5" t="s">
         <v>8</v>
@@ -31712,7 +31735,7 @@
     </row>
     <row r="1146" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1146" s="14" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B1146" s="22" t="s">
         <v>181</v>
@@ -31721,33 +31744,33 @@
         <v>11</v>
       </c>
       <c r="D1146" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1146" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1146" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1146" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1147" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1147" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="B1147" s="22" t="s">
-        <v>181</v>
+      <c r="A1147" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1147" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1147" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1147" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1147" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1147" s="5" t="s">
         <v>10</v>
@@ -31757,8 +31780,8 @@
       </c>
     </row>
     <row r="1148" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1148" s="5" t="s">
-        <v>711</v>
+      <c r="A1148" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="B1148" s="19" t="s">
         <v>224</v>
@@ -31773,38 +31796,39 @@
         <v>13</v>
       </c>
       <c r="F1148" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1148" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1149" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1149" s="14" t="s">
-        <v>709</v>
+        <v>480</v>
       </c>
       <c r="B1149" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1149" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1149" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1149" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1149" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H1149" s="5"/>
     </row>
     <row r="1150" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1150" s="14" t="s">
-        <v>480</v>
+      <c r="A1150" s="5" t="s">
+        <v>712</v>
       </c>
       <c r="B1150" s="19" t="s">
         <v>224</v>
@@ -31813,7 +31837,7 @@
         <v>6</v>
       </c>
       <c r="D1150" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1150" s="5" t="s">
         <v>13</v>
@@ -31828,7 +31852,7 @@
     </row>
     <row r="1151" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1151" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B1151" s="19" t="s">
         <v>224</v>
@@ -31837,10 +31861,10 @@
         <v>6</v>
       </c>
       <c r="D1151" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1151" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1151" s="5" t="s">
         <v>10</v>
@@ -31852,7 +31876,7 @@
     </row>
     <row r="1152" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1152" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B1152" s="19" t="s">
         <v>224</v>
@@ -31861,10 +31885,10 @@
         <v>6</v>
       </c>
       <c r="D1152" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1152" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1152" s="5" t="s">
         <v>10</v>
@@ -31876,13 +31900,13 @@
     </row>
     <row r="1153" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1153" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B1153" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1153" s="5" t="s">
         <v>9</v>
@@ -31900,7 +31924,7 @@
     </row>
     <row r="1154" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1154" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B1154" s="19" t="s">
         <v>224</v>
@@ -31912,7 +31936,7 @@
         <v>9</v>
       </c>
       <c r="E1154" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1154" s="5" t="s">
         <v>10</v>
@@ -31924,7 +31948,7 @@
     </row>
     <row r="1155" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1155" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B1155" s="19" t="s">
         <v>224</v>
@@ -31933,34 +31957,34 @@
         <v>11</v>
       </c>
       <c r="D1155" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1155" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1155" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1155" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1155" s="5"/>
     </row>
     <row r="1156" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1156" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1156" s="19" t="s">
-        <v>224</v>
+        <v>718</v>
+      </c>
+      <c r="B1156" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1156" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1156" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1156" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1156" s="5" t="s">
         <v>8</v>
@@ -31971,32 +31995,32 @@
       <c r="H1156" s="5"/>
     </row>
     <row r="1157" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1157" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="B1157" s="22" t="s">
-        <v>181</v>
+      <c r="A1157" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1157" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1157" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1157" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E1157" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1157" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1157" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1157" s="5"/>
     </row>
     <row r="1158" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1158" s="14" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="B1158" s="24" t="s">
         <v>150</v>
@@ -32005,7 +32029,7 @@
         <v>11</v>
       </c>
       <c r="D1158" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1158" s="5" t="s">
         <v>20</v>
@@ -32020,7 +32044,7 @@
     </row>
     <row r="1159" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1159" s="14" t="s">
-        <v>719</v>
+        <v>616</v>
       </c>
       <c r="B1159" s="24" t="s">
         <v>150</v>
@@ -32032,55 +32056,54 @@
         <v>18</v>
       </c>
       <c r="E1159" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1159" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1159" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1159" s="5"/>
     </row>
     <row r="1160" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1160" s="14" t="s">
-        <v>616</v>
-      </c>
-      <c r="B1160" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1160" s="5" t="s">
+      <c r="A1160" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1160" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1160" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1160" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1160" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1160" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1160" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1161" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1161" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1161" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D1160" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1160" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1160" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1160" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1160" s="5"/>
-    </row>
-    <row r="1161" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1161" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="B1161" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1161" s="26" t="s">
-        <v>6</v>
       </c>
       <c r="D1161" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E1161" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1161" s="5" t="s">
         <v>10</v>
@@ -32091,7 +32114,7 @@
     </row>
     <row r="1162" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1162" s="5" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B1162" s="19" t="s">
         <v>224</v>
@@ -32100,7 +32123,7 @@
         <v>11</v>
       </c>
       <c r="D1162" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1162" s="5" t="s">
         <v>15</v>
@@ -32114,7 +32137,7 @@
     </row>
     <row r="1163" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1163" s="5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B1163" s="19" t="s">
         <v>224</v>
@@ -32123,10 +32146,10 @@
         <v>11</v>
       </c>
       <c r="D1163" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1163" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1163" s="5" t="s">
         <v>10</v>
@@ -32137,7 +32160,7 @@
     </row>
     <row r="1164" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1164" s="5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B1164" s="19" t="s">
         <v>224</v>
@@ -32160,10 +32183,10 @@
     </row>
     <row r="1165" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1165" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="B1165" s="19" t="s">
-        <v>224</v>
+        <v>725</v>
+      </c>
+      <c r="B1165" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1165" s="5" t="s">
         <v>11</v>
@@ -32172,18 +32195,18 @@
         <v>7</v>
       </c>
       <c r="E1165" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1165" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1165" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1166" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1166" s="5" t="s">
-        <v>725</v>
+      <c r="A1166" s="14" t="s">
+        <v>726</v>
       </c>
       <c r="B1166" s="22" t="s">
         <v>181</v>
@@ -32192,33 +32215,33 @@
         <v>11</v>
       </c>
       <c r="D1166" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1166" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1166" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1166" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1167" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1167" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1167" s="22" t="s">
-        <v>181</v>
+      <c r="A1167" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B1167" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1167" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1167" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1167" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1167" s="5" t="s">
         <v>10</v>
@@ -32228,8 +32251,8 @@
       </c>
     </row>
     <row r="1168" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1168" s="5" t="s">
-        <v>727</v>
+      <c r="A1168" s="14" t="s">
+        <v>726</v>
       </c>
       <c r="B1168" s="19" t="s">
         <v>224</v>
@@ -32238,30 +32261,30 @@
         <v>11</v>
       </c>
       <c r="D1168" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1168" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1168" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1168" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1169" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1169" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1169" s="19" t="s">
-        <v>224</v>
+        <v>701</v>
+      </c>
+      <c r="B1169" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1169" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1169" s="5" t="s">
         <v>15</v>
@@ -32274,8 +32297,8 @@
       </c>
     </row>
     <row r="1170" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1170" s="14" t="s">
-        <v>701</v>
+      <c r="A1170" s="5" t="s">
+        <v>728</v>
       </c>
       <c r="B1170" s="22" t="s">
         <v>181</v>
@@ -32284,21 +32307,21 @@
         <v>6</v>
       </c>
       <c r="D1170" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1170" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1170" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1170" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1171" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1171" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B1171" s="22" t="s">
         <v>181</v>
@@ -32307,27 +32330,27 @@
         <v>6</v>
       </c>
       <c r="D1171" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1171" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1171" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1171" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1172" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1172" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="B1172" s="22" t="s">
-        <v>181</v>
+        <v>730</v>
+      </c>
+      <c r="B1172" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1172" s="5" t="s">
         <v>12</v>
@@ -32344,36 +32367,36 @@
     </row>
     <row r="1173" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1173" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="B1173" s="19" t="s">
-        <v>224</v>
+        <v>731</v>
+      </c>
+      <c r="B1173" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1173" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1173" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1173" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1173" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1174" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1174" s="5" t="s">
-        <v>731</v>
+      <c r="A1174" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="B1174" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1174" s="5" t="s">
         <v>7</v>
@@ -32389,8 +32412,8 @@
       </c>
     </row>
     <row r="1175" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1175" s="14" t="s">
-        <v>680</v>
+      <c r="A1175" s="5" t="s">
+        <v>732</v>
       </c>
       <c r="B1175" s="22" t="s">
         <v>181</v>
@@ -32402,18 +32425,18 @@
         <v>7</v>
       </c>
       <c r="E1175" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1175" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1175" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1176" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1176" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B1176" s="22" t="s">
         <v>181</v>
@@ -32422,33 +32445,33 @@
         <v>11</v>
       </c>
       <c r="D1176" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1176" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1176" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1176" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1177" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1177" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="B1177" s="22" t="s">
-        <v>181</v>
+      <c r="A1177" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B1177" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1177" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1177" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E1177" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1177" s="5" t="s">
         <v>10</v>
@@ -32458,8 +32481,8 @@
       </c>
     </row>
     <row r="1178" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1178" s="14" t="s">
-        <v>734</v>
+      <c r="A1178" s="5" t="s">
+        <v>735</v>
       </c>
       <c r="B1178" s="24" t="s">
         <v>150</v>
@@ -32471,47 +32494,50 @@
         <v>18</v>
       </c>
       <c r="E1178" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1178" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1178" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1179" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1179" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="B1179" s="24" t="s">
-        <v>150</v>
+        <v>736</v>
+      </c>
+      <c r="B1179" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1179" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E1179" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1179" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1179" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H1179" s="12">
+        <v>89190006120</v>
       </c>
     </row>
     <row r="1180" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1180" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B1180" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1180" s="5" t="s">
         <v>7</v>
@@ -32526,12 +32552,12 @@
         <v>8</v>
       </c>
       <c r="H1180" s="12">
-        <v>89190006120</v>
+        <v>89773988089</v>
       </c>
     </row>
     <row r="1181" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1181" s="5" t="s">
-        <v>737</v>
+      <c r="A1181" s="14" t="s">
+        <v>693</v>
       </c>
       <c r="B1181" s="25" t="s">
         <v>149</v>
@@ -32540,24 +32566,24 @@
         <v>11</v>
       </c>
       <c r="D1181" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1181" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1181" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1181" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1181" s="12">
-        <v>89773988089</v>
+        <v>79854366688</v>
       </c>
     </row>
     <row r="1182" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1182" s="14" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B1182" s="25" t="s">
         <v>149</v>
@@ -32566,10 +32592,10 @@
         <v>11</v>
       </c>
       <c r="D1182" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1182" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1182" s="5" t="s">
         <v>8</v>
@@ -32578,38 +32604,38 @@
         <v>10</v>
       </c>
       <c r="H1182" s="12">
-        <v>79854366688</v>
+        <v>89217778272</v>
       </c>
     </row>
     <row r="1183" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1183" s="14" t="s">
-        <v>690</v>
+      <c r="A1183" s="5" t="s">
+        <v>738</v>
       </c>
       <c r="B1183" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1183" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1183" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1183" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1183" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1183" s="12">
-        <v>89217778272</v>
+        <v>89173405367</v>
       </c>
     </row>
     <row r="1184" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1184" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B1184" s="25" t="s">
         <v>149</v>
@@ -32618,36 +32644,36 @@
         <v>6</v>
       </c>
       <c r="D1184" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1184" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1184" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1184" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1184" s="12">
-        <v>89173405367</v>
+        <v>89874020142</v>
       </c>
     </row>
     <row r="1185" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1185" s="5" t="s">
-        <v>739</v>
+      <c r="A1185" s="14" t="s">
+        <v>526</v>
       </c>
       <c r="B1185" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1185" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1185" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1185" s="5" t="s">
         <v>8</v>
@@ -32655,65 +32681,65 @@
       <c r="G1185" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1185" s="12">
-        <v>89874020142</v>
+      <c r="H1185" s="12" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="1186" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1186" s="14" t="s">
-        <v>526</v>
+      <c r="A1186" s="5" t="s">
+        <v>741</v>
       </c>
       <c r="B1186" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1186" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1186" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E1186" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1186" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1186" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1186" s="12" t="s">
-        <v>740</v>
+        <v>8</v>
+      </c>
+      <c r="H1186" s="12">
+        <v>89161882230</v>
       </c>
     </row>
     <row r="1187" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1187" s="5" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B1187" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1187" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1187" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1187" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1187" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1187" s="12">
-        <v>89161882230</v>
+        <v>7987414616</v>
       </c>
     </row>
     <row r="1188" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1188" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B1188" s="25" t="s">
         <v>149</v>
@@ -32722,33 +32748,33 @@
         <v>11</v>
       </c>
       <c r="D1188" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1188" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1188" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1188" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1188" s="12">
-        <v>7987414616</v>
+        <v>89151501549</v>
       </c>
     </row>
     <row r="1189" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1189" s="5" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B1189" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1189" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1189" s="5" t="s">
         <v>14</v>
@@ -32760,38 +32786,38 @@
         <v>8</v>
       </c>
       <c r="H1189" s="12">
-        <v>89151501549</v>
+        <v>89850195180</v>
       </c>
     </row>
     <row r="1190" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1190" s="5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B1190" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1190" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E1190" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1190" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1190" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1190" s="12">
-        <v>89850195180</v>
+        <v>89857379635</v>
       </c>
     </row>
     <row r="1191" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1191" s="5" t="s">
-        <v>745</v>
+      <c r="A1191" s="14" t="s">
+        <v>704</v>
       </c>
       <c r="B1191" s="25" t="s">
         <v>149</v>
@@ -32800,10 +32826,10 @@
         <v>11</v>
       </c>
       <c r="D1191" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1191" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1191" s="5" t="s">
         <v>8</v>
@@ -32812,12 +32838,12 @@
         <v>10</v>
       </c>
       <c r="H1191" s="12">
-        <v>89857379635</v>
+        <v>89153120548</v>
       </c>
     </row>
     <row r="1192" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1192" s="14" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="B1192" s="25" t="s">
         <v>149</v>
@@ -32826,24 +32852,24 @@
         <v>11</v>
       </c>
       <c r="D1192" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1192" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1192" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1192" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1192" s="12">
-        <v>89153120548</v>
+        <v>89895018181</v>
       </c>
     </row>
     <row r="1193" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1193" s="14" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="B1193" s="25" t="s">
         <v>149</v>
@@ -32852,10 +32878,10 @@
         <v>11</v>
       </c>
       <c r="D1193" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1193" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1193" s="5" t="s">
         <v>10</v>
@@ -32864,12 +32890,12 @@
         <v>8</v>
       </c>
       <c r="H1193" s="12">
-        <v>89895018181</v>
+        <v>89165923109</v>
       </c>
     </row>
     <row r="1194" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1194" s="14" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="B1194" s="25" t="s">
         <v>149</v>
@@ -32878,24 +32904,24 @@
         <v>11</v>
       </c>
       <c r="D1194" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1194" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1194" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1194" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1194" s="12">
-        <v>89165923109</v>
+        <v>89104888338</v>
       </c>
     </row>
     <row r="1195" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1195" s="14" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="B1195" s="25" t="s">
         <v>149</v>
@@ -32904,10 +32930,10 @@
         <v>11</v>
       </c>
       <c r="D1195" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1195" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1195" s="5" t="s">
         <v>8</v>
@@ -32916,12 +32942,12 @@
         <v>10</v>
       </c>
       <c r="H1195" s="12">
-        <v>89104888338</v>
+        <v>89175324430</v>
       </c>
     </row>
     <row r="1196" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1196" s="14" t="s">
-        <v>710</v>
+      <c r="A1196" s="5" t="s">
+        <v>746</v>
       </c>
       <c r="B1196" s="25" t="s">
         <v>149</v>
@@ -32930,24 +32956,24 @@
         <v>11</v>
       </c>
       <c r="D1196" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1196" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1196" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1196" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1196" s="12">
-        <v>89175324430</v>
+        <v>79119135035</v>
       </c>
     </row>
     <row r="1197" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1197" s="5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B1197" s="25" t="s">
         <v>149</v>
@@ -32959,7 +32985,7 @@
         <v>7</v>
       </c>
       <c r="E1197" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1197" s="5" t="s">
         <v>10</v>
@@ -32968,12 +32994,12 @@
         <v>8</v>
       </c>
       <c r="H1197" s="12">
-        <v>79119135035</v>
+        <v>89161192751</v>
       </c>
     </row>
     <row r="1198" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1198" s="5" t="s">
-        <v>747</v>
+        <v>633</v>
       </c>
       <c r="B1198" s="25" t="s">
         <v>149</v>
@@ -32982,10 +33008,10 @@
         <v>11</v>
       </c>
       <c r="D1198" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1198" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1198" s="5" t="s">
         <v>10</v>
@@ -32994,38 +33020,35 @@
         <v>8</v>
       </c>
       <c r="H1198" s="12">
-        <v>89161192751</v>
+        <v>89174065790</v>
       </c>
     </row>
     <row r="1199" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1199" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="B1199" s="25" t="s">
-        <v>149</v>
+        <v>748</v>
+      </c>
+      <c r="B1199" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1199" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1199" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1199" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1199" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G1199" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="H1199" s="12">
-        <v>89174065790</v>
       </c>
     </row>
     <row r="1200" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1200" s="5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B1200" s="19" t="s">
         <v>224</v>
@@ -33037,7 +33060,7 @@
         <v>7</v>
       </c>
       <c r="E1200" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1200" s="5" t="s">
         <v>10</v>
@@ -33048,7 +33071,7 @@
     </row>
     <row r="1201" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1201" s="5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B1201" s="19" t="s">
         <v>224</v>
@@ -33060,7 +33083,7 @@
         <v>7</v>
       </c>
       <c r="E1201" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1201" s="5" t="s">
         <v>10</v>
@@ -33071,10 +33094,10 @@
     </row>
     <row r="1202" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1202" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="B1202" s="19" t="s">
-        <v>224</v>
+        <v>751</v>
+      </c>
+      <c r="B1202" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1202" s="5" t="s">
         <v>6</v>
@@ -33083,76 +33106,76 @@
         <v>7</v>
       </c>
       <c r="E1202" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1202" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1202" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1203" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1203" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1203" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1203" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1203" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1202" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1202" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1203" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="B1203" s="22" t="s">
+      <c r="F1203" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1203" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1204" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1204" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="C1203" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1203" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1203" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1203" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1203" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1204" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="B1204" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="C1204" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1204" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1204" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1204" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1204" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1205" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1205" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="B1205" s="22" t="s">
-        <v>181</v>
+      <c r="A1205" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1205" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1205" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1205" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1205" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1205" s="5" t="s">
         <v>8</v>
@@ -33162,8 +33185,8 @@
       </c>
     </row>
     <row r="1206" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1206" s="14" t="s">
-        <v>753</v>
+      <c r="A1206" s="5" t="s">
+        <v>754</v>
       </c>
       <c r="B1206" s="19" t="s">
         <v>224</v>
@@ -33172,7 +33195,7 @@
         <v>11</v>
       </c>
       <c r="D1206" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1206" s="5" t="s">
         <v>13</v>
@@ -33186,7 +33209,7 @@
     </row>
     <row r="1207" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1207" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B1207" s="19" t="s">
         <v>224</v>
@@ -33195,24 +33218,24 @@
         <v>11</v>
       </c>
       <c r="D1207" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1207" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1207" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1207" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1208" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1208" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="B1208" s="19" t="s">
-        <v>224</v>
+      <c r="A1208" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1208" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1208" s="5" t="s">
         <v>11</v>
@@ -33221,7 +33244,7 @@
         <v>7</v>
       </c>
       <c r="E1208" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1208" s="5" t="s">
         <v>10</v>
@@ -33234,14 +33257,14 @@
       <c r="A1209" s="27" t="s">
         <v>756</v>
       </c>
-      <c r="B1209" s="22" t="s">
-        <v>181</v>
+      <c r="B1209" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1209" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1209" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1209" s="5" t="s">
         <v>13</v>
@@ -33254,31 +33277,31 @@
       </c>
     </row>
     <row r="1210" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1210" s="27" t="s">
-        <v>756</v>
-      </c>
-      <c r="B1210" s="19" t="s">
-        <v>224</v>
+      <c r="A1210" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B1210" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1210" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1210" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1210" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1210" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1210" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1211" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1211" s="14" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="B1211" s="22" t="s">
         <v>181</v>
@@ -33287,10 +33310,10 @@
         <v>11</v>
       </c>
       <c r="D1211" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1211" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1211" s="5" t="s">
         <v>8</v>
@@ -33300,31 +33323,31 @@
       </c>
     </row>
     <row r="1212" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1212" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="B1212" s="22" t="s">
-        <v>181</v>
+      <c r="A1212" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B1212" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1212" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1212" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1212" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1212" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1212" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1213" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1213" s="5" t="s">
-        <v>758</v>
+      <c r="A1213" s="14" t="s">
+        <v>757</v>
       </c>
       <c r="B1213" s="19" t="s">
         <v>224</v>
@@ -33333,24 +33356,24 @@
         <v>11</v>
       </c>
       <c r="D1213" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1213" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1213" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1213" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1214" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1214" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="B1214" s="19" t="s">
-        <v>224</v>
+      <c r="A1214" s="27" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1214" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1214" s="5" t="s">
         <v>11</v>
@@ -33362,27 +33385,27 @@
         <v>14</v>
       </c>
       <c r="F1214" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1214" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1215" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1215" s="27" t="s">
         <v>759</v>
       </c>
-      <c r="B1215" s="22" t="s">
-        <v>181</v>
+      <c r="B1215" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1215" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1215" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1215" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1215" s="5" t="s">
         <v>10</v>
@@ -33392,11 +33415,11 @@
       </c>
     </row>
     <row r="1216" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1216" s="27" t="s">
-        <v>759</v>
-      </c>
-      <c r="B1216" s="19" t="s">
-        <v>224</v>
+      <c r="A1216" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B1216" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1216" s="5" t="s">
         <v>11</v>
@@ -33408,27 +33431,27 @@
         <v>15</v>
       </c>
       <c r="F1216" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1216" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1217" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1217" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="B1217" s="22" t="s">
-        <v>181</v>
+      <c r="A1217" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1217" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1217" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1217" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E1217" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1217" s="5" t="s">
         <v>8</v>
@@ -33439,7 +33462,7 @@
     </row>
     <row r="1218" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1218" s="14" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="B1218" s="19" t="s">
         <v>224</v>
@@ -33448,7 +33471,7 @@
         <v>6</v>
       </c>
       <c r="D1218" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1218" s="5" t="s">
         <v>13</v>
@@ -33462,19 +33485,19 @@
     </row>
     <row r="1219" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1219" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="B1219" s="19" t="s">
-        <v>224</v>
+        <v>707</v>
+      </c>
+      <c r="B1219" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1219" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1219" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E1219" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1219" s="5" t="s">
         <v>8</v>
@@ -33482,10 +33505,13 @@
       <c r="G1219" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="H1219" s="12">
+        <v>89801592439</v>
+      </c>
     </row>
     <row r="1220" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1220" s="14" t="s">
-        <v>707</v>
+      <c r="A1220" s="5" t="s">
+        <v>761</v>
       </c>
       <c r="B1220" s="25" t="s">
         <v>149</v>
@@ -33494,24 +33520,24 @@
         <v>11</v>
       </c>
       <c r="D1220" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1220" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1220" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1220" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1220" s="12">
-        <v>89801592439</v>
+        <v>89819131532</v>
       </c>
     </row>
     <row r="1221" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1221" s="5" t="s">
-        <v>761</v>
+      <c r="A1221" s="14" t="s">
+        <v>753</v>
       </c>
       <c r="B1221" s="25" t="s">
         <v>149</v>
@@ -33520,10 +33546,10 @@
         <v>11</v>
       </c>
       <c r="D1221" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1221" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1221" s="5" t="s">
         <v>10</v>
@@ -33532,21 +33558,21 @@
         <v>8</v>
       </c>
       <c r="H1221" s="12">
-        <v>89819131532</v>
+        <v>89854584952</v>
       </c>
     </row>
     <row r="1222" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1222" s="14" t="s">
-        <v>753</v>
+      <c r="A1222" s="5" t="s">
+        <v>762</v>
       </c>
       <c r="B1222" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1222" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1222" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1222" s="5" t="s">
         <v>14</v>
@@ -33558,12 +33584,12 @@
         <v>8</v>
       </c>
       <c r="H1222" s="12">
-        <v>89854584952</v>
+        <v>89157515179</v>
       </c>
     </row>
     <row r="1223" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1223" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B1223" s="25" t="s">
         <v>149</v>
@@ -33572,7 +33598,7 @@
         <v>6</v>
       </c>
       <c r="D1223" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1223" s="5" t="s">
         <v>14</v>
@@ -33584,12 +33610,12 @@
         <v>8</v>
       </c>
       <c r="H1223" s="12">
-        <v>89157515179</v>
+        <v>89817682243</v>
       </c>
     </row>
     <row r="1224" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1224" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B1224" s="25" t="s">
         <v>149</v>
@@ -33598,24 +33624,24 @@
         <v>6</v>
       </c>
       <c r="D1224" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1224" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1224" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1224" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1224" s="12">
-        <v>89817682243</v>
+        <v>89139231989</v>
       </c>
     </row>
     <row r="1225" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1225" s="5" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B1225" s="25" t="s">
         <v>149</v>
@@ -33630,30 +33656,30 @@
         <v>14</v>
       </c>
       <c r="F1225" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1225" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1225" s="12">
-        <v>89139231989</v>
+        <v>89111191238</v>
       </c>
     </row>
     <row r="1226" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1226" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B1226" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1226" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1226" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1226" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1226" s="5" t="s">
         <v>10</v>
@@ -33662,12 +33688,12 @@
         <v>8</v>
       </c>
       <c r="H1226" s="12">
-        <v>89111191238</v>
+        <v>89149066211</v>
       </c>
     </row>
     <row r="1227" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1227" s="5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B1227" s="25" t="s">
         <v>149</v>
@@ -33682,67 +33708,64 @@
         <v>19</v>
       </c>
       <c r="F1227" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1227" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1227" s="12">
-        <v>89149066211</v>
+        <v>89117192363</v>
       </c>
     </row>
     <row r="1228" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1228" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="B1228" s="25" t="s">
-        <v>149</v>
+      <c r="A1228" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1228" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1228" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1228" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1228" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1228" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1228" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1228" s="12">
-        <v>89117192363</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1229" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1229" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="B1229" s="23" t="s">
-        <v>140</v>
+      <c r="A1229" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1229" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1229" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E1229" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F1229" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1229" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1230" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1230" s="5" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B1230" s="22" t="s">
         <v>181</v>
@@ -33751,21 +33774,21 @@
         <v>6</v>
       </c>
       <c r="D1230" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1230" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1230" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1230" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1231" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1231" s="5" t="s">
-        <v>769</v>
+      <c r="A1231" s="14" t="s">
+        <v>762</v>
       </c>
       <c r="B1231" s="22" t="s">
         <v>181</v>
@@ -33777,18 +33800,18 @@
         <v>12</v>
       </c>
       <c r="E1231" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1231" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1231" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1232" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1232" s="14" t="s">
-        <v>762</v>
+      <c r="A1232" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="B1232" s="22" t="s">
         <v>181</v>
@@ -33800,18 +33823,18 @@
         <v>12</v>
       </c>
       <c r="E1232" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1232" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1232" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1233" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1233" s="5" t="s">
-        <v>763</v>
+      <c r="A1233" s="14" t="s">
+        <v>770</v>
       </c>
       <c r="B1233" s="22" t="s">
         <v>181</v>
@@ -33820,7 +33843,7 @@
         <v>6</v>
       </c>
       <c r="D1233" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1233" s="5" t="s">
         <v>13</v>
@@ -33834,7 +33857,7 @@
     </row>
     <row r="1234" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1234" s="14" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1234" s="22" t="s">
         <v>181</v>
@@ -33843,21 +33866,21 @@
         <v>6</v>
       </c>
       <c r="D1234" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1234" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1234" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1234" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="1235" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1235" s="14" t="s">
-        <v>771</v>
+      <c r="A1235" s="5" t="s">
+        <v>772</v>
       </c>
       <c r="B1235" s="22" t="s">
         <v>181</v>
@@ -33866,21 +33889,21 @@
         <v>6</v>
       </c>
       <c r="D1235" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1235" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1235" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G1235" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1236" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1236" s="5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B1236" s="22" t="s">
         <v>181</v>
@@ -33889,7 +33912,7 @@
         <v>6</v>
       </c>
       <c r="D1236" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1236" s="5" t="s">
         <v>14</v>
@@ -33903,7 +33926,7 @@
     </row>
     <row r="1237" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1237" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B1237" s="22" t="s">
         <v>181</v>
@@ -33915,7 +33938,7 @@
         <v>9</v>
       </c>
       <c r="E1237" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1237" s="5" t="s">
         <v>8</v>
@@ -33926,7 +33949,7 @@
     </row>
     <row r="1238" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1238" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B1238" s="22" t="s">
         <v>181</v>
@@ -33935,21 +33958,21 @@
         <v>6</v>
       </c>
       <c r="D1238" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1238" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1238" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1238" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1239" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1239" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B1239" s="22" t="s">
         <v>181</v>
@@ -33958,10 +33981,10 @@
         <v>6</v>
       </c>
       <c r="D1239" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1239" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1239" s="5" t="s">
         <v>10</v>
@@ -33971,20 +33994,20 @@
       </c>
     </row>
     <row r="1240" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1240" s="5" t="s">
-        <v>776</v>
+      <c r="A1240" s="14" t="s">
+        <v>615</v>
       </c>
       <c r="B1240" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1240" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1240" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1240" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1240" s="5" t="s">
         <v>10</v>
@@ -33995,7 +34018,7 @@
     </row>
     <row r="1241" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1241" s="14" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="B1241" s="22" t="s">
         <v>181</v>
@@ -34007,7 +34030,7 @@
         <v>12</v>
       </c>
       <c r="E1241" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1241" s="5" t="s">
         <v>10</v>
@@ -34017,8 +34040,8 @@
       </c>
     </row>
     <row r="1242" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1242" s="14" t="s">
-        <v>650</v>
+      <c r="A1242" s="5" t="s">
+        <v>777</v>
       </c>
       <c r="B1242" s="22" t="s">
         <v>181</v>
@@ -34027,21 +34050,21 @@
         <v>11</v>
       </c>
       <c r="D1242" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1242" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1242" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1242" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1243" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1243" s="5" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B1243" s="22" t="s">
         <v>181</v>
@@ -34050,7 +34073,7 @@
         <v>11</v>
       </c>
       <c r="D1243" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1243" s="5" t="s">
         <v>15</v>
@@ -34063,14 +34086,14 @@
       </c>
     </row>
     <row r="1244" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1244" s="5" t="s">
-        <v>778</v>
+      <c r="A1244" s="14" t="s">
+        <v>779</v>
       </c>
       <c r="B1244" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1244" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1244" s="5" t="s">
         <v>9</v>
@@ -34086,31 +34109,31 @@
       </c>
     </row>
     <row r="1245" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1245" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="B1245" s="22" t="s">
-        <v>181</v>
+      <c r="A1245" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B1245" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1245" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1245" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1245" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1245" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1245" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1246" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1246" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1246" s="19" t="s">
         <v>224</v>
@@ -34122,7 +34145,7 @@
         <v>12</v>
       </c>
       <c r="E1246" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1246" s="5" t="s">
         <v>10</v>
@@ -34133,7 +34156,7 @@
     </row>
     <row r="1247" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1247" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B1247" s="19" t="s">
         <v>224</v>
@@ -34145,18 +34168,18 @@
         <v>12</v>
       </c>
       <c r="E1247" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1247" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1247" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1248" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1248" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B1248" s="19" t="s">
         <v>224</v>
@@ -34165,7 +34188,7 @@
         <v>6</v>
       </c>
       <c r="D1248" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1248" s="5" t="s">
         <v>14</v>
@@ -34179,7 +34202,7 @@
     </row>
     <row r="1249" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1249" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B1249" s="19" t="s">
         <v>224</v>
@@ -34191,7 +34214,7 @@
         <v>9</v>
       </c>
       <c r="E1249" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1249" s="5" t="s">
         <v>8</v>
@@ -34202,7 +34225,7 @@
     </row>
     <row r="1250" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1250" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B1250" s="19" t="s">
         <v>224</v>
@@ -34211,21 +34234,21 @@
         <v>6</v>
       </c>
       <c r="D1250" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1250" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1250" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1250" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1251" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1251" s="5" t="s">
-        <v>785</v>
+      <c r="A1251" s="14" t="s">
+        <v>770</v>
       </c>
       <c r="B1251" s="19" t="s">
         <v>224</v>
@@ -34234,21 +34257,21 @@
         <v>6</v>
       </c>
       <c r="D1251" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1251" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1251" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1251" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1252" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1252" s="14" t="s">
-        <v>770</v>
+      <c r="A1252" s="5" t="s">
+        <v>786</v>
       </c>
       <c r="B1252" s="19" t="s">
         <v>224</v>
@@ -34257,7 +34280,7 @@
         <v>6</v>
       </c>
       <c r="D1252" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1252" s="5" t="s">
         <v>15</v>
@@ -34270,8 +34293,8 @@
       </c>
     </row>
     <row r="1253" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1253" s="5" t="s">
-        <v>786</v>
+      <c r="A1253" s="14" t="s">
+        <v>771</v>
       </c>
       <c r="B1253" s="19" t="s">
         <v>224</v>
@@ -34280,10 +34303,10 @@
         <v>6</v>
       </c>
       <c r="D1253" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1253" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1253" s="5" t="s">
         <v>8</v>
@@ -34293,8 +34316,8 @@
       </c>
     </row>
     <row r="1254" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1254" s="14" t="s">
-        <v>771</v>
+      <c r="A1254" s="5" t="s">
+        <v>787</v>
       </c>
       <c r="B1254" s="19" t="s">
         <v>224</v>
@@ -34303,21 +34326,21 @@
         <v>6</v>
       </c>
       <c r="D1254" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1254" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1254" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1254" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1255" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1255" s="5" t="s">
-        <v>787</v>
+      <c r="A1255" s="14" t="s">
+        <v>788</v>
       </c>
       <c r="B1255" s="19" t="s">
         <v>224</v>
@@ -34326,10 +34349,10 @@
         <v>6</v>
       </c>
       <c r="D1255" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1255" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1255" s="5" t="s">
         <v>10</v>
@@ -34339,8 +34362,8 @@
       </c>
     </row>
     <row r="1256" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1256" s="14" t="s">
-        <v>788</v>
+      <c r="A1256" s="5" t="s">
+        <v>789</v>
       </c>
       <c r="B1256" s="19" t="s">
         <v>224</v>
@@ -34349,7 +34372,7 @@
         <v>6</v>
       </c>
       <c r="D1256" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1256" s="5" t="s">
         <v>14</v>
@@ -34362,8 +34385,8 @@
       </c>
     </row>
     <row r="1257" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1257" s="5" t="s">
-        <v>789</v>
+      <c r="A1257" s="14" t="s">
+        <v>779</v>
       </c>
       <c r="B1257" s="19" t="s">
         <v>224</v>
@@ -34372,10 +34395,10 @@
         <v>6</v>
       </c>
       <c r="D1257" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1257" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1257" s="5" t="s">
         <v>10</v>
@@ -34386,19 +34409,19 @@
     </row>
     <row r="1258" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1258" s="14" t="s">
-        <v>779</v>
+        <v>650</v>
       </c>
       <c r="B1258" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1258" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1258" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1258" s="5" t="s">
         <v>10</v>
@@ -34408,8 +34431,8 @@
       </c>
     </row>
     <row r="1259" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1259" s="14" t="s">
-        <v>650</v>
+      <c r="A1259" s="5" t="s">
+        <v>790</v>
       </c>
       <c r="B1259" s="19" t="s">
         <v>224</v>
@@ -34418,7 +34441,7 @@
         <v>11</v>
       </c>
       <c r="D1259" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1259" s="5" t="s">
         <v>14</v>
@@ -34431,20 +34454,20 @@
       </c>
     </row>
     <row r="1260" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1260" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="B1260" s="19" t="s">
-        <v>224</v>
+      <c r="A1260" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1260" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1260" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1260" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E1260" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1260" s="5" t="s">
         <v>10</v>
@@ -34455,16 +34478,16 @@
     </row>
     <row r="1261" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1261" s="14" t="s">
-        <v>155</v>
+        <v>325</v>
       </c>
       <c r="B1261" s="23" t="s">
         <v>140</v>
       </c>
       <c r="C1261" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1261" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1261" s="5" t="s">
         <v>19</v>
@@ -34478,7 +34501,7 @@
     </row>
     <row r="1262" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1262" s="14" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B1262" s="23" t="s">
         <v>140</v>
@@ -34490,7 +34513,7 @@
         <v>16</v>
       </c>
       <c r="E1262" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1262" s="5" t="s">
         <v>10</v>
@@ -34501,7 +34524,7 @@
     </row>
     <row r="1263" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1263" s="14" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B1263" s="23" t="s">
         <v>140</v>
@@ -34513,7 +34536,7 @@
         <v>16</v>
       </c>
       <c r="E1263" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1263" s="5" t="s">
         <v>10</v>
@@ -34524,42 +34547,42 @@
     </row>
     <row r="1264" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1264" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1264" s="23" t="s">
-        <v>140</v>
+        <v>651</v>
+      </c>
+      <c r="B1264" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1264" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1264" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F1264" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1264" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1265" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1265" s="14" t="s">
-        <v>651</v>
+        <v>330</v>
       </c>
       <c r="B1265" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C1265" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1265" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E1265" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1265" s="5" t="s">
         <v>8</v>
@@ -34570,7 +34593,7 @@
     </row>
     <row r="1266" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1266" s="14" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B1266" s="24" t="s">
         <v>150</v>
@@ -34579,21 +34602,21 @@
         <v>11</v>
       </c>
       <c r="D1266" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1266" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1266" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1266" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1267" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1267" s="14" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="B1267" s="24" t="s">
         <v>150</v>
@@ -34602,67 +34625,67 @@
         <v>11</v>
       </c>
       <c r="D1267" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1267" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1267" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1267" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1268" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1268" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1268" s="24" t="s">
-        <v>150</v>
+      <c r="A1268" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1268" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1268" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1268" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E1268" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1268" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1268" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1269" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1269" s="5" t="s">
-        <v>703</v>
+        <v>791</v>
       </c>
       <c r="B1269" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1269" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1269" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1269" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1269" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1270" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1270" s="5" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B1270" s="22" t="s">
         <v>181</v>
@@ -34671,30 +34694,30 @@
         <v>6</v>
       </c>
       <c r="D1270" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1270" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1270" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1270" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1271" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1271" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="B1271" s="22" t="s">
-        <v>181</v>
+        <v>793</v>
+      </c>
+      <c r="B1271" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1271" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1271" s="5" t="s">
         <v>13</v>
@@ -34708,16 +34731,16 @@
     </row>
     <row r="1272" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1272" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="B1272" s="19" t="s">
-        <v>224</v>
+        <v>794</v>
+      </c>
+      <c r="B1272" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1272" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1272" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1272" s="5" t="s">
         <v>13</v>
@@ -34728,10 +34751,13 @@
       <c r="G1272" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="H1272" s="12">
+        <v>89185472249</v>
+      </c>
     </row>
     <row r="1273" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1273" s="5" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B1273" s="25" t="s">
         <v>149</v>
@@ -34743,7 +34769,7 @@
         <v>12</v>
       </c>
       <c r="E1273" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1273" s="5" t="s">
         <v>10</v>
@@ -34752,12 +34778,12 @@
         <v>8</v>
       </c>
       <c r="H1273" s="12">
-        <v>89185472249</v>
+        <v>89163296853</v>
       </c>
     </row>
     <row r="1274" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1274" s="5" t="s">
-        <v>795</v>
+      <c r="A1274" s="14" t="s">
+        <v>788</v>
       </c>
       <c r="B1274" s="25" t="s">
         <v>149</v>
@@ -34766,33 +34792,33 @@
         <v>6</v>
       </c>
       <c r="D1274" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1274" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1274" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1274" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1274" s="12">
-        <v>89163296853</v>
+        <v>89197718180</v>
       </c>
     </row>
     <row r="1275" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1275" s="14" t="s">
-        <v>788</v>
+      <c r="A1275" s="5" t="s">
+        <v>796</v>
       </c>
       <c r="B1275" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1275" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1275" s="5" t="s">
         <v>15</v>
@@ -34804,38 +34830,38 @@
         <v>10</v>
       </c>
       <c r="H1275" s="12">
-        <v>89197718180</v>
+        <v>89851660864</v>
       </c>
     </row>
     <row r="1276" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1276" s="5" t="s">
-        <v>796</v>
+      <c r="A1276" s="14" t="s">
+        <v>489</v>
       </c>
       <c r="B1276" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1276" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1276" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1276" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1276" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1276" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1276" s="12">
-        <v>89851660864</v>
+        <v>89171470647</v>
       </c>
     </row>
     <row r="1277" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1277" s="14" t="s">
-        <v>489</v>
+        <v>770</v>
       </c>
       <c r="B1277" s="25" t="s">
         <v>149</v>
@@ -34844,24 +34870,24 @@
         <v>6</v>
       </c>
       <c r="D1277" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1277" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1277" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1277" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1277" s="12">
-        <v>89171470647</v>
+        <v>89119497131</v>
       </c>
     </row>
     <row r="1278" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1278" s="14" t="s">
-        <v>770</v>
+      <c r="A1278" s="5" t="s">
+        <v>797</v>
       </c>
       <c r="B1278" s="25" t="s">
         <v>149</v>
@@ -34870,10 +34896,10 @@
         <v>6</v>
       </c>
       <c r="D1278" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1278" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1278" s="5" t="s">
         <v>8</v>
@@ -34882,12 +34908,12 @@
         <v>10</v>
       </c>
       <c r="H1278" s="12">
-        <v>89119497131</v>
+        <v>89831366311</v>
       </c>
     </row>
     <row r="1279" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1279" s="5" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B1279" s="25" t="s">
         <v>149</v>
@@ -34896,7 +34922,7 @@
         <v>6</v>
       </c>
       <c r="D1279" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1279" s="5" t="s">
         <v>14</v>
@@ -34908,12 +34934,12 @@
         <v>10</v>
       </c>
       <c r="H1279" s="12">
-        <v>89831366311</v>
+        <v>89105976009</v>
       </c>
     </row>
     <row r="1280" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1280" s="5" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B1280" s="25" t="s">
         <v>149</v>
@@ -34922,24 +34948,24 @@
         <v>6</v>
       </c>
       <c r="D1280" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1280" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1280" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1280" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1280" s="12">
-        <v>89105976009</v>
+        <v>89163255703</v>
       </c>
     </row>
     <row r="1281" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1281" s="5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B1281" s="25" t="s">
         <v>149</v>
@@ -34948,7 +34974,7 @@
         <v>6</v>
       </c>
       <c r="D1281" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1281" s="5" t="s">
         <v>15</v>
@@ -34960,37 +34986,287 @@
         <v>8</v>
       </c>
       <c r="H1281" s="12">
-        <v>89163255703</v>
+        <v>89162191007</v>
       </c>
     </row>
     <row r="1282" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1282" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="B1282" s="25" t="s">
-        <v>149</v>
+      <c r="A1282" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1282" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1282" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1282" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1282" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1282" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1283" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1283" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1283" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1283" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1283" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1283" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1283" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1284" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1284" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1284" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1284" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1284" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1284" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1284" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1285" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1285" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1285" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1285" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1285" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1285" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1285" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1286" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B1286" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1286" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1286" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1286" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1286" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1286" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1287" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B1287" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1287" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1287" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1287" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1287" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1287" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1288" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1288" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1288" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1288" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1288" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1288" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1288" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1289" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B1289" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1289" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1289" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1282" s="5" t="s">
+      <c r="E1289" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1282" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1282" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1282" s="12">
-        <v>89162191007</v>
+      <c r="F1289" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1289" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1290" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1290" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1290" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1290" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1290" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1290" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1290" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1291" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1291" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1291" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1291" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1291" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1291" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1291" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1292" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B1292" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1292" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1292" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1292" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1292" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1292" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1293" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B1293" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1293" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1293" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1293" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1293" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1293" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1069" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H1068" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380894E2-16E4-47EA-A9E2-3050CFF7A519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CDC47-277D-45F0-90F3-452EB3F03859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="630" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="1575" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -3866,8 +3866,8 @@
   </sheetPr>
   <dimension ref="A1:H1293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A970" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A970" sqref="A970:XFD970"/>
+    <sheetView tabSelected="1" topLeftCell="A801" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A801" sqref="A801:H801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23220,16 +23220,16 @@
         <v>11</v>
       </c>
       <c r="D801" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E801" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F801" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G801" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H801" s="5"/>
     </row>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CDC47-277D-45F0-90F3-452EB3F03859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F0E6B-3BFC-4F00-ADF4-2C40053E0D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="1575" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="1380" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9099" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9113" uniqueCount="811">
   <si>
     <t>ФИО</t>
   </si>
@@ -3359,6 +3359,12 @@
   </si>
   <si>
     <t>Мурзина Светлана Валентиновна</t>
+  </si>
+  <si>
+    <t>Ялчын Дарья Муратовна</t>
+  </si>
+  <si>
+    <t>Орехова Дарья Алексеевна</t>
   </si>
 </sst>
 </file>
@@ -3864,10 +3870,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1293"/>
+  <dimension ref="A1:H1295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A801" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A801" sqref="A801:H801"/>
+    <sheetView tabSelected="1" topLeftCell="A1287" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1294" sqref="A1294:G1295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35262,6 +35268,52 @@
         <v>8</v>
       </c>
       <c r="G1293" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1294" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="B1294" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1294" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1294" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1294" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1294" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1294" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1295" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B1295" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1295" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1295" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1295" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1295" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1295" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F0E6B-3BFC-4F00-ADF4-2C40053E0D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A200BE-0D06-4296-9E4E-D12188B76458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4095" yWindow="1380" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9113" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9120" uniqueCount="811">
   <si>
     <t>ФИО</t>
   </si>
@@ -3870,10 +3870,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1295"/>
+  <dimension ref="A1:H1296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1287" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1294" sqref="A1294:G1295"/>
+      <selection activeCell="A1296" sqref="A1296:G1296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35314,6 +35314,29 @@
         <v>8</v>
       </c>
       <c r="G1295" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1296" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1296" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1296" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1296" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1296" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1296" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1296" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A200BE-0D06-4296-9E4E-D12188B76458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F06CF-26C0-4258-9E0F-4E6F7CAC9650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4095" yWindow="1380" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3872,8 +3872,8 @@
   </sheetPr>
   <dimension ref="A1:H1296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1287" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1296" sqref="A1296:G1296"/>
+    <sheetView tabSelected="1" topLeftCell="A802" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A802" sqref="A802:G802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23250,16 +23250,16 @@
         <v>11</v>
       </c>
       <c r="D802" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E802" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F802" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G802" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H802" s="5"/>
     </row>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F06CF-26C0-4258-9E0F-4E6F7CAC9650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30709873-97CF-4DFB-9F87-8619B955E511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="1380" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1725" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9120" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9169" uniqueCount="814">
   <si>
     <t>ФИО</t>
   </si>
@@ -3365,6 +3365,15 @@
   </si>
   <si>
     <t>Орехова Дарья Алексеевна</t>
+  </si>
+  <si>
+    <t>Володина Валерия Романовна</t>
+  </si>
+  <si>
+    <t>Смирнова Анастасия Сергеевна</t>
+  </si>
+  <si>
+    <t>Прилуков Константин Павлович</t>
   </si>
 </sst>
 </file>
@@ -3870,10 +3879,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1296"/>
+  <dimension ref="A1:H1303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A802" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A802" sqref="A802:G802"/>
+    <sheetView tabSelected="1" topLeftCell="A1289" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1297" sqref="A1297:G1303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35337,6 +35346,167 @@
         <v>8</v>
       </c>
       <c r="G1296" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1297" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B1297" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1297" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1297" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1297" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1297" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1297" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1298" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B1298" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1298" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1298" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1298" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1298" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1298" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1299" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B1299" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1299" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1299" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1299" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1299" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1299" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1300" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1300" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1300" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1300" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1300" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1300" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1300" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1301" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1301" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1301" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1301" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1301" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1301" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1301" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1302" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1302" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1302" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1302" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1302" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1302" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1302" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1303" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B1303" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1303" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1303" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1303" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1303" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1303" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30709873-97CF-4DFB-9F87-8619B955E511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E18896-1259-4502-9D53-FAB82D106A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1725" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="2070" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9169" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9281" uniqueCount="827">
   <si>
     <t>ФИО</t>
   </si>
@@ -3374,6 +3374,45 @@
   </si>
   <si>
     <t>Прилуков Константин Павлович</t>
+  </si>
+  <si>
+    <t>Алексеева Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>Башкина Виктория Данииловна</t>
+  </si>
+  <si>
+    <t>Серегина Наталия Эрленовна</t>
+  </si>
+  <si>
+    <t>Александрова Елена Михайловна</t>
+  </si>
+  <si>
+    <t>Михайлова Марина Николаевна</t>
+  </si>
+  <si>
+    <t>Филлер константин дмитриевич</t>
+  </si>
+  <si>
+    <t>Зайцева Елизавета Андреевна</t>
+  </si>
+  <si>
+    <t>Евтюхова Ксения Александровна</t>
+  </si>
+  <si>
+    <t>Папикян Артём Дмитриевич</t>
+  </si>
+  <si>
+    <t>Бободжонова Сумайя Ахлюддиновна</t>
+  </si>
+  <si>
+    <t>Габбасова Алия Рустэмовна</t>
+  </si>
+  <si>
+    <t>Голубева Анастасия Андреевна</t>
+  </si>
+  <si>
+    <t>Филаретова Екатерина Юрьевна</t>
   </si>
 </sst>
 </file>
@@ -3582,7 +3621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3660,6 +3699,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3879,10 +3921,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1303"/>
+  <dimension ref="A1:H1319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1289" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1297" sqref="A1297:G1303"/>
+    <sheetView tabSelected="1" topLeftCell="A1301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1304" sqref="A1304:H1319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35349,7 +35391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1297" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1297" s="5" t="s">
         <v>811</v>
       </c>
@@ -35372,7 +35414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1298" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1298" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1298" s="5" t="s">
         <v>802</v>
       </c>
@@ -35395,7 +35437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1299" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1299" s="5" t="s">
         <v>812</v>
       </c>
@@ -35418,7 +35460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1300" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1300" s="5" t="s">
         <v>709</v>
       </c>
@@ -35441,7 +35483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1301" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1301" s="5" t="s">
         <v>708</v>
       </c>
@@ -35464,7 +35506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1302" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1302" s="5" t="s">
         <v>801</v>
       </c>
@@ -35487,7 +35529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1303" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1303" s="5" t="s">
         <v>813</v>
       </c>
@@ -35508,6 +35550,416 @@
       </c>
       <c r="G1303" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1304" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1304" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1304" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1304" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1304" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1304" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1304" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1304" s="5"/>
+    </row>
+    <row r="1305" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1305" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1305" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1305" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1305" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1305" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1305" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1305" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1305" s="5"/>
+    </row>
+    <row r="1306" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1306" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1306" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1306" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1306" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1306" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1306" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1306" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1306" s="5"/>
+    </row>
+    <row r="1307" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1307" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="B1307" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1307" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1307" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1307" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1307" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1307" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1307" s="28">
+        <v>89153208933</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1308" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="B1308" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1308" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1308" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1308" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1308" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1308" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1308" s="28">
+        <v>89165510593</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1309" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1309" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1309" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1309" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1309" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1309" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1309" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1309" s="28">
+        <v>89182262765</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1310" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B1310" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1310" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1310" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1310" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1310" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1310" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1310" s="28">
+        <v>89168473561</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1311" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B1311" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1311" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1311" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1311" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1311" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1311" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1311" s="28">
+        <v>89150584037</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1312" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1312" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1312" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1312" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1312" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1312" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1312" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1312" s="28">
+        <v>89153202768</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1313" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="B1313" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1313" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1313" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1313" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1313" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1313" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1313" s="28">
+        <v>89105254085</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1314" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="B1314" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1314" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1314" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1314" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1314" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1314" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1314" s="28">
+        <v>89153015069</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1315" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="B1315" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1315" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1315" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1315" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1315" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1315" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1315" s="28">
+        <v>89154525757</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1316" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="B1316" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1316" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1316" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1316" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1316" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1316" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1316" s="28">
+        <v>89961223478</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1317" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B1317" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1317" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1317" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1317" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1317" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1317" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1317" s="28">
+        <v>89259085751</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1318" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B1318" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1318" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1318" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1318" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1318" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1318" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1318" s="28">
+        <v>89105441724</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1319" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1319" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1319" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1319" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1319" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1319" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1319" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1319" s="28">
+        <v>89250063537</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E18896-1259-4502-9D53-FAB82D106A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461B9EDE-2B2D-4152-823E-C53FF435D673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="2070" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1725" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9281" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9309" uniqueCount="828">
   <si>
     <t>ФИО</t>
   </si>
@@ -3413,6 +3413,9 @@
   </si>
   <si>
     <t>Филаретова Екатерина Юрьевна</t>
+  </si>
+  <si>
+    <t>Шклярская Анна Александровна</t>
   </si>
 </sst>
 </file>
@@ -3921,10 +3924,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1319"/>
+  <dimension ref="A1:H1323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1304" sqref="A1304:H1319"/>
+    <sheetView tabSelected="1" topLeftCell="A1310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1320" sqref="A1320:G1323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35960,6 +35963,98 @@
       </c>
       <c r="H1319" s="28">
         <v>89250063537</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1320" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1320" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1320" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1320" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1320" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1320" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1320" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1321" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1321" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1321" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1321" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1321" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1321" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1321" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1322" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1322" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1322" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1322" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1322" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1322" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1322" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1323" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1323" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1323" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1323" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1323" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1323" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1323" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461B9EDE-2B2D-4152-823E-C53FF435D673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549EE345-0484-4989-B40F-109DB6B6FC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1725" windowWidth="22845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2085" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9309" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9323" uniqueCount="830">
   <si>
     <t>ФИО</t>
   </si>
@@ -3416,6 +3416,12 @@
   </si>
   <si>
     <t>Шклярская Анна Александровна</t>
+  </si>
+  <si>
+    <t>Силионова Дарья Андреевна</t>
+  </si>
+  <si>
+    <t>Озеров Владислав Витальевич</t>
   </si>
 </sst>
 </file>
@@ -3924,10 +3930,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1323"/>
+  <dimension ref="A1:H1325"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1320" sqref="A1320:G1323"/>
+      <selection activeCell="A1324" sqref="A1324:G1325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36055,6 +36061,52 @@
       </c>
       <c r="G1323" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1324" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B1324" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1324" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1324" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1324" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1324" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1324" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1325" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B1325" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1325" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1325" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1325" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1325" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1325" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549EE345-0484-4989-B40F-109DB6B6FC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084EBD14-2813-4708-8DDA-508C69E99E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2085" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9323" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9358" uniqueCount="832">
   <si>
     <t>ФИО</t>
   </si>
@@ -3422,6 +3422,12 @@
   </si>
   <si>
     <t>Озеров Владислав Витальевич</t>
+  </si>
+  <si>
+    <t>Грибова Татьяна Семеновна</t>
+  </si>
+  <si>
+    <t>Панкратова Татьяна Викторовна</t>
   </si>
 </sst>
 </file>
@@ -3930,10 +3936,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1325"/>
+  <dimension ref="A1:H1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1324" sqref="A1324:G1325"/>
+    <sheetView tabSelected="1" topLeftCell="A1316" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1326" sqref="A1326:G1330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36106,6 +36112,121 @@
         <v>10</v>
       </c>
       <c r="G1325" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1326" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B1326" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1326" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1326" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1326" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1326" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1326" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1327" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B1327" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1327" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1327" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1327" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1327" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1327" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1328" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1328" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1328" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1328" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1328" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1328" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1328" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1329" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1329" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1329" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1329" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1329" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1329" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1329" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1330" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B1330" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1330" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1330" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1330" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1330" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1330" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084EBD14-2813-4708-8DDA-508C69E99E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE0BFE-B694-47BC-A11A-BEB3C1EBD0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2085" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9358" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9400" uniqueCount="835">
   <si>
     <t>ФИО</t>
   </si>
@@ -3428,6 +3428,15 @@
   </si>
   <si>
     <t>Панкратова Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>Губин Федор Александрович</t>
+  </si>
+  <si>
+    <t>Свириба Мария Сергеевна</t>
+  </si>
+  <si>
+    <t>Табацкая Елена Анатольевна</t>
   </si>
 </sst>
 </file>
@@ -3936,10 +3945,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1330"/>
+  <dimension ref="A1:H1336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1316" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1326" sqref="A1326:G1330"/>
+    <sheetView tabSelected="1" topLeftCell="A1325" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1331" sqref="A1331:H1336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36184,7 +36193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1329" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1329" s="14" t="s">
         <v>801</v>
       </c>
@@ -36207,7 +36216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1330" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1330" s="5" t="s">
         <v>755</v>
       </c>
@@ -36228,6 +36237,160 @@
       </c>
       <c r="G1330" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1331" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1331" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1331" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1331" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1331" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1331" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1331" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1331" s="14"/>
+    </row>
+    <row r="1332" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1332" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="B1332" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1332" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1332" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1332" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1332" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1332" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1332" s="28">
+        <v>89134787213</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1333" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="B1333" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1333" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1333" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1333" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1333" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1333" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1333" s="28">
+        <v>89819501324</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1334" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1334" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1334" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1334" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1334" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1334" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1334" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1334" s="28">
+        <v>89168249447</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1335" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1335" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1335" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1335" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1335" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1335" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1335" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1335" s="28">
+        <v>89197223141</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1336" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1336" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1336" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1336" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1336" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1336" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1336" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1336" s="12">
+        <v>89044445083</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE0BFE-B694-47BC-A11A-BEB3C1EBD0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5EC7B4-FF5A-46C6-A008-4D5EEDBCD0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2085" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9400" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9435" uniqueCount="839">
   <si>
     <t>ФИО</t>
   </si>
@@ -3437,6 +3437,18 @@
   </si>
   <si>
     <t>Табацкая Елена Анатольевна</t>
+  </si>
+  <si>
+    <t>Муллахметова Алсу Айнуровна</t>
+  </si>
+  <si>
+    <t>Резниченко Диана Игоревна</t>
+  </si>
+  <si>
+    <t>Тихоновская Варвара Дмитриевна</t>
+  </si>
+  <si>
+    <t>Курбонова Наталья Викторовна</t>
   </si>
 </sst>
 </file>
@@ -3945,10 +3957,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1336"/>
+  <dimension ref="A1:H1341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1325" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1331" sqref="A1331:H1336"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1341" sqref="A1:H1341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33747,72 +33759,66 @@
       </c>
     </row>
     <row r="1226" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1226" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="B1226" s="25" t="s">
-        <v>149</v>
+      <c r="A1226" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1226" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1226" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1226" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1226" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1226" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G1226" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="H1226" s="12">
-        <v>89149066211</v>
       </c>
     </row>
     <row r="1227" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1227" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="B1227" s="25" t="s">
-        <v>149</v>
+        <v>768</v>
+      </c>
+      <c r="B1227" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1227" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1227" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1227" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1227" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1228" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1228" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1228" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1228" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1227" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1227" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1227" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1227" s="12">
-        <v>89117192363</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1228" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="B1228" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1228" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1228" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E1228" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F1228" s="5" t="s">
         <v>10</v>
@@ -33822,8 +33828,8 @@
       </c>
     </row>
     <row r="1229" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1229" s="5" t="s">
-        <v>768</v>
+      <c r="A1229" s="14" t="s">
+        <v>762</v>
       </c>
       <c r="B1229" s="22" t="s">
         <v>181</v>
@@ -33832,10 +33838,10 @@
         <v>6</v>
       </c>
       <c r="D1229" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1229" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1229" s="5" t="s">
         <v>8</v>
@@ -33846,7 +33852,7 @@
     </row>
     <row r="1230" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1230" s="5" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B1230" s="22" t="s">
         <v>181</v>
@@ -33869,7 +33875,7 @@
     </row>
     <row r="1231" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1231" s="14" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="B1231" s="22" t="s">
         <v>181</v>
@@ -33878,21 +33884,21 @@
         <v>6</v>
       </c>
       <c r="D1231" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1231" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1231" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1231" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1232" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1232" s="5" t="s">
-        <v>763</v>
+      <c r="A1232" s="14" t="s">
+        <v>771</v>
       </c>
       <c r="B1232" s="22" t="s">
         <v>181</v>
@@ -33901,21 +33907,21 @@
         <v>6</v>
       </c>
       <c r="D1232" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1232" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1232" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1232" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="1233" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1233" s="14" t="s">
-        <v>770</v>
+      <c r="A1233" s="5" t="s">
+        <v>772</v>
       </c>
       <c r="B1233" s="22" t="s">
         <v>181</v>
@@ -33924,21 +33930,21 @@
         <v>6</v>
       </c>
       <c r="D1233" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1233" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1233" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1233" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1234" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1234" s="14" t="s">
-        <v>771</v>
+      <c r="A1234" s="5" t="s">
+        <v>773</v>
       </c>
       <c r="B1234" s="22" t="s">
         <v>181</v>
@@ -33947,21 +33953,21 @@
         <v>6</v>
       </c>
       <c r="D1234" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1234" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1234" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G1234" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1235" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1235" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B1235" s="22" t="s">
         <v>181</v>
@@ -33970,10 +33976,10 @@
         <v>6</v>
       </c>
       <c r="D1235" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1235" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1235" s="5" t="s">
         <v>8</v>
@@ -33984,7 +33990,7 @@
     </row>
     <row r="1236" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1236" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B1236" s="22" t="s">
         <v>181</v>
@@ -33993,21 +33999,21 @@
         <v>6</v>
       </c>
       <c r="D1236" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1236" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1236" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1236" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1237" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1237" s="5" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B1237" s="22" t="s">
         <v>181</v>
@@ -34019,30 +34025,30 @@
         <v>9</v>
       </c>
       <c r="E1237" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1237" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1237" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1238" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1238" s="5" t="s">
-        <v>775</v>
+      <c r="A1238" s="14" t="s">
+        <v>615</v>
       </c>
       <c r="B1238" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1238" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1238" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E1238" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1238" s="5" t="s">
         <v>10</v>
@@ -34052,17 +34058,17 @@
       </c>
     </row>
     <row r="1239" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1239" s="5" t="s">
-        <v>776</v>
+      <c r="A1239" s="14" t="s">
+        <v>650</v>
       </c>
       <c r="B1239" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1239" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1239" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1239" s="5" t="s">
         <v>15</v>
@@ -34075,8 +34081,8 @@
       </c>
     </row>
     <row r="1240" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1240" s="14" t="s">
-        <v>615</v>
+      <c r="A1240" s="5" t="s">
+        <v>777</v>
       </c>
       <c r="B1240" s="22" t="s">
         <v>181</v>
@@ -34085,21 +34091,21 @@
         <v>11</v>
       </c>
       <c r="D1240" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1240" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1240" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1240" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1241" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1241" s="14" t="s">
-        <v>650</v>
+      <c r="A1241" s="5" t="s">
+        <v>778</v>
       </c>
       <c r="B1241" s="22" t="s">
         <v>181</v>
@@ -34108,30 +34114,30 @@
         <v>11</v>
       </c>
       <c r="D1241" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1241" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1241" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1241" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1242" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1242" s="5" t="s">
-        <v>777</v>
+      <c r="A1242" s="14" t="s">
+        <v>779</v>
       </c>
       <c r="B1242" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1242" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1242" s="5" t="s">
         <v>15</v>
@@ -34145,53 +34151,53 @@
     </row>
     <row r="1243" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1243" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="B1243" s="22" t="s">
-        <v>181</v>
+        <v>780</v>
+      </c>
+      <c r="B1243" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1243" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1243" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1243" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1243" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1243" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1244" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1244" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="B1244" s="22" t="s">
-        <v>181</v>
+      <c r="A1244" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B1244" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1244" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1244" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1244" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1244" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1244" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1245" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1245" s="5" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B1245" s="19" t="s">
         <v>224</v>
@@ -34203,18 +34209,18 @@
         <v>12</v>
       </c>
       <c r="E1245" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1245" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1245" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1246" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1246" s="5" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B1246" s="19" t="s">
         <v>224</v>
@@ -34223,21 +34229,21 @@
         <v>6</v>
       </c>
       <c r="D1246" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1246" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1246" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1246" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1247" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1247" s="5" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B1247" s="19" t="s">
         <v>224</v>
@@ -34246,10 +34252,10 @@
         <v>6</v>
       </c>
       <c r="D1247" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1247" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1247" s="5" t="s">
         <v>8</v>
@@ -34260,7 +34266,7 @@
     </row>
     <row r="1248" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1248" s="5" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B1248" s="19" t="s">
         <v>224</v>
@@ -34269,21 +34275,21 @@
         <v>6</v>
       </c>
       <c r="D1248" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1248" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1248" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1248" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1249" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1249" s="5" t="s">
-        <v>784</v>
+      <c r="A1249" s="14" t="s">
+        <v>770</v>
       </c>
       <c r="B1249" s="19" t="s">
         <v>224</v>
@@ -34292,10 +34298,10 @@
         <v>6</v>
       </c>
       <c r="D1249" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1249" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1249" s="5" t="s">
         <v>8</v>
@@ -34306,7 +34312,7 @@
     </row>
     <row r="1250" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1250" s="5" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B1250" s="19" t="s">
         <v>224</v>
@@ -34315,21 +34321,21 @@
         <v>6</v>
       </c>
       <c r="D1250" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1250" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1250" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1250" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1251" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1251" s="14" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1251" s="19" t="s">
         <v>224</v>
@@ -34338,10 +34344,10 @@
         <v>6</v>
       </c>
       <c r="D1251" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1251" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1251" s="5" t="s">
         <v>8</v>
@@ -34352,7 +34358,7 @@
     </row>
     <row r="1252" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1252" s="5" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B1252" s="19" t="s">
         <v>224</v>
@@ -34361,21 +34367,21 @@
         <v>6</v>
       </c>
       <c r="D1252" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1252" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1252" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1252" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1253" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1253" s="14" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="B1253" s="19" t="s">
         <v>224</v>
@@ -34384,21 +34390,21 @@
         <v>6</v>
       </c>
       <c r="D1253" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1253" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1253" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1253" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1254" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1254" s="5" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B1254" s="19" t="s">
         <v>224</v>
@@ -34410,7 +34416,7 @@
         <v>12</v>
       </c>
       <c r="E1254" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1254" s="5" t="s">
         <v>10</v>
@@ -34421,7 +34427,7 @@
     </row>
     <row r="1255" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1255" s="14" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="B1255" s="19" t="s">
         <v>224</v>
@@ -34433,7 +34439,7 @@
         <v>9</v>
       </c>
       <c r="E1255" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1255" s="5" t="s">
         <v>10</v>
@@ -34443,17 +34449,17 @@
       </c>
     </row>
     <row r="1256" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1256" s="5" t="s">
-        <v>789</v>
+      <c r="A1256" s="14" t="s">
+        <v>650</v>
       </c>
       <c r="B1256" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C1256" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1256" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1256" s="5" t="s">
         <v>14</v>
@@ -34466,20 +34472,20 @@
       </c>
     </row>
     <row r="1257" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1257" s="14" t="s">
-        <v>779</v>
+      <c r="A1257" s="5" t="s">
+        <v>790</v>
       </c>
       <c r="B1257" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C1257" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1257" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1257" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1257" s="5" t="s">
         <v>10</v>
@@ -34490,19 +34496,19 @@
     </row>
     <row r="1258" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1258" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="B1258" s="19" t="s">
-        <v>224</v>
+        <v>155</v>
+      </c>
+      <c r="B1258" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1258" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1258" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1258" s="5" t="s">
         <v>10</v>
@@ -34512,20 +34518,20 @@
       </c>
     </row>
     <row r="1259" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1259" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="B1259" s="19" t="s">
-        <v>224</v>
+      <c r="A1259" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1259" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1259" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1259" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1259" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1259" s="5" t="s">
         <v>10</v>
@@ -34536,19 +34542,19 @@
     </row>
     <row r="1260" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1260" s="14" t="s">
-        <v>155</v>
+        <v>336</v>
       </c>
       <c r="B1260" s="23" t="s">
         <v>140</v>
       </c>
       <c r="C1260" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1260" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1260" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1260" s="5" t="s">
         <v>10</v>
@@ -34559,7 +34565,7 @@
     </row>
     <row r="1261" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1261" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B1261" s="23" t="s">
         <v>140</v>
@@ -34571,7 +34577,7 @@
         <v>16</v>
       </c>
       <c r="E1261" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1261" s="5" t="s">
         <v>10</v>
@@ -34582,76 +34588,76 @@
     </row>
     <row r="1262" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1262" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1262" s="23" t="s">
-        <v>140</v>
+        <v>651</v>
+      </c>
+      <c r="B1262" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1262" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1262" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1262" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1262" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1262" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1263" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1263" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1263" s="23" t="s">
-        <v>140</v>
+        <v>330</v>
+      </c>
+      <c r="B1263" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1263" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1263" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1263" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1263" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1263" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1264" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1264" s="14" t="s">
-        <v>651</v>
+        <v>335</v>
       </c>
       <c r="B1264" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1264" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1264" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1264" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1264" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1265" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1265" s="14" t="s">
-        <v>330</v>
+        <v>238</v>
       </c>
       <c r="B1265" s="24" t="s">
         <v>150</v>
@@ -34663,7 +34669,7 @@
         <v>17</v>
       </c>
       <c r="E1265" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1265" s="5" t="s">
         <v>8</v>
@@ -34673,20 +34679,20 @@
       </c>
     </row>
     <row r="1266" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1266" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1266" s="24" t="s">
-        <v>150</v>
+      <c r="A1266" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1266" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1266" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1266" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E1266" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1266" s="5" t="s">
         <v>10</v>
@@ -34696,20 +34702,20 @@
       </c>
     </row>
     <row r="1267" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1267" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1267" s="24" t="s">
-        <v>150</v>
+      <c r="A1267" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1267" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1267" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1267" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1267" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1267" s="5" t="s">
         <v>8</v>
@@ -34720,19 +34726,19 @@
     </row>
     <row r="1268" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1268" s="5" t="s">
-        <v>703</v>
+        <v>792</v>
       </c>
       <c r="B1268" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1268" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E1268" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1268" s="5" t="s">
         <v>10</v>
@@ -34743,39 +34749,39 @@
     </row>
     <row r="1269" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1269" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="B1269" s="22" t="s">
-        <v>181</v>
+        <v>793</v>
+      </c>
+      <c r="B1269" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1269" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1269" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1269" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1269" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1270" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1270" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="B1270" s="22" t="s">
-        <v>181</v>
+        <v>794</v>
+      </c>
+      <c r="B1270" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1270" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1270" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1270" s="5" t="s">
         <v>13</v>
@@ -34786,22 +34792,25 @@
       <c r="G1270" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="H1270" s="12">
+        <v>89185472249</v>
+      </c>
     </row>
     <row r="1271" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1271" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="B1271" s="19" t="s">
-        <v>224</v>
+        <v>795</v>
+      </c>
+      <c r="B1271" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1271" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1271" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1271" s="5" t="s">
         <v>10</v>
@@ -34809,10 +34818,13 @@
       <c r="G1271" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="H1271" s="12">
+        <v>89163296853</v>
+      </c>
     </row>
     <row r="1272" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1272" s="5" t="s">
-        <v>794</v>
+      <c r="A1272" s="14" t="s">
+        <v>788</v>
       </c>
       <c r="B1272" s="25" t="s">
         <v>149</v>
@@ -34821,30 +34833,30 @@
         <v>6</v>
       </c>
       <c r="D1272" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1272" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1272" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1272" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1272" s="12">
-        <v>89185472249</v>
+        <v>89197718180</v>
       </c>
     </row>
     <row r="1273" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1273" s="5" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B1273" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1273" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1273" s="5" t="s">
         <v>12</v>
@@ -34853,18 +34865,18 @@
         <v>15</v>
       </c>
       <c r="F1273" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1273" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1273" s="12">
-        <v>89163296853</v>
+        <v>89851660864</v>
       </c>
     </row>
     <row r="1274" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1274" s="14" t="s">
-        <v>788</v>
+        <v>489</v>
       </c>
       <c r="B1274" s="25" t="s">
         <v>149</v>
@@ -34873,36 +34885,36 @@
         <v>6</v>
       </c>
       <c r="D1274" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1274" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1274" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1274" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1274" s="12">
-        <v>89197718180</v>
+        <v>89171470647</v>
       </c>
     </row>
     <row r="1275" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1275" s="5" t="s">
-        <v>796</v>
+      <c r="A1275" s="14" t="s">
+        <v>770</v>
       </c>
       <c r="B1275" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1275" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E1275" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1275" s="5" t="s">
         <v>8</v>
@@ -34911,12 +34923,12 @@
         <v>10</v>
       </c>
       <c r="H1275" s="12">
-        <v>89851660864</v>
+        <v>89119497131</v>
       </c>
     </row>
     <row r="1276" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1276" s="14" t="s">
-        <v>489</v>
+      <c r="A1276" s="5" t="s">
+        <v>797</v>
       </c>
       <c r="B1276" s="25" t="s">
         <v>149</v>
@@ -34925,24 +34937,24 @@
         <v>6</v>
       </c>
       <c r="D1276" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1276" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1276" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1276" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1276" s="12">
-        <v>89171470647</v>
+        <v>89831366311</v>
       </c>
     </row>
     <row r="1277" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1277" s="14" t="s">
-        <v>770</v>
+      <c r="A1277" s="5" t="s">
+        <v>798</v>
       </c>
       <c r="B1277" s="25" t="s">
         <v>149</v>
@@ -34954,7 +34966,7 @@
         <v>12</v>
       </c>
       <c r="E1277" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1277" s="5" t="s">
         <v>8</v>
@@ -34963,12 +34975,12 @@
         <v>10</v>
       </c>
       <c r="H1277" s="12">
-        <v>89119497131</v>
+        <v>89105976009</v>
       </c>
     </row>
     <row r="1278" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1278" s="5" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B1278" s="25" t="s">
         <v>149</v>
@@ -34977,24 +34989,24 @@
         <v>6</v>
       </c>
       <c r="D1278" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1278" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1278" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1278" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1278" s="12">
-        <v>89831366311</v>
+        <v>89163255703</v>
       </c>
     </row>
     <row r="1279" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1279" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B1279" s="25" t="s">
         <v>149</v>
@@ -35006,59 +35018,56 @@
         <v>12</v>
       </c>
       <c r="E1279" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1279" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1279" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1279" s="12">
-        <v>89105976009</v>
+        <v>89162191007</v>
       </c>
     </row>
     <row r="1280" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1280" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="B1280" s="25" t="s">
-        <v>149</v>
+      <c r="A1280" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1280" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1280" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E1280" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1280" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1280" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1280" s="12">
-        <v>89163255703</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1281" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="B1281" s="25" t="s">
-        <v>149</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1281" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1281" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1281" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E1281" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1281" s="5" t="s">
         <v>10</v>
@@ -35066,16 +35075,13 @@
       <c r="G1281" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1281" s="12">
-        <v>89162191007</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1282" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1282" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1282" s="24" t="s">
-        <v>150</v>
+        <v>707</v>
+      </c>
+      <c r="B1282" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1282" s="5" t="s">
         <v>11</v>
@@ -35084,7 +35090,7 @@
         <v>18</v>
       </c>
       <c r="E1282" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1282" s="5" t="s">
         <v>8</v>
@@ -35093,21 +35099,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1283" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1283" s="14" t="s">
-        <v>754</v>
-      </c>
-      <c r="B1283" s="24" t="s">
-        <v>150</v>
+    <row r="1283" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1283" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1283" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1283" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1283" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E1283" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F1283" s="5" t="s">
         <v>10</v>
@@ -35116,38 +35122,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1284" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1284" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="B1284" s="23" t="s">
-        <v>140</v>
+    <row r="1284" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1284" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B1284" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1284" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E1284" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F1284" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1284" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1285" s="5" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B1285" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1285" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1285" s="5" t="s">
         <v>7</v>
@@ -35162,12 +35168,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1286" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1286" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="B1286" s="22" t="s">
-        <v>181</v>
+        <v>804</v>
+      </c>
+      <c r="B1286" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1286" s="5" t="s">
         <v>6</v>
@@ -35176,41 +35182,41 @@
         <v>7</v>
       </c>
       <c r="E1286" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1286" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1286" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1287" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="B1287" s="22" t="s">
-        <v>181</v>
+        <v>805</v>
+      </c>
+      <c r="B1287" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1287" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1287" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1287" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1287" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1287" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1288" s="5" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B1288" s="19" t="s">
         <v>224</v>
@@ -35219,7 +35225,7 @@
         <v>6</v>
       </c>
       <c r="D1288" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1288" s="5" t="s">
         <v>13</v>
@@ -35231,9 +35237,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1289" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1289" s="5" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B1289" s="19" t="s">
         <v>224</v>
@@ -35245,18 +35251,18 @@
         <v>12</v>
       </c>
       <c r="E1289" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1289" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1289" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1290" s="5" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B1290" s="19" t="s">
         <v>224</v>
@@ -35268,7 +35274,7 @@
         <v>9</v>
       </c>
       <c r="E1290" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1290" s="5" t="s">
         <v>8</v>
@@ -35277,136 +35283,136 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1291" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1291" s="5" t="s">
-        <v>807</v>
+        <v>622</v>
       </c>
       <c r="B1291" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C1291" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1291" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1291" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1291" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1291" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1292" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="B1292" s="19" t="s">
+        <v>809</v>
+      </c>
+      <c r="B1292" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1292" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1292" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1292" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1292" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1292" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1293" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B1293" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1293" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1293" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1293" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1293" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1293" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1294" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1294" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1294" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1294" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1294" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1294" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1294" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1295" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B1295" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C1292" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1292" s="5" t="s">
+      <c r="C1295" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1295" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="E1292" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1292" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1292" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1293" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B1293" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1293" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1293" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1293" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1293" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1293" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1294" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="B1294" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1294" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1294" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1294" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1294" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1294" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1295" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="B1295" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1295" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1295" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="E1295" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1295" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1295" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1296" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1296" s="23" t="s">
-        <v>140</v>
+        <v>802</v>
+      </c>
+      <c r="B1296" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1296" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1296" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1296" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1296" s="5" t="s">
         <v>8</v>
@@ -35417,16 +35423,16 @@
     </row>
     <row r="1297" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1297" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="B1297" s="19" t="s">
-        <v>224</v>
+        <v>812</v>
+      </c>
+      <c r="B1297" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1297" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1297" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1297" s="5" t="s">
         <v>15</v>
@@ -35440,65 +35446,65 @@
     </row>
     <row r="1298" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1298" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="B1298" s="19" t="s">
-        <v>224</v>
+        <v>709</v>
+      </c>
+      <c r="B1298" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1298" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1298" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1298" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1298" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1298" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1299" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1299" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="B1299" s="22" t="s">
-        <v>181</v>
+        <v>708</v>
+      </c>
+      <c r="B1299" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1299" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1299" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1299" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1299" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1299" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1300" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1300" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="B1300" s="23" t="s">
-        <v>140</v>
+        <v>801</v>
+      </c>
+      <c r="B1300" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1300" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1300" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1300" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1300" s="5" t="s">
         <v>10</v>
@@ -35509,19 +35515,19 @@
     </row>
     <row r="1301" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1301" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="B1301" s="23" t="s">
-        <v>140</v>
+        <v>813</v>
+      </c>
+      <c r="B1301" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="C1301" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1301" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E1301" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1301" s="5" t="s">
         <v>8</v>
@@ -35532,19 +35538,19 @@
     </row>
     <row r="1302" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1302" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="B1302" s="24" t="s">
-        <v>150</v>
+        <v>814</v>
+      </c>
+      <c r="B1302" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1302" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1302" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E1302" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F1302" s="5" t="s">
         <v>10</v>
@@ -35552,12 +35558,13 @@
       <c r="G1302" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="H1302" s="5"/>
     </row>
     <row r="1303" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1303" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="B1303" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1303" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C1303" s="5" t="s">
@@ -35575,22 +35582,23 @@
       <c r="G1303" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="H1303" s="5"/>
     </row>
     <row r="1304" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1304" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="B1304" s="22" t="s">
-        <v>181</v>
+      <c r="A1304" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1304" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1304" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1304" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E1304" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F1304" s="5" t="s">
         <v>10</v>
@@ -35602,10 +35610,10 @@
     </row>
     <row r="1305" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1305" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="B1305" s="22" t="s">
-        <v>181</v>
+        <v>816</v>
+      </c>
+      <c r="B1305" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1305" s="5" t="s">
         <v>11</v>
@@ -35617,66 +35625,70 @@
         <v>15</v>
       </c>
       <c r="F1305" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1305" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1305" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="H1305" s="28">
+        <v>89153208933</v>
+      </c>
     </row>
     <row r="1306" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1306" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="B1306" s="23" t="s">
-        <v>140</v>
+      <c r="A1306" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="B1306" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1306" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1306" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E1306" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1306" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1306" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1306" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="H1306" s="28">
+        <v>89165510593</v>
+      </c>
     </row>
     <row r="1307" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1307" s="5" t="s">
-        <v>816</v>
+      <c r="A1307" s="14" t="s">
+        <v>774</v>
       </c>
       <c r="B1307" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1307" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1307" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1307" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1307" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1307" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1307" s="28">
-        <v>89153208933</v>
+        <v>89182262765</v>
       </c>
     </row>
     <row r="1308" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1308" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B1308" s="25" t="s">
         <v>149</v>
@@ -35685,24 +35697,24 @@
         <v>6</v>
       </c>
       <c r="D1308" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1308" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1308" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1308" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1308" s="28">
-        <v>89165510593</v>
+        <v>89168473561</v>
       </c>
     </row>
     <row r="1309" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1309" s="14" t="s">
-        <v>774</v>
+      <c r="A1309" s="5" t="s">
+        <v>819</v>
       </c>
       <c r="B1309" s="25" t="s">
         <v>149</v>
@@ -35711,24 +35723,24 @@
         <v>6</v>
       </c>
       <c r="D1309" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1309" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1309" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1309" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1309" s="28">
-        <v>89182262765</v>
+        <v>89150584037</v>
       </c>
     </row>
     <row r="1310" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1310" s="5" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B1310" s="25" t="s">
         <v>149</v>
@@ -35737,24 +35749,24 @@
         <v>6</v>
       </c>
       <c r="D1310" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1310" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1310" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1310" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1310" s="28">
-        <v>89168473561</v>
+        <v>89153202768</v>
       </c>
     </row>
     <row r="1311" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1311" s="5" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B1311" s="25" t="s">
         <v>149</v>
@@ -35763,24 +35775,24 @@
         <v>6</v>
       </c>
       <c r="D1311" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1311" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1311" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1311" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1311" s="28">
-        <v>89150584037</v>
+        <v>89105254085</v>
       </c>
     </row>
     <row r="1312" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1312" s="5" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B1312" s="25" t="s">
         <v>149</v>
@@ -35789,36 +35801,36 @@
         <v>6</v>
       </c>
       <c r="D1312" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1312" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1312" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1312" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1312" s="28">
-        <v>89153202768</v>
+        <v>89153015069</v>
       </c>
     </row>
     <row r="1313" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1313" s="5" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B1313" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1313" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1313" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1313" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1313" s="5" t="s">
         <v>8</v>
@@ -35827,21 +35839,21 @@
         <v>10</v>
       </c>
       <c r="H1313" s="28">
-        <v>89105254085</v>
+        <v>89154525757</v>
       </c>
     </row>
     <row r="1314" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1314" s="5" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B1314" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1314" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1314" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1314" s="5" t="s">
         <v>15</v>
@@ -35853,12 +35865,12 @@
         <v>8</v>
       </c>
       <c r="H1314" s="28">
-        <v>89153015069</v>
+        <v>89961223478</v>
       </c>
     </row>
     <row r="1315" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1315" s="5" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B1315" s="25" t="s">
         <v>149</v>
@@ -35867,24 +35879,24 @@
         <v>11</v>
       </c>
       <c r="D1315" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1315" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1315" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1315" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1315" s="28">
-        <v>89154525757</v>
+        <v>89259085751</v>
       </c>
     </row>
     <row r="1316" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1316" s="5" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B1316" s="25" t="s">
         <v>149</v>
@@ -35893,7 +35905,7 @@
         <v>11</v>
       </c>
       <c r="D1316" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1316" s="5" t="s">
         <v>15</v>
@@ -35905,12 +35917,12 @@
         <v>8</v>
       </c>
       <c r="H1316" s="28">
-        <v>89961223478</v>
+        <v>89105441724</v>
       </c>
     </row>
     <row r="1317" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1317" s="5" t="s">
-        <v>825</v>
+      <c r="A1317" s="14" t="s">
+        <v>801</v>
       </c>
       <c r="B1317" s="25" t="s">
         <v>149</v>
@@ -35919,10 +35931,10 @@
         <v>11</v>
       </c>
       <c r="D1317" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1317" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1317" s="5" t="s">
         <v>10</v>
@@ -35931,21 +35943,21 @@
         <v>8</v>
       </c>
       <c r="H1317" s="28">
-        <v>89259085751</v>
+        <v>89250063537</v>
       </c>
     </row>
     <row r="1318" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1318" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="B1318" s="25" t="s">
-        <v>149</v>
+        <v>827</v>
+      </c>
+      <c r="B1318" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1318" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1318" s="5" t="s">
         <v>15</v>
@@ -35956,22 +35968,19 @@
       <c r="G1318" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1318" s="28">
-        <v>89105441724</v>
-      </c>
     </row>
     <row r="1319" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1319" s="14" t="s">
-        <v>801</v>
-      </c>
-      <c r="B1319" s="25" t="s">
-        <v>149</v>
+        <v>639</v>
+      </c>
+      <c r="B1319" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1319" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1319" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1319" s="5" t="s">
         <v>14</v>
@@ -35982,25 +35991,22 @@
       <c r="G1319" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1319" s="28">
-        <v>89250063537</v>
-      </c>
     </row>
     <row r="1320" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1320" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="B1320" s="19" t="s">
-        <v>224</v>
+        <v>337</v>
+      </c>
+      <c r="B1320" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1320" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1320" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1320" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1320" s="5" t="s">
         <v>10</v>
@@ -36010,43 +36016,43 @@
       </c>
     </row>
     <row r="1321" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1321" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="B1321" s="22" t="s">
-        <v>181</v>
+      <c r="A1321" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1321" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1321" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1321" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E1321" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1321" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1321" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1322" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1322" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1322" s="24" t="s">
-        <v>150</v>
+        <v>828</v>
+      </c>
+      <c r="B1322" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C1322" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1322" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E1322" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1322" s="5" t="s">
         <v>10</v>
@@ -36057,65 +36063,65 @@
     </row>
     <row r="1323" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1323" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B1323" s="24" t="s">
-        <v>150</v>
+        <v>829</v>
+      </c>
+      <c r="B1323" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1323" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1323" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1323" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F1323" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1323" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1324" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1324" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="B1324" s="22" t="s">
-        <v>181</v>
+        <v>830</v>
+      </c>
+      <c r="B1324" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1324" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1324" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1324" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1324" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1324" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1325" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1325" s="5" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B1325" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C1325" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1325" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1325" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1325" s="5" t="s">
         <v>10</v>
@@ -36126,42 +36132,42 @@
     </row>
     <row r="1326" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1326" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="B1326" s="19" t="s">
-        <v>224</v>
+        <v>334</v>
+      </c>
+      <c r="B1326" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1326" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1326" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1326" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F1326" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1326" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1327" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1327" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="B1327" s="19" t="s">
-        <v>224</v>
+      <c r="A1327" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1327" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1327" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1327" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E1327" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1327" s="5" t="s">
         <v>10</v>
@@ -36172,19 +36178,19 @@
     </row>
     <row r="1328" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1328" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1328" s="23" t="s">
-        <v>140</v>
+        <v>755</v>
+      </c>
+      <c r="B1328" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C1328" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1328" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1328" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1328" s="5" t="s">
         <v>10</v>
@@ -36194,8 +36200,8 @@
       </c>
     </row>
     <row r="1329" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1329" s="14" t="s">
-        <v>801</v>
+      <c r="A1329" s="5" t="s">
+        <v>608</v>
       </c>
       <c r="B1329" s="23" t="s">
         <v>140</v>
@@ -36207,7 +36213,7 @@
         <v>16</v>
       </c>
       <c r="E1329" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1329" s="5" t="s">
         <v>10</v>
@@ -36215,147 +36221,153 @@
       <c r="G1329" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="H1329" s="14"/>
     </row>
     <row r="1330" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1330" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="B1330" s="24" t="s">
-        <v>150</v>
+      <c r="A1330" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="B1330" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1330" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1330" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1330" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1330" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G1330" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="H1330" s="28">
+        <v>89134787213</v>
       </c>
     </row>
     <row r="1331" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1331" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="B1331" s="23" t="s">
-        <v>140</v>
+        <v>832</v>
+      </c>
+      <c r="B1331" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C1331" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1331" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E1331" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1331" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1331" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1331" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="H1331" s="28">
+        <v>89819501324</v>
+      </c>
     </row>
     <row r="1332" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1332" s="14" t="s">
-        <v>831</v>
+        <v>777</v>
       </c>
       <c r="B1332" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1332" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1332" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1332" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1332" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1332" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1332" s="28">
-        <v>89134787213</v>
+        <v>89168249447</v>
       </c>
     </row>
     <row r="1333" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1333" s="5" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B1333" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1333" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1333" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1333" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1333" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1333" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1333" s="28">
-        <v>89819501324</v>
+        <v>89197223141</v>
       </c>
     </row>
     <row r="1334" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1334" s="14" t="s">
-        <v>777</v>
+      <c r="A1334" s="5" t="s">
+        <v>834</v>
       </c>
       <c r="B1334" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C1334" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1334" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E1334" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1334" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1334" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1334" s="28">
-        <v>89168249447</v>
+        <v>8</v>
+      </c>
+      <c r="H1334" s="12">
+        <v>89044445083</v>
       </c>
     </row>
     <row r="1335" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1335" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="B1335" s="25" t="s">
-        <v>149</v>
+      <c r="A1335" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1335" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C1335" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1335" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E1335" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1335" s="5" t="s">
         <v>10</v>
@@ -36363,34 +36375,154 @@
       <c r="G1335" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1335" s="28">
-        <v>89197223141</v>
-      </c>
+      <c r="H1335" s="14"/>
     </row>
     <row r="1336" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1336" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="B1336" s="25" t="s">
-        <v>149</v>
+        <v>835</v>
+      </c>
+      <c r="B1336" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C1336" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1336" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1336" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1336" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1336" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1336" s="12">
-        <v>89044445083</v>
+        <v>10</v>
+      </c>
+      <c r="H1336" s="14"/>
+    </row>
+    <row r="1337" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1337" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1337" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1337" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1337" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1337" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1337" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1337" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1337" s="14"/>
+    </row>
+    <row r="1338" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1338" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1338" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1338" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1338" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1338" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1338" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1338" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1338" s="5"/>
+    </row>
+    <row r="1339" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1339" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B1339" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1339" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1339" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1339" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1339" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1339" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1339" s="5"/>
+    </row>
+    <row r="1340" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1340" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B1340" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1340" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1340" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1340" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1340" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1340" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1340" s="28">
+        <v>89149066211</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1341" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B1341" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1341" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1341" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1341" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1341" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1341" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1341" s="28">
+        <v>89117192363</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5EC7B4-FF5A-46C6-A008-4D5EEDBCD0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D597397-CB88-487F-A5AC-982258A7DD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9435" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9442" uniqueCount="839">
   <si>
     <t>ФИО</t>
   </si>
@@ -3957,10 +3957,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1341"/>
+  <dimension ref="A1:H1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1341" sqref="A1:H1341"/>
+    <sheetView tabSelected="1" topLeftCell="A1319" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1342" sqref="A1342:G1342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36523,6 +36523,29 @@
       </c>
       <c r="H1341" s="28">
         <v>89117192363</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1342" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1342" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1342" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1342" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1342" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1342" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1342" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D597397-CB88-487F-A5AC-982258A7DD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF4729-E9EF-4827-9AB3-4B82E3FC5CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9442" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9456" uniqueCount="841">
   <si>
     <t>ФИО</t>
   </si>
@@ -3449,6 +3449,12 @@
   </si>
   <si>
     <t>Курбонова Наталья Викторовна</t>
+  </si>
+  <si>
+    <t>Гасанов Николай Андреевич</t>
+  </si>
+  <si>
+    <t>Михайлова Анна Анатольевна</t>
   </si>
 </sst>
 </file>
@@ -3957,10 +3963,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1342"/>
+  <dimension ref="A1:H1344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1319" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1342" sqref="A1342:G1342"/>
+    <sheetView tabSelected="1" topLeftCell="A1317" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1343" sqref="A1343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36545,6 +36551,52 @@
         <v>10</v>
       </c>
       <c r="G1342" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1343" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1343" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1343" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1343" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1343" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1343" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1343" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1344" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B1344" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1344" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1344" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1344" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1344" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1344" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF4729-E9EF-4827-9AB3-4B82E3FC5CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514473BE-6992-4F27-8E42-5ABBB0FABB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9456" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9484" uniqueCount="845">
   <si>
     <t>ФИО</t>
   </si>
@@ -3455,6 +3455,18 @@
   </si>
   <si>
     <t>Михайлова Анна Анатольевна</t>
+  </si>
+  <si>
+    <t>Цветкова Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Марьина Елизавета Дмитриевна</t>
+  </si>
+  <si>
+    <t>Батырева Наталья Николаевна</t>
+  </si>
+  <si>
+    <t>Кандикова Ольга Викторовна</t>
   </si>
 </sst>
 </file>
@@ -3963,10 +3975,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1344"/>
+  <dimension ref="A1:H1348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1317" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1343" sqref="A1343"/>
+    <sheetView tabSelected="1" topLeftCell="A1335" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1345" sqref="A1345:H1348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36598,6 +36610,110 @@
       </c>
       <c r="G1344" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1345" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B1345" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1345" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1345" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1345" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1345" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1345" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1345" s="28">
+        <v>89119484214</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1346" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1346" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1346" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1346" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1346" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1346" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1346" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1346" s="28">
+        <v>89867433286</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1347" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B1347" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1347" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1347" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1347" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1347" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1347" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1347" s="28">
+        <v>89175265391</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1348" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="B1348" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1348" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1348" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1348" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1348" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1348" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1348" s="28">
+        <v>89139857037</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514473BE-6992-4F27-8E42-5ABBB0FABB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA0C530-BF6D-4FBE-A1FB-881480250563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9484" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9491" uniqueCount="846">
   <si>
     <t>ФИО</t>
   </si>
@@ -3467,6 +3467,9 @@
   </si>
   <si>
     <t>Кандикова Ольга Викторовна</t>
+  </si>
+  <si>
+    <t>Чернова Наталья Юрьевна</t>
   </si>
 </sst>
 </file>
@@ -3547,7 +3550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3632,6 +3635,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF46BDC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3675,7 +3684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3755,6 +3764,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3975,10 +3990,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1348"/>
+  <dimension ref="A1:H1349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1335" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1345" sqref="A1345:H1348"/>
+    <sheetView tabSelected="1" topLeftCell="A1340" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1349" sqref="A1349:H1349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36714,6 +36729,32 @@
       </c>
       <c r="H1348" s="28">
         <v>89139857037</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1349" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="B1349" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1349" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1349" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1349" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1349" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1349" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1349" s="30">
+        <v>89859990938</v>
       </c>
     </row>
   </sheetData>

--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA0C530-BF6D-4FBE-A1FB-881480250563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FAFE9D-0DD5-4625-B766-4A59BC2DD190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9491" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9489" uniqueCount="846">
   <si>
     <t>ФИО</t>
   </si>
@@ -3992,8 +3992,8 @@
   </sheetPr>
   <dimension ref="A1:H1349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1340" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1349" sqref="A1349:H1349"/>
+    <sheetView tabSelected="1" topLeftCell="A792" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A792" sqref="A792:G792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23123,24 +23123,20 @@
       <c r="A792" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B792" s="19" t="s">
+      <c r="B792" s="5" t="s">
         <v>224</v>
       </c>
       <c r="C792" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D792" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E792" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E792" s="5"/>
       <c r="F792" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G792" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G792" s="5"/>
       <c r="H792" s="5"/>
     </row>
     <row r="793" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
